--- a/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A83044E-7689-43AE-82EB-5E158B68D863}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30178FB-5558-4D31-AB0B-5725E20C2A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4044" yWindow="3396" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3183" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 7 منتهی به 1397/07</t>
   </si>
   <si>
     <t>ماه 8 منتهی به 1397/08</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 8 منتهی به 1401/08</t>
+  </si>
+  <si>
+    <t>ماه 9 منتهی به 1401/09</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1528,71 +1528,71 @@
       <c r="X11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y11" s="11" t="s">
-        <v>58</v>
+      <c r="Y11" s="11">
+        <v>6</v>
       </c>
       <c r="Z11" s="11">
+        <v>18</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>34</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>19</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>15</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>17</v>
+      </c>
+      <c r="AH11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AI11" s="11">
         <v>6</v>
       </c>
-      <c r="AA11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>34</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>19</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>15</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>29</v>
-      </c>
-      <c r="AG11" s="11">
+      <c r="AJ11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>40</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>37</v>
+      </c>
+      <c r="AM11" s="11">
         <v>24</v>
       </c>
-      <c r="AH11" s="11">
-        <v>17</v>
-      </c>
-      <c r="AI11" s="11">
+      <c r="AN11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>39</v>
+      </c>
+      <c r="AQ11" s="11">
+        <v>36</v>
+      </c>
+      <c r="AR11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AS11" s="11">
         <v>10</v>
       </c>
-      <c r="AJ11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>37</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>39</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>36</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AT11" s="11">
-        <v>10</v>
+      <c r="AT11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU11" s="11" t="s">
         <v>58</v>
@@ -1687,95 +1687,95 @@
       <c r="X12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y12" s="13" t="s">
-        <v>58</v>
+      <c r="Y12" s="13">
+        <v>569</v>
       </c>
       <c r="Z12" s="13">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="AA12" s="13">
-        <v>472</v>
+        <v>773</v>
       </c>
       <c r="AB12" s="13">
-        <v>773</v>
+        <v>422</v>
       </c>
       <c r="AC12" s="13">
-        <v>422</v>
+        <v>674</v>
       </c>
       <c r="AD12" s="13">
-        <v>674</v>
+        <v>694</v>
       </c>
       <c r="AE12" s="13">
+        <v>514</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>547</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>806</v>
+      </c>
+      <c r="AH12" s="13">
         <v>694</v>
       </c>
-      <c r="AF12" s="13">
-        <v>514</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>547</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>806</v>
-      </c>
       <c r="AI12" s="13">
-        <v>694</v>
+        <v>536</v>
       </c>
       <c r="AJ12" s="13">
-        <v>536</v>
+        <v>859</v>
       </c>
       <c r="AK12" s="13">
-        <v>859</v>
+        <v>661</v>
       </c>
       <c r="AL12" s="13">
-        <v>661</v>
+        <v>538</v>
       </c>
       <c r="AM12" s="13">
-        <v>538</v>
+        <v>550</v>
       </c>
       <c r="AN12" s="13">
-        <v>550</v>
+        <v>345</v>
       </c>
       <c r="AO12" s="13">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="AP12" s="13">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="AQ12" s="13">
-        <v>298</v>
+        <v>356</v>
       </c>
       <c r="AR12" s="13">
-        <v>356</v>
+        <v>344</v>
       </c>
       <c r="AS12" s="13">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="AT12" s="13">
-        <v>343</v>
+        <v>616</v>
       </c>
       <c r="AU12" s="13">
-        <v>616</v>
+        <v>327</v>
       </c>
       <c r="AV12" s="13">
-        <v>327</v>
+        <v>542</v>
       </c>
       <c r="AW12" s="13">
-        <v>542</v>
+        <v>383</v>
       </c>
       <c r="AX12" s="13">
-        <v>383</v>
+        <v>486</v>
       </c>
       <c r="AY12" s="13">
-        <v>486</v>
+        <v>396</v>
       </c>
       <c r="AZ12" s="13">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="BA12" s="13">
-        <v>404</v>
+        <v>417</v>
       </c>
       <c r="BB12" s="13">
-        <v>417</v>
+        <v>317</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1846,95 +1846,95 @@
       <c r="X13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y13" s="11" t="s">
-        <v>58</v>
+      <c r="Y13" s="11">
+        <v>344</v>
       </c>
       <c r="Z13" s="11">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="AA13" s="11">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="AB13" s="11">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="AC13" s="11">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="AD13" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AE13" s="11">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AF13" s="11">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="AG13" s="11">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="AH13" s="11">
-        <v>490</v>
+        <v>639</v>
       </c>
       <c r="AI13" s="11">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="AJ13" s="11">
-        <v>362</v>
+        <v>742</v>
       </c>
       <c r="AK13" s="11">
-        <v>742</v>
+        <v>636</v>
       </c>
       <c r="AL13" s="11">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="AM13" s="11">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AN13" s="11">
-        <v>541</v>
+        <v>408</v>
       </c>
       <c r="AO13" s="11">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="AP13" s="11">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="AQ13" s="11">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AR13" s="11">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AS13" s="11">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="AT13" s="11">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AU13" s="11">
+        <v>343</v>
+      </c>
+      <c r="AV13" s="11">
         <v>468</v>
       </c>
-      <c r="AV13" s="11">
-        <v>343</v>
-      </c>
       <c r="AW13" s="11">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AX13" s="11">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="AY13" s="11">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="AZ13" s="11">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="BA13" s="11">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="BB13" s="11">
-        <v>304</v>
+        <v>285</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -2005,8 +2005,8 @@
       <c r="X14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y14" s="13" t="s">
-        <v>58</v>
+      <c r="Y14" s="13">
+        <v>0</v>
       </c>
       <c r="Z14" s="13">
         <v>0</v>
@@ -2015,61 +2015,61 @@
         <v>0</v>
       </c>
       <c r="AB14" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AC14" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AD14" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AE14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="13">
         <v>3</v>
       </c>
-      <c r="AF14" s="13">
-        <v>2</v>
-      </c>
       <c r="AG14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AH14" s="13">
         <v>3</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>0</v>
       </c>
       <c r="AI14" s="13">
         <v>3</v>
       </c>
       <c r="AJ14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN14" s="13">
+        <v>4</v>
+      </c>
+      <c r="AO14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP14" s="13">
         <v>3</v>
       </c>
-      <c r="AK14" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AN14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AO14" s="13">
+      <c r="AQ14" s="13">
         <v>4</v>
-      </c>
-      <c r="AP14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AQ14" s="13">
-        <v>3</v>
       </c>
       <c r="AR14" s="13">
         <v>4</v>
       </c>
       <c r="AS14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT14" s="13">
         <v>2</v>
+      </c>
+      <c r="AT14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU14" s="13" t="s">
         <v>58</v>
@@ -2164,95 +2164,95 @@
       <c r="X15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y15" s="11" t="s">
-        <v>58</v>
+      <c r="Y15" s="11">
+        <v>170</v>
       </c>
       <c r="Z15" s="11">
+        <v>158</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>189</v>
+      </c>
+      <c r="AB15" s="11">
         <v>170</v>
       </c>
-      <c r="AA15" s="11">
-        <v>158</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>189</v>
-      </c>
       <c r="AC15" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="AD15" s="11">
+        <v>176</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>138</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>136</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>138</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>214</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>140</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>207</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>149</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>186</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AP15" s="11">
         <v>169</v>
       </c>
-      <c r="AE15" s="11">
-        <v>176</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>138</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>136</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>138</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>214</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>207</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>149</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>186</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AP15" s="11">
+      <c r="AQ15" s="11">
+        <v>119</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>141</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AT15" s="11">
         <v>177</v>
       </c>
-      <c r="AQ15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>119</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>141</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>200</v>
-      </c>
       <c r="AU15" s="11">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="AV15" s="11">
-        <v>243</v>
+        <v>270</v>
       </c>
       <c r="AW15" s="11">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AX15" s="11">
-        <v>268</v>
+        <v>235</v>
       </c>
       <c r="AY15" s="11">
-        <v>235</v>
+        <v>263</v>
       </c>
       <c r="AZ15" s="11">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="BA15" s="11">
-        <v>259</v>
+        <v>285</v>
       </c>
       <c r="BB15" s="11">
-        <v>285</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2323,95 +2323,95 @@
       <c r="X16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y16" s="13" t="s">
-        <v>58</v>
+      <c r="Y16" s="13">
+        <v>134</v>
       </c>
       <c r="Z16" s="13">
+        <v>1168</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>133</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>261</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>242</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>47</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>187</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>243</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>207</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>316</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>83</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>63</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>305</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>93</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>74</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>259</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>120</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>177</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>167</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>377</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>180</v>
+      </c>
+      <c r="AU16" s="13">
+        <v>217</v>
+      </c>
+      <c r="AV16" s="13">
+        <v>249</v>
+      </c>
+      <c r="AW16" s="13">
         <v>134</v>
       </c>
-      <c r="AA16" s="13">
-        <v>1168</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>133</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>261</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>242</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>47</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>187</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>243</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>207</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>316</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>83</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>63</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>305</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>93</v>
-      </c>
-      <c r="AN16" s="13">
+      <c r="AX16" s="13">
+        <v>107</v>
+      </c>
+      <c r="AY16" s="13">
+        <v>53</v>
+      </c>
+      <c r="AZ16" s="13">
         <v>74</v>
       </c>
-      <c r="AO16" s="13">
-        <v>259</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>120</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>177</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>167</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>377</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>180</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>217</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>249</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>134</v>
-      </c>
-      <c r="AY16" s="13">
-        <v>107</v>
-      </c>
-      <c r="AZ16" s="13">
-        <v>53</v>
-      </c>
       <c r="BA16" s="13">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="BB16" s="13">
-        <v>231</v>
+        <v>116</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2482,95 +2482,95 @@
       <c r="X17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y17" s="11" t="s">
-        <v>58</v>
+      <c r="Y17" s="11">
+        <v>2598</v>
       </c>
       <c r="Z17" s="11">
-        <v>2598</v>
+        <v>2326</v>
       </c>
       <c r="AA17" s="11">
-        <v>2326</v>
+        <v>2745</v>
       </c>
       <c r="AB17" s="11">
-        <v>2745</v>
+        <v>2569</v>
       </c>
       <c r="AC17" s="11">
-        <v>2569</v>
+        <v>2685</v>
       </c>
       <c r="AD17" s="11">
-        <v>2685</v>
+        <v>2809</v>
       </c>
       <c r="AE17" s="11">
-        <v>2809</v>
+        <v>2422</v>
       </c>
       <c r="AF17" s="11">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="AG17" s="11">
-        <v>2426</v>
+        <v>2195</v>
       </c>
       <c r="AH17" s="11">
-        <v>2195</v>
+        <v>2242</v>
       </c>
       <c r="AI17" s="11">
-        <v>2242</v>
+        <v>2171</v>
       </c>
       <c r="AJ17" s="11">
-        <v>2171</v>
+        <v>2532</v>
       </c>
       <c r="AK17" s="11">
-        <v>2532</v>
+        <v>2411</v>
       </c>
       <c r="AL17" s="11">
-        <v>2411</v>
+        <v>2329</v>
       </c>
       <c r="AM17" s="11">
-        <v>2329</v>
+        <v>2280</v>
       </c>
       <c r="AN17" s="11">
-        <v>2280</v>
+        <v>2054</v>
       </c>
       <c r="AO17" s="11">
-        <v>2054</v>
+        <v>2318</v>
       </c>
       <c r="AP17" s="11">
-        <v>2318</v>
+        <v>2186</v>
       </c>
       <c r="AQ17" s="11">
-        <v>2186</v>
+        <v>2291</v>
       </c>
       <c r="AR17" s="11">
-        <v>2291</v>
+        <v>2375</v>
       </c>
       <c r="AS17" s="11">
-        <v>2375</v>
+        <v>2295</v>
       </c>
       <c r="AT17" s="11">
-        <v>2295</v>
+        <v>2188</v>
       </c>
       <c r="AU17" s="11">
-        <v>2188</v>
+        <v>2390</v>
       </c>
       <c r="AV17" s="11">
-        <v>2390</v>
+        <v>2358</v>
       </c>
       <c r="AW17" s="11">
-        <v>2358</v>
+        <v>1806</v>
       </c>
       <c r="AX17" s="11">
-        <v>1806</v>
+        <v>1856</v>
       </c>
       <c r="AY17" s="11">
-        <v>1856</v>
+        <v>2201</v>
       </c>
       <c r="AZ17" s="11">
-        <v>2201</v>
+        <v>2139</v>
       </c>
       <c r="BA17" s="11">
-        <v>2139</v>
+        <v>2529</v>
       </c>
       <c r="BB17" s="11">
-        <v>2529</v>
+        <v>2540</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2704,32 +2704,32 @@
       <c r="AS18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT18" s="13" t="s">
-        <v>58</v>
+      <c r="AT18" s="13">
+        <v>229</v>
       </c>
       <c r="AU18" s="13">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AV18" s="13">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="AW18" s="13">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AX18" s="13">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AY18" s="13">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="AZ18" s="13">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="BA18" s="13">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="BB18" s="13">
-        <v>185</v>
+        <v>235</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2800,71 +2800,71 @@
       <c r="X19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y19" s="11" t="s">
-        <v>58</v>
+      <c r="Y19" s="11">
+        <v>265</v>
       </c>
       <c r="Z19" s="11">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="AA19" s="11">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="AB19" s="11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="AC19" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="AD19" s="11">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="AE19" s="11">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="AF19" s="11">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AG19" s="11">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="AH19" s="11">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="AI19" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AJ19" s="11">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="AK19" s="11">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AL19" s="11">
+        <v>179</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>149</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>192</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>162</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>150</v>
+      </c>
+      <c r="AQ19" s="11">
+        <v>172</v>
+      </c>
+      <c r="AR19" s="11">
+        <v>152</v>
+      </c>
+      <c r="AS19" s="11">
         <v>143</v>
       </c>
-      <c r="AM19" s="11">
-        <v>179</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>149</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>192</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>162</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>150</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>172</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>152</v>
-      </c>
-      <c r="AT19" s="11">
-        <v>143</v>
+      <c r="AT19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU19" s="11" t="s">
         <v>58</v>
@@ -2959,71 +2959,71 @@
       <c r="X20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y20" s="13" t="s">
-        <v>58</v>
+      <c r="Y20" s="13">
+        <v>1</v>
       </c>
       <c r="Z20" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="AA20" s="13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="AB20" s="13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="AC20" s="13">
+        <v>19</v>
+      </c>
+      <c r="AD20" s="13">
+        <v>6</v>
+      </c>
+      <c r="AE20" s="13">
         <v>13</v>
       </c>
-      <c r="AD20" s="13">
-        <v>19</v>
-      </c>
-      <c r="AE20" s="13">
+      <c r="AF20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>31</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>4</v>
+      </c>
+      <c r="AI20" s="13">
         <v>6</v>
       </c>
-      <c r="AF20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AG20" s="13">
+      <c r="AJ20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>15</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>10</v>
+      </c>
+      <c r="AN20" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO20" s="13">
         <v>8</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>31</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>4</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>6</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>15</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>10</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>3</v>
       </c>
       <c r="AP20" s="13">
         <v>8</v>
       </c>
       <c r="AQ20" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AR20" s="13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AS20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AT20" s="13">
         <v>6</v>
+      </c>
+      <c r="AT20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU20" s="13" t="s">
         <v>58</v>
@@ -3118,95 +3118,95 @@
       <c r="X21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y21" s="11" t="s">
-        <v>58</v>
+      <c r="Y21" s="11">
+        <v>103</v>
       </c>
       <c r="Z21" s="11">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="AA21" s="11">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="AB21" s="11">
+        <v>66</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>91</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>132</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>126</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>167</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>154</v>
+      </c>
+      <c r="AH21" s="11">
+        <v>164</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>152</v>
+      </c>
+      <c r="AJ21" s="11">
         <v>101</v>
       </c>
-      <c r="AC21" s="11">
-        <v>66</v>
-      </c>
-      <c r="AD21" s="11">
+      <c r="AK21" s="11">
+        <v>61</v>
+      </c>
+      <c r="AL21" s="11">
         <v>91</v>
       </c>
-      <c r="AE21" s="11">
-        <v>132</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>126</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>167</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>154</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>164</v>
-      </c>
-      <c r="AJ21" s="11">
+      <c r="AM21" s="11">
+        <v>84</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>71</v>
+      </c>
+      <c r="AO21" s="11">
+        <v>95</v>
+      </c>
+      <c r="AP21" s="11">
+        <v>142</v>
+      </c>
+      <c r="AQ21" s="11">
         <v>152</v>
       </c>
-      <c r="AK21" s="11">
-        <v>101</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>61</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>91</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>84</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>71</v>
-      </c>
-      <c r="AP21" s="11">
-        <v>95</v>
-      </c>
-      <c r="AQ21" s="11">
-        <v>142</v>
-      </c>
       <c r="AR21" s="11">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AS21" s="11">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AT21" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AU21" s="11">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="AV21" s="11">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AW21" s="11">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AX21" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AY21" s="11">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="AZ21" s="11">
-        <v>146</v>
+        <v>120</v>
       </c>
       <c r="BA21" s="11">
-        <v>120</v>
+        <v>143</v>
       </c>
       <c r="BB21" s="11">
-        <v>143</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3277,95 +3277,95 @@
       <c r="X22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y22" s="13" t="s">
-        <v>58</v>
+      <c r="Y22" s="13">
+        <v>0</v>
       </c>
       <c r="Z22" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AA22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>24</v>
+      </c>
+      <c r="AK22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AS22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AU22" s="13">
         <v>3</v>
       </c>
-      <c r="AB22" s="13">
+      <c r="AV22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AW22" s="13">
         <v>2</v>
       </c>
-      <c r="AC22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK22" s="13">
-        <v>24</v>
-      </c>
-      <c r="AL22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AM22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AQ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV22" s="13">
+      <c r="AX22" s="13">
+        <v>4</v>
+      </c>
+      <c r="AY22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AZ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="BA22" s="13">
         <v>3</v>
       </c>
-      <c r="AW22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AX22" s="13">
+      <c r="BB22" s="13">
         <v>2</v>
-      </c>
-      <c r="AY22" s="13">
-        <v>4</v>
-      </c>
-      <c r="AZ22" s="13">
-        <v>2</v>
-      </c>
-      <c r="BA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3436,8 +3436,8 @@
       <c r="X23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y23" s="11" t="s">
-        <v>58</v>
+      <c r="Y23" s="11">
+        <v>0</v>
       </c>
       <c r="Z23" s="11">
         <v>0</v>
@@ -3463,8 +3463,8 @@
       <c r="AG23" s="11">
         <v>0</v>
       </c>
-      <c r="AH23" s="11">
-        <v>0</v>
+      <c r="AH23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI23" s="11" t="s">
         <v>58</v>
@@ -3595,8 +3595,8 @@
       <c r="X24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y24" s="13" t="s">
-        <v>58</v>
+      <c r="Y24" s="13">
+        <v>0</v>
       </c>
       <c r="Z24" s="13">
         <v>0</v>
@@ -3625,17 +3625,17 @@
       <c r="AH24" s="13">
         <v>0</v>
       </c>
-      <c r="AI24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ24" s="13" t="s">
-        <v>58</v>
+      <c r="AI24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ24" s="13">
+        <v>0</v>
       </c>
       <c r="AK24" s="13">
         <v>0</v>
       </c>
-      <c r="AL24" s="13">
-        <v>0</v>
+      <c r="AL24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM24" s="13" t="s">
         <v>58</v>
@@ -3643,11 +3643,11 @@
       <c r="AN24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP24" s="13">
-        <v>0</v>
+      <c r="AO24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AQ24" s="13" t="s">
         <v>58</v>
@@ -3655,17 +3655,17 @@
       <c r="AR24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT24" s="13" t="s">
-        <v>58</v>
+      <c r="AS24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT24" s="13">
+        <v>6</v>
       </c>
       <c r="AU24" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AV24" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AW24" s="13">
         <v>0</v>
@@ -3674,16 +3674,16 @@
         <v>0</v>
       </c>
       <c r="AY24" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AZ24" s="13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="BA24" s="13">
         <v>2</v>
       </c>
       <c r="BB24" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3753,94 +3753,94 @@
         <v>0</v>
       </c>
       <c r="Y25" s="15">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="Z25" s="15">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="AA25" s="15">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="AB25" s="15">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="AC25" s="15">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="AD25" s="15">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="AE25" s="15">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AF25" s="15">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AG25" s="15">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AH25" s="15">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AI25" s="15">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AJ25" s="15">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AK25" s="15">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AL25" s="15">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AM25" s="15">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AN25" s="15">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AO25" s="15">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AP25" s="15">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AQ25" s="15">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AR25" s="15">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AS25" s="15">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AT25" s="15">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AU25" s="15">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AV25" s="15">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AW25" s="15">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AX25" s="15">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AY25" s="15">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="BA25" s="15">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="BB25" s="15">
-        <v>4099</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4034,14 +4034,14 @@
       <c r="AT27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV27" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW27" s="11" t="s">
-        <v>58</v>
+      <c r="AU27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV27" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW27" s="11">
+        <v>0</v>
       </c>
       <c r="AX27" s="11">
         <v>0</v>
@@ -4193,14 +4193,14 @@
       <c r="AT28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV28" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW28" s="13" t="s">
-        <v>58</v>
+      <c r="AU28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV28" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW28" s="13">
+        <v>0</v>
       </c>
       <c r="AX28" s="13">
         <v>0</v>
@@ -4352,14 +4352,14 @@
       <c r="AT29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV29" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW29" s="11" t="s">
-        <v>58</v>
+      <c r="AU29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV29" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW29" s="11">
+        <v>0</v>
       </c>
       <c r="AX29" s="11">
         <v>0</v>
@@ -4511,14 +4511,14 @@
       <c r="AT30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV30" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW30" s="13" t="s">
-        <v>58</v>
+      <c r="AU30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV30" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW30" s="13">
+        <v>0</v>
       </c>
       <c r="AX30" s="13">
         <v>0</v>
@@ -4664,8 +4664,8 @@
       <c r="AR31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS31" s="11" t="s">
-        <v>58</v>
+      <c r="AS31" s="11">
+        <v>0</v>
       </c>
       <c r="AT31" s="11" t="s">
         <v>58</v>
@@ -4829,14 +4829,14 @@
       <c r="AT32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV32" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW32" s="13" t="s">
-        <v>58</v>
+      <c r="AU32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV32" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW32" s="13">
+        <v>0</v>
       </c>
       <c r="AX32" s="13">
         <v>0</v>
@@ -5134,8 +5134,8 @@
       <c r="X35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y35" s="15" t="s">
-        <v>58</v>
+      <c r="Y35" s="15">
+        <v>0</v>
       </c>
       <c r="Z35" s="15">
         <v>0</v>
@@ -5292,94 +5292,94 @@
         <v>0</v>
       </c>
       <c r="Y36" s="19">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="Z36" s="19">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="AA36" s="19">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="AB36" s="19">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="AC36" s="19">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="AD36" s="19">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="AE36" s="19">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AF36" s="19">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AG36" s="19">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AH36" s="19">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AI36" s="19">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AJ36" s="19">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AK36" s="19">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AL36" s="19">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AM36" s="19">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AN36" s="19">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AO36" s="19">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AP36" s="19">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AQ36" s="19">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AR36" s="19">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AS36" s="19">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AT36" s="19">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AU36" s="19">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AV36" s="19">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AW36" s="19">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AX36" s="19">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AY36" s="19">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AZ36" s="19">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="BA36" s="19">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="BB36" s="19">
-        <v>4099</v>
+        <v>4011</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5884,71 +5884,71 @@
       <c r="X43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y43" s="11" t="s">
-        <v>58</v>
+      <c r="Y43" s="11">
+        <v>2</v>
       </c>
       <c r="Z43" s="11">
         <v>2</v>
       </c>
       <c r="AA43" s="11">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="AB43" s="11">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="AC43" s="11">
+        <v>26</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AE43" s="11">
+        <v>26</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AG43" s="11">
         <v>30</v>
       </c>
-      <c r="AD43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AE43" s="11">
+      <c r="AH43" s="11">
+        <v>31</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>3</v>
+      </c>
+      <c r="AJ43" s="11">
         <v>5</v>
-      </c>
-      <c r="AF43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>30</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>31</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>3</v>
       </c>
       <c r="AK43" s="11">
         <v>5</v>
       </c>
       <c r="AL43" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AM43" s="11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AN43" s="11">
+        <v>26</v>
+      </c>
+      <c r="AO43" s="11">
+        <v>51</v>
+      </c>
+      <c r="AP43" s="11">
+        <v>8</v>
+      </c>
+      <c r="AQ43" s="11">
         <v>1</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AP43" s="11">
-        <v>51</v>
-      </c>
-      <c r="AQ43" s="11">
-        <v>8</v>
       </c>
       <c r="AR43" s="11">
         <v>1</v>
       </c>
       <c r="AS43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AT43" s="11">
         <v>6</v>
+      </c>
+      <c r="AT43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU43" s="11" t="s">
         <v>58</v>
@@ -6043,95 +6043,95 @@
       <c r="X44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y44" s="13" t="s">
-        <v>58</v>
+      <c r="Y44" s="13">
+        <v>571</v>
       </c>
       <c r="Z44" s="13">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="AA44" s="13">
-        <v>512</v>
+        <v>736</v>
       </c>
       <c r="AB44" s="13">
-        <v>736</v>
+        <v>466</v>
       </c>
       <c r="AC44" s="13">
-        <v>466</v>
+        <v>599</v>
       </c>
       <c r="AD44" s="13">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="AE44" s="13">
-        <v>698</v>
+        <v>511</v>
       </c>
       <c r="AF44" s="13">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="AG44" s="13">
+        <v>803</v>
+      </c>
+      <c r="AH44" s="13">
+        <v>642</v>
+      </c>
+      <c r="AI44" s="13">
         <v>612</v>
       </c>
-      <c r="AH44" s="13">
-        <v>803</v>
-      </c>
-      <c r="AI44" s="13">
-        <v>642</v>
-      </c>
       <c r="AJ44" s="13">
-        <v>612</v>
+        <v>796</v>
       </c>
       <c r="AK44" s="13">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="AL44" s="13">
-        <v>678</v>
+        <v>524</v>
       </c>
       <c r="AM44" s="13">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="AN44" s="13">
-        <v>575</v>
+        <v>322</v>
       </c>
       <c r="AO44" s="13">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AP44" s="13">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AQ44" s="13">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AR44" s="13">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AS44" s="13">
         <v>353</v>
       </c>
       <c r="AT44" s="13">
-        <v>353</v>
+        <v>537</v>
       </c>
       <c r="AU44" s="13">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="AV44" s="13">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="AW44" s="13">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AX44" s="13">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="AY44" s="13">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="AZ44" s="13">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="BA44" s="13">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="BB44" s="13">
-        <v>421</v>
+        <v>359</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6202,95 +6202,95 @@
       <c r="X45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y45" s="11" t="s">
-        <v>58</v>
+      <c r="Y45" s="11">
+        <v>332</v>
       </c>
       <c r="Z45" s="11">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="AA45" s="11">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="AB45" s="11">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="AC45" s="11">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="AD45" s="11">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="AE45" s="11">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AF45" s="11">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="AG45" s="11">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="AH45" s="11">
-        <v>455</v>
+        <v>638</v>
       </c>
       <c r="AI45" s="11">
-        <v>638</v>
+        <v>363</v>
       </c>
       <c r="AJ45" s="11">
-        <v>363</v>
+        <v>693</v>
       </c>
       <c r="AK45" s="11">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="AL45" s="11">
-        <v>665</v>
+        <v>560</v>
       </c>
       <c r="AM45" s="11">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="AN45" s="11">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="AO45" s="11">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AP45" s="11">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AQ45" s="11">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="AR45" s="11">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AS45" s="11">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="AT45" s="11">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="AU45" s="11">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="AV45" s="11">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AW45" s="11">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="AX45" s="11">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="AY45" s="11">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AZ45" s="11">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="BA45" s="11">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="BB45" s="11">
-        <v>281</v>
+        <v>348</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6361,20 +6361,20 @@
       <c r="X46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y46" s="13" t="s">
-        <v>58</v>
+      <c r="Y46" s="13">
+        <v>0</v>
       </c>
       <c r="Z46" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA46" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="13">
         <v>2</v>
-      </c>
-      <c r="AB46" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC46" s="13">
-        <v>1</v>
       </c>
       <c r="AD46" s="13">
         <v>2</v>
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="AG46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH46" s="13">
         <v>3</v>
@@ -6398,34 +6398,34 @@
         <v>3</v>
       </c>
       <c r="AK46" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AL46" s="13">
         <v>1</v>
       </c>
       <c r="AM46" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AN46" s="13">
         <v>4</v>
       </c>
       <c r="AO46" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP46" s="13">
+        <v>3</v>
+      </c>
+      <c r="AQ46" s="13">
         <v>4</v>
       </c>
-      <c r="AP46" s="13">
-        <v>5</v>
-      </c>
-      <c r="AQ46" s="13">
+      <c r="AR46" s="13">
         <v>3</v>
-      </c>
-      <c r="AR46" s="13">
-        <v>4</v>
       </c>
       <c r="AS46" s="13">
         <v>3</v>
       </c>
-      <c r="AT46" s="13">
-        <v>3</v>
+      <c r="AT46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU46" s="13" t="s">
         <v>58</v>
@@ -6520,95 +6520,95 @@
       <c r="X47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y47" s="11" t="s">
-        <v>58</v>
+      <c r="Y47" s="11">
+        <v>129</v>
       </c>
       <c r="Z47" s="11">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="AA47" s="11">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="AB47" s="11">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="AC47" s="11">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="AD47" s="11">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="AE47" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AF47" s="11">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="AG47" s="11">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AH47" s="11">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AI47" s="11">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AJ47" s="11">
+        <v>219</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>135</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>172</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>189</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>151</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>175</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>166</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>144</v>
+      </c>
+      <c r="AR47" s="11">
+        <v>126</v>
+      </c>
+      <c r="AS47" s="11">
+        <v>204</v>
+      </c>
+      <c r="AT47" s="11">
         <v>160</v>
       </c>
-      <c r="AK47" s="11">
-        <v>219</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>135</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>172</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>189</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>151</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>175</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>166</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>144</v>
-      </c>
-      <c r="AS47" s="11">
-        <v>126</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>204</v>
-      </c>
       <c r="AU47" s="11">
-        <v>160</v>
+        <v>256</v>
       </c>
       <c r="AV47" s="11">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AW47" s="11">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="AX47" s="11">
-        <v>278</v>
+        <v>208</v>
       </c>
       <c r="AY47" s="11">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="AZ47" s="11">
-        <v>188</v>
+        <v>231</v>
       </c>
       <c r="BA47" s="11">
-        <v>231</v>
+        <v>284</v>
       </c>
       <c r="BB47" s="11">
-        <v>284</v>
+        <v>288</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6679,95 +6679,95 @@
       <c r="X48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y48" s="13" t="s">
-        <v>58</v>
+      <c r="Y48" s="13">
+        <v>208</v>
       </c>
       <c r="Z48" s="13">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="AA48" s="13">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="AB48" s="13">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="AC48" s="13">
+        <v>195</v>
+      </c>
+      <c r="AD48" s="13">
+        <v>159</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>140</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>127</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>371</v>
+      </c>
+      <c r="AH48" s="13">
+        <v>65</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>29</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>311</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>102</v>
+      </c>
+      <c r="AL48" s="13">
+        <v>89</v>
+      </c>
+      <c r="AM48" s="13">
+        <v>238</v>
+      </c>
+      <c r="AN48" s="13">
+        <v>106</v>
+      </c>
+      <c r="AO48" s="13">
+        <v>264</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>137</v>
+      </c>
+      <c r="AQ48" s="13">
+        <v>87</v>
+      </c>
+      <c r="AR48" s="13">
+        <v>168</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>453</v>
+      </c>
+      <c r="AT48" s="13">
+        <v>63</v>
+      </c>
+      <c r="AU48" s="13">
+        <v>335</v>
+      </c>
+      <c r="AV48" s="13">
         <v>207</v>
       </c>
-      <c r="AD48" s="13">
-        <v>195</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>159</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>140</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>127</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>371</v>
-      </c>
-      <c r="AI48" s="13">
-        <v>65</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>29</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>311</v>
-      </c>
-      <c r="AL48" s="13">
-        <v>102</v>
-      </c>
-      <c r="AM48" s="13">
-        <v>89</v>
-      </c>
-      <c r="AN48" s="13">
-        <v>238</v>
-      </c>
-      <c r="AO48" s="13">
-        <v>106</v>
-      </c>
-      <c r="AP48" s="13">
-        <v>264</v>
-      </c>
-      <c r="AQ48" s="13">
-        <v>137</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>87</v>
-      </c>
-      <c r="AS48" s="13">
-        <v>168</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>453</v>
-      </c>
-      <c r="AU48" s="13">
-        <v>63</v>
-      </c>
-      <c r="AV48" s="13">
-        <v>354</v>
-      </c>
       <c r="AW48" s="13">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AX48" s="13">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AY48" s="13">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AZ48" s="13">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="BA48" s="13">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="BB48" s="13">
-        <v>123</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6838,95 +6838,95 @@
       <c r="X49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y49" s="11" t="s">
-        <v>58</v>
+      <c r="Y49" s="11">
+        <v>2399</v>
       </c>
       <c r="Z49" s="11">
-        <v>2399</v>
+        <v>2276</v>
       </c>
       <c r="AA49" s="11">
-        <v>2276</v>
+        <v>2619</v>
       </c>
       <c r="AB49" s="11">
-        <v>2619</v>
+        <v>2821</v>
       </c>
       <c r="AC49" s="11">
-        <v>2821</v>
+        <v>2588</v>
       </c>
       <c r="AD49" s="11">
-        <v>2588</v>
+        <v>2658</v>
       </c>
       <c r="AE49" s="11">
-        <v>2658</v>
+        <v>2744</v>
       </c>
       <c r="AF49" s="11">
-        <v>2744</v>
+        <v>2303</v>
       </c>
       <c r="AG49" s="11">
-        <v>2303</v>
+        <v>2419</v>
       </c>
       <c r="AH49" s="11">
-        <v>2419</v>
+        <v>2009</v>
       </c>
       <c r="AI49" s="11">
-        <v>2009</v>
+        <v>2301</v>
       </c>
       <c r="AJ49" s="11">
-        <v>2301</v>
+        <v>2510</v>
       </c>
       <c r="AK49" s="11">
-        <v>2510</v>
+        <v>2402</v>
       </c>
       <c r="AL49" s="11">
-        <v>2402</v>
+        <v>2167</v>
       </c>
       <c r="AM49" s="11">
-        <v>2167</v>
+        <v>2342</v>
       </c>
       <c r="AN49" s="11">
-        <v>2342</v>
+        <v>2085</v>
       </c>
       <c r="AO49" s="11">
-        <v>2085</v>
+        <v>2256</v>
       </c>
       <c r="AP49" s="11">
-        <v>2256</v>
+        <v>2311</v>
       </c>
       <c r="AQ49" s="11">
-        <v>2311</v>
+        <v>2213</v>
       </c>
       <c r="AR49" s="11">
-        <v>2213</v>
+        <v>2390</v>
       </c>
       <c r="AS49" s="11">
-        <v>2390</v>
+        <v>2326</v>
       </c>
       <c r="AT49" s="11">
-        <v>2326</v>
+        <v>2040</v>
       </c>
       <c r="AU49" s="11">
-        <v>2040</v>
+        <v>2378</v>
       </c>
       <c r="AV49" s="11">
-        <v>2416</v>
+        <v>1980</v>
       </c>
       <c r="AW49" s="11">
-        <v>1980</v>
+        <v>1700</v>
       </c>
       <c r="AX49" s="11">
-        <v>1700</v>
+        <v>2048</v>
       </c>
       <c r="AY49" s="11">
-        <v>2048</v>
+        <v>2446</v>
       </c>
       <c r="AZ49" s="11">
-        <v>2446</v>
+        <v>2174</v>
       </c>
       <c r="BA49" s="11">
-        <v>2174</v>
+        <v>2516</v>
       </c>
       <c r="BB49" s="11">
-        <v>2516</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7060,32 +7060,32 @@
       <c r="AS50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT50" s="13" t="s">
-        <v>58</v>
+      <c r="AT50" s="13">
+        <v>607</v>
       </c>
       <c r="AU50" s="13">
-        <v>607</v>
+        <v>79</v>
       </c>
       <c r="AV50" s="13">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="AW50" s="13">
-        <v>56</v>
+        <v>131</v>
       </c>
       <c r="AX50" s="13">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="AY50" s="13">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="AZ50" s="13">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="BA50" s="13">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="BB50" s="13">
-        <v>219</v>
+        <v>418</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7156,71 +7156,71 @@
       <c r="X51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y51" s="11" t="s">
-        <v>58</v>
+      <c r="Y51" s="11">
+        <v>118</v>
       </c>
       <c r="Z51" s="11">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="AA51" s="11">
-        <v>600</v>
+        <v>314</v>
       </c>
       <c r="AB51" s="11">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="AC51" s="11">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="AD51" s="11">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="AE51" s="11">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="AF51" s="11">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="AG51" s="11">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="AH51" s="11">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="AI51" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AJ51" s="11">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AK51" s="11">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="AL51" s="11">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="AM51" s="11">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="AN51" s="11">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="AO51" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AP51" s="11">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="AQ51" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="AR51" s="11">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="AS51" s="11">
-        <v>104</v>
-      </c>
-      <c r="AT51" s="11">
         <v>404</v>
+      </c>
+      <c r="AT51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU51" s="11" t="s">
         <v>58</v>
@@ -7315,50 +7315,50 @@
       <c r="X52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y52" s="13" t="s">
-        <v>58</v>
+      <c r="Y52" s="13">
+        <v>24</v>
       </c>
       <c r="Z52" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="AA52" s="13">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="AB52" s="13">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="AC52" s="13">
         <v>5</v>
       </c>
       <c r="AD52" s="13">
+        <v>19</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>1</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>12</v>
+      </c>
+      <c r="AH52" s="13">
         <v>5</v>
       </c>
-      <c r="AE52" s="13">
-        <v>19</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>12</v>
-      </c>
       <c r="AI52" s="13">
+        <v>7</v>
+      </c>
+      <c r="AJ52" s="13">
+        <v>24</v>
+      </c>
+      <c r="AK52" s="13">
+        <v>7</v>
+      </c>
+      <c r="AL52" s="13">
         <v>5</v>
       </c>
-      <c r="AJ52" s="13">
-        <v>7</v>
-      </c>
-      <c r="AK52" s="13">
-        <v>24</v>
-      </c>
-      <c r="AL52" s="13">
-        <v>7</v>
-      </c>
       <c r="AM52" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AN52" s="13">
         <v>4</v>
@@ -7367,19 +7367,19 @@
         <v>4</v>
       </c>
       <c r="AP52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ52" s="13">
+        <v>3</v>
+      </c>
+      <c r="AR52" s="13">
         <v>4</v>
       </c>
-      <c r="AQ52" s="13">
-        <v>5</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>3</v>
-      </c>
       <c r="AS52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AT52" s="13">
         <v>7</v>
+      </c>
+      <c r="AT52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU52" s="13" t="s">
         <v>58</v>
@@ -7474,95 +7474,95 @@
       <c r="X53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y53" s="11" t="s">
-        <v>58</v>
+      <c r="Y53" s="11">
+        <v>30</v>
       </c>
       <c r="Z53" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="AA53" s="11">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="AB53" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="AC53" s="11">
+        <v>96</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>74</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>47</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>68</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>50</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>59</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>49</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>74</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>156</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>64</v>
+      </c>
+      <c r="AM53" s="11">
         <v>82</v>
       </c>
-      <c r="AD53" s="11">
-        <v>96</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>47</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>68</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>50</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>59</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>49</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>156</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>64</v>
-      </c>
       <c r="AN53" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AO53" s="11">
+        <v>116</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>148</v>
+      </c>
+      <c r="AQ53" s="11">
+        <v>57</v>
+      </c>
+      <c r="AR53" s="11">
+        <v>65</v>
+      </c>
+      <c r="AS53" s="11">
         <v>81</v>
       </c>
-      <c r="AP53" s="11">
-        <v>116</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>148</v>
-      </c>
-      <c r="AR53" s="11">
-        <v>57</v>
-      </c>
-      <c r="AS53" s="11">
-        <v>65</v>
-      </c>
       <c r="AT53" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AU53" s="11">
-        <v>78</v>
+        <v>482</v>
       </c>
       <c r="AV53" s="11">
-        <v>682</v>
+        <v>185</v>
       </c>
       <c r="AW53" s="11">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AX53" s="11">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AY53" s="11">
-        <v>382</v>
+        <v>221</v>
       </c>
       <c r="AZ53" s="11">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="BA53" s="11">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="BB53" s="11">
-        <v>329</v>
+        <v>159</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7633,17 +7633,17 @@
       <c r="X54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y54" s="13" t="s">
-        <v>58</v>
+      <c r="Y54" s="13">
+        <v>0</v>
       </c>
       <c r="Z54" s="13">
         <v>0</v>
       </c>
       <c r="AA54" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB54" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC54" s="13">
         <v>0</v>
@@ -7660,24 +7660,24 @@
       <c r="AG54" s="13">
         <v>0</v>
       </c>
-      <c r="AH54" s="13">
-        <v>0</v>
+      <c r="AH54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM54" s="13">
+      <c r="AJ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL54" s="13">
         <v>23</v>
       </c>
+      <c r="AM54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN54" s="13" t="s">
         <v>58</v>
       </c>
@@ -7687,35 +7687,35 @@
       <c r="AP54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR54" s="13">
+      <c r="AQ54" s="13">
         <v>1</v>
       </c>
-      <c r="AS54" s="13" t="s">
-        <v>58</v>
+      <c r="AR54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>0</v>
       </c>
       <c r="AT54" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AU54" s="13">
         <v>5</v>
       </c>
       <c r="AV54" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW54" s="13">
         <v>3</v>
       </c>
       <c r="AX54" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY54" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AZ54" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BA54" s="13">
         <v>2</v>
@@ -7792,8 +7792,8 @@
       <c r="X55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y55" s="11" t="s">
-        <v>58</v>
+      <c r="Y55" s="11">
+        <v>0</v>
       </c>
       <c r="Z55" s="11">
         <v>0</v>
@@ -7819,8 +7819,8 @@
       <c r="AG55" s="11">
         <v>0</v>
       </c>
-      <c r="AH55" s="11">
-        <v>0</v>
+      <c r="AH55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI55" s="11" t="s">
         <v>58</v>
@@ -7951,8 +7951,8 @@
       <c r="X56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y56" s="13" t="s">
-        <v>58</v>
+      <c r="Y56" s="13">
+        <v>0</v>
       </c>
       <c r="Z56" s="13">
         <v>0</v>
@@ -7981,14 +7981,14 @@
       <c r="AH56" s="13">
         <v>0</v>
       </c>
-      <c r="AI56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AJ56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK56" s="13">
-        <v>0</v>
+      <c r="AI56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL56" s="13" t="s">
         <v>58</v>
@@ -8011,35 +8011,35 @@
       <c r="AR56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AT56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AU56" s="13" t="s">
-        <v>58</v>
+      <c r="AS56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AT56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AU56" s="13">
+        <v>13</v>
       </c>
       <c r="AV56" s="13">
-        <v>13</v>
-      </c>
-      <c r="AW56" s="13" t="s">
-        <v>58</v>
+        <v>0</v>
+      </c>
+      <c r="AW56" s="13">
+        <v>4</v>
       </c>
       <c r="AX56" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY56" s="13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AZ56" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="BA56" s="13">
         <v>2</v>
       </c>
       <c r="BB56" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8109,94 +8109,94 @@
         <v>0</v>
       </c>
       <c r="Y57" s="15">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="Z57" s="15">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="AA57" s="15">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="AB57" s="15">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="AC57" s="15">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="AD57" s="15">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="AE57" s="15">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AF57" s="15">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AG57" s="15">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AH57" s="15">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AI57" s="15">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AJ57" s="15">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AK57" s="15">
-        <v>4736</v>
+        <v>4157</v>
       </c>
       <c r="AL57" s="15">
-        <v>4157</v>
+        <v>3805</v>
       </c>
       <c r="AM57" s="15">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AN57" s="15">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AO57" s="15">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AP57" s="15">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AQ57" s="15">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AR57" s="15">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AS57" s="15">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AT57" s="15">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AU57" s="15">
-        <v>3929</v>
+        <v>4339</v>
       </c>
       <c r="AV57" s="15">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AW57" s="15">
-        <v>3514</v>
+        <v>3214</v>
       </c>
       <c r="AX57" s="15">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AY57" s="15">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AZ57" s="15">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="BA57" s="15">
-        <v>3982</v>
+        <v>4177</v>
       </c>
       <c r="BB57" s="15">
-        <v>4177</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8390,14 +8390,14 @@
       <c r="AT59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV59" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW59" s="11" t="s">
-        <v>58</v>
+      <c r="AU59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV59" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW59" s="11">
+        <v>0</v>
       </c>
       <c r="AX59" s="11">
         <v>0</v>
@@ -8549,14 +8549,14 @@
       <c r="AT60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV60" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW60" s="13" t="s">
-        <v>58</v>
+      <c r="AU60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV60" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW60" s="13">
+        <v>0</v>
       </c>
       <c r="AX60" s="13">
         <v>0</v>
@@ -8568,10 +8568,10 @@
         <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="BB60" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="2:54" x14ac:dyDescent="0.3">
@@ -8708,14 +8708,14 @@
       <c r="AT61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV61" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW61" s="11" t="s">
-        <v>58</v>
+      <c r="AU61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV61" s="11">
+        <v>0</v>
+      </c>
+      <c r="AW61" s="11">
+        <v>0</v>
       </c>
       <c r="AX61" s="11">
         <v>0</v>
@@ -8867,14 +8867,14 @@
       <c r="AT62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV62" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW62" s="13" t="s">
-        <v>58</v>
+      <c r="AU62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV62" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW62" s="13">
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
         <v>0</v>
@@ -8886,10 +8886,10 @@
         <v>0</v>
       </c>
       <c r="BA62" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="BB62" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="2:54" x14ac:dyDescent="0.3">
@@ -8996,12 +8996,12 @@
       <c r="AJ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL63" s="11">
+      <c r="AK63" s="11">
         <v>50</v>
       </c>
+      <c r="AL63" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AM63" s="11" t="s">
         <v>58</v>
       </c>
@@ -9020,8 +9020,8 @@
       <c r="AR63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS63" s="11" t="s">
-        <v>58</v>
+      <c r="AS63" s="11">
+        <v>0</v>
       </c>
       <c r="AT63" s="11" t="s">
         <v>58</v>
@@ -9185,14 +9185,14 @@
       <c r="AT64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV64" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW64" s="13" t="s">
-        <v>58</v>
+      <c r="AU64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV64" s="13">
+        <v>0</v>
+      </c>
+      <c r="AW64" s="13">
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
         <v>0</v>
@@ -9204,10 +9204,10 @@
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="BB64" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="2:54" x14ac:dyDescent="0.3">
@@ -9313,10 +9313,10 @@
         <v>0</v>
       </c>
       <c r="AK65" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AL65" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AM65" s="15">
         <v>0</v>
@@ -9361,10 +9361,10 @@
         <v>0</v>
       </c>
       <c r="BA65" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="BB65" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:54" x14ac:dyDescent="0.3">
@@ -9490,8 +9490,8 @@
       <c r="X67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y67" s="15" t="s">
-        <v>58</v>
+      <c r="Y67" s="15">
+        <v>0</v>
       </c>
       <c r="Z67" s="15">
         <v>0</v>
@@ -9704,8 +9704,8 @@
       <c r="X69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y69" s="15" t="s">
-        <v>58</v>
+      <c r="Y69" s="15">
+        <v>0</v>
       </c>
       <c r="Z69" s="15">
         <v>0</v>
@@ -9862,94 +9862,94 @@
         <v>0</v>
       </c>
       <c r="Y70" s="19">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="Z70" s="19">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="AA70" s="19">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="AB70" s="19">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="AC70" s="19">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="AD70" s="19">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="AE70" s="19">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AF70" s="19">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AG70" s="19">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AH70" s="19">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AI70" s="19">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AJ70" s="19">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AK70" s="19">
-        <v>4736</v>
+        <v>4207</v>
       </c>
       <c r="AL70" s="19">
-        <v>4207</v>
+        <v>3805</v>
       </c>
       <c r="AM70" s="19">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AN70" s="19">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AO70" s="19">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AP70" s="19">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AQ70" s="19">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AR70" s="19">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AS70" s="19">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AT70" s="19">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AU70" s="19">
-        <v>3929</v>
+        <v>4339</v>
       </c>
       <c r="AV70" s="19">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AW70" s="19">
-        <v>3514</v>
+        <v>3214</v>
       </c>
       <c r="AX70" s="19">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AY70" s="19">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AZ70" s="19">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="BA70" s="19">
-        <v>3982</v>
+        <v>4267</v>
       </c>
       <c r="BB70" s="19">
-        <v>4267</v>
+        <v>4289</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10454,71 +10454,71 @@
       <c r="X77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y77" s="11" t="s">
-        <v>58</v>
+      <c r="Y77" s="11">
+        <v>141</v>
       </c>
       <c r="Z77" s="11">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="AA77" s="11">
-        <v>153</v>
+        <v>4666</v>
       </c>
       <c r="AB77" s="11">
-        <v>4666</v>
+        <v>2945</v>
       </c>
       <c r="AC77" s="11">
-        <v>2945</v>
+        <v>3224</v>
       </c>
       <c r="AD77" s="11">
-        <v>3224</v>
+        <v>739</v>
       </c>
       <c r="AE77" s="11">
+        <v>3574</v>
+      </c>
+      <c r="AF77" s="11">
         <v>739</v>
       </c>
-      <c r="AF77" s="11">
-        <v>3574</v>
-      </c>
       <c r="AG77" s="11">
-        <v>739</v>
+        <v>4359</v>
       </c>
       <c r="AH77" s="11">
-        <v>4359</v>
+        <v>4448</v>
       </c>
       <c r="AI77" s="11">
-        <v>4448</v>
+        <v>420</v>
       </c>
       <c r="AJ77" s="11">
-        <v>420</v>
+        <v>956</v>
       </c>
       <c r="AK77" s="11">
-        <v>956</v>
+        <v>891</v>
       </c>
       <c r="AL77" s="11">
-        <v>891</v>
+        <v>3778</v>
       </c>
       <c r="AM77" s="11">
-        <v>3778</v>
+        <v>344</v>
       </c>
       <c r="AN77" s="11">
-        <v>344</v>
+        <v>6469</v>
       </c>
       <c r="AO77" s="11">
-        <v>6469</v>
+        <v>11636</v>
       </c>
       <c r="AP77" s="11">
-        <v>11636</v>
+        <v>2355</v>
       </c>
       <c r="AQ77" s="11">
-        <v>2355</v>
+        <v>196</v>
       </c>
       <c r="AR77" s="11">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AS77" s="11">
-        <v>225</v>
-      </c>
-      <c r="AT77" s="11">
         <v>1920</v>
+      </c>
+      <c r="AT77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU77" s="11" t="s">
         <v>58</v>
@@ -10613,95 +10613,95 @@
       <c r="X78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y78" s="13" t="s">
-        <v>58</v>
+      <c r="Y78" s="13">
+        <v>33577</v>
       </c>
       <c r="Z78" s="13">
-        <v>33577</v>
+        <v>33021</v>
       </c>
       <c r="AA78" s="13">
-        <v>33021</v>
+        <v>45868</v>
       </c>
       <c r="AB78" s="13">
-        <v>45868</v>
+        <v>30109</v>
       </c>
       <c r="AC78" s="13">
-        <v>30109</v>
+        <v>40334</v>
       </c>
       <c r="AD78" s="13">
-        <v>40334</v>
+        <v>54142</v>
       </c>
       <c r="AE78" s="13">
-        <v>54142</v>
+        <v>40348</v>
       </c>
       <c r="AF78" s="13">
-        <v>40348</v>
+        <v>48320</v>
       </c>
       <c r="AG78" s="13">
-        <v>48320</v>
+        <v>66856</v>
       </c>
       <c r="AH78" s="13">
-        <v>66856</v>
+        <v>52895</v>
       </c>
       <c r="AI78" s="13">
-        <v>52895</v>
+        <v>50312</v>
       </c>
       <c r="AJ78" s="13">
-        <v>50312</v>
+        <v>67400</v>
       </c>
       <c r="AK78" s="13">
-        <v>67400</v>
+        <v>58311</v>
       </c>
       <c r="AL78" s="13">
-        <v>58311</v>
+        <v>47189</v>
       </c>
       <c r="AM78" s="13">
-        <v>47189</v>
+        <v>63067</v>
       </c>
       <c r="AN78" s="13">
-        <v>63067</v>
+        <v>45822</v>
       </c>
       <c r="AO78" s="13">
-        <v>45822</v>
+        <v>47551</v>
       </c>
       <c r="AP78" s="13">
-        <v>47551</v>
+        <v>43803</v>
       </c>
       <c r="AQ78" s="13">
-        <v>43803</v>
+        <v>46977</v>
       </c>
       <c r="AR78" s="13">
-        <v>46977</v>
+        <v>49678</v>
       </c>
       <c r="AS78" s="13">
-        <v>49678</v>
+        <v>51295</v>
       </c>
       <c r="AT78" s="13">
-        <v>51295</v>
+        <v>73841</v>
       </c>
       <c r="AU78" s="13">
-        <v>73841</v>
+        <v>63725</v>
       </c>
       <c r="AV78" s="13">
-        <v>63725</v>
+        <v>108445</v>
       </c>
       <c r="AW78" s="13">
-        <v>108445</v>
+        <v>110461</v>
       </c>
       <c r="AX78" s="13">
-        <v>110461</v>
+        <v>93180</v>
       </c>
       <c r="AY78" s="13">
-        <v>93180</v>
+        <v>90768</v>
       </c>
       <c r="AZ78" s="13">
-        <v>90768</v>
+        <v>76701</v>
       </c>
       <c r="BA78" s="13">
-        <v>76701</v>
+        <v>83710</v>
       </c>
       <c r="BB78" s="13">
-        <v>83710</v>
+        <v>77860</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10772,95 +10772,95 @@
       <c r="X79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y79" s="11" t="s">
-        <v>58</v>
+      <c r="Y79" s="11">
+        <v>9075</v>
       </c>
       <c r="Z79" s="11">
-        <v>9075</v>
+        <v>10926</v>
       </c>
       <c r="AA79" s="11">
-        <v>10926</v>
+        <v>9551</v>
       </c>
       <c r="AB79" s="11">
-        <v>9551</v>
+        <v>7811</v>
       </c>
       <c r="AC79" s="11">
-        <v>7811</v>
+        <v>9678</v>
       </c>
       <c r="AD79" s="11">
-        <v>9678</v>
+        <v>10379</v>
       </c>
       <c r="AE79" s="11">
-        <v>10379</v>
+        <v>10859</v>
       </c>
       <c r="AF79" s="11">
-        <v>10859</v>
+        <v>12889</v>
       </c>
       <c r="AG79" s="11">
-        <v>12889</v>
+        <v>16142</v>
       </c>
       <c r="AH79" s="11">
-        <v>16142</v>
+        <v>22277</v>
       </c>
       <c r="AI79" s="11">
-        <v>22277</v>
+        <v>13148</v>
       </c>
       <c r="AJ79" s="11">
-        <v>13148</v>
+        <v>24589</v>
       </c>
       <c r="AK79" s="11">
-        <v>24589</v>
+        <v>24884</v>
       </c>
       <c r="AL79" s="11">
-        <v>24884</v>
+        <v>21161</v>
       </c>
       <c r="AM79" s="11">
-        <v>21161</v>
+        <v>24324</v>
       </c>
       <c r="AN79" s="11">
-        <v>24324</v>
+        <v>17175</v>
       </c>
       <c r="AO79" s="11">
-        <v>17175</v>
+        <v>16358</v>
       </c>
       <c r="AP79" s="11">
-        <v>16358</v>
+        <v>15108</v>
       </c>
       <c r="AQ79" s="11">
-        <v>15108</v>
+        <v>18276</v>
       </c>
       <c r="AR79" s="11">
-        <v>18276</v>
+        <v>18629</v>
       </c>
       <c r="AS79" s="11">
-        <v>18629</v>
+        <v>21934</v>
       </c>
       <c r="AT79" s="11">
-        <v>21934</v>
+        <v>20943</v>
       </c>
       <c r="AU79" s="11">
-        <v>20943</v>
+        <v>20054</v>
       </c>
       <c r="AV79" s="11">
-        <v>20054</v>
+        <v>35120</v>
       </c>
       <c r="AW79" s="11">
-        <v>35120</v>
+        <v>40801</v>
       </c>
       <c r="AX79" s="11">
-        <v>40801</v>
+        <v>36240</v>
       </c>
       <c r="AY79" s="11">
         <v>36240</v>
       </c>
       <c r="AZ79" s="11">
-        <v>36240</v>
+        <v>25758</v>
       </c>
       <c r="BA79" s="11">
-        <v>25758</v>
+        <v>21718</v>
       </c>
       <c r="BB79" s="11">
-        <v>21718</v>
+        <v>27257</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10931,71 +10931,71 @@
       <c r="X80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y80" s="13" t="s">
-        <v>58</v>
+      <c r="Y80" s="13">
+        <v>39</v>
       </c>
       <c r="Z80" s="13">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="AA80" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="AB80" s="13">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="AC80" s="13">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="AD80" s="13">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="AE80" s="13">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="AF80" s="13">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="AG80" s="13">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="AH80" s="13">
-        <v>505</v>
+        <v>721</v>
       </c>
       <c r="AI80" s="13">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="AJ80" s="13">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="AK80" s="13">
-        <v>535</v>
+        <v>202</v>
       </c>
       <c r="AL80" s="13">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AM80" s="13">
-        <v>265</v>
+        <v>864</v>
       </c>
       <c r="AN80" s="13">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="AO80" s="13">
-        <v>879</v>
+        <v>1215</v>
       </c>
       <c r="AP80" s="13">
-        <v>1215</v>
+        <v>477</v>
       </c>
       <c r="AQ80" s="13">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="AR80" s="13">
-        <v>904</v>
+        <v>703</v>
       </c>
       <c r="AS80" s="13">
-        <v>703</v>
-      </c>
-      <c r="AT80" s="13">
         <v>824</v>
+      </c>
+      <c r="AT80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU80" s="13" t="s">
         <v>58</v>
@@ -11090,95 +11090,95 @@
       <c r="X81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y81" s="11" t="s">
-        <v>58</v>
+      <c r="Y81" s="11">
+        <v>24627</v>
       </c>
       <c r="Z81" s="11">
-        <v>24627</v>
+        <v>37055</v>
       </c>
       <c r="AA81" s="11">
-        <v>37055</v>
+        <v>34779</v>
       </c>
       <c r="AB81" s="11">
-        <v>34779</v>
+        <v>41840</v>
       </c>
       <c r="AC81" s="11">
-        <v>41840</v>
+        <v>33427</v>
       </c>
       <c r="AD81" s="11">
-        <v>33427</v>
+        <v>37567</v>
       </c>
       <c r="AE81" s="11">
-        <v>37567</v>
+        <v>47276</v>
       </c>
       <c r="AF81" s="11">
-        <v>47276</v>
+        <v>37896</v>
       </c>
       <c r="AG81" s="11">
-        <v>37896</v>
+        <v>46347</v>
       </c>
       <c r="AH81" s="11">
-        <v>46347</v>
+        <v>49890</v>
       </c>
       <c r="AI81" s="11">
-        <v>49890</v>
+        <v>48734</v>
       </c>
       <c r="AJ81" s="11">
-        <v>48734</v>
+        <v>68737</v>
       </c>
       <c r="AK81" s="11">
-        <v>68737</v>
+        <v>43252</v>
       </c>
       <c r="AL81" s="11">
-        <v>43252</v>
+        <v>55990</v>
       </c>
       <c r="AM81" s="11">
-        <v>55990</v>
+        <v>67161</v>
       </c>
       <c r="AN81" s="11">
-        <v>67161</v>
+        <v>63306</v>
       </c>
       <c r="AO81" s="11">
-        <v>63306</v>
+        <v>76204</v>
       </c>
       <c r="AP81" s="11">
-        <v>76204</v>
+        <v>76167</v>
       </c>
       <c r="AQ81" s="11">
-        <v>76167</v>
+        <v>71495</v>
       </c>
       <c r="AR81" s="11">
-        <v>71495</v>
+        <v>50828</v>
       </c>
       <c r="AS81" s="11">
-        <v>50828</v>
+        <v>72619</v>
       </c>
       <c r="AT81" s="11">
-        <v>72619</v>
+        <v>71151</v>
       </c>
       <c r="AU81" s="11">
-        <v>71151</v>
+        <v>119183</v>
       </c>
       <c r="AV81" s="11">
-        <v>121782</v>
+        <v>138713</v>
       </c>
       <c r="AW81" s="11">
-        <v>138713</v>
+        <v>202016</v>
       </c>
       <c r="AX81" s="11">
-        <v>202016</v>
+        <v>151357</v>
       </c>
       <c r="AY81" s="11">
-        <v>151357</v>
+        <v>147539</v>
       </c>
       <c r="AZ81" s="11">
-        <v>147539</v>
+        <v>170501</v>
       </c>
       <c r="BA81" s="11">
-        <v>170501</v>
+        <v>216762</v>
       </c>
       <c r="BB81" s="11">
-        <v>216762</v>
+        <v>214925</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11249,95 +11249,95 @@
       <c r="X82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y82" s="13" t="s">
-        <v>58</v>
+      <c r="Y82" s="13">
+        <v>38307</v>
       </c>
       <c r="Z82" s="13">
-        <v>38307</v>
+        <v>37471</v>
       </c>
       <c r="AA82" s="13">
-        <v>37471</v>
+        <v>55370</v>
       </c>
       <c r="AB82" s="13">
-        <v>55370</v>
+        <v>59039</v>
       </c>
       <c r="AC82" s="13">
-        <v>59039</v>
+        <v>50295</v>
       </c>
       <c r="AD82" s="13">
-        <v>50295</v>
+        <v>56922</v>
       </c>
       <c r="AE82" s="13">
-        <v>56922</v>
+        <v>57615</v>
       </c>
       <c r="AF82" s="13">
-        <v>57615</v>
+        <v>30607</v>
       </c>
       <c r="AG82" s="13">
-        <v>30607</v>
+        <v>79793</v>
       </c>
       <c r="AH82" s="13">
-        <v>79793</v>
+        <v>17013</v>
       </c>
       <c r="AI82" s="13">
-        <v>17013</v>
+        <v>12987</v>
       </c>
       <c r="AJ82" s="13">
-        <v>12987</v>
+        <v>84770</v>
       </c>
       <c r="AK82" s="13">
-        <v>84770</v>
+        <v>44707</v>
       </c>
       <c r="AL82" s="13">
-        <v>44707</v>
+        <v>28783</v>
       </c>
       <c r="AM82" s="13">
-        <v>28783</v>
+        <v>74114</v>
       </c>
       <c r="AN82" s="13">
-        <v>74114</v>
+        <v>45184</v>
       </c>
       <c r="AO82" s="13">
-        <v>45184</v>
+        <v>81905</v>
       </c>
       <c r="AP82" s="13">
-        <v>81905</v>
+        <v>28089</v>
       </c>
       <c r="AQ82" s="13">
-        <v>28089</v>
+        <v>33289</v>
       </c>
       <c r="AR82" s="13">
-        <v>33289</v>
+        <v>51522</v>
       </c>
       <c r="AS82" s="13">
-        <v>51522</v>
+        <v>117406</v>
       </c>
       <c r="AT82" s="13">
-        <v>117406</v>
+        <v>32095</v>
       </c>
       <c r="AU82" s="13">
-        <v>32095</v>
+        <v>105612</v>
       </c>
       <c r="AV82" s="13">
-        <v>110993</v>
+        <v>79684</v>
       </c>
       <c r="AW82" s="13">
-        <v>79684</v>
+        <v>49003</v>
       </c>
       <c r="AX82" s="13">
-        <v>49003</v>
+        <v>64779</v>
       </c>
       <c r="AY82" s="13">
-        <v>64779</v>
+        <v>57588</v>
       </c>
       <c r="AZ82" s="13">
-        <v>57588</v>
+        <v>91868</v>
       </c>
       <c r="BA82" s="13">
-        <v>91868</v>
+        <v>66615</v>
       </c>
       <c r="BB82" s="13">
-        <v>66615</v>
+        <v>83955</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11408,95 +11408,95 @@
       <c r="X83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y83" s="11" t="s">
-        <v>58</v>
+      <c r="Y83" s="11">
+        <v>100984</v>
       </c>
       <c r="Z83" s="11">
-        <v>100984</v>
+        <v>102850</v>
       </c>
       <c r="AA83" s="11">
-        <v>102850</v>
+        <v>131424</v>
       </c>
       <c r="AB83" s="11">
-        <v>131424</v>
+        <v>146082</v>
       </c>
       <c r="AC83" s="11">
-        <v>146082</v>
+        <v>126195</v>
       </c>
       <c r="AD83" s="11">
-        <v>126195</v>
+        <v>162057</v>
       </c>
       <c r="AE83" s="11">
-        <v>162057</v>
+        <v>177733</v>
       </c>
       <c r="AF83" s="11">
-        <v>177733</v>
+        <v>125838</v>
       </c>
       <c r="AG83" s="11">
-        <v>125838</v>
+        <v>159560</v>
       </c>
       <c r="AH83" s="11">
-        <v>159560</v>
+        <v>114731</v>
       </c>
       <c r="AI83" s="11">
-        <v>114731</v>
+        <v>135352</v>
       </c>
       <c r="AJ83" s="11">
-        <v>135352</v>
+        <v>160172</v>
       </c>
       <c r="AK83" s="11">
-        <v>160172</v>
+        <v>145295</v>
       </c>
       <c r="AL83" s="11">
-        <v>145295</v>
+        <v>136747</v>
       </c>
       <c r="AM83" s="11">
-        <v>136747</v>
+        <v>193281</v>
       </c>
       <c r="AN83" s="11">
-        <v>193281</v>
+        <v>192450</v>
       </c>
       <c r="AO83" s="11">
-        <v>192450</v>
+        <v>207159</v>
       </c>
       <c r="AP83" s="11">
-        <v>207159</v>
+        <v>204606</v>
       </c>
       <c r="AQ83" s="11">
-        <v>204606</v>
+        <v>190205</v>
       </c>
       <c r="AR83" s="11">
-        <v>190205</v>
+        <v>212832</v>
       </c>
       <c r="AS83" s="11">
-        <v>212832</v>
+        <v>212367</v>
       </c>
       <c r="AT83" s="11">
-        <v>212367</v>
+        <v>184328</v>
       </c>
       <c r="AU83" s="11">
-        <v>184328</v>
+        <v>257210</v>
       </c>
       <c r="AV83" s="11">
-        <v>263662</v>
+        <v>321224</v>
       </c>
       <c r="AW83" s="11">
-        <v>321224</v>
+        <v>276161</v>
       </c>
       <c r="AX83" s="11">
-        <v>276161</v>
+        <v>340405</v>
       </c>
       <c r="AY83" s="11">
-        <v>340405</v>
+        <v>404134</v>
       </c>
       <c r="AZ83" s="11">
-        <v>404134</v>
+        <v>353170</v>
       </c>
       <c r="BA83" s="11">
-        <v>353170</v>
+        <v>412526</v>
       </c>
       <c r="BB83" s="11">
-        <v>412526</v>
+        <v>427258</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11630,32 +11630,32 @@
       <c r="AS84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT84" s="13" t="s">
-        <v>58</v>
+      <c r="AT84" s="13">
+        <v>338191</v>
       </c>
       <c r="AU84" s="13">
-        <v>338191</v>
+        <v>13614</v>
       </c>
       <c r="AV84" s="13">
-        <v>44114</v>
+        <v>43733</v>
       </c>
       <c r="AW84" s="13">
-        <v>43733</v>
+        <v>117580</v>
       </c>
       <c r="AX84" s="13">
-        <v>211580</v>
+        <v>77449</v>
       </c>
       <c r="AY84" s="13">
-        <v>77449</v>
+        <v>254832</v>
       </c>
       <c r="AZ84" s="13">
-        <v>254832</v>
+        <v>262156</v>
       </c>
       <c r="BA84" s="13">
-        <v>262156</v>
+        <v>173951</v>
       </c>
       <c r="BB84" s="13">
-        <v>173951</v>
+        <v>366752</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11726,71 +11726,71 @@
       <c r="X85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y85" s="11" t="s">
-        <v>58</v>
+      <c r="Y85" s="11">
+        <v>27560</v>
       </c>
       <c r="Z85" s="11">
-        <v>27560</v>
+        <v>176269</v>
       </c>
       <c r="AA85" s="11">
-        <v>176269</v>
+        <v>74352</v>
       </c>
       <c r="AB85" s="11">
-        <v>74352</v>
+        <v>101452</v>
       </c>
       <c r="AC85" s="11">
-        <v>101452</v>
+        <v>18225</v>
       </c>
       <c r="AD85" s="11">
-        <v>18225</v>
+        <v>872</v>
       </c>
       <c r="AE85" s="11">
-        <v>872</v>
+        <v>129178</v>
       </c>
       <c r="AF85" s="11">
-        <v>129178</v>
+        <v>98442</v>
       </c>
       <c r="AG85" s="11">
-        <v>98442</v>
+        <v>74991</v>
       </c>
       <c r="AH85" s="11">
-        <v>74991</v>
+        <v>110063</v>
       </c>
       <c r="AI85" s="11">
-        <v>110063</v>
+        <v>111396</v>
       </c>
       <c r="AJ85" s="11">
-        <v>111396</v>
+        <v>40145</v>
       </c>
       <c r="AK85" s="11">
-        <v>40145</v>
+        <v>2343</v>
       </c>
       <c r="AL85" s="11">
-        <v>2343</v>
+        <v>98103</v>
       </c>
       <c r="AM85" s="11">
-        <v>98103</v>
+        <v>228663</v>
       </c>
       <c r="AN85" s="11">
-        <v>228663</v>
+        <v>2505</v>
       </c>
       <c r="AO85" s="11">
-        <v>2505</v>
+        <v>2760</v>
       </c>
       <c r="AP85" s="11">
-        <v>2760</v>
+        <v>35100</v>
       </c>
       <c r="AQ85" s="11">
-        <v>35100</v>
+        <v>14850</v>
       </c>
       <c r="AR85" s="11">
-        <v>14850</v>
+        <v>56160</v>
       </c>
       <c r="AS85" s="11">
-        <v>56160</v>
-      </c>
-      <c r="AT85" s="11">
         <v>218400</v>
+      </c>
+      <c r="AT85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU85" s="11" t="s">
         <v>58</v>
@@ -11885,71 +11885,71 @@
       <c r="X86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y86" s="13" t="s">
-        <v>58</v>
+      <c r="Y86" s="13">
+        <v>13409</v>
       </c>
       <c r="Z86" s="13">
-        <v>13409</v>
+        <v>927</v>
       </c>
       <c r="AA86" s="13">
-        <v>927</v>
+        <v>10466</v>
       </c>
       <c r="AB86" s="13">
-        <v>10466</v>
+        <v>3069</v>
       </c>
       <c r="AC86" s="13">
-        <v>3069</v>
+        <v>3324</v>
       </c>
       <c r="AD86" s="13">
-        <v>3324</v>
+        <v>16965</v>
       </c>
       <c r="AE86" s="13">
-        <v>16965</v>
+        <v>1388</v>
       </c>
       <c r="AF86" s="13">
-        <v>1388</v>
+        <v>552</v>
       </c>
       <c r="AG86" s="13">
-        <v>552</v>
+        <v>14436</v>
       </c>
       <c r="AH86" s="13">
-        <v>14436</v>
+        <v>4866</v>
       </c>
       <c r="AI86" s="13">
-        <v>4866</v>
+        <v>7207</v>
       </c>
       <c r="AJ86" s="13">
-        <v>7207</v>
+        <v>22690</v>
       </c>
       <c r="AK86" s="13">
-        <v>22690</v>
+        <v>8143</v>
       </c>
       <c r="AL86" s="13">
-        <v>8143</v>
+        <v>7202</v>
       </c>
       <c r="AM86" s="13">
-        <v>7202</v>
+        <v>6256</v>
       </c>
       <c r="AN86" s="13">
-        <v>6256</v>
+        <v>5873</v>
       </c>
       <c r="AO86" s="13">
-        <v>5873</v>
+        <v>6532</v>
       </c>
       <c r="AP86" s="13">
-        <v>6532</v>
+        <v>7311</v>
       </c>
       <c r="AQ86" s="13">
-        <v>7311</v>
+        <v>5427</v>
       </c>
       <c r="AR86" s="13">
-        <v>5427</v>
+        <v>7103</v>
       </c>
       <c r="AS86" s="13">
-        <v>7103</v>
-      </c>
-      <c r="AT86" s="13">
         <v>11541</v>
+      </c>
+      <c r="AT86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU86" s="13" t="s">
         <v>58</v>
@@ -12044,95 +12044,95 @@
       <c r="X87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y87" s="11" t="s">
-        <v>58</v>
+      <c r="Y87" s="11">
+        <v>11259</v>
       </c>
       <c r="Z87" s="11">
-        <v>11259</v>
+        <v>12436</v>
       </c>
       <c r="AA87" s="11">
-        <v>12436</v>
+        <v>28504</v>
       </c>
       <c r="AB87" s="11">
-        <v>28504</v>
+        <v>51483</v>
       </c>
       <c r="AC87" s="11">
-        <v>51483</v>
+        <v>60895</v>
       </c>
       <c r="AD87" s="11">
-        <v>60895</v>
+        <v>55546</v>
       </c>
       <c r="AE87" s="11">
-        <v>55546</v>
+        <v>36075</v>
       </c>
       <c r="AF87" s="11">
-        <v>36075</v>
+        <v>48573</v>
       </c>
       <c r="AG87" s="11">
-        <v>48573</v>
+        <v>36750</v>
       </c>
       <c r="AH87" s="11">
-        <v>36750</v>
+        <v>41596</v>
       </c>
       <c r="AI87" s="11">
-        <v>41596</v>
+        <v>33379</v>
       </c>
       <c r="AJ87" s="11">
-        <v>33379</v>
+        <v>50264</v>
       </c>
       <c r="AK87" s="11">
-        <v>50264</v>
+        <v>86833</v>
       </c>
       <c r="AL87" s="11">
-        <v>86833</v>
+        <v>45135</v>
       </c>
       <c r="AM87" s="11">
-        <v>45135</v>
+        <v>63370</v>
       </c>
       <c r="AN87" s="11">
-        <v>63370</v>
+        <v>65782</v>
       </c>
       <c r="AO87" s="11">
-        <v>65782</v>
+        <v>103108</v>
       </c>
       <c r="AP87" s="11">
-        <v>103108</v>
+        <v>128441</v>
       </c>
       <c r="AQ87" s="11">
-        <v>128441</v>
+        <v>50228</v>
       </c>
       <c r="AR87" s="11">
-        <v>50228</v>
+        <v>57940</v>
       </c>
       <c r="AS87" s="11">
-        <v>57940</v>
+        <v>54264</v>
       </c>
       <c r="AT87" s="11">
-        <v>54264</v>
+        <v>69509</v>
       </c>
       <c r="AU87" s="11">
-        <v>69509</v>
+        <v>366500</v>
       </c>
       <c r="AV87" s="11">
-        <v>531500</v>
+        <v>262560</v>
       </c>
       <c r="AW87" s="11">
-        <v>262560</v>
+        <v>131888</v>
       </c>
       <c r="AX87" s="11">
-        <v>131888</v>
+        <v>523210</v>
       </c>
       <c r="AY87" s="11">
-        <v>523210</v>
+        <v>310587</v>
       </c>
       <c r="AZ87" s="11">
-        <v>310587</v>
+        <v>498159</v>
       </c>
       <c r="BA87" s="11">
-        <v>498159</v>
+        <v>451621</v>
       </c>
       <c r="BB87" s="11">
-        <v>451621</v>
+        <v>236040</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12203,17 +12203,17 @@
       <c r="X88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y88" s="13" t="s">
-        <v>58</v>
+      <c r="Y88" s="13">
+        <v>0</v>
       </c>
       <c r="Z88" s="13">
         <v>0</v>
       </c>
       <c r="AA88" s="13">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="AB88" s="13">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AC88" s="13">
         <v>0</v>
@@ -12230,23 +12230,23 @@
       <c r="AG88" s="13">
         <v>0</v>
       </c>
-      <c r="AH88" s="13">
-        <v>0</v>
+      <c r="AH88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AI88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ88" s="13" t="s">
-        <v>58</v>
+      <c r="AJ88" s="13">
+        <v>0</v>
       </c>
       <c r="AK88" s="13">
         <v>0</v>
       </c>
       <c r="AL88" s="13">
-        <v>0</v>
+        <v>8213</v>
       </c>
       <c r="AM88" s="13">
-        <v>8213</v>
+        <v>0</v>
       </c>
       <c r="AN88" s="13">
         <v>0</v>
@@ -12255,43 +12255,43 @@
         <v>0</v>
       </c>
       <c r="AP88" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ88" s="13">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="AR88" s="13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AS88" s="13">
         <v>0</v>
       </c>
       <c r="AT88" s="13">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="AU88" s="13">
-        <v>1203</v>
+        <v>1378</v>
       </c>
       <c r="AV88" s="13">
-        <v>1378</v>
+        <v>931</v>
       </c>
       <c r="AW88" s="13">
-        <v>931</v>
+        <v>1329</v>
       </c>
       <c r="AX88" s="13">
-        <v>1329</v>
+        <v>1839</v>
       </c>
       <c r="AY88" s="13">
-        <v>1839</v>
+        <v>652</v>
       </c>
       <c r="AZ88" s="13">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="BA88" s="13">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="BB88" s="13">
-        <v>717</v>
+        <v>777</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12362,8 +12362,8 @@
       <c r="X89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y89" s="11" t="s">
-        <v>58</v>
+      <c r="Y89" s="11">
+        <v>0</v>
       </c>
       <c r="Z89" s="11">
         <v>0</v>
@@ -12389,8 +12389,8 @@
       <c r="AG89" s="11">
         <v>0</v>
       </c>
-      <c r="AH89" s="11">
-        <v>0</v>
+      <c r="AH89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AI89" s="11" t="s">
         <v>58</v>
@@ -12521,8 +12521,8 @@
       <c r="X90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y90" s="13" t="s">
-        <v>58</v>
+      <c r="Y90" s="13">
+        <v>0</v>
       </c>
       <c r="Z90" s="13">
         <v>0</v>
@@ -12588,28 +12588,28 @@
         <v>0</v>
       </c>
       <c r="AU90" s="13">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="AV90" s="13">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AW90" s="13">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AX90" s="13">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="AY90" s="13">
-        <v>294</v>
+        <v>737</v>
       </c>
       <c r="AZ90" s="13">
-        <v>737</v>
+        <v>1347</v>
       </c>
       <c r="BA90" s="13">
-        <v>1347</v>
+        <v>1542</v>
       </c>
       <c r="BB90" s="13">
-        <v>1542</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12679,94 +12679,94 @@
         <v>0</v>
       </c>
       <c r="Y91" s="15">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="Z91" s="15">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="AA91" s="15">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="AB91" s="15">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="AC91" s="15">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="AD91" s="15">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="AE91" s="15">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AF91" s="15">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AG91" s="15">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AH91" s="15">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AI91" s="15">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AJ91" s="15">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AK91" s="15">
-        <v>520258</v>
+        <v>414861</v>
       </c>
       <c r="AL91" s="15">
-        <v>414861</v>
+        <v>452566</v>
       </c>
       <c r="AM91" s="15">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AN91" s="15">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AO91" s="15">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AP91" s="15">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AQ91" s="15">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AR91" s="15">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AS91" s="15">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AT91" s="15">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AU91" s="15">
-        <v>791261</v>
+        <v>947895</v>
       </c>
       <c r="AV91" s="15">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AW91" s="15">
-        <v>990410</v>
+        <v>929456</v>
       </c>
       <c r="AX91" s="15">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AY91" s="15">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AZ91" s="15">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="BA91" s="15">
-        <v>1480313</v>
+        <v>1429162</v>
       </c>
       <c r="BB91" s="15">
-        <v>1429162</v>
+        <v>1434824</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12960,11 +12960,11 @@
       <c r="AT93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU93" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV93" s="11" t="s">
-        <v>58</v>
+      <c r="AU93" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV93" s="11">
+        <v>0</v>
       </c>
       <c r="AW93" s="11">
         <v>0</v>
@@ -13119,11 +13119,11 @@
       <c r="AT94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU94" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV94" s="13" t="s">
-        <v>58</v>
+      <c r="AU94" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV94" s="13">
+        <v>0</v>
       </c>
       <c r="AW94" s="13">
         <v>0</v>
@@ -13138,10 +13138,10 @@
         <v>0</v>
       </c>
       <c r="BA94" s="13">
-        <v>0</v>
+        <v>4158</v>
       </c>
       <c r="BB94" s="13">
-        <v>4158</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:54" x14ac:dyDescent="0.3">
@@ -13278,11 +13278,11 @@
       <c r="AT95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU95" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV95" s="11" t="s">
-        <v>58</v>
+      <c r="AU95" s="11">
+        <v>0</v>
+      </c>
+      <c r="AV95" s="11">
+        <v>0</v>
       </c>
       <c r="AW95" s="11">
         <v>0</v>
@@ -13437,11 +13437,11 @@
       <c r="AT96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU96" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV96" s="13" t="s">
-        <v>58</v>
+      <c r="AU96" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV96" s="13">
+        <v>0</v>
       </c>
       <c r="AW96" s="13">
         <v>0</v>
@@ -13456,10 +13456,10 @@
         <v>0</v>
       </c>
       <c r="BA96" s="13">
-        <v>0</v>
+        <v>83241</v>
       </c>
       <c r="BB96" s="13">
-        <v>83241</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="2:54" x14ac:dyDescent="0.3">
@@ -13566,11 +13566,11 @@
       <c r="AJ97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK97" s="11" t="s">
-        <v>58</v>
+      <c r="AK97" s="11">
+        <v>29000</v>
       </c>
       <c r="AL97" s="11">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AM97" s="11">
         <v>0</v>
@@ -13593,8 +13593,8 @@
       <c r="AS97" s="11">
         <v>0</v>
       </c>
-      <c r="AT97" s="11">
-        <v>0</v>
+      <c r="AT97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU97" s="11" t="s">
         <v>58</v>
@@ -13755,11 +13755,11 @@
       <c r="AT98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU98" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV98" s="13" t="s">
-        <v>58</v>
+      <c r="AU98" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV98" s="13">
+        <v>0</v>
       </c>
       <c r="AW98" s="13">
         <v>0</v>
@@ -13774,10 +13774,10 @@
         <v>0</v>
       </c>
       <c r="BA98" s="13">
-        <v>0</v>
+        <v>20550</v>
       </c>
       <c r="BB98" s="13">
-        <v>20550</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="2:54" x14ac:dyDescent="0.3">
@@ -13883,10 +13883,10 @@
         <v>0</v>
       </c>
       <c r="AK99" s="15">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="AL99" s="15">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AM99" s="15">
         <v>0</v>
@@ -13931,10 +13931,10 @@
         <v>0</v>
       </c>
       <c r="BA99" s="15">
-        <v>0</v>
+        <v>107949</v>
       </c>
       <c r="BB99" s="15">
-        <v>107949</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="2:54" x14ac:dyDescent="0.3">
@@ -14062,8 +14062,8 @@
       <c r="X101" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y101" s="15" t="s">
-        <v>58</v>
+      <c r="Y101" s="15">
+        <v>0</v>
       </c>
       <c r="Z101" s="15">
         <v>0</v>
@@ -14278,8 +14278,8 @@
       <c r="X103" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Y103" s="15" t="s">
-        <v>58</v>
+      <c r="Y103" s="15">
+        <v>0</v>
       </c>
       <c r="Z103" s="15">
         <v>0</v>
@@ -14494,8 +14494,8 @@
       <c r="X105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y105" s="11" t="s">
-        <v>58</v>
+      <c r="Y105" s="11">
+        <v>0</v>
       </c>
       <c r="Z105" s="11">
         <v>0</v>
@@ -14652,94 +14652,94 @@
         <v>0</v>
       </c>
       <c r="Y106" s="19">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="Z106" s="19">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="AA106" s="19">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="AB106" s="19">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="AC106" s="19">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="AD106" s="19">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="AE106" s="19">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AF106" s="19">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AG106" s="19">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AH106" s="19">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AI106" s="19">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AJ106" s="19">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AK106" s="19">
-        <v>520258</v>
+        <v>443861</v>
       </c>
       <c r="AL106" s="19">
-        <v>443861</v>
+        <v>452566</v>
       </c>
       <c r="AM106" s="19">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AN106" s="19">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AO106" s="19">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AP106" s="19">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AQ106" s="19">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AR106" s="19">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AS106" s="19">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AT106" s="19">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AU106" s="19">
-        <v>791261</v>
+        <v>947895</v>
       </c>
       <c r="AV106" s="19">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AW106" s="19">
-        <v>990410</v>
+        <v>929456</v>
       </c>
       <c r="AX106" s="19">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AY106" s="19">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AZ106" s="19">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="BA106" s="19">
-        <v>1480313</v>
+        <v>1537111</v>
       </c>
       <c r="BB106" s="19">
-        <v>1537111</v>
+        <v>1434824</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15244,71 +15244,71 @@
       <c r="X113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y113" s="11" t="s">
-        <v>58</v>
+      <c r="Y113" s="11">
+        <v>70500000</v>
       </c>
       <c r="Z113" s="11">
-        <v>70500000</v>
+        <v>76500000</v>
       </c>
       <c r="AA113" s="11">
-        <v>76500000</v>
+        <v>83321429</v>
       </c>
       <c r="AB113" s="11">
-        <v>83321429</v>
+        <v>98166667</v>
       </c>
       <c r="AC113" s="11">
-        <v>98166667</v>
+        <v>124000000</v>
       </c>
       <c r="AD113" s="11">
-        <v>124000000</v>
+        <v>147800000</v>
       </c>
       <c r="AE113" s="11">
+        <v>137461538</v>
+      </c>
+      <c r="AF113" s="11">
         <v>147800000</v>
       </c>
-      <c r="AF113" s="11">
-        <v>137461538</v>
-      </c>
       <c r="AG113" s="11">
-        <v>147800000</v>
+        <v>145300000</v>
       </c>
       <c r="AH113" s="11">
-        <v>145300000</v>
+        <v>143483871</v>
       </c>
       <c r="AI113" s="11">
-        <v>143483871</v>
+        <v>140000000</v>
       </c>
       <c r="AJ113" s="11">
-        <v>140000000</v>
+        <v>191200000</v>
       </c>
       <c r="AK113" s="11">
-        <v>191200000</v>
+        <v>178200000</v>
       </c>
       <c r="AL113" s="11">
-        <v>178200000</v>
+        <v>251866667</v>
       </c>
       <c r="AM113" s="11">
-        <v>251866667</v>
+        <v>344000000</v>
       </c>
       <c r="AN113" s="11">
-        <v>344000000</v>
+        <v>248807692</v>
       </c>
       <c r="AO113" s="11">
-        <v>248807692</v>
+        <v>228156863</v>
       </c>
       <c r="AP113" s="11">
-        <v>228156863</v>
+        <v>294375000</v>
       </c>
       <c r="AQ113" s="11">
-        <v>294375000</v>
+        <v>196000000</v>
       </c>
       <c r="AR113" s="11">
-        <v>196000000</v>
+        <v>225000000</v>
       </c>
       <c r="AS113" s="11">
-        <v>225000000</v>
-      </c>
-      <c r="AT113" s="11">
         <v>320000000</v>
+      </c>
+      <c r="AT113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU113" s="11" t="s">
         <v>58</v>
@@ -15403,95 +15403,95 @@
       <c r="X114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y114" s="13" t="s">
-        <v>58</v>
+      <c r="Y114" s="13">
+        <v>58803853</v>
       </c>
       <c r="Z114" s="13">
-        <v>58803853</v>
+        <v>64494141</v>
       </c>
       <c r="AA114" s="13">
-        <v>64494141</v>
+        <v>62320652</v>
       </c>
       <c r="AB114" s="13">
-        <v>62320652</v>
+        <v>64611588</v>
       </c>
       <c r="AC114" s="13">
-        <v>64611588</v>
+        <v>67335559</v>
       </c>
       <c r="AD114" s="13">
-        <v>67335559</v>
+        <v>77567335</v>
       </c>
       <c r="AE114" s="13">
-        <v>77567335</v>
+        <v>78958904</v>
       </c>
       <c r="AF114" s="13">
-        <v>78958904</v>
+        <v>78954248</v>
       </c>
       <c r="AG114" s="13">
-        <v>78954248</v>
+        <v>83257783</v>
       </c>
       <c r="AH114" s="13">
-        <v>83257783</v>
+        <v>82390966</v>
       </c>
       <c r="AI114" s="13">
-        <v>82390966</v>
+        <v>82209150</v>
       </c>
       <c r="AJ114" s="13">
-        <v>82209150</v>
+        <v>84673367</v>
       </c>
       <c r="AK114" s="13">
-        <v>84673367</v>
+        <v>86004425</v>
       </c>
       <c r="AL114" s="13">
-        <v>86004425</v>
+        <v>90055344</v>
       </c>
       <c r="AM114" s="13">
-        <v>90055344</v>
+        <v>109681739</v>
       </c>
       <c r="AN114" s="13">
-        <v>109681739</v>
+        <v>142304348</v>
       </c>
       <c r="AO114" s="13">
-        <v>142304348</v>
+        <v>145415902</v>
       </c>
       <c r="AP114" s="13">
-        <v>145415902</v>
+        <v>138617089</v>
       </c>
       <c r="AQ114" s="13">
-        <v>138617089</v>
+        <v>143222561</v>
       </c>
       <c r="AR114" s="13">
-        <v>143222561</v>
+        <v>140730878</v>
       </c>
       <c r="AS114" s="13">
-        <v>140730878</v>
+        <v>145311615</v>
       </c>
       <c r="AT114" s="13">
-        <v>145311615</v>
+        <v>137506518</v>
       </c>
       <c r="AU114" s="13">
-        <v>137506518</v>
+        <v>155806846</v>
       </c>
       <c r="AV114" s="13">
-        <v>155806846</v>
+        <v>238865639</v>
       </c>
       <c r="AW114" s="13">
-        <v>238865639</v>
+        <v>248226966</v>
       </c>
       <c r="AX114" s="13">
-        <v>248226966</v>
+        <v>227268293</v>
       </c>
       <c r="AY114" s="13">
-        <v>227268293</v>
+        <v>210598608</v>
       </c>
       <c r="AZ114" s="13">
-        <v>210598608</v>
+        <v>199742188</v>
       </c>
       <c r="BA114" s="13">
-        <v>199742188</v>
+        <v>198836105</v>
       </c>
       <c r="BB114" s="13">
-        <v>198836105</v>
+        <v>216880223</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15562,95 +15562,95 @@
       <c r="X115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y115" s="11" t="s">
-        <v>58</v>
+      <c r="Y115" s="11">
+        <v>27334337</v>
       </c>
       <c r="Z115" s="11">
-        <v>27334337</v>
+        <v>28305699</v>
       </c>
       <c r="AA115" s="11">
-        <v>28305699</v>
+        <v>27524496</v>
       </c>
       <c r="AB115" s="11">
-        <v>27524496</v>
+        <v>26841924</v>
       </c>
       <c r="AC115" s="11">
-        <v>26841924</v>
+        <v>28133721</v>
       </c>
       <c r="AD115" s="11">
-        <v>28133721</v>
+        <v>34254125</v>
       </c>
       <c r="AE115" s="11">
-        <v>34254125</v>
+        <v>32806647</v>
       </c>
       <c r="AF115" s="11">
-        <v>32806647</v>
+        <v>31590686</v>
       </c>
       <c r="AG115" s="11">
-        <v>31590686</v>
+        <v>35476923</v>
       </c>
       <c r="AH115" s="11">
-        <v>35476923</v>
+        <v>34916928</v>
       </c>
       <c r="AI115" s="11">
-        <v>34916928</v>
+        <v>36220386</v>
       </c>
       <c r="AJ115" s="11">
-        <v>36220386</v>
+        <v>35481962</v>
       </c>
       <c r="AK115" s="11">
-        <v>35481962</v>
+        <v>37419549</v>
       </c>
       <c r="AL115" s="11">
-        <v>37419549</v>
+        <v>37787500</v>
       </c>
       <c r="AM115" s="11">
-        <v>37787500</v>
+        <v>44878229</v>
       </c>
       <c r="AN115" s="11">
-        <v>44878229</v>
+        <v>46798365</v>
       </c>
       <c r="AO115" s="11">
-        <v>46798365</v>
+        <v>46603989</v>
       </c>
       <c r="AP115" s="11">
-        <v>46603989</v>
+        <v>45920973</v>
       </c>
       <c r="AQ115" s="11">
-        <v>45920973</v>
+        <v>46385787</v>
       </c>
       <c r="AR115" s="11">
-        <v>46385787</v>
+        <v>46456359</v>
       </c>
       <c r="AS115" s="11">
-        <v>46456359</v>
+        <v>46274262</v>
       </c>
       <c r="AT115" s="11">
-        <v>46274262</v>
+        <v>47706150</v>
       </c>
       <c r="AU115" s="11">
-        <v>47706150</v>
+        <v>52497382</v>
       </c>
       <c r="AV115" s="11">
-        <v>52497382</v>
+        <v>84423077</v>
       </c>
       <c r="AW115" s="11">
-        <v>84423077</v>
+        <v>81439122</v>
       </c>
       <c r="AX115" s="11">
-        <v>81439122</v>
+        <v>81073826</v>
       </c>
       <c r="AY115" s="11">
-        <v>81073826</v>
+        <v>81990950</v>
       </c>
       <c r="AZ115" s="11">
-        <v>81990950</v>
+        <v>81255521</v>
       </c>
       <c r="BA115" s="11">
-        <v>81255521</v>
+        <v>77288256</v>
       </c>
       <c r="BB115" s="11">
-        <v>77288256</v>
+        <v>78324713</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -15724,68 +15724,68 @@
       <c r="Y116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Z116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AA116" s="13">
+      <c r="Z116" s="13">
         <v>109000000</v>
       </c>
-      <c r="AB116" s="13" t="s">
-        <v>58</v>
+      <c r="AA116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AB116" s="13">
+        <v>216000000</v>
       </c>
       <c r="AC116" s="13">
+        <v>168000000</v>
+      </c>
+      <c r="AD116" s="13">
+        <v>215500000</v>
+      </c>
+      <c r="AE116" s="13">
+        <v>239000000</v>
+      </c>
+      <c r="AF116" s="13">
+        <v>201000000</v>
+      </c>
+      <c r="AG116" s="13">
+        <v>168333333</v>
+      </c>
+      <c r="AH116" s="13">
+        <v>240333333</v>
+      </c>
+      <c r="AI116" s="13">
+        <v>189000000</v>
+      </c>
+      <c r="AJ116" s="13">
+        <v>178333333</v>
+      </c>
+      <c r="AK116" s="13">
+        <v>202000000</v>
+      </c>
+      <c r="AL116" s="13">
+        <v>265000000</v>
+      </c>
+      <c r="AM116" s="13">
         <v>216000000</v>
       </c>
-      <c r="AD116" s="13">
-        <v>168000000</v>
-      </c>
-      <c r="AE116" s="13">
-        <v>215500000</v>
-      </c>
-      <c r="AF116" s="13">
-        <v>239000000</v>
-      </c>
-      <c r="AG116" s="13">
-        <v>201000000</v>
-      </c>
-      <c r="AH116" s="13">
-        <v>168333333</v>
-      </c>
-      <c r="AI116" s="13">
-        <v>240333333</v>
-      </c>
-      <c r="AJ116" s="13">
-        <v>189000000</v>
-      </c>
-      <c r="AK116" s="13">
-        <v>178333333</v>
-      </c>
-      <c r="AL116" s="13">
-        <v>202000000</v>
-      </c>
-      <c r="AM116" s="13">
-        <v>265000000</v>
-      </c>
       <c r="AN116" s="13">
-        <v>216000000</v>
+        <v>219750000</v>
       </c>
       <c r="AO116" s="13">
-        <v>219750000</v>
+        <v>243000000</v>
       </c>
       <c r="AP116" s="13">
-        <v>243000000</v>
+        <v>159000000</v>
       </c>
       <c r="AQ116" s="13">
-        <v>159000000</v>
+        <v>226000000</v>
       </c>
       <c r="AR116" s="13">
-        <v>226000000</v>
+        <v>234333333</v>
       </c>
       <c r="AS116" s="13">
-        <v>234333333</v>
-      </c>
-      <c r="AT116" s="13">
         <v>274666667</v>
+      </c>
+      <c r="AT116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU116" s="13" t="s">
         <v>58</v>
@@ -15880,95 +15880,95 @@
       <c r="X117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y117" s="11" t="s">
-        <v>58</v>
+      <c r="Y117" s="11">
+        <v>190906977</v>
       </c>
       <c r="Z117" s="11">
-        <v>190906977</v>
+        <v>189056122</v>
       </c>
       <c r="AA117" s="11">
-        <v>189056122</v>
+        <v>221522293</v>
       </c>
       <c r="AB117" s="11">
-        <v>221522293</v>
+        <v>209200000</v>
       </c>
       <c r="AC117" s="11">
-        <v>209200000</v>
+        <v>206339506</v>
       </c>
       <c r="AD117" s="11">
-        <v>206339506</v>
+        <v>257308219</v>
       </c>
       <c r="AE117" s="11">
-        <v>257308219</v>
+        <v>286521212</v>
       </c>
       <c r="AF117" s="11">
-        <v>286521212</v>
+        <v>276613139</v>
       </c>
       <c r="AG117" s="11">
-        <v>276613139</v>
+        <v>300954545</v>
       </c>
       <c r="AH117" s="11">
-        <v>300954545</v>
+        <v>298742515</v>
       </c>
       <c r="AI117" s="11">
-        <v>298742515</v>
+        <v>304587500</v>
       </c>
       <c r="AJ117" s="11">
-        <v>304587500</v>
+        <v>313867580</v>
       </c>
       <c r="AK117" s="11">
-        <v>313867580</v>
+        <v>320385185</v>
       </c>
       <c r="AL117" s="11">
-        <v>320385185</v>
+        <v>325523256</v>
       </c>
       <c r="AM117" s="11">
-        <v>325523256</v>
+        <v>355349206</v>
       </c>
       <c r="AN117" s="11">
-        <v>355349206</v>
+        <v>419245033</v>
       </c>
       <c r="AO117" s="11">
-        <v>419245033</v>
+        <v>435451429</v>
       </c>
       <c r="AP117" s="11">
-        <v>435451429</v>
+        <v>458837349</v>
       </c>
       <c r="AQ117" s="11">
-        <v>458837349</v>
+        <v>496493056</v>
       </c>
       <c r="AR117" s="11">
-        <v>496493056</v>
+        <v>403396825</v>
       </c>
       <c r="AS117" s="11">
-        <v>403396825</v>
+        <v>355975490</v>
       </c>
       <c r="AT117" s="11">
-        <v>355975490</v>
+        <v>444693750</v>
       </c>
       <c r="AU117" s="11">
-        <v>444693750</v>
+        <v>464476701</v>
       </c>
       <c r="AV117" s="11">
-        <v>463049430</v>
+        <v>651234742</v>
       </c>
       <c r="AW117" s="11">
-        <v>651234742</v>
+        <v>726676259</v>
       </c>
       <c r="AX117" s="11">
-        <v>726676259</v>
+        <v>727677885</v>
       </c>
       <c r="AY117" s="11">
-        <v>727677885</v>
+        <v>784781915</v>
       </c>
       <c r="AZ117" s="11">
-        <v>784781915</v>
+        <v>738099567</v>
       </c>
       <c r="BA117" s="11">
-        <v>738099567</v>
+        <v>763246479</v>
       </c>
       <c r="BB117" s="11">
-        <v>763246479</v>
+        <v>746267361</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -16039,95 +16039,95 @@
       <c r="X118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y118" s="13" t="s">
-        <v>58</v>
+      <c r="Y118" s="13">
+        <v>184168269</v>
       </c>
       <c r="Z118" s="13">
-        <v>184168269</v>
+        <v>237158228</v>
       </c>
       <c r="AA118" s="13">
-        <v>237158228</v>
+        <v>296096257</v>
       </c>
       <c r="AB118" s="13">
-        <v>296096257</v>
+        <v>285212560</v>
       </c>
       <c r="AC118" s="13">
-        <v>285212560</v>
+        <v>257923077</v>
       </c>
       <c r="AD118" s="13">
-        <v>257923077</v>
+        <v>358000000</v>
       </c>
       <c r="AE118" s="13">
-        <v>358000000</v>
+        <v>411535714</v>
       </c>
       <c r="AF118" s="13">
-        <v>411535714</v>
+        <v>241000000</v>
       </c>
       <c r="AG118" s="13">
-        <v>241000000</v>
+        <v>215075472</v>
       </c>
       <c r="AH118" s="13">
-        <v>215075472</v>
+        <v>261738462</v>
       </c>
       <c r="AI118" s="13">
-        <v>261738462</v>
+        <v>447827586</v>
       </c>
       <c r="AJ118" s="13">
-        <v>447827586</v>
+        <v>272572347</v>
       </c>
       <c r="AK118" s="13">
-        <v>272572347</v>
+        <v>438303922</v>
       </c>
       <c r="AL118" s="13">
-        <v>438303922</v>
+        <v>323404494</v>
       </c>
       <c r="AM118" s="13">
-        <v>323404494</v>
+        <v>311403361</v>
       </c>
       <c r="AN118" s="13">
-        <v>311403361</v>
+        <v>426264151</v>
       </c>
       <c r="AO118" s="13">
-        <v>426264151</v>
+        <v>310246212</v>
       </c>
       <c r="AP118" s="13">
-        <v>310246212</v>
+        <v>205029197</v>
       </c>
       <c r="AQ118" s="13">
-        <v>205029197</v>
+        <v>382632184</v>
       </c>
       <c r="AR118" s="13">
-        <v>382632184</v>
+        <v>306678571</v>
       </c>
       <c r="AS118" s="13">
-        <v>306678571</v>
+        <v>259174393</v>
       </c>
       <c r="AT118" s="13">
-        <v>259174393</v>
+        <v>509444444</v>
       </c>
       <c r="AU118" s="13">
-        <v>509444444</v>
+        <v>316400345</v>
       </c>
       <c r="AV118" s="13">
-        <v>313539548</v>
+        <v>384946860</v>
       </c>
       <c r="AW118" s="13">
-        <v>384946860</v>
+        <v>671273973</v>
       </c>
       <c r="AX118" s="13">
-        <v>671273973</v>
+        <v>588900000</v>
       </c>
       <c r="AY118" s="13">
-        <v>588900000</v>
+        <v>872545455</v>
       </c>
       <c r="AZ118" s="13">
-        <v>872545455</v>
+        <v>574175000</v>
       </c>
       <c r="BA118" s="13">
-        <v>574175000</v>
+        <v>541585366</v>
       </c>
       <c r="BB118" s="13">
-        <v>541585366</v>
+        <v>463839779</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16198,95 +16198,95 @@
       <c r="X119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y119" s="11" t="s">
-        <v>58</v>
+      <c r="Y119" s="11">
+        <v>42094206</v>
       </c>
       <c r="Z119" s="11">
-        <v>42094206</v>
+        <v>45188928</v>
       </c>
       <c r="AA119" s="11">
-        <v>45188928</v>
+        <v>50180985</v>
       </c>
       <c r="AB119" s="11">
-        <v>50180985</v>
+        <v>51783765</v>
       </c>
       <c r="AC119" s="11">
-        <v>51783765</v>
+        <v>48761592</v>
       </c>
       <c r="AD119" s="11">
-        <v>48761592</v>
+        <v>60969526</v>
       </c>
       <c r="AE119" s="11">
-        <v>60969526</v>
+        <v>64771501</v>
       </c>
       <c r="AF119" s="11">
-        <v>64771501</v>
+        <v>54640903</v>
       </c>
       <c r="AG119" s="11">
-        <v>54640903</v>
+        <v>65961141</v>
       </c>
       <c r="AH119" s="11">
-        <v>65961141</v>
+        <v>57108512</v>
       </c>
       <c r="AI119" s="11">
-        <v>57108512</v>
+        <v>58823120</v>
       </c>
       <c r="AJ119" s="11">
-        <v>58823120</v>
+        <v>63813546</v>
       </c>
       <c r="AK119" s="11">
-        <v>63813546</v>
+        <v>60489176</v>
       </c>
       <c r="AL119" s="11">
-        <v>60489176</v>
+        <v>63104292</v>
       </c>
       <c r="AM119" s="11">
-        <v>63104292</v>
+        <v>82528181</v>
       </c>
       <c r="AN119" s="11">
-        <v>82528181</v>
+        <v>92302158</v>
       </c>
       <c r="AO119" s="11">
-        <v>92302158</v>
+        <v>91825798</v>
       </c>
       <c r="AP119" s="11">
-        <v>91825798</v>
+        <v>88535699</v>
       </c>
       <c r="AQ119" s="11">
-        <v>88535699</v>
+        <v>85948938</v>
       </c>
       <c r="AR119" s="11">
-        <v>85948938</v>
+        <v>89051046</v>
       </c>
       <c r="AS119" s="11">
-        <v>89051046</v>
+        <v>91301376</v>
       </c>
       <c r="AT119" s="11">
-        <v>91301376</v>
+        <v>90356863</v>
       </c>
       <c r="AU119" s="11">
-        <v>90356863</v>
+        <v>108535964</v>
       </c>
       <c r="AV119" s="11">
-        <v>109131623</v>
+        <v>162234343</v>
       </c>
       <c r="AW119" s="11">
-        <v>162234343</v>
+        <v>162447647</v>
       </c>
       <c r="AX119" s="11">
-        <v>162447647</v>
+        <v>166213379</v>
       </c>
       <c r="AY119" s="11">
-        <v>166213379</v>
+        <v>165222404</v>
       </c>
       <c r="AZ119" s="11">
-        <v>165222404</v>
+        <v>162451702</v>
       </c>
       <c r="BA119" s="11">
-        <v>162451702</v>
+        <v>163961049</v>
       </c>
       <c r="BB119" s="11">
-        <v>163961049</v>
+        <v>168610103</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16420,32 +16420,32 @@
       <c r="AS120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT120" s="13" t="s">
-        <v>58</v>
+      <c r="AT120" s="13">
+        <v>557151565</v>
       </c>
       <c r="AU120" s="13">
-        <v>557151565</v>
+        <v>335368128</v>
       </c>
       <c r="AV120" s="13">
-        <v>341968992</v>
+        <v>780946429</v>
       </c>
       <c r="AW120" s="13">
-        <v>780946429</v>
+        <v>879729711</v>
       </c>
       <c r="AX120" s="13">
-        <v>915930736</v>
+        <v>1489403846</v>
       </c>
       <c r="AY120" s="13">
-        <v>1489403846</v>
+        <v>1048691358</v>
       </c>
       <c r="AZ120" s="13">
-        <v>1048691358</v>
+        <v>764303207</v>
       </c>
       <c r="BA120" s="13">
-        <v>764303207</v>
+        <v>794296804</v>
       </c>
       <c r="BB120" s="13">
-        <v>794296804</v>
+        <v>877397129</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16516,71 +16516,71 @@
       <c r="X121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y121" s="11" t="s">
-        <v>58</v>
+      <c r="Y121" s="11">
+        <v>233559322</v>
       </c>
       <c r="Z121" s="11">
-        <v>233559322</v>
+        <v>293781667</v>
       </c>
       <c r="AA121" s="11">
-        <v>293781667</v>
+        <v>236789809</v>
       </c>
       <c r="AB121" s="11">
-        <v>236789809</v>
+        <v>277950685</v>
       </c>
       <c r="AC121" s="11">
-        <v>277950685</v>
+        <v>276136364</v>
       </c>
       <c r="AD121" s="11">
-        <v>276136364</v>
+        <v>436000000</v>
       </c>
       <c r="AE121" s="11">
-        <v>436000000</v>
+        <v>351027174</v>
       </c>
       <c r="AF121" s="11">
-        <v>351027174</v>
+        <v>331454545</v>
       </c>
       <c r="AG121" s="11">
-        <v>331454545</v>
+        <v>337797297</v>
       </c>
       <c r="AH121" s="11">
-        <v>337797297</v>
+        <v>362049342</v>
       </c>
       <c r="AI121" s="11">
-        <v>362049342</v>
+        <v>370086379</v>
       </c>
       <c r="AJ121" s="11">
-        <v>370086379</v>
+        <v>397475248</v>
       </c>
       <c r="AK121" s="11">
-        <v>397475248</v>
+        <v>390500000</v>
       </c>
       <c r="AL121" s="11">
-        <v>390500000</v>
+        <v>530286486</v>
       </c>
       <c r="AM121" s="11">
-        <v>530286486</v>
+        <v>670565982</v>
       </c>
       <c r="AN121" s="11">
-        <v>670565982</v>
+        <v>626250000</v>
       </c>
       <c r="AO121" s="11">
-        <v>626250000</v>
+        <v>552000000</v>
       </c>
       <c r="AP121" s="11">
-        <v>552000000</v>
+        <v>594915254</v>
       </c>
       <c r="AQ121" s="11">
-        <v>594915254</v>
+        <v>594000000</v>
       </c>
       <c r="AR121" s="11">
-        <v>594000000</v>
+        <v>540000000</v>
       </c>
       <c r="AS121" s="11">
-        <v>540000000</v>
-      </c>
-      <c r="AT121" s="11">
         <v>540594059</v>
+      </c>
+      <c r="AT121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AU121" s="11" t="s">
         <v>58</v>
@@ -16675,71 +16675,71 @@
       <c r="X122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y122" s="13" t="s">
-        <v>58</v>
+      <c r="Y122" s="13">
+        <v>558708333</v>
       </c>
       <c r="Z122" s="13">
-        <v>558708333</v>
+        <v>463500000</v>
       </c>
       <c r="AA122" s="13">
-        <v>463500000</v>
+        <v>550842105</v>
       </c>
       <c r="AB122" s="13">
-        <v>550842105</v>
+        <v>613800000</v>
       </c>
       <c r="AC122" s="13">
-        <v>613800000</v>
+        <v>664800000</v>
       </c>
       <c r="AD122" s="13">
-        <v>664800000</v>
+        <v>892894737</v>
       </c>
       <c r="AE122" s="13">
-        <v>892894737</v>
+        <v>694000000</v>
       </c>
       <c r="AF122" s="13">
-        <v>694000000</v>
+        <v>552000000</v>
       </c>
       <c r="AG122" s="13">
-        <v>552000000</v>
+        <v>1203000000</v>
       </c>
       <c r="AH122" s="13">
-        <v>1203000000</v>
+        <v>973200000</v>
       </c>
       <c r="AI122" s="13">
-        <v>973200000</v>
+        <v>1029571429</v>
       </c>
       <c r="AJ122" s="13">
-        <v>1029571429</v>
+        <v>945416667</v>
       </c>
       <c r="AK122" s="13">
-        <v>945416667</v>
+        <v>1163285714</v>
       </c>
       <c r="AL122" s="13">
-        <v>1163285714</v>
+        <v>1440400000</v>
       </c>
       <c r="AM122" s="13">
-        <v>1440400000</v>
+        <v>1564000000</v>
       </c>
       <c r="AN122" s="13">
-        <v>1564000000</v>
+        <v>1468250000</v>
       </c>
       <c r="AO122" s="13">
-        <v>1468250000</v>
+        <v>1633000000</v>
       </c>
       <c r="AP122" s="13">
-        <v>1633000000</v>
+        <v>1462200000</v>
       </c>
       <c r="AQ122" s="13">
-        <v>1462200000</v>
+        <v>1809000000</v>
       </c>
       <c r="AR122" s="13">
-        <v>1809000000</v>
+        <v>1775750000</v>
       </c>
       <c r="AS122" s="13">
-        <v>1775750000</v>
-      </c>
-      <c r="AT122" s="13">
         <v>1648714286</v>
+      </c>
+      <c r="AT122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AU122" s="13" t="s">
         <v>58</v>
@@ -16834,95 +16834,95 @@
       <c r="X123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="Y123" s="11" t="s">
-        <v>58</v>
+      <c r="Y123" s="11">
+        <v>375300000</v>
       </c>
       <c r="Z123" s="11">
-        <v>375300000</v>
+        <v>365764706</v>
       </c>
       <c r="AA123" s="11">
-        <v>365764706</v>
+        <v>431878788</v>
       </c>
       <c r="AB123" s="11">
-        <v>431878788</v>
+        <v>627841463</v>
       </c>
       <c r="AC123" s="11">
-        <v>627841463</v>
+        <v>634322917</v>
       </c>
       <c r="AD123" s="11">
-        <v>634322917</v>
+        <v>750621622</v>
       </c>
       <c r="AE123" s="11">
-        <v>750621622</v>
+        <v>767553191</v>
       </c>
       <c r="AF123" s="11">
-        <v>767553191</v>
+        <v>714308824</v>
       </c>
       <c r="AG123" s="11">
-        <v>714308824</v>
+        <v>735000000</v>
       </c>
       <c r="AH123" s="11">
-        <v>735000000</v>
+        <v>705016949</v>
       </c>
       <c r="AI123" s="11">
-        <v>705016949</v>
+        <v>681204082</v>
       </c>
       <c r="AJ123" s="11">
-        <v>681204082</v>
+        <v>679243243</v>
       </c>
       <c r="AK123" s="11">
-        <v>679243243</v>
+        <v>556621795</v>
       </c>
       <c r="AL123" s="11">
-        <v>556621795</v>
+        <v>705234375</v>
       </c>
       <c r="AM123" s="11">
-        <v>705234375</v>
+        <v>772804878</v>
       </c>
       <c r="AN123" s="11">
-        <v>772804878</v>
+        <v>812123457</v>
       </c>
       <c r="AO123" s="11">
-        <v>812123457</v>
+        <v>888862069</v>
       </c>
       <c r="AP123" s="11">
-        <v>888862069</v>
+        <v>867844595</v>
       </c>
       <c r="AQ123" s="11">
-        <v>867844595</v>
+        <v>881192982</v>
       </c>
       <c r="AR123" s="11">
-        <v>881192982</v>
+        <v>891384615</v>
       </c>
       <c r="AS123" s="11">
-        <v>891384615</v>
+        <v>669925926</v>
       </c>
       <c r="AT123" s="11">
-        <v>669925926</v>
+        <v>891141026</v>
       </c>
       <c r="AU123" s="11">
-        <v>891141026</v>
+        <v>767111697</v>
       </c>
       <c r="AV123" s="11">
-        <v>779325513</v>
+        <v>1419243243</v>
       </c>
       <c r="AW123" s="11">
-        <v>1419243243</v>
+        <v>1669468354</v>
       </c>
       <c r="AX123" s="11">
-        <v>1669468354</v>
+        <v>1369659686</v>
       </c>
       <c r="AY123" s="11">
-        <v>1369659686</v>
+        <v>1405371041</v>
       </c>
       <c r="AZ123" s="11">
-        <v>1405371041</v>
+        <v>1350024390</v>
       </c>
       <c r="BA123" s="11">
-        <v>1350024390</v>
+        <v>1372708207</v>
       </c>
       <c r="BB123" s="11">
-        <v>1372708207</v>
+        <v>1484528302</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.3">
@@ -16999,12 +16999,12 @@
       <c r="Z124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AB124" s="13">
+      <c r="AA124" s="13">
         <v>136333333</v>
       </c>
+      <c r="AB124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AC124" s="13" t="s">
         <v>58</v>
       </c>
@@ -17032,12 +17032,12 @@
       <c r="AK124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM124" s="13">
+      <c r="AL124" s="13">
         <v>357086957</v>
       </c>
+      <c r="AM124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN124" s="13" t="s">
         <v>58</v>
       </c>
@@ -17047,41 +17047,41 @@
       <c r="AP124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR124" s="13">
+      <c r="AQ124" s="13">
         <v>238000000</v>
       </c>
+      <c r="AR124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AS124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT124" s="13" t="s">
-        <v>58</v>
+      <c r="AT124" s="13">
+        <v>240600000</v>
       </c>
       <c r="AU124" s="13">
-        <v>240600000</v>
+        <v>275600000</v>
       </c>
       <c r="AV124" s="13">
-        <v>275600000</v>
+        <v>310333333</v>
       </c>
       <c r="AW124" s="13">
-        <v>310333333</v>
+        <v>443000000</v>
       </c>
       <c r="AX124" s="13">
-        <v>443000000</v>
+        <v>459750000</v>
       </c>
       <c r="AY124" s="13">
-        <v>459750000</v>
+        <v>652000000</v>
       </c>
       <c r="AZ124" s="13">
-        <v>652000000</v>
+        <v>326500000</v>
       </c>
       <c r="BA124" s="13">
-        <v>326500000</v>
+        <v>358500000</v>
       </c>
       <c r="BB124" s="13">
-        <v>358500000</v>
+        <v>388500000</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17377,29 +17377,29 @@
       <c r="AT126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU126" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AV126" s="13">
+      <c r="AU126" s="13">
         <v>47615385</v>
       </c>
-      <c r="AW126" s="13" t="s">
-        <v>58</v>
+      <c r="AV126" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AW126" s="13">
+        <v>54250000</v>
       </c>
       <c r="AX126" s="13">
-        <v>54250000</v>
+        <v>58800000</v>
       </c>
       <c r="AY126" s="13">
-        <v>58800000</v>
+        <v>52642857</v>
       </c>
       <c r="AZ126" s="13">
-        <v>52642857</v>
+        <v>673500000</v>
       </c>
       <c r="BA126" s="13">
-        <v>673500000</v>
-      </c>
-      <c r="BB126" s="13">
         <v>771000000</v>
+      </c>
+      <c r="BB126" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="127" spans="2:54" x14ac:dyDescent="0.3">
@@ -17593,14 +17593,14 @@
       <c r="AT128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU128" s="11" t="s">
-        <v>58</v>
+      <c r="AU128" s="11">
+        <v>0</v>
       </c>
       <c r="AV128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW128" s="11" t="s">
-        <v>58</v>
+      <c r="AW128" s="11">
+        <v>0</v>
       </c>
       <c r="AX128" s="11" t="s">
         <v>58</v>
@@ -17608,8 +17608,8 @@
       <c r="AY128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ128" s="11">
-        <v>0</v>
+      <c r="AZ128" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA128" s="11" t="s">
         <v>58</v>
@@ -17752,14 +17752,14 @@
       <c r="AT129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU129" s="13" t="s">
-        <v>58</v>
+      <c r="AU129" s="13">
+        <v>0</v>
       </c>
       <c r="AV129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW129" s="13" t="s">
-        <v>58</v>
+      <c r="AW129" s="13">
+        <v>0</v>
       </c>
       <c r="AX129" s="13" t="s">
         <v>58</v>
@@ -17767,14 +17767,14 @@
       <c r="AY129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ129" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB129" s="13">
+      <c r="AZ129" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA129" s="13">
         <v>831600000</v>
+      </c>
+      <c r="BB129" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="130" spans="2:54" x14ac:dyDescent="0.3">
@@ -17911,14 +17911,14 @@
       <c r="AT130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU130" s="11" t="s">
-        <v>58</v>
+      <c r="AU130" s="11">
+        <v>0</v>
       </c>
       <c r="AV130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW130" s="11" t="s">
-        <v>58</v>
+      <c r="AW130" s="11">
+        <v>0</v>
       </c>
       <c r="AX130" s="11" t="s">
         <v>58</v>
@@ -17926,8 +17926,8 @@
       <c r="AY130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AZ130" s="11">
-        <v>0</v>
+      <c r="AZ130" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="BA130" s="11" t="s">
         <v>58</v>
@@ -18070,14 +18070,14 @@
       <c r="AT131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU131" s="13" t="s">
-        <v>58</v>
+      <c r="AU131" s="13">
+        <v>0</v>
       </c>
       <c r="AV131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW131" s="13" t="s">
-        <v>58</v>
+      <c r="AW131" s="13">
+        <v>0</v>
       </c>
       <c r="AX131" s="13" t="s">
         <v>58</v>
@@ -18085,14 +18085,14 @@
       <c r="AY131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ131" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA131" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB131" s="13">
+      <c r="AZ131" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA131" s="13">
         <v>1189157143</v>
+      </c>
+      <c r="BB131" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="132" spans="2:54" x14ac:dyDescent="0.3">
@@ -18199,11 +18199,11 @@
       <c r="AJ132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL132" s="11">
+      <c r="AK132" s="11">
         <v>580000000</v>
+      </c>
+      <c r="AL132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AM132" s="11" t="s">
         <v>58</v>
@@ -18388,14 +18388,14 @@
       <c r="AT133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU133" s="13" t="s">
-        <v>58</v>
+      <c r="AU133" s="13">
+        <v>0</v>
       </c>
       <c r="AV133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW133" s="13" t="s">
-        <v>58</v>
+      <c r="AW133" s="13">
+        <v>0</v>
       </c>
       <c r="AX133" s="13" t="s">
         <v>58</v>
@@ -18403,14 +18403,14 @@
       <c r="AY133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AZ133" s="13">
-        <v>0</v>
-      </c>
-      <c r="BA133" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="BB133" s="13">
+      <c r="AZ133" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA133" s="13">
         <v>1370000000</v>
+      </c>
+      <c r="BB133" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>

--- a/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\ghaza\gheshan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30178FB-5558-4D31-AB0B-5725E20C2A45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE41513F-61F0-4728-B9B0-B12DE29CADB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2640" yWindow="1704" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3091" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3004" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
   <si>
-    <t>Copyright @2015 - 2022</t>
+    <t>Copyright @2015 - 2023</t>
   </si>
   <si>
     <t>غشان-شیرپاستوریزه‌پگاه‌خراسان‌</t>
@@ -35,12 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 8 منتهی به 1397/08</t>
-  </si>
-  <si>
-    <t>ماه 9 منتهی به 1397/09</t>
   </si>
   <si>
     <t>ماه 10 منتهی به 1397/10</t>
@@ -185,6 +179,12 @@
   </si>
   <si>
     <t>ماه 9 منتهی به 1401/09</t>
+  </si>
+  <si>
+    <t>ماه 10 منتهی به 1401/10</t>
+  </si>
+  <si>
+    <t>ماه 11 منتهی به 1401/11</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -793,12 +793,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="54" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -853,7 +853,7 @@
       <c r="BA1" s="1"/>
       <c r="BB1" s="1"/>
     </row>
-    <row r="2" spans="2:54" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:54" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -910,7 +910,7 @@
       <c r="BA2" s="1"/>
       <c r="BB2" s="1"/>
     </row>
-    <row r="3" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -967,7 +967,7 @@
       <c r="BA3" s="1"/>
       <c r="BB3" s="1"/>
     </row>
-    <row r="4" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -1022,7 +1022,7 @@
       <c r="BA4" s="1"/>
       <c r="BB4" s="1"/>
     </row>
-    <row r="5" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="5" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -1079,7 +1079,7 @@
       <c r="BA5" s="4"/>
       <c r="BB5" s="4"/>
     </row>
-    <row r="6" spans="2:54" ht="40.799999999999997" x14ac:dyDescent="0.75">
+    <row r="6" spans="2:54" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -1136,7 +1136,7 @@
       <c r="BA6" s="4"/>
       <c r="BB6" s="4"/>
     </row>
-    <row r="7" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -1191,7 +1191,7 @@
       <c r="BA7" s="1"/>
       <c r="BB7" s="1"/>
     </row>
-    <row r="8" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -1348,7 +1348,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -1403,7 +1403,7 @@
       <c r="BA9" s="1"/>
       <c r="BB9" s="1"/>
     </row>
-    <row r="10" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
         <v>55</v>
       </c>
@@ -1460,7 +1460,7 @@
       <c r="BA10" s="9"/>
       <c r="BB10" s="9"/>
     </row>
-    <row r="11" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
         <v>56</v>
       </c>
@@ -1522,74 +1522,74 @@
       <c r="V11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W11" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X11" s="11" t="s">
-        <v>58</v>
+      <c r="W11" s="11">
+        <v>6</v>
+      </c>
+      <c r="X11" s="11">
+        <v>18</v>
       </c>
       <c r="Y11" s="11">
+        <v>34</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>19</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>35</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>15</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AD11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AE11" s="11">
+        <v>17</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AG11" s="11">
         <v>6</v>
       </c>
-      <c r="Z11" s="11">
-        <v>18</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>34</v>
-      </c>
-      <c r="AB11" s="11">
-        <v>19</v>
-      </c>
-      <c r="AC11" s="11">
-        <v>35</v>
-      </c>
-      <c r="AD11" s="11">
-        <v>15</v>
-      </c>
-      <c r="AE11" s="11">
-        <v>29</v>
-      </c>
-      <c r="AF11" s="11">
+      <c r="AH11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AI11" s="11">
+        <v>40</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>37</v>
+      </c>
+      <c r="AK11" s="11">
         <v>24</v>
       </c>
-      <c r="AG11" s="11">
-        <v>17</v>
-      </c>
-      <c r="AH11" s="11">
+      <c r="AL11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AN11" s="11">
+        <v>39</v>
+      </c>
+      <c r="AO11" s="11">
+        <v>36</v>
+      </c>
+      <c r="AP11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AQ11" s="11">
         <v>10</v>
       </c>
-      <c r="AI11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>37</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AP11" s="11">
-        <v>39</v>
-      </c>
-      <c r="AQ11" s="11">
-        <v>36</v>
-      </c>
-      <c r="AR11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AS11" s="11">
-        <v>10</v>
+      <c r="AR11" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT11" s="11" t="s">
         <v>58</v>
@@ -1619,7 +1619,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
         <v>59</v>
       </c>
@@ -1681,104 +1681,104 @@
       <c r="V12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X12" s="13" t="s">
-        <v>58</v>
+      <c r="W12" s="13">
+        <v>569</v>
+      </c>
+      <c r="X12" s="13">
+        <v>472</v>
       </c>
       <c r="Y12" s="13">
-        <v>569</v>
+        <v>773</v>
       </c>
       <c r="Z12" s="13">
+        <v>422</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>674</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>694</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>514</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>547</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>806</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>694</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>536</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>859</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>661</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>538</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>550</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>345</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>325</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>298</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>356</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>344</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>343</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>616</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>327</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>542</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>383</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>486</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>404</v>
+      </c>
+      <c r="AY12" s="13">
+        <v>417</v>
+      </c>
+      <c r="AZ12" s="13">
+        <v>317</v>
+      </c>
+      <c r="BA12" s="13">
+        <v>445</v>
+      </c>
+      <c r="BB12" s="13">
         <v>472</v>
       </c>
-      <c r="AA12" s="13">
-        <v>773</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>422</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>674</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>694</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>514</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>547</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>806</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>694</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>536</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>859</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>661</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>538</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>550</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>345</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>325</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>298</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>356</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>344</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>343</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>616</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>327</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>542</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>383</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>486</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AZ12" s="13">
-        <v>404</v>
-      </c>
-      <c r="BA12" s="13">
-        <v>417</v>
-      </c>
-      <c r="BB12" s="13">
-        <v>317</v>
-      </c>
     </row>
-    <row r="13" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B13" s="10" t="s">
         <v>60</v>
       </c>
@@ -1840,104 +1840,104 @@
       <c r="V13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W13" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X13" s="11" t="s">
-        <v>58</v>
+      <c r="W13" s="11">
+        <v>344</v>
+      </c>
+      <c r="X13" s="11">
+        <v>351</v>
       </c>
       <c r="Y13" s="11">
-        <v>344</v>
+        <v>364</v>
       </c>
       <c r="Z13" s="11">
-        <v>351</v>
+        <v>296</v>
       </c>
       <c r="AA13" s="11">
-        <v>364</v>
+        <v>315</v>
       </c>
       <c r="AB13" s="11">
-        <v>296</v>
+        <v>317</v>
       </c>
       <c r="AC13" s="11">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="AD13" s="11">
-        <v>317</v>
+        <v>407</v>
       </c>
       <c r="AE13" s="11">
-        <v>305</v>
+        <v>490</v>
       </c>
       <c r="AF13" s="11">
-        <v>407</v>
+        <v>639</v>
       </c>
       <c r="AG13" s="11">
-        <v>490</v>
+        <v>362</v>
       </c>
       <c r="AH13" s="11">
-        <v>639</v>
+        <v>742</v>
       </c>
       <c r="AI13" s="11">
-        <v>362</v>
+        <v>636</v>
       </c>
       <c r="AJ13" s="11">
-        <v>742</v>
+        <v>546</v>
       </c>
       <c r="AK13" s="11">
-        <v>636</v>
+        <v>541</v>
       </c>
       <c r="AL13" s="11">
-        <v>546</v>
+        <v>408</v>
       </c>
       <c r="AM13" s="11">
-        <v>541</v>
+        <v>307</v>
       </c>
       <c r="AN13" s="11">
-        <v>408</v>
+        <v>363</v>
       </c>
       <c r="AO13" s="11">
-        <v>307</v>
+        <v>373</v>
       </c>
       <c r="AP13" s="11">
-        <v>363</v>
+        <v>406</v>
       </c>
       <c r="AQ13" s="11">
-        <v>373</v>
+        <v>473</v>
       </c>
       <c r="AR13" s="11">
-        <v>406</v>
+        <v>468</v>
       </c>
       <c r="AS13" s="11">
-        <v>473</v>
+        <v>343</v>
       </c>
       <c r="AT13" s="11">
         <v>468</v>
       </c>
       <c r="AU13" s="11">
-        <v>343</v>
+        <v>493</v>
       </c>
       <c r="AV13" s="11">
-        <v>468</v>
+        <v>476</v>
       </c>
       <c r="AW13" s="11">
-        <v>493</v>
+        <v>394</v>
       </c>
       <c r="AX13" s="11">
-        <v>476</v>
+        <v>316</v>
       </c>
       <c r="AY13" s="11">
-        <v>394</v>
+        <v>304</v>
       </c>
       <c r="AZ13" s="11">
-        <v>316</v>
+        <v>285</v>
       </c>
       <c r="BA13" s="11">
-        <v>304</v>
+        <v>273</v>
       </c>
       <c r="BB13" s="11">
-        <v>285</v>
+        <v>302</v>
       </c>
     </row>
-    <row r="14" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B14" s="12" t="s">
         <v>61</v>
       </c>
@@ -1999,75 +1999,75 @@
       <c r="V14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W14" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X14" s="13" t="s">
-        <v>58</v>
+      <c r="W14" s="13">
+        <v>0</v>
+      </c>
+      <c r="X14" s="13">
+        <v>0</v>
       </c>
       <c r="Y14" s="13">
         <v>0</v>
       </c>
       <c r="Z14" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AA14" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB14" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AC14" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD14" s="13">
         <v>3</v>
       </c>
       <c r="AE14" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AF14" s="13">
         <v>3</v>
       </c>
       <c r="AG14" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AH14" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AI14" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AK14" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AL14" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AM14" s="13">
         <v>5</v>
       </c>
       <c r="AN14" s="13">
+        <v>3</v>
+      </c>
+      <c r="AO14" s="13">
         <v>4</v>
       </c>
-      <c r="AO14" s="13">
-        <v>5</v>
-      </c>
       <c r="AP14" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AQ14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AR14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AS14" s="13">
         <v>2</v>
       </c>
+      <c r="AR14" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS14" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT14" s="13" t="s">
         <v>58</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="15" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B15" s="10" t="s">
         <v>62</v>
       </c>
@@ -2158,104 +2158,104 @@
       <c r="V15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W15" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X15" s="11" t="s">
-        <v>58</v>
+      <c r="W15" s="11">
+        <v>170</v>
+      </c>
+      <c r="X15" s="11">
+        <v>158</v>
       </c>
       <c r="Y15" s="11">
+        <v>189</v>
+      </c>
+      <c r="Z15" s="11">
         <v>170</v>
       </c>
-      <c r="Z15" s="11">
-        <v>158</v>
-      </c>
       <c r="AA15" s="11">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="AB15" s="11">
-        <v>170</v>
+        <v>176</v>
       </c>
       <c r="AC15" s="11">
-        <v>169</v>
+        <v>138</v>
       </c>
       <c r="AD15" s="11">
-        <v>176</v>
+        <v>136</v>
       </c>
       <c r="AE15" s="11">
         <v>138</v>
       </c>
       <c r="AF15" s="11">
-        <v>136</v>
+        <v>214</v>
       </c>
       <c r="AG15" s="11">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="AH15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>207</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>149</v>
+      </c>
+      <c r="AK15" s="11">
+        <v>186</v>
+      </c>
+      <c r="AL15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>169</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>119</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>141</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>243</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>270</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>268</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>235</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>263</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>259</v>
+      </c>
+      <c r="AY15" s="11">
+        <v>285</v>
+      </c>
+      <c r="AZ15" s="11">
+        <v>279</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>212</v>
+      </c>
+      <c r="BB15" s="11">
         <v>214</v>
       </c>
-      <c r="AI15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>207</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>149</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>186</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>119</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>141</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>200</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>243</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>270</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>268</v>
-      </c>
-      <c r="AX15" s="11">
-        <v>235</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>263</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>259</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>285</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>279</v>
-      </c>
     </row>
-    <row r="16" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B16" s="12" t="s">
         <v>63</v>
       </c>
@@ -2317,104 +2317,104 @@
       <c r="V16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W16" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X16" s="13" t="s">
-        <v>58</v>
+      <c r="W16" s="13">
+        <v>134</v>
+      </c>
+      <c r="X16" s="13">
+        <v>1168</v>
       </c>
       <c r="Y16" s="13">
+        <v>133</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>261</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>242</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>47</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>187</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>243</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>207</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>316</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>83</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>63</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>305</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>93</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>74</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>259</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>120</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>177</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>167</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>377</v>
+      </c>
+      <c r="AR16" s="13">
+        <v>180</v>
+      </c>
+      <c r="AS16" s="13">
+        <v>217</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>249</v>
+      </c>
+      <c r="AU16" s="13">
         <v>134</v>
       </c>
-      <c r="Z16" s="13">
-        <v>1168</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>133</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>261</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>242</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>47</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>187</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>243</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>207</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>316</v>
-      </c>
-      <c r="AI16" s="13">
-        <v>83</v>
-      </c>
-      <c r="AJ16" s="13">
-        <v>63</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>305</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>93</v>
-      </c>
-      <c r="AM16" s="13">
+      <c r="AV16" s="13">
+        <v>107</v>
+      </c>
+      <c r="AW16" s="13">
+        <v>53</v>
+      </c>
+      <c r="AX16" s="13">
         <v>74</v>
       </c>
-      <c r="AN16" s="13">
-        <v>259</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>120</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>177</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>167</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>377</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>180</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>217</v>
-      </c>
-      <c r="AV16" s="13">
-        <v>249</v>
-      </c>
-      <c r="AW16" s="13">
-        <v>134</v>
-      </c>
-      <c r="AX16" s="13">
-        <v>107</v>
-      </c>
       <c r="AY16" s="13">
-        <v>53</v>
+        <v>231</v>
       </c>
       <c r="AZ16" s="13">
-        <v>74</v>
+        <v>116</v>
       </c>
       <c r="BA16" s="13">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="BB16" s="13">
-        <v>116</v>
+        <v>320</v>
       </c>
     </row>
-    <row r="17" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
         <v>64</v>
       </c>
@@ -2476,104 +2476,104 @@
       <c r="V17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W17" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X17" s="11" t="s">
-        <v>58</v>
+      <c r="W17" s="11">
+        <v>2598</v>
+      </c>
+      <c r="X17" s="11">
+        <v>2326</v>
       </c>
       <c r="Y17" s="11">
-        <v>2598</v>
+        <v>2745</v>
       </c>
       <c r="Z17" s="11">
-        <v>2326</v>
+        <v>2569</v>
       </c>
       <c r="AA17" s="11">
-        <v>2745</v>
+        <v>2685</v>
       </c>
       <c r="AB17" s="11">
-        <v>2569</v>
+        <v>2809</v>
       </c>
       <c r="AC17" s="11">
-        <v>2685</v>
+        <v>2422</v>
       </c>
       <c r="AD17" s="11">
-        <v>2809</v>
+        <v>2426</v>
       </c>
       <c r="AE17" s="11">
-        <v>2422</v>
+        <v>2195</v>
       </c>
       <c r="AF17" s="11">
-        <v>2426</v>
+        <v>2242</v>
       </c>
       <c r="AG17" s="11">
-        <v>2195</v>
+        <v>2171</v>
       </c>
       <c r="AH17" s="11">
-        <v>2242</v>
+        <v>2532</v>
       </c>
       <c r="AI17" s="11">
-        <v>2171</v>
+        <v>2411</v>
       </c>
       <c r="AJ17" s="11">
-        <v>2532</v>
+        <v>2329</v>
       </c>
       <c r="AK17" s="11">
-        <v>2411</v>
+        <v>2280</v>
       </c>
       <c r="AL17" s="11">
-        <v>2329</v>
+        <v>2054</v>
       </c>
       <c r="AM17" s="11">
-        <v>2280</v>
+        <v>2318</v>
       </c>
       <c r="AN17" s="11">
-        <v>2054</v>
+        <v>2186</v>
       </c>
       <c r="AO17" s="11">
-        <v>2318</v>
+        <v>2291</v>
       </c>
       <c r="AP17" s="11">
-        <v>2186</v>
+        <v>2375</v>
       </c>
       <c r="AQ17" s="11">
-        <v>2291</v>
+        <v>2295</v>
       </c>
       <c r="AR17" s="11">
-        <v>2375</v>
+        <v>2188</v>
       </c>
       <c r="AS17" s="11">
-        <v>2295</v>
+        <v>2390</v>
       </c>
       <c r="AT17" s="11">
-        <v>2188</v>
+        <v>2358</v>
       </c>
       <c r="AU17" s="11">
-        <v>2390</v>
+        <v>1806</v>
       </c>
       <c r="AV17" s="11">
-        <v>2358</v>
+        <v>1856</v>
       </c>
       <c r="AW17" s="11">
-        <v>1806</v>
+        <v>2201</v>
       </c>
       <c r="AX17" s="11">
-        <v>1856</v>
+        <v>2139</v>
       </c>
       <c r="AY17" s="11">
-        <v>2201</v>
+        <v>2529</v>
       </c>
       <c r="AZ17" s="11">
-        <v>2139</v>
+        <v>2540</v>
       </c>
       <c r="BA17" s="11">
-        <v>2529</v>
+        <v>2480</v>
       </c>
       <c r="BB17" s="11">
-        <v>2540</v>
+        <v>2202</v>
       </c>
     </row>
-    <row r="18" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
         <v>65</v>
       </c>
@@ -2698,41 +2698,41 @@
       <c r="AQ18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR18" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS18" s="13" t="s">
-        <v>58</v>
+      <c r="AR18" s="13">
+        <v>229</v>
+      </c>
+      <c r="AS18" s="13">
+        <v>268</v>
       </c>
       <c r="AT18" s="13">
-        <v>229</v>
+        <v>313</v>
       </c>
       <c r="AU18" s="13">
-        <v>268</v>
+        <v>314</v>
       </c>
       <c r="AV18" s="13">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="AW18" s="13">
-        <v>314</v>
+        <v>220</v>
       </c>
       <c r="AX18" s="13">
-        <v>323</v>
+        <v>192</v>
       </c>
       <c r="AY18" s="13">
-        <v>220</v>
+        <v>185</v>
       </c>
       <c r="AZ18" s="13">
-        <v>192</v>
+        <v>235</v>
       </c>
       <c r="BA18" s="13">
-        <v>185</v>
+        <v>296</v>
       </c>
       <c r="BB18" s="13">
-        <v>235</v>
+        <v>335</v>
       </c>
     </row>
-    <row r="19" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B19" s="10" t="s">
         <v>66</v>
       </c>
@@ -2794,74 +2794,74 @@
       <c r="V19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W19" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X19" s="11" t="s">
-        <v>58</v>
+      <c r="W19" s="11">
+        <v>265</v>
+      </c>
+      <c r="X19" s="11">
+        <v>208</v>
       </c>
       <c r="Y19" s="11">
-        <v>265</v>
+        <v>140</v>
       </c>
       <c r="Z19" s="11">
-        <v>208</v>
+        <v>147</v>
       </c>
       <c r="AA19" s="11">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="AB19" s="11">
-        <v>147</v>
+        <v>181</v>
       </c>
       <c r="AC19" s="11">
-        <v>123</v>
+        <v>228</v>
       </c>
       <c r="AD19" s="11">
-        <v>181</v>
+        <v>263</v>
       </c>
       <c r="AE19" s="11">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="AF19" s="11">
-        <v>263</v>
+        <v>284</v>
       </c>
       <c r="AG19" s="11">
-        <v>209</v>
+        <v>281</v>
       </c>
       <c r="AH19" s="11">
-        <v>284</v>
+        <v>156</v>
       </c>
       <c r="AI19" s="11">
-        <v>281</v>
+        <v>143</v>
       </c>
       <c r="AJ19" s="11">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="AK19" s="11">
+        <v>149</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>192</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>162</v>
+      </c>
+      <c r="AN19" s="11">
+        <v>150</v>
+      </c>
+      <c r="AO19" s="11">
+        <v>172</v>
+      </c>
+      <c r="AP19" s="11">
+        <v>152</v>
+      </c>
+      <c r="AQ19" s="11">
         <v>143</v>
       </c>
-      <c r="AL19" s="11">
-        <v>179</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>149</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>192</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>162</v>
-      </c>
-      <c r="AP19" s="11">
-        <v>150</v>
-      </c>
-      <c r="AQ19" s="11">
-        <v>172</v>
-      </c>
-      <c r="AR19" s="11">
-        <v>152</v>
-      </c>
-      <c r="AS19" s="11">
-        <v>143</v>
+      <c r="AR19" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT19" s="11" t="s">
         <v>58</v>
@@ -2891,7 +2891,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="20" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
         <v>67</v>
       </c>
@@ -2953,74 +2953,74 @@
       <c r="V20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W20" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X20" s="13" t="s">
-        <v>58</v>
+      <c r="W20" s="13">
+        <v>1</v>
+      </c>
+      <c r="X20" s="13">
+        <v>9</v>
       </c>
       <c r="Y20" s="13">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="Z20" s="13">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AA20" s="13">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB20" s="13">
+        <v>6</v>
+      </c>
+      <c r="AC20" s="13">
         <v>13</v>
       </c>
-      <c r="AC20" s="13">
-        <v>19</v>
-      </c>
       <c r="AD20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AE20" s="13">
+        <v>31</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>4</v>
+      </c>
+      <c r="AG20" s="13">
         <v>6</v>
       </c>
-      <c r="AE20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AF20" s="13">
+      <c r="AH20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AJ20" s="13">
+        <v>15</v>
+      </c>
+      <c r="AK20" s="13">
+        <v>10</v>
+      </c>
+      <c r="AL20" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM20" s="13">
         <v>8</v>
       </c>
-      <c r="AG20" s="13">
-        <v>31</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>4</v>
-      </c>
-      <c r="AI20" s="13">
+      <c r="AN20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AO20" s="13">
+        <v>11</v>
+      </c>
+      <c r="AP20" s="13">
+        <v>5</v>
+      </c>
+      <c r="AQ20" s="13">
         <v>6</v>
       </c>
-      <c r="AJ20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AK20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AL20" s="13">
-        <v>15</v>
-      </c>
-      <c r="AM20" s="13">
-        <v>10</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>3</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>8</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>8</v>
-      </c>
-      <c r="AQ20" s="13">
-        <v>11</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AS20" s="13">
-        <v>6</v>
+      <c r="AR20" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT20" s="13" t="s">
         <v>58</v>
@@ -3050,7 +3050,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B21" s="10" t="s">
         <v>68</v>
       </c>
@@ -3112,104 +3112,104 @@
       <c r="V21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W21" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X21" s="11" t="s">
-        <v>58</v>
+      <c r="W21" s="11">
+        <v>103</v>
+      </c>
+      <c r="X21" s="11">
+        <v>63</v>
       </c>
       <c r="Y21" s="11">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="Z21" s="11">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="AA21" s="11">
+        <v>91</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>132</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>126</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>167</v>
+      </c>
+      <c r="AE21" s="11">
+        <v>154</v>
+      </c>
+      <c r="AF21" s="11">
+        <v>164</v>
+      </c>
+      <c r="AG21" s="11">
+        <v>152</v>
+      </c>
+      <c r="AH21" s="11">
         <v>101</v>
       </c>
-      <c r="AB21" s="11">
-        <v>66</v>
-      </c>
-      <c r="AC21" s="11">
+      <c r="AI21" s="11">
+        <v>61</v>
+      </c>
+      <c r="AJ21" s="11">
         <v>91</v>
       </c>
-      <c r="AD21" s="11">
-        <v>132</v>
-      </c>
-      <c r="AE21" s="11">
-        <v>126</v>
-      </c>
-      <c r="AF21" s="11">
-        <v>167</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>154</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>164</v>
-      </c>
-      <c r="AI21" s="11">
+      <c r="AK21" s="11">
+        <v>84</v>
+      </c>
+      <c r="AL21" s="11">
+        <v>71</v>
+      </c>
+      <c r="AM21" s="11">
+        <v>95</v>
+      </c>
+      <c r="AN21" s="11">
+        <v>142</v>
+      </c>
+      <c r="AO21" s="11">
         <v>152</v>
       </c>
-      <c r="AJ21" s="11">
-        <v>101</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>61</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>91</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>84</v>
-      </c>
-      <c r="AN21" s="11">
-        <v>71</v>
-      </c>
-      <c r="AO21" s="11">
-        <v>95</v>
-      </c>
       <c r="AP21" s="11">
-        <v>142</v>
+        <v>119</v>
       </c>
       <c r="AQ21" s="11">
-        <v>152</v>
+        <v>97</v>
       </c>
       <c r="AR21" s="11">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="AS21" s="11">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="AT21" s="11">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="AU21" s="11">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="AV21" s="11">
-        <v>117</v>
+        <v>151</v>
       </c>
       <c r="AW21" s="11">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="AX21" s="11">
-        <v>151</v>
+        <v>120</v>
       </c>
       <c r="AY21" s="11">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AZ21" s="11">
-        <v>120</v>
+        <v>237</v>
       </c>
       <c r="BA21" s="11">
-        <v>143</v>
+        <v>346</v>
       </c>
       <c r="BB21" s="11">
-        <v>237</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="22" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
         <v>69</v>
       </c>
@@ -3271,104 +3271,104 @@
       <c r="V22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X22" s="13" t="s">
-        <v>58</v>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>3</v>
       </c>
       <c r="Y22" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="13">
+        <v>24</v>
+      </c>
+      <c r="AI22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AP22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AQ22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AR22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AS22" s="13">
         <v>3</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ22" s="13">
-        <v>24</v>
-      </c>
-      <c r="AK22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AP22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>1</v>
       </c>
       <c r="AT22" s="13">
         <v>5</v>
       </c>
       <c r="AU22" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV22" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW22" s="13">
         <v>2</v>
       </c>
       <c r="AX22" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AZ22" s="13">
         <v>2</v>
       </c>
-      <c r="AZ22" s="13">
-        <v>0</v>
-      </c>
       <c r="BA22" s="13">
+        <v>1</v>
+      </c>
+      <c r="BB22" s="13">
         <v>3</v>
       </c>
-      <c r="BB22" s="13">
-        <v>2</v>
-      </c>
     </row>
-    <row r="23" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B23" s="10" t="s">
         <v>70</v>
       </c>
@@ -3430,11 +3430,11 @@
       <c r="V23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W23" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X23" s="11" t="s">
-        <v>58</v>
+      <c r="W23" s="11">
+        <v>0</v>
+      </c>
+      <c r="X23" s="11">
+        <v>0</v>
       </c>
       <c r="Y23" s="11">
         <v>0</v>
@@ -3457,11 +3457,11 @@
       <c r="AE23" s="11">
         <v>0</v>
       </c>
-      <c r="AF23" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG23" s="11">
-        <v>0</v>
+      <c r="AF23" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH23" s="11" t="s">
         <v>58</v>
@@ -3527,7 +3527,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="24" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B24" s="12" t="s">
         <v>71</v>
       </c>
@@ -3589,11 +3589,11 @@
       <c r="V24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X24" s="13" t="s">
-        <v>58</v>
+      <c r="W24" s="13">
+        <v>0</v>
+      </c>
+      <c r="X24" s="13">
+        <v>0</v>
       </c>
       <c r="Y24" s="13">
         <v>0</v>
@@ -3619,74 +3619,74 @@
       <c r="AF24" s="13">
         <v>0</v>
       </c>
-      <c r="AG24" s="13">
-        <v>0</v>
+      <c r="AG24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH24" s="13">
         <v>0</v>
       </c>
-      <c r="AI24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK24" s="13">
-        <v>0</v>
+      <c r="AI24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AJ24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AM24" s="13" t="s">
-        <v>58</v>
+      <c r="AM24" s="13">
+        <v>0</v>
       </c>
       <c r="AN24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO24" s="13">
-        <v>0</v>
+      <c r="AO24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR24" s="13" t="s">
-        <v>58</v>
+      <c r="AQ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR24" s="13">
+        <v>6</v>
       </c>
       <c r="AS24" s="13">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AT24" s="13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AU24" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AV24" s="13">
         <v>0</v>
       </c>
       <c r="AW24" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AX24" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY24" s="13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AZ24" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA24" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB24" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B25" s="14" t="s">
         <v>72</v>
       </c>
@@ -3747,103 +3747,103 @@
         <v>0</v>
       </c>
       <c r="W25" s="15">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="X25" s="15">
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="Y25" s="15">
-        <v>4190</v>
+        <v>4502</v>
       </c>
       <c r="Z25" s="15">
-        <v>4776</v>
+        <v>3967</v>
       </c>
       <c r="AA25" s="15">
-        <v>4502</v>
+        <v>4354</v>
       </c>
       <c r="AB25" s="15">
-        <v>3967</v>
+        <v>4380</v>
       </c>
       <c r="AC25" s="15">
-        <v>4354</v>
+        <v>3964</v>
       </c>
       <c r="AD25" s="15">
-        <v>4380</v>
+        <v>4224</v>
       </c>
       <c r="AE25" s="15">
-        <v>3964</v>
+        <v>4248</v>
       </c>
       <c r="AF25" s="15">
-        <v>4224</v>
+        <v>4570</v>
       </c>
       <c r="AG25" s="15">
-        <v>4248</v>
+        <v>3740</v>
       </c>
       <c r="AH25" s="15">
-        <v>4570</v>
+        <v>4684</v>
       </c>
       <c r="AI25" s="15">
-        <v>3740</v>
+        <v>4480</v>
       </c>
       <c r="AJ25" s="15">
-        <v>4684</v>
+        <v>3978</v>
       </c>
       <c r="AK25" s="15">
-        <v>4480</v>
+        <v>3903</v>
       </c>
       <c r="AL25" s="15">
-        <v>3978</v>
+        <v>3499</v>
       </c>
       <c r="AM25" s="15">
-        <v>3903</v>
+        <v>3543</v>
       </c>
       <c r="AN25" s="15">
-        <v>3499</v>
+        <v>3535</v>
       </c>
       <c r="AO25" s="15">
-        <v>3543</v>
+        <v>3594</v>
       </c>
       <c r="AP25" s="15">
-        <v>3535</v>
+        <v>3719</v>
       </c>
       <c r="AQ25" s="15">
-        <v>3594</v>
+        <v>3947</v>
       </c>
       <c r="AR25" s="15">
-        <v>3719</v>
+        <v>3983</v>
       </c>
       <c r="AS25" s="15">
-        <v>3947</v>
+        <v>3949</v>
       </c>
       <c r="AT25" s="15">
-        <v>3983</v>
+        <v>4322</v>
       </c>
       <c r="AU25" s="15">
-        <v>3949</v>
+        <v>3558</v>
       </c>
       <c r="AV25" s="15">
-        <v>4322</v>
+        <v>3638</v>
       </c>
       <c r="AW25" s="15">
-        <v>3558</v>
+        <v>3701</v>
       </c>
       <c r="AX25" s="15">
-        <v>3638</v>
+        <v>3506</v>
       </c>
       <c r="AY25" s="15">
-        <v>3701</v>
+        <v>4099</v>
       </c>
       <c r="AZ25" s="15">
-        <v>3506</v>
+        <v>4011</v>
       </c>
       <c r="BA25" s="15">
-        <v>4099</v>
+        <v>4320</v>
       </c>
       <c r="BB25" s="15">
-        <v>4011</v>
+        <v>4149</v>
       </c>
     </row>
-    <row r="26" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
         <v>73</v>
       </c>
@@ -3900,7 +3900,7 @@
       <c r="BA26" s="9"/>
       <c r="BB26" s="9"/>
     </row>
-    <row r="27" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B27" s="10" t="s">
         <v>62</v>
       </c>
@@ -4031,8 +4031,8 @@
       <c r="AS27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT27" s="11" t="s">
-        <v>58</v>
+      <c r="AT27" s="11">
+        <v>0</v>
       </c>
       <c r="AU27" s="11">
         <v>0</v>
@@ -4059,7 +4059,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B28" s="12" t="s">
         <v>63</v>
       </c>
@@ -4190,8 +4190,8 @@
       <c r="AS28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT28" s="13" t="s">
-        <v>58</v>
+      <c r="AT28" s="13">
+        <v>0</v>
       </c>
       <c r="AU28" s="13">
         <v>0</v>
@@ -4218,7 +4218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
         <v>64</v>
       </c>
@@ -4349,8 +4349,8 @@
       <c r="AS29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT29" s="11" t="s">
-        <v>58</v>
+      <c r="AT29" s="11">
+        <v>0</v>
       </c>
       <c r="AU29" s="11">
         <v>0</v>
@@ -4377,7 +4377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
         <v>65</v>
       </c>
@@ -4508,8 +4508,8 @@
       <c r="AS30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT30" s="13" t="s">
-        <v>58</v>
+      <c r="AT30" s="13">
+        <v>0</v>
       </c>
       <c r="AU30" s="13">
         <v>0</v>
@@ -4536,7 +4536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B31" s="10" t="s">
         <v>66</v>
       </c>
@@ -4658,14 +4658,14 @@
       <c r="AP31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ31" s="11" t="s">
-        <v>58</v>
+      <c r="AQ31" s="11">
+        <v>0</v>
       </c>
       <c r="AR31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS31" s="11">
-        <v>0</v>
+      <c r="AS31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT31" s="11" t="s">
         <v>58</v>
@@ -4695,7 +4695,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="32" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B32" s="12" t="s">
         <v>68</v>
       </c>
@@ -4826,8 +4826,8 @@
       <c r="AS32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT32" s="13" t="s">
-        <v>58</v>
+      <c r="AT32" s="13">
+        <v>0</v>
       </c>
       <c r="AU32" s="13">
         <v>0</v>
@@ -4854,7 +4854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B33" s="14" t="s">
         <v>74</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B34" s="16" t="s">
         <v>75</v>
       </c>
@@ -5068,7 +5068,7 @@
       <c r="BA34" s="17"/>
       <c r="BB34" s="17"/>
     </row>
-    <row r="35" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B35" s="14" t="s">
         <v>76</v>
       </c>
@@ -5128,11 +5128,11 @@
       <c r="V35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W35" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X35" s="15" t="s">
-        <v>58</v>
+      <c r="W35" s="15">
+        <v>0</v>
+      </c>
+      <c r="X35" s="15">
+        <v>0</v>
       </c>
       <c r="Y35" s="15">
         <v>0</v>
@@ -5225,7 +5225,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B36" s="18" t="s">
         <v>77</v>
       </c>
@@ -5286,103 +5286,103 @@
         <v>0</v>
       </c>
       <c r="W36" s="19">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="X36" s="19">
-        <v>0</v>
+        <v>4776</v>
       </c>
       <c r="Y36" s="19">
-        <v>4190</v>
+        <v>4502</v>
       </c>
       <c r="Z36" s="19">
-        <v>4776</v>
+        <v>3967</v>
       </c>
       <c r="AA36" s="19">
-        <v>4502</v>
+        <v>4354</v>
       </c>
       <c r="AB36" s="19">
-        <v>3967</v>
+        <v>4380</v>
       </c>
       <c r="AC36" s="19">
-        <v>4354</v>
+        <v>3964</v>
       </c>
       <c r="AD36" s="19">
-        <v>4380</v>
+        <v>4224</v>
       </c>
       <c r="AE36" s="19">
-        <v>3964</v>
+        <v>4248</v>
       </c>
       <c r="AF36" s="19">
-        <v>4224</v>
+        <v>4570</v>
       </c>
       <c r="AG36" s="19">
-        <v>4248</v>
+        <v>3740</v>
       </c>
       <c r="AH36" s="19">
-        <v>4570</v>
+        <v>4684</v>
       </c>
       <c r="AI36" s="19">
-        <v>3740</v>
+        <v>4480</v>
       </c>
       <c r="AJ36" s="19">
-        <v>4684</v>
+        <v>3978</v>
       </c>
       <c r="AK36" s="19">
-        <v>4480</v>
+        <v>3903</v>
       </c>
       <c r="AL36" s="19">
-        <v>3978</v>
+        <v>3499</v>
       </c>
       <c r="AM36" s="19">
-        <v>3903</v>
+        <v>3543</v>
       </c>
       <c r="AN36" s="19">
-        <v>3499</v>
+        <v>3535</v>
       </c>
       <c r="AO36" s="19">
-        <v>3543</v>
+        <v>3594</v>
       </c>
       <c r="AP36" s="19">
-        <v>3535</v>
+        <v>3719</v>
       </c>
       <c r="AQ36" s="19">
-        <v>3594</v>
+        <v>3947</v>
       </c>
       <c r="AR36" s="19">
-        <v>3719</v>
+        <v>3983</v>
       </c>
       <c r="AS36" s="19">
-        <v>3947</v>
+        <v>3949</v>
       </c>
       <c r="AT36" s="19">
-        <v>3983</v>
+        <v>4322</v>
       </c>
       <c r="AU36" s="19">
-        <v>3949</v>
+        <v>3558</v>
       </c>
       <c r="AV36" s="19">
-        <v>4322</v>
+        <v>3638</v>
       </c>
       <c r="AW36" s="19">
-        <v>3558</v>
+        <v>3701</v>
       </c>
       <c r="AX36" s="19">
-        <v>3638</v>
+        <v>3506</v>
       </c>
       <c r="AY36" s="19">
-        <v>3701</v>
+        <v>4099</v>
       </c>
       <c r="AZ36" s="19">
-        <v>3506</v>
+        <v>4011</v>
       </c>
       <c r="BA36" s="19">
-        <v>4099</v>
+        <v>4320</v>
       </c>
       <c r="BB36" s="19">
-        <v>4011</v>
+        <v>4149</v>
       </c>
     </row>
-    <row r="37" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B37" s="1"/>
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
@@ -5437,7 +5437,7 @@
       <c r="BA37" s="1"/>
       <c r="BB37" s="1"/>
     </row>
-    <row r="38" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B38" s="1"/>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -5492,7 +5492,7 @@
       <c r="BA38" s="1"/>
       <c r="BB38" s="1"/>
     </row>
-    <row r="39" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B39" s="1"/>
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
@@ -5547,7 +5547,7 @@
       <c r="BA39" s="1"/>
       <c r="BB39" s="1"/>
     </row>
-    <row r="40" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B40" s="7" t="s">
         <v>78</v>
       </c>
@@ -5704,7 +5704,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="41" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -5759,7 +5759,7 @@
       <c r="BA41" s="1"/>
       <c r="BB41" s="1"/>
     </row>
-    <row r="42" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B42" s="8" t="s">
         <v>79</v>
       </c>
@@ -5816,7 +5816,7 @@
       <c r="BA42" s="9"/>
       <c r="BB42" s="9"/>
     </row>
-    <row r="43" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B43" s="10" t="s">
         <v>56</v>
       </c>
@@ -5878,23 +5878,23 @@
       <c r="V43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W43" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X43" s="11" t="s">
-        <v>58</v>
+      <c r="W43" s="11">
+        <v>2</v>
+      </c>
+      <c r="X43" s="11">
+        <v>2</v>
       </c>
       <c r="Y43" s="11">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="Z43" s="11">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="AA43" s="11">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="AB43" s="11">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="AC43" s="11">
         <v>26</v>
@@ -5903,50 +5903,50 @@
         <v>5</v>
       </c>
       <c r="AE43" s="11">
+        <v>30</v>
+      </c>
+      <c r="AF43" s="11">
+        <v>31</v>
+      </c>
+      <c r="AG43" s="11">
+        <v>3</v>
+      </c>
+      <c r="AH43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AI43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>15</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>1</v>
+      </c>
+      <c r="AL43" s="11">
         <v>26</v>
       </c>
-      <c r="AF43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AG43" s="11">
-        <v>30</v>
-      </c>
-      <c r="AH43" s="11">
-        <v>31</v>
-      </c>
-      <c r="AI43" s="11">
-        <v>3</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>15</v>
-      </c>
       <c r="AM43" s="11">
+        <v>51</v>
+      </c>
+      <c r="AN43" s="11">
+        <v>8</v>
+      </c>
+      <c r="AO43" s="11">
         <v>1</v>
       </c>
-      <c r="AN43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AO43" s="11">
-        <v>51</v>
-      </c>
       <c r="AP43" s="11">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AQ43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AR43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AS43" s="11">
         <v>6</v>
       </c>
+      <c r="AR43" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS43" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT43" s="11" t="s">
         <v>58</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="44" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B44" s="12" t="s">
         <v>59</v>
       </c>
@@ -6037,104 +6037,104 @@
       <c r="V44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W44" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X44" s="13" t="s">
-        <v>58</v>
+      <c r="W44" s="13">
+        <v>571</v>
+      </c>
+      <c r="X44" s="13">
+        <v>512</v>
       </c>
       <c r="Y44" s="13">
-        <v>571</v>
+        <v>736</v>
       </c>
       <c r="Z44" s="13">
-        <v>512</v>
+        <v>466</v>
       </c>
       <c r="AA44" s="13">
-        <v>736</v>
+        <v>599</v>
       </c>
       <c r="AB44" s="13">
-        <v>466</v>
+        <v>698</v>
       </c>
       <c r="AC44" s="13">
-        <v>599</v>
+        <v>511</v>
       </c>
       <c r="AD44" s="13">
-        <v>698</v>
+        <v>612</v>
       </c>
       <c r="AE44" s="13">
-        <v>511</v>
+        <v>803</v>
       </c>
       <c r="AF44" s="13">
+        <v>642</v>
+      </c>
+      <c r="AG44" s="13">
         <v>612</v>
       </c>
-      <c r="AG44" s="13">
-        <v>803</v>
-      </c>
       <c r="AH44" s="13">
-        <v>642</v>
+        <v>796</v>
       </c>
       <c r="AI44" s="13">
-        <v>612</v>
+        <v>678</v>
       </c>
       <c r="AJ44" s="13">
-        <v>796</v>
+        <v>524</v>
       </c>
       <c r="AK44" s="13">
-        <v>678</v>
+        <v>575</v>
       </c>
       <c r="AL44" s="13">
-        <v>524</v>
+        <v>322</v>
       </c>
       <c r="AM44" s="13">
-        <v>575</v>
+        <v>327</v>
       </c>
       <c r="AN44" s="13">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="AO44" s="13">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="AP44" s="13">
-        <v>316</v>
+        <v>353</v>
       </c>
       <c r="AQ44" s="13">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AR44" s="13">
-        <v>353</v>
+        <v>537</v>
       </c>
       <c r="AS44" s="13">
-        <v>353</v>
+        <v>409</v>
       </c>
       <c r="AT44" s="13">
-        <v>537</v>
+        <v>454</v>
       </c>
       <c r="AU44" s="13">
-        <v>409</v>
+        <v>445</v>
       </c>
       <c r="AV44" s="13">
-        <v>454</v>
+        <v>410</v>
       </c>
       <c r="AW44" s="13">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="AX44" s="13">
-        <v>410</v>
+        <v>384</v>
       </c>
       <c r="AY44" s="13">
-        <v>431</v>
+        <v>421</v>
       </c>
       <c r="AZ44" s="13">
-        <v>384</v>
+        <v>359</v>
       </c>
       <c r="BA44" s="13">
-        <v>421</v>
+        <v>370</v>
       </c>
       <c r="BB44" s="13">
-        <v>359</v>
+        <v>492</v>
       </c>
     </row>
-    <row r="45" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B45" s="10" t="s">
         <v>60</v>
       </c>
@@ -6196,104 +6196,104 @@
       <c r="V45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W45" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X45" s="11" t="s">
-        <v>58</v>
+      <c r="W45" s="11">
+        <v>332</v>
+      </c>
+      <c r="X45" s="11">
+        <v>386</v>
       </c>
       <c r="Y45" s="11">
-        <v>332</v>
+        <v>347</v>
       </c>
       <c r="Z45" s="11">
-        <v>386</v>
+        <v>291</v>
       </c>
       <c r="AA45" s="11">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="AB45" s="11">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="AC45" s="11">
-        <v>344</v>
+        <v>331</v>
       </c>
       <c r="AD45" s="11">
-        <v>303</v>
+        <v>408</v>
       </c>
       <c r="AE45" s="11">
-        <v>331</v>
+        <v>455</v>
       </c>
       <c r="AF45" s="11">
-        <v>408</v>
+        <v>638</v>
       </c>
       <c r="AG45" s="11">
-        <v>455</v>
+        <v>363</v>
       </c>
       <c r="AH45" s="11">
-        <v>638</v>
+        <v>693</v>
       </c>
       <c r="AI45" s="11">
-        <v>363</v>
+        <v>665</v>
       </c>
       <c r="AJ45" s="11">
-        <v>693</v>
+        <v>560</v>
       </c>
       <c r="AK45" s="11">
-        <v>665</v>
+        <v>542</v>
       </c>
       <c r="AL45" s="11">
-        <v>560</v>
+        <v>367</v>
       </c>
       <c r="AM45" s="11">
-        <v>542</v>
+        <v>351</v>
       </c>
       <c r="AN45" s="11">
-        <v>367</v>
+        <v>329</v>
       </c>
       <c r="AO45" s="11">
-        <v>351</v>
+        <v>394</v>
       </c>
       <c r="AP45" s="11">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="AQ45" s="11">
-        <v>394</v>
+        <v>474</v>
       </c>
       <c r="AR45" s="11">
-        <v>401</v>
+        <v>439</v>
       </c>
       <c r="AS45" s="11">
-        <v>474</v>
+        <v>382</v>
       </c>
       <c r="AT45" s="11">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="AU45" s="11">
-        <v>382</v>
+        <v>501</v>
       </c>
       <c r="AV45" s="11">
-        <v>416</v>
+        <v>447</v>
       </c>
       <c r="AW45" s="11">
-        <v>501</v>
+        <v>442</v>
       </c>
       <c r="AX45" s="11">
-        <v>447</v>
+        <v>317</v>
       </c>
       <c r="AY45" s="11">
-        <v>442</v>
+        <v>281</v>
       </c>
       <c r="AZ45" s="11">
-        <v>317</v>
+        <v>348</v>
       </c>
       <c r="BA45" s="11">
-        <v>281</v>
+        <v>167</v>
       </c>
       <c r="BB45" s="11">
-        <v>348</v>
+        <v>385</v>
       </c>
     </row>
-    <row r="46" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B46" s="12" t="s">
         <v>61</v>
       </c>
@@ -6355,23 +6355,23 @@
       <c r="V46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W46" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X46" s="13" t="s">
-        <v>58</v>
+      <c r="W46" s="13">
+        <v>0</v>
+      </c>
+      <c r="X46" s="13">
+        <v>2</v>
       </c>
       <c r="Y46" s="13">
         <v>0</v>
       </c>
       <c r="Z46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AA46" s="13">
         <v>2</v>
       </c>
-      <c r="AA46" s="13">
-        <v>0</v>
-      </c>
       <c r="AB46" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AC46" s="13">
         <v>2</v>
@@ -6380,10 +6380,10 @@
         <v>2</v>
       </c>
       <c r="AE46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AG46" s="13">
         <v>3</v>
@@ -6392,37 +6392,37 @@
         <v>3</v>
       </c>
       <c r="AI46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AJ46" s="13">
+        <v>1</v>
+      </c>
+      <c r="AK46" s="13">
+        <v>4</v>
+      </c>
+      <c r="AL46" s="13">
+        <v>4</v>
+      </c>
+      <c r="AM46" s="13">
+        <v>5</v>
+      </c>
+      <c r="AN46" s="13">
         <v>3</v>
       </c>
-      <c r="AJ46" s="13">
-        <v>3</v>
-      </c>
-      <c r="AK46" s="13">
-        <v>1</v>
-      </c>
-      <c r="AL46" s="13">
-        <v>1</v>
-      </c>
-      <c r="AM46" s="13">
+      <c r="AO46" s="13">
         <v>4</v>
-      </c>
-      <c r="AN46" s="13">
-        <v>4</v>
-      </c>
-      <c r="AO46" s="13">
-        <v>5</v>
       </c>
       <c r="AP46" s="13">
         <v>3</v>
       </c>
       <c r="AQ46" s="13">
-        <v>4</v>
-      </c>
-      <c r="AR46" s="13">
         <v>3</v>
       </c>
-      <c r="AS46" s="13">
-        <v>3</v>
+      <c r="AR46" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AT46" s="13" t="s">
         <v>58</v>
@@ -6452,7 +6452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="47" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
         <v>62</v>
       </c>
@@ -6514,104 +6514,104 @@
       <c r="V47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W47" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X47" s="11" t="s">
-        <v>58</v>
+      <c r="W47" s="11">
+        <v>129</v>
+      </c>
+      <c r="X47" s="11">
+        <v>196</v>
       </c>
       <c r="Y47" s="11">
-        <v>129</v>
+        <v>157</v>
       </c>
       <c r="Z47" s="11">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="AA47" s="11">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AB47" s="11">
-        <v>200</v>
+        <v>146</v>
       </c>
       <c r="AC47" s="11">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="AD47" s="11">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AE47" s="11">
-        <v>165</v>
+        <v>154</v>
       </c>
       <c r="AF47" s="11">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="AG47" s="11">
-        <v>154</v>
+        <v>160</v>
       </c>
       <c r="AH47" s="11">
-        <v>167</v>
+        <v>219</v>
       </c>
       <c r="AI47" s="11">
+        <v>135</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>172</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>189</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>151</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>175</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>166</v>
+      </c>
+      <c r="AO47" s="11">
+        <v>144</v>
+      </c>
+      <c r="AP47" s="11">
+        <v>126</v>
+      </c>
+      <c r="AQ47" s="11">
+        <v>204</v>
+      </c>
+      <c r="AR47" s="11">
         <v>160</v>
       </c>
-      <c r="AJ47" s="11">
-        <v>219</v>
-      </c>
-      <c r="AK47" s="11">
-        <v>135</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>172</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>189</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>151</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>175</v>
-      </c>
-      <c r="AP47" s="11">
-        <v>166</v>
-      </c>
-      <c r="AQ47" s="11">
-        <v>144</v>
-      </c>
-      <c r="AR47" s="11">
-        <v>126</v>
-      </c>
       <c r="AS47" s="11">
-        <v>204</v>
+        <v>263</v>
       </c>
       <c r="AT47" s="11">
-        <v>160</v>
+        <v>213</v>
       </c>
       <c r="AU47" s="11">
-        <v>256</v>
+        <v>278</v>
       </c>
       <c r="AV47" s="11">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="AW47" s="11">
-        <v>278</v>
+        <v>188</v>
       </c>
       <c r="AX47" s="11">
-        <v>208</v>
+        <v>231</v>
       </c>
       <c r="AY47" s="11">
-        <v>188</v>
+        <v>284</v>
       </c>
       <c r="AZ47" s="11">
-        <v>231</v>
+        <v>288</v>
       </c>
       <c r="BA47" s="11">
-        <v>284</v>
+        <v>223</v>
       </c>
       <c r="BB47" s="11">
-        <v>288</v>
+        <v>207</v>
       </c>
     </row>
-    <row r="48" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B48" s="12" t="s">
         <v>63</v>
       </c>
@@ -6673,104 +6673,104 @@
       <c r="V48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W48" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X48" s="13" t="s">
-        <v>58</v>
+      <c r="W48" s="13">
+        <v>208</v>
+      </c>
+      <c r="X48" s="13">
+        <v>158</v>
       </c>
       <c r="Y48" s="13">
-        <v>208</v>
+        <v>187</v>
       </c>
       <c r="Z48" s="13">
-        <v>158</v>
+        <v>207</v>
       </c>
       <c r="AA48" s="13">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="AB48" s="13">
+        <v>159</v>
+      </c>
+      <c r="AC48" s="13">
+        <v>140</v>
+      </c>
+      <c r="AD48" s="13">
+        <v>127</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>371</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>65</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>29</v>
+      </c>
+      <c r="AH48" s="13">
+        <v>311</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>102</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>89</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>238</v>
+      </c>
+      <c r="AL48" s="13">
+        <v>106</v>
+      </c>
+      <c r="AM48" s="13">
+        <v>264</v>
+      </c>
+      <c r="AN48" s="13">
+        <v>137</v>
+      </c>
+      <c r="AO48" s="13">
+        <v>87</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>168</v>
+      </c>
+      <c r="AQ48" s="13">
+        <v>453</v>
+      </c>
+      <c r="AR48" s="13">
+        <v>63</v>
+      </c>
+      <c r="AS48" s="13">
+        <v>354</v>
+      </c>
+      <c r="AT48" s="13">
         <v>207</v>
       </c>
-      <c r="AC48" s="13">
-        <v>195</v>
-      </c>
-      <c r="AD48" s="13">
-        <v>159</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>140</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>127</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>371</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>65</v>
-      </c>
-      <c r="AI48" s="13">
-        <v>29</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>311</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>102</v>
-      </c>
-      <c r="AL48" s="13">
-        <v>89</v>
-      </c>
-      <c r="AM48" s="13">
-        <v>238</v>
-      </c>
-      <c r="AN48" s="13">
-        <v>106</v>
-      </c>
-      <c r="AO48" s="13">
-        <v>264</v>
-      </c>
-      <c r="AP48" s="13">
-        <v>137</v>
-      </c>
-      <c r="AQ48" s="13">
-        <v>87</v>
-      </c>
-      <c r="AR48" s="13">
-        <v>168</v>
-      </c>
-      <c r="AS48" s="13">
-        <v>453</v>
-      </c>
-      <c r="AT48" s="13">
-        <v>63</v>
-      </c>
       <c r="AU48" s="13">
-        <v>335</v>
+        <v>73</v>
       </c>
       <c r="AV48" s="13">
-        <v>207</v>
+        <v>110</v>
       </c>
       <c r="AW48" s="13">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="AX48" s="13">
-        <v>110</v>
+        <v>160</v>
       </c>
       <c r="AY48" s="13">
-        <v>66</v>
+        <v>123</v>
       </c>
       <c r="AZ48" s="13">
-        <v>160</v>
+        <v>181</v>
       </c>
       <c r="BA48" s="13">
-        <v>123</v>
+        <v>248</v>
       </c>
       <c r="BB48" s="13">
-        <v>181</v>
+        <v>337</v>
       </c>
     </row>
-    <row r="49" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
         <v>64</v>
       </c>
@@ -6832,104 +6832,104 @@
       <c r="V49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W49" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X49" s="11" t="s">
-        <v>58</v>
+      <c r="W49" s="11">
+        <v>2399</v>
+      </c>
+      <c r="X49" s="11">
+        <v>2276</v>
       </c>
       <c r="Y49" s="11">
-        <v>2399</v>
+        <v>2619</v>
       </c>
       <c r="Z49" s="11">
-        <v>2276</v>
+        <v>2821</v>
       </c>
       <c r="AA49" s="11">
-        <v>2619</v>
+        <v>2588</v>
       </c>
       <c r="AB49" s="11">
-        <v>2821</v>
+        <v>2658</v>
       </c>
       <c r="AC49" s="11">
-        <v>2588</v>
+        <v>2744</v>
       </c>
       <c r="AD49" s="11">
-        <v>2658</v>
+        <v>2303</v>
       </c>
       <c r="AE49" s="11">
-        <v>2744</v>
+        <v>2419</v>
       </c>
       <c r="AF49" s="11">
-        <v>2303</v>
+        <v>2009</v>
       </c>
       <c r="AG49" s="11">
-        <v>2419</v>
+        <v>2301</v>
       </c>
       <c r="AH49" s="11">
-        <v>2009</v>
+        <v>2510</v>
       </c>
       <c r="AI49" s="11">
-        <v>2301</v>
+        <v>2402</v>
       </c>
       <c r="AJ49" s="11">
-        <v>2510</v>
+        <v>2167</v>
       </c>
       <c r="AK49" s="11">
-        <v>2402</v>
+        <v>2342</v>
       </c>
       <c r="AL49" s="11">
-        <v>2167</v>
+        <v>2085</v>
       </c>
       <c r="AM49" s="11">
-        <v>2342</v>
+        <v>2256</v>
       </c>
       <c r="AN49" s="11">
-        <v>2085</v>
+        <v>2311</v>
       </c>
       <c r="AO49" s="11">
-        <v>2256</v>
+        <v>2213</v>
       </c>
       <c r="AP49" s="11">
-        <v>2311</v>
+        <v>2390</v>
       </c>
       <c r="AQ49" s="11">
-        <v>2213</v>
+        <v>2326</v>
       </c>
       <c r="AR49" s="11">
-        <v>2390</v>
+        <v>2040</v>
       </c>
       <c r="AS49" s="11">
-        <v>2326</v>
+        <v>2416</v>
       </c>
       <c r="AT49" s="11">
-        <v>2040</v>
+        <v>1980</v>
       </c>
       <c r="AU49" s="11">
-        <v>2378</v>
+        <v>1700</v>
       </c>
       <c r="AV49" s="11">
-        <v>1980</v>
+        <v>2048</v>
       </c>
       <c r="AW49" s="11">
-        <v>1700</v>
+        <v>2446</v>
       </c>
       <c r="AX49" s="11">
-        <v>2048</v>
+        <v>2174</v>
       </c>
       <c r="AY49" s="11">
-        <v>2446</v>
+        <v>2516</v>
       </c>
       <c r="AZ49" s="11">
-        <v>2174</v>
+        <v>2534</v>
       </c>
       <c r="BA49" s="11">
-        <v>2516</v>
+        <v>2335</v>
       </c>
       <c r="BB49" s="11">
-        <v>2534</v>
+        <v>2404</v>
       </c>
     </row>
-    <row r="50" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B50" s="12" t="s">
         <v>65</v>
       </c>
@@ -7054,41 +7054,41 @@
       <c r="AQ50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR50" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>58</v>
+      <c r="AR50" s="13">
+        <v>607</v>
+      </c>
+      <c r="AS50" s="13">
+        <v>129</v>
       </c>
       <c r="AT50" s="13">
-        <v>607</v>
+        <v>56</v>
       </c>
       <c r="AU50" s="13">
-        <v>79</v>
+        <v>231</v>
       </c>
       <c r="AV50" s="13">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="AW50" s="13">
-        <v>131</v>
+        <v>243</v>
       </c>
       <c r="AX50" s="13">
-        <v>52</v>
+        <v>343</v>
       </c>
       <c r="AY50" s="13">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="AZ50" s="13">
-        <v>343</v>
+        <v>418</v>
       </c>
       <c r="BA50" s="13">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="BB50" s="13">
-        <v>418</v>
+        <v>139</v>
       </c>
     </row>
-    <row r="51" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
         <v>66</v>
       </c>
@@ -7150,75 +7150,75 @@
       <c r="V51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W51" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X51" s="11" t="s">
-        <v>58</v>
+      <c r="W51" s="11">
+        <v>118</v>
+      </c>
+      <c r="X51" s="11">
+        <v>600</v>
       </c>
       <c r="Y51" s="11">
-        <v>118</v>
+        <v>314</v>
       </c>
       <c r="Z51" s="11">
-        <v>600</v>
+        <v>365</v>
       </c>
       <c r="AA51" s="11">
-        <v>314</v>
+        <v>66</v>
       </c>
       <c r="AB51" s="11">
-        <v>365</v>
+        <v>2</v>
       </c>
       <c r="AC51" s="11">
-        <v>66</v>
+        <v>368</v>
       </c>
       <c r="AD51" s="11">
-        <v>2</v>
+        <v>297</v>
       </c>
       <c r="AE51" s="11">
-        <v>368</v>
+        <v>222</v>
       </c>
       <c r="AF51" s="11">
-        <v>297</v>
+        <v>304</v>
       </c>
       <c r="AG51" s="11">
-        <v>222</v>
+        <v>301</v>
       </c>
       <c r="AH51" s="11">
-        <v>304</v>
+        <v>101</v>
       </c>
       <c r="AI51" s="11">
-        <v>301</v>
+        <v>6</v>
       </c>
       <c r="AJ51" s="11">
-        <v>101</v>
+        <v>185</v>
       </c>
       <c r="AK51" s="11">
-        <v>6</v>
+        <v>341</v>
       </c>
       <c r="AL51" s="11">
-        <v>185</v>
+        <v>4</v>
       </c>
       <c r="AM51" s="11">
-        <v>341</v>
+        <v>5</v>
       </c>
       <c r="AN51" s="11">
-        <v>4</v>
+        <v>59</v>
       </c>
       <c r="AO51" s="11">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="AP51" s="11">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="AQ51" s="11">
-        <v>25</v>
-      </c>
-      <c r="AR51" s="11">
-        <v>104</v>
-      </c>
-      <c r="AS51" s="11">
         <v>404</v>
       </c>
+      <c r="AR51" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS51" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT51" s="11" t="s">
         <v>58</v>
       </c>
@@ -7247,7 +7247,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="52" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B52" s="12" t="s">
         <v>67</v>
       </c>
@@ -7309,75 +7309,75 @@
       <c r="V52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W52" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X52" s="13" t="s">
-        <v>58</v>
+      <c r="W52" s="13">
+        <v>24</v>
+      </c>
+      <c r="X52" s="13">
+        <v>2</v>
       </c>
       <c r="Y52" s="13">
+        <v>19</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>19</v>
+      </c>
+      <c r="AC52" s="13">
+        <v>2</v>
+      </c>
+      <c r="AD52" s="13">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>12</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AG52" s="13">
+        <v>7</v>
+      </c>
+      <c r="AH52" s="13">
         <v>24</v>
-      </c>
-      <c r="Z52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AA52" s="13">
-        <v>19</v>
-      </c>
-      <c r="AB52" s="13">
-        <v>5</v>
-      </c>
-      <c r="AC52" s="13">
-        <v>5</v>
-      </c>
-      <c r="AD52" s="13">
-        <v>19</v>
-      </c>
-      <c r="AE52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>1</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>12</v>
-      </c>
-      <c r="AH52" s="13">
-        <v>5</v>
       </c>
       <c r="AI52" s="13">
         <v>7</v>
       </c>
       <c r="AJ52" s="13">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="AK52" s="13">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AL52" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AM52" s="13">
         <v>4</v>
       </c>
       <c r="AN52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AO52" s="13">
+        <v>3</v>
+      </c>
+      <c r="AP52" s="13">
         <v>4</v>
       </c>
-      <c r="AO52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AP52" s="13">
-        <v>5</v>
-      </c>
       <c r="AQ52" s="13">
-        <v>3</v>
-      </c>
-      <c r="AR52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AS52" s="13">
         <v>7</v>
       </c>
+      <c r="AR52" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT52" s="13" t="s">
         <v>58</v>
       </c>
@@ -7406,7 +7406,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="53" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B53" s="10" t="s">
         <v>68</v>
       </c>
@@ -7468,104 +7468,104 @@
       <c r="V53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W53" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X53" s="11" t="s">
-        <v>58</v>
+      <c r="W53" s="11">
+        <v>30</v>
+      </c>
+      <c r="X53" s="11">
+        <v>34</v>
       </c>
       <c r="Y53" s="11">
-        <v>30</v>
+        <v>66</v>
       </c>
       <c r="Z53" s="11">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="AA53" s="11">
-        <v>66</v>
+        <v>96</v>
       </c>
       <c r="AB53" s="11">
+        <v>74</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>47</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>68</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>50</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>59</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>49</v>
+      </c>
+      <c r="AH53" s="11">
+        <v>74</v>
+      </c>
+      <c r="AI53" s="11">
+        <v>156</v>
+      </c>
+      <c r="AJ53" s="11">
+        <v>64</v>
+      </c>
+      <c r="AK53" s="11">
         <v>82</v>
       </c>
-      <c r="AC53" s="11">
-        <v>96</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>47</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>68</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>50</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>59</v>
-      </c>
-      <c r="AI53" s="11">
-        <v>49</v>
-      </c>
-      <c r="AJ53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AK53" s="11">
-        <v>156</v>
-      </c>
       <c r="AL53" s="11">
-        <v>64</v>
+        <v>81</v>
       </c>
       <c r="AM53" s="11">
-        <v>82</v>
+        <v>116</v>
       </c>
       <c r="AN53" s="11">
+        <v>148</v>
+      </c>
+      <c r="AO53" s="11">
+        <v>57</v>
+      </c>
+      <c r="AP53" s="11">
+        <v>65</v>
+      </c>
+      <c r="AQ53" s="11">
         <v>81</v>
       </c>
-      <c r="AO53" s="11">
-        <v>116</v>
-      </c>
-      <c r="AP53" s="11">
-        <v>148</v>
-      </c>
-      <c r="AQ53" s="11">
-        <v>57</v>
-      </c>
       <c r="AR53" s="11">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="AS53" s="11">
-        <v>81</v>
+        <v>682</v>
       </c>
       <c r="AT53" s="11">
-        <v>78</v>
+        <v>185</v>
       </c>
       <c r="AU53" s="11">
-        <v>482</v>
+        <v>79</v>
       </c>
       <c r="AV53" s="11">
-        <v>185</v>
+        <v>382</v>
       </c>
       <c r="AW53" s="11">
-        <v>79</v>
+        <v>221</v>
       </c>
       <c r="AX53" s="11">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="AY53" s="11">
-        <v>221</v>
+        <v>329</v>
       </c>
       <c r="AZ53" s="11">
-        <v>369</v>
+        <v>159</v>
       </c>
       <c r="BA53" s="11">
-        <v>329</v>
+        <v>214</v>
       </c>
       <c r="BB53" s="11">
-        <v>159</v>
+        <v>105</v>
       </c>
     </row>
-    <row r="54" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B54" s="12" t="s">
         <v>69</v>
       </c>
@@ -7627,104 +7627,104 @@
       <c r="V54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X54" s="13" t="s">
-        <v>58</v>
+      <c r="W54" s="13">
+        <v>0</v>
+      </c>
+      <c r="X54" s="13">
+        <v>0</v>
       </c>
       <c r="Y54" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z54" s="13">
         <v>0</v>
       </c>
       <c r="AA54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AD54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AE54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ54" s="13">
+        <v>23</v>
+      </c>
+      <c r="AK54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AM54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AO54" s="13">
+        <v>1</v>
+      </c>
+      <c r="AP54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AQ54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR54" s="13">
+        <v>5</v>
+      </c>
+      <c r="AS54" s="13">
+        <v>5</v>
+      </c>
+      <c r="AT54" s="13">
         <v>3</v>
       </c>
-      <c r="AB54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AD54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AK54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AL54" s="13">
-        <v>23</v>
-      </c>
-      <c r="AM54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AN54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AP54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ54" s="13">
+      <c r="AU54" s="13">
+        <v>3</v>
+      </c>
+      <c r="AV54" s="13">
+        <v>4</v>
+      </c>
+      <c r="AW54" s="13">
         <v>1</v>
       </c>
-      <c r="AR54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AT54" s="13">
-        <v>5</v>
-      </c>
-      <c r="AU54" s="13">
-        <v>5</v>
-      </c>
-      <c r="AV54" s="13">
-        <v>3</v>
-      </c>
-      <c r="AW54" s="13">
-        <v>3</v>
-      </c>
       <c r="AX54" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AY54" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ54" s="13">
         <v>2</v>
       </c>
       <c r="BA54" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BB54" s="13">
         <v>2</v>
       </c>
     </row>
-    <row r="55" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B55" s="10" t="s">
         <v>70</v>
       </c>
@@ -7786,11 +7786,11 @@
       <c r="V55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W55" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X55" s="11" t="s">
-        <v>58</v>
+      <c r="W55" s="11">
+        <v>0</v>
+      </c>
+      <c r="X55" s="11">
+        <v>0</v>
       </c>
       <c r="Y55" s="11">
         <v>0</v>
@@ -7813,11 +7813,11 @@
       <c r="AE55" s="11">
         <v>0</v>
       </c>
-      <c r="AF55" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG55" s="11">
-        <v>0</v>
+      <c r="AF55" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH55" s="11" t="s">
         <v>58</v>
@@ -7883,7 +7883,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="56" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B56" s="12" t="s">
         <v>71</v>
       </c>
@@ -7945,11 +7945,11 @@
       <c r="V56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X56" s="13" t="s">
-        <v>58</v>
+      <c r="W56" s="13">
+        <v>0</v>
+      </c>
+      <c r="X56" s="13">
+        <v>0</v>
       </c>
       <c r="Y56" s="13">
         <v>0</v>
@@ -7975,8 +7975,8 @@
       <c r="AF56" s="13">
         <v>0</v>
       </c>
-      <c r="AG56" s="13">
-        <v>0</v>
+      <c r="AG56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH56" s="13">
         <v>0</v>
@@ -7984,8 +7984,8 @@
       <c r="AI56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ56" s="13">
-        <v>0</v>
+      <c r="AJ56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AK56" s="13" t="s">
         <v>58</v>
@@ -8005,44 +8005,44 @@
       <c r="AP56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AR56" s="13" t="s">
-        <v>58</v>
+      <c r="AQ56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AR56" s="13">
+        <v>0</v>
       </c>
       <c r="AS56" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AT56" s="13">
         <v>0</v>
       </c>
       <c r="AU56" s="13">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="AV56" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW56" s="13">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="AX56" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY56" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AZ56" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BA56" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="BB56" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="57" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B57" s="14" t="s">
         <v>80</v>
       </c>
@@ -8103,103 +8103,103 @@
         <v>0</v>
       </c>
       <c r="W57" s="15">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="X57" s="15">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="Y57" s="15">
-        <v>3813</v>
+        <v>4504</v>
       </c>
       <c r="Z57" s="15">
-        <v>4168</v>
+        <v>4468</v>
       </c>
       <c r="AA57" s="15">
-        <v>4504</v>
+        <v>4083</v>
       </c>
       <c r="AB57" s="15">
-        <v>4468</v>
+        <v>4066</v>
       </c>
       <c r="AC57" s="15">
-        <v>4083</v>
+        <v>4336</v>
       </c>
       <c r="AD57" s="15">
-        <v>4066</v>
+        <v>3960</v>
       </c>
       <c r="AE57" s="15">
-        <v>4336</v>
+        <v>4519</v>
       </c>
       <c r="AF57" s="15">
-        <v>3960</v>
+        <v>3923</v>
       </c>
       <c r="AG57" s="15">
-        <v>4519</v>
+        <v>3828</v>
       </c>
       <c r="AH57" s="15">
-        <v>3923</v>
+        <v>4736</v>
       </c>
       <c r="AI57" s="15">
-        <v>3828</v>
+        <v>4157</v>
       </c>
       <c r="AJ57" s="15">
-        <v>4736</v>
+        <v>3805</v>
       </c>
       <c r="AK57" s="15">
-        <v>4157</v>
+        <v>4318</v>
       </c>
       <c r="AL57" s="15">
-        <v>3805</v>
+        <v>3150</v>
       </c>
       <c r="AM57" s="15">
-        <v>4318</v>
+        <v>3554</v>
       </c>
       <c r="AN57" s="15">
-        <v>3150</v>
+        <v>3482</v>
       </c>
       <c r="AO57" s="15">
-        <v>3554</v>
+        <v>3257</v>
       </c>
       <c r="AP57" s="15">
-        <v>3482</v>
+        <v>3615</v>
       </c>
       <c r="AQ57" s="15">
-        <v>3257</v>
+        <v>4311</v>
       </c>
       <c r="AR57" s="15">
-        <v>3615</v>
+        <v>3929</v>
       </c>
       <c r="AS57" s="15">
-        <v>4311</v>
+        <v>4653</v>
       </c>
       <c r="AT57" s="15">
-        <v>3929</v>
+        <v>3514</v>
       </c>
       <c r="AU57" s="15">
-        <v>4339</v>
+        <v>3314</v>
       </c>
       <c r="AV57" s="15">
-        <v>3514</v>
+        <v>3666</v>
       </c>
       <c r="AW57" s="15">
-        <v>3214</v>
+        <v>4052</v>
       </c>
       <c r="AX57" s="15">
-        <v>3666</v>
+        <v>3982</v>
       </c>
       <c r="AY57" s="15">
-        <v>4052</v>
+        <v>4177</v>
       </c>
       <c r="AZ57" s="15">
-        <v>3982</v>
+        <v>4289</v>
       </c>
       <c r="BA57" s="15">
-        <v>4177</v>
+        <v>3798</v>
       </c>
       <c r="BB57" s="15">
-        <v>4289</v>
+        <v>4071</v>
       </c>
     </row>
-    <row r="58" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B58" s="8" t="s">
         <v>81</v>
       </c>
@@ -8256,7 +8256,7 @@
       <c r="BA58" s="9"/>
       <c r="BB58" s="9"/>
     </row>
-    <row r="59" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B59" s="10" t="s">
         <v>62</v>
       </c>
@@ -8387,8 +8387,8 @@
       <c r="AS59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT59" s="11" t="s">
-        <v>58</v>
+      <c r="AT59" s="11">
+        <v>0</v>
       </c>
       <c r="AU59" s="11">
         <v>0</v>
@@ -8415,7 +8415,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B60" s="12" t="s">
         <v>63</v>
       </c>
@@ -8546,8 +8546,8 @@
       <c r="AS60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT60" s="13" t="s">
-        <v>58</v>
+      <c r="AT60" s="13">
+        <v>0</v>
       </c>
       <c r="AU60" s="13">
         <v>0</v>
@@ -8562,19 +8562,19 @@
         <v>0</v>
       </c>
       <c r="AY60" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AZ60" s="13">
         <v>0</v>
       </c>
       <c r="BA60" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="BB60" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
         <v>64</v>
       </c>
@@ -8705,8 +8705,8 @@
       <c r="AS61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT61" s="11" t="s">
-        <v>58</v>
+      <c r="AT61" s="11">
+        <v>0</v>
       </c>
       <c r="AU61" s="11">
         <v>0</v>
@@ -8733,7 +8733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
         <v>65</v>
       </c>
@@ -8864,8 +8864,8 @@
       <c r="AS62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT62" s="13" t="s">
-        <v>58</v>
+      <c r="AT62" s="13">
+        <v>0</v>
       </c>
       <c r="AU62" s="13">
         <v>0</v>
@@ -8880,19 +8880,19 @@
         <v>0</v>
       </c>
       <c r="AY62" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AZ62" s="13">
         <v>0</v>
       </c>
       <c r="BA62" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="BB62" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B63" s="10" t="s">
         <v>66</v>
       </c>
@@ -8990,14 +8990,14 @@
       <c r="AH63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI63" s="11" t="s">
-        <v>58</v>
+      <c r="AI63" s="11">
+        <v>50</v>
       </c>
       <c r="AJ63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK63" s="11">
-        <v>50</v>
+      <c r="AK63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL63" s="11" t="s">
         <v>58</v>
@@ -9014,14 +9014,14 @@
       <c r="AP63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ63" s="11" t="s">
-        <v>58</v>
+      <c r="AQ63" s="11">
+        <v>0</v>
       </c>
       <c r="AR63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AS63" s="11">
-        <v>0</v>
+      <c r="AS63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT63" s="11" t="s">
         <v>58</v>
@@ -9051,7 +9051,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B64" s="12" t="s">
         <v>68</v>
       </c>
@@ -9182,8 +9182,8 @@
       <c r="AS64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT64" s="13" t="s">
-        <v>58</v>
+      <c r="AT64" s="13">
+        <v>0</v>
       </c>
       <c r="AU64" s="13">
         <v>0</v>
@@ -9198,19 +9198,19 @@
         <v>0</v>
       </c>
       <c r="AY64" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AZ64" s="13">
         <v>0</v>
       </c>
       <c r="BA64" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="BB64" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B65" s="14" t="s">
         <v>82</v>
       </c>
@@ -9307,13 +9307,13 @@
         <v>0</v>
       </c>
       <c r="AI65" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AJ65" s="15">
         <v>0</v>
       </c>
       <c r="AK65" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AL65" s="15">
         <v>0</v>
@@ -9355,19 +9355,19 @@
         <v>0</v>
       </c>
       <c r="AY65" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AZ65" s="15">
         <v>0</v>
       </c>
       <c r="BA65" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="BB65" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B66" s="16" t="s">
         <v>75</v>
       </c>
@@ -9424,7 +9424,7 @@
       <c r="BA66" s="17"/>
       <c r="BB66" s="17"/>
     </row>
-    <row r="67" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B67" s="14" t="s">
         <v>76</v>
       </c>
@@ -9484,11 +9484,11 @@
       <c r="V67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W67" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X67" s="15" t="s">
-        <v>58</v>
+      <c r="W67" s="15">
+        <v>0</v>
+      </c>
+      <c r="X67" s="15">
+        <v>0</v>
       </c>
       <c r="Y67" s="15">
         <v>0</v>
@@ -9581,7 +9581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="68" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B68" s="16" t="s">
         <v>83</v>
       </c>
@@ -9638,7 +9638,7 @@
       <c r="BA68" s="17"/>
       <c r="BB68" s="17"/>
     </row>
-    <row r="69" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="69" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B69" s="14" t="s">
         <v>84</v>
       </c>
@@ -9698,11 +9698,11 @@
       <c r="V69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W69" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X69" s="15" t="s">
-        <v>58</v>
+      <c r="W69" s="15">
+        <v>0</v>
+      </c>
+      <c r="X69" s="15">
+        <v>0</v>
       </c>
       <c r="Y69" s="15">
         <v>0</v>
@@ -9795,7 +9795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B70" s="18" t="s">
         <v>77</v>
       </c>
@@ -9856,103 +9856,103 @@
         <v>0</v>
       </c>
       <c r="W70" s="19">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="X70" s="19">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="Y70" s="19">
-        <v>3813</v>
+        <v>4504</v>
       </c>
       <c r="Z70" s="19">
-        <v>4168</v>
+        <v>4468</v>
       </c>
       <c r="AA70" s="19">
-        <v>4504</v>
+        <v>4083</v>
       </c>
       <c r="AB70" s="19">
-        <v>4468</v>
+        <v>4066</v>
       </c>
       <c r="AC70" s="19">
-        <v>4083</v>
+        <v>4336</v>
       </c>
       <c r="AD70" s="19">
-        <v>4066</v>
+        <v>3960</v>
       </c>
       <c r="AE70" s="19">
-        <v>4336</v>
+        <v>4519</v>
       </c>
       <c r="AF70" s="19">
-        <v>3960</v>
+        <v>3923</v>
       </c>
       <c r="AG70" s="19">
-        <v>4519</v>
+        <v>3828</v>
       </c>
       <c r="AH70" s="19">
-        <v>3923</v>
+        <v>4736</v>
       </c>
       <c r="AI70" s="19">
-        <v>3828</v>
+        <v>4207</v>
       </c>
       <c r="AJ70" s="19">
-        <v>4736</v>
+        <v>3805</v>
       </c>
       <c r="AK70" s="19">
-        <v>4207</v>
+        <v>4318</v>
       </c>
       <c r="AL70" s="19">
-        <v>3805</v>
+        <v>3150</v>
       </c>
       <c r="AM70" s="19">
-        <v>4318</v>
+        <v>3554</v>
       </c>
       <c r="AN70" s="19">
-        <v>3150</v>
+        <v>3482</v>
       </c>
       <c r="AO70" s="19">
-        <v>3554</v>
+        <v>3257</v>
       </c>
       <c r="AP70" s="19">
-        <v>3482</v>
+        <v>3615</v>
       </c>
       <c r="AQ70" s="19">
-        <v>3257</v>
+        <v>4311</v>
       </c>
       <c r="AR70" s="19">
-        <v>3615</v>
+        <v>3929</v>
       </c>
       <c r="AS70" s="19">
-        <v>4311</v>
+        <v>4653</v>
       </c>
       <c r="AT70" s="19">
-        <v>3929</v>
+        <v>3514</v>
       </c>
       <c r="AU70" s="19">
-        <v>4339</v>
+        <v>3314</v>
       </c>
       <c r="AV70" s="19">
-        <v>3514</v>
+        <v>3666</v>
       </c>
       <c r="AW70" s="19">
-        <v>3214</v>
+        <v>4052</v>
       </c>
       <c r="AX70" s="19">
-        <v>3666</v>
+        <v>3982</v>
       </c>
       <c r="AY70" s="19">
-        <v>4052</v>
+        <v>4267</v>
       </c>
       <c r="AZ70" s="19">
-        <v>3982</v>
+        <v>4289</v>
       </c>
       <c r="BA70" s="19">
-        <v>4267</v>
+        <v>3798</v>
       </c>
       <c r="BB70" s="19">
-        <v>4289</v>
+        <v>4071</v>
       </c>
     </row>
-    <row r="71" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -10007,7 +10007,7 @@
       <c r="BA71" s="1"/>
       <c r="BB71" s="1"/>
     </row>
-    <row r="72" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -10062,7 +10062,7 @@
       <c r="BA72" s="1"/>
       <c r="BB72" s="1"/>
     </row>
-    <row r="73" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="73" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B73" s="1"/>
       <c r="C73" s="1"/>
       <c r="D73" s="1"/>
@@ -10117,7 +10117,7 @@
       <c r="BA73" s="1"/>
       <c r="BB73" s="1"/>
     </row>
-    <row r="74" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="74" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B74" s="7" t="s">
         <v>85</v>
       </c>
@@ -10274,7 +10274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="75" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="75" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B75" s="1"/>
       <c r="C75" s="1"/>
       <c r="D75" s="1"/>
@@ -10329,7 +10329,7 @@
       <c r="BA75" s="1"/>
       <c r="BB75" s="1"/>
     </row>
-    <row r="76" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B76" s="8" t="s">
         <v>86</v>
       </c>
@@ -10386,7 +10386,7 @@
       <c r="BA76" s="9"/>
       <c r="BB76" s="9"/>
     </row>
-    <row r="77" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B77" s="10" t="s">
         <v>56</v>
       </c>
@@ -10448,75 +10448,75 @@
       <c r="V77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W77" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X77" s="11" t="s">
-        <v>58</v>
+      <c r="W77" s="11">
+        <v>141</v>
+      </c>
+      <c r="X77" s="11">
+        <v>153</v>
       </c>
       <c r="Y77" s="11">
-        <v>141</v>
+        <v>4666</v>
       </c>
       <c r="Z77" s="11">
-        <v>153</v>
+        <v>2945</v>
       </c>
       <c r="AA77" s="11">
-        <v>4666</v>
+        <v>3224</v>
       </c>
       <c r="AB77" s="11">
-        <v>2945</v>
+        <v>739</v>
       </c>
       <c r="AC77" s="11">
-        <v>3224</v>
+        <v>3574</v>
       </c>
       <c r="AD77" s="11">
         <v>739</v>
       </c>
       <c r="AE77" s="11">
-        <v>3574</v>
+        <v>4359</v>
       </c>
       <c r="AF77" s="11">
-        <v>739</v>
+        <v>4448</v>
       </c>
       <c r="AG77" s="11">
-        <v>4359</v>
+        <v>420</v>
       </c>
       <c r="AH77" s="11">
-        <v>4448</v>
+        <v>956</v>
       </c>
       <c r="AI77" s="11">
-        <v>420</v>
+        <v>891</v>
       </c>
       <c r="AJ77" s="11">
-        <v>956</v>
+        <v>3778</v>
       </c>
       <c r="AK77" s="11">
-        <v>891</v>
+        <v>344</v>
       </c>
       <c r="AL77" s="11">
-        <v>3778</v>
+        <v>6469</v>
       </c>
       <c r="AM77" s="11">
-        <v>344</v>
+        <v>11636</v>
       </c>
       <c r="AN77" s="11">
-        <v>6469</v>
+        <v>2355</v>
       </c>
       <c r="AO77" s="11">
-        <v>11636</v>
+        <v>196</v>
       </c>
       <c r="AP77" s="11">
-        <v>2355</v>
+        <v>225</v>
       </c>
       <c r="AQ77" s="11">
-        <v>196</v>
-      </c>
-      <c r="AR77" s="11">
-        <v>225</v>
-      </c>
-      <c r="AS77" s="11">
         <v>1920</v>
       </c>
+      <c r="AR77" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS77" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT77" s="11" t="s">
         <v>58</v>
       </c>
@@ -10545,7 +10545,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="78" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B78" s="12" t="s">
         <v>59</v>
       </c>
@@ -10607,104 +10607,104 @@
       <c r="V78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W78" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X78" s="13" t="s">
-        <v>58</v>
+      <c r="W78" s="13">
+        <v>33577</v>
+      </c>
+      <c r="X78" s="13">
+        <v>33021</v>
       </c>
       <c r="Y78" s="13">
-        <v>33577</v>
+        <v>45868</v>
       </c>
       <c r="Z78" s="13">
-        <v>33021</v>
+        <v>30109</v>
       </c>
       <c r="AA78" s="13">
-        <v>45868</v>
+        <v>40334</v>
       </c>
       <c r="AB78" s="13">
-        <v>30109</v>
+        <v>54142</v>
       </c>
       <c r="AC78" s="13">
-        <v>40334</v>
+        <v>40348</v>
       </c>
       <c r="AD78" s="13">
-        <v>54142</v>
+        <v>48320</v>
       </c>
       <c r="AE78" s="13">
-        <v>40348</v>
+        <v>66856</v>
       </c>
       <c r="AF78" s="13">
-        <v>48320</v>
+        <v>52895</v>
       </c>
       <c r="AG78" s="13">
-        <v>66856</v>
+        <v>50312</v>
       </c>
       <c r="AH78" s="13">
-        <v>52895</v>
+        <v>67400</v>
       </c>
       <c r="AI78" s="13">
-        <v>50312</v>
+        <v>58311</v>
       </c>
       <c r="AJ78" s="13">
-        <v>67400</v>
+        <v>47189</v>
       </c>
       <c r="AK78" s="13">
-        <v>58311</v>
+        <v>63067</v>
       </c>
       <c r="AL78" s="13">
-        <v>47189</v>
+        <v>45822</v>
       </c>
       <c r="AM78" s="13">
-        <v>63067</v>
+        <v>47551</v>
       </c>
       <c r="AN78" s="13">
-        <v>45822</v>
+        <v>43803</v>
       </c>
       <c r="AO78" s="13">
-        <v>47551</v>
+        <v>46977</v>
       </c>
       <c r="AP78" s="13">
-        <v>43803</v>
+        <v>49678</v>
       </c>
       <c r="AQ78" s="13">
-        <v>46977</v>
+        <v>51295</v>
       </c>
       <c r="AR78" s="13">
-        <v>49678</v>
+        <v>73841</v>
       </c>
       <c r="AS78" s="13">
-        <v>51295</v>
+        <v>63725</v>
       </c>
       <c r="AT78" s="13">
-        <v>73841</v>
+        <v>108445</v>
       </c>
       <c r="AU78" s="13">
-        <v>63725</v>
+        <v>110461</v>
       </c>
       <c r="AV78" s="13">
-        <v>108445</v>
+        <v>93180</v>
       </c>
       <c r="AW78" s="13">
-        <v>110461</v>
+        <v>90768</v>
       </c>
       <c r="AX78" s="13">
-        <v>93180</v>
+        <v>76701</v>
       </c>
       <c r="AY78" s="13">
-        <v>90768</v>
+        <v>83710</v>
       </c>
       <c r="AZ78" s="13">
-        <v>76701</v>
+        <v>77860</v>
       </c>
       <c r="BA78" s="13">
-        <v>83710</v>
+        <v>74750</v>
       </c>
       <c r="BB78" s="13">
-        <v>77860</v>
+        <v>97769</v>
       </c>
     </row>
-    <row r="79" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="79" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
         <v>60</v>
       </c>
@@ -10766,104 +10766,104 @@
       <c r="V79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W79" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X79" s="11" t="s">
-        <v>58</v>
+      <c r="W79" s="11">
+        <v>9075</v>
+      </c>
+      <c r="X79" s="11">
+        <v>10926</v>
       </c>
       <c r="Y79" s="11">
-        <v>9075</v>
+        <v>9551</v>
       </c>
       <c r="Z79" s="11">
-        <v>10926</v>
+        <v>7811</v>
       </c>
       <c r="AA79" s="11">
-        <v>9551</v>
+        <v>9678</v>
       </c>
       <c r="AB79" s="11">
-        <v>7811</v>
+        <v>10379</v>
       </c>
       <c r="AC79" s="11">
-        <v>9678</v>
+        <v>10859</v>
       </c>
       <c r="AD79" s="11">
-        <v>10379</v>
+        <v>12889</v>
       </c>
       <c r="AE79" s="11">
-        <v>10859</v>
+        <v>16142</v>
       </c>
       <c r="AF79" s="11">
-        <v>12889</v>
+        <v>22277</v>
       </c>
       <c r="AG79" s="11">
-        <v>16142</v>
+        <v>13148</v>
       </c>
       <c r="AH79" s="11">
-        <v>22277</v>
+        <v>24589</v>
       </c>
       <c r="AI79" s="11">
-        <v>13148</v>
+        <v>24884</v>
       </c>
       <c r="AJ79" s="11">
-        <v>24589</v>
+        <v>21161</v>
       </c>
       <c r="AK79" s="11">
-        <v>24884</v>
+        <v>24324</v>
       </c>
       <c r="AL79" s="11">
-        <v>21161</v>
+        <v>17175</v>
       </c>
       <c r="AM79" s="11">
-        <v>24324</v>
+        <v>16358</v>
       </c>
       <c r="AN79" s="11">
-        <v>17175</v>
+        <v>15108</v>
       </c>
       <c r="AO79" s="11">
-        <v>16358</v>
+        <v>18276</v>
       </c>
       <c r="AP79" s="11">
-        <v>15108</v>
+        <v>18629</v>
       </c>
       <c r="AQ79" s="11">
-        <v>18276</v>
+        <v>21934</v>
       </c>
       <c r="AR79" s="11">
-        <v>18629</v>
+        <v>20943</v>
       </c>
       <c r="AS79" s="11">
-        <v>21934</v>
+        <v>20054</v>
       </c>
       <c r="AT79" s="11">
-        <v>20943</v>
+        <v>35120</v>
       </c>
       <c r="AU79" s="11">
-        <v>20054</v>
+        <v>40801</v>
       </c>
       <c r="AV79" s="11">
-        <v>35120</v>
+        <v>36240</v>
       </c>
       <c r="AW79" s="11">
-        <v>40801</v>
+        <v>36240</v>
       </c>
       <c r="AX79" s="11">
-        <v>36240</v>
+        <v>25758</v>
       </c>
       <c r="AY79" s="11">
-        <v>36240</v>
+        <v>21718</v>
       </c>
       <c r="AZ79" s="11">
-        <v>25758</v>
+        <v>27257</v>
       </c>
       <c r="BA79" s="11">
-        <v>21718</v>
+        <v>13808</v>
       </c>
       <c r="BB79" s="11">
-        <v>27257</v>
+        <v>28775</v>
       </c>
     </row>
-    <row r="80" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
         <v>61</v>
       </c>
@@ -10925,75 +10925,75 @@
       <c r="V80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W80" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X80" s="13" t="s">
-        <v>58</v>
+      <c r="W80" s="13">
+        <v>39</v>
+      </c>
+      <c r="X80" s="13">
+        <v>218</v>
       </c>
       <c r="Y80" s="13">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="Z80" s="13">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AA80" s="13">
-        <v>0</v>
+        <v>336</v>
       </c>
       <c r="AB80" s="13">
-        <v>216</v>
+        <v>431</v>
       </c>
       <c r="AC80" s="13">
-        <v>336</v>
+        <v>478</v>
       </c>
       <c r="AD80" s="13">
-        <v>431</v>
+        <v>402</v>
       </c>
       <c r="AE80" s="13">
-        <v>478</v>
+        <v>505</v>
       </c>
       <c r="AF80" s="13">
-        <v>402</v>
+        <v>721</v>
       </c>
       <c r="AG80" s="13">
-        <v>505</v>
+        <v>567</v>
       </c>
       <c r="AH80" s="13">
-        <v>721</v>
+        <v>535</v>
       </c>
       <c r="AI80" s="13">
-        <v>567</v>
+        <v>202</v>
       </c>
       <c r="AJ80" s="13">
-        <v>535</v>
+        <v>265</v>
       </c>
       <c r="AK80" s="13">
-        <v>202</v>
+        <v>864</v>
       </c>
       <c r="AL80" s="13">
-        <v>265</v>
+        <v>879</v>
       </c>
       <c r="AM80" s="13">
-        <v>864</v>
+        <v>1215</v>
       </c>
       <c r="AN80" s="13">
-        <v>879</v>
+        <v>477</v>
       </c>
       <c r="AO80" s="13">
-        <v>1215</v>
+        <v>904</v>
       </c>
       <c r="AP80" s="13">
-        <v>477</v>
+        <v>703</v>
       </c>
       <c r="AQ80" s="13">
-        <v>904</v>
-      </c>
-      <c r="AR80" s="13">
-        <v>703</v>
-      </c>
-      <c r="AS80" s="13">
         <v>824</v>
       </c>
+      <c r="AR80" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS80" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT80" s="13" t="s">
         <v>58</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="81" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B81" s="10" t="s">
         <v>62</v>
       </c>
@@ -11084,104 +11084,104 @@
       <c r="V81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W81" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X81" s="11" t="s">
-        <v>58</v>
+      <c r="W81" s="11">
+        <v>24627</v>
+      </c>
+      <c r="X81" s="11">
+        <v>37055</v>
       </c>
       <c r="Y81" s="11">
-        <v>24627</v>
+        <v>34779</v>
       </c>
       <c r="Z81" s="11">
-        <v>37055</v>
+        <v>41840</v>
       </c>
       <c r="AA81" s="11">
-        <v>34779</v>
+        <v>33427</v>
       </c>
       <c r="AB81" s="11">
-        <v>41840</v>
+        <v>37567</v>
       </c>
       <c r="AC81" s="11">
-        <v>33427</v>
+        <v>47276</v>
       </c>
       <c r="AD81" s="11">
-        <v>37567</v>
+        <v>37896</v>
       </c>
       <c r="AE81" s="11">
-        <v>47276</v>
+        <v>46347</v>
       </c>
       <c r="AF81" s="11">
-        <v>37896</v>
+        <v>49890</v>
       </c>
       <c r="AG81" s="11">
-        <v>46347</v>
+        <v>48734</v>
       </c>
       <c r="AH81" s="11">
-        <v>49890</v>
+        <v>68737</v>
       </c>
       <c r="AI81" s="11">
-        <v>48734</v>
+        <v>43252</v>
       </c>
       <c r="AJ81" s="11">
-        <v>68737</v>
+        <v>55990</v>
       </c>
       <c r="AK81" s="11">
-        <v>43252</v>
+        <v>67161</v>
       </c>
       <c r="AL81" s="11">
-        <v>55990</v>
+        <v>63306</v>
       </c>
       <c r="AM81" s="11">
-        <v>67161</v>
+        <v>76204</v>
       </c>
       <c r="AN81" s="11">
-        <v>63306</v>
+        <v>76167</v>
       </c>
       <c r="AO81" s="11">
-        <v>76204</v>
+        <v>71495</v>
       </c>
       <c r="AP81" s="11">
-        <v>76167</v>
+        <v>50828</v>
       </c>
       <c r="AQ81" s="11">
-        <v>71495</v>
+        <v>72619</v>
       </c>
       <c r="AR81" s="11">
-        <v>50828</v>
+        <v>71151</v>
       </c>
       <c r="AS81" s="11">
-        <v>72619</v>
+        <v>121782</v>
       </c>
       <c r="AT81" s="11">
-        <v>71151</v>
+        <v>138713</v>
       </c>
       <c r="AU81" s="11">
-        <v>119183</v>
+        <v>202016</v>
       </c>
       <c r="AV81" s="11">
-        <v>138713</v>
+        <v>151357</v>
       </c>
       <c r="AW81" s="11">
-        <v>202016</v>
+        <v>147539</v>
       </c>
       <c r="AX81" s="11">
-        <v>151357</v>
+        <v>170501</v>
       </c>
       <c r="AY81" s="11">
-        <v>147539</v>
+        <v>216762</v>
       </c>
       <c r="AZ81" s="11">
-        <v>170501</v>
+        <v>214925</v>
       </c>
       <c r="BA81" s="11">
-        <v>216762</v>
+        <v>166331</v>
       </c>
       <c r="BB81" s="11">
-        <v>214925</v>
+        <v>157839</v>
       </c>
     </row>
-    <row r="82" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B82" s="12" t="s">
         <v>63</v>
       </c>
@@ -11243,104 +11243,104 @@
       <c r="V82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W82" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X82" s="13" t="s">
-        <v>58</v>
+      <c r="W82" s="13">
+        <v>38307</v>
+      </c>
+      <c r="X82" s="13">
+        <v>37471</v>
       </c>
       <c r="Y82" s="13">
-        <v>38307</v>
+        <v>55370</v>
       </c>
       <c r="Z82" s="13">
-        <v>37471</v>
+        <v>59039</v>
       </c>
       <c r="AA82" s="13">
-        <v>55370</v>
+        <v>50295</v>
       </c>
       <c r="AB82" s="13">
-        <v>59039</v>
+        <v>56922</v>
       </c>
       <c r="AC82" s="13">
-        <v>50295</v>
+        <v>57615</v>
       </c>
       <c r="AD82" s="13">
-        <v>56922</v>
+        <v>30607</v>
       </c>
       <c r="AE82" s="13">
-        <v>57615</v>
+        <v>79793</v>
       </c>
       <c r="AF82" s="13">
-        <v>30607</v>
+        <v>17013</v>
       </c>
       <c r="AG82" s="13">
-        <v>79793</v>
+        <v>12987</v>
       </c>
       <c r="AH82" s="13">
-        <v>17013</v>
+        <v>84770</v>
       </c>
       <c r="AI82" s="13">
-        <v>12987</v>
+        <v>44707</v>
       </c>
       <c r="AJ82" s="13">
-        <v>84770</v>
+        <v>28783</v>
       </c>
       <c r="AK82" s="13">
-        <v>44707</v>
+        <v>74114</v>
       </c>
       <c r="AL82" s="13">
-        <v>28783</v>
+        <v>45184</v>
       </c>
       <c r="AM82" s="13">
-        <v>74114</v>
+        <v>81905</v>
       </c>
       <c r="AN82" s="13">
-        <v>45184</v>
+        <v>28089</v>
       </c>
       <c r="AO82" s="13">
-        <v>81905</v>
+        <v>33289</v>
       </c>
       <c r="AP82" s="13">
-        <v>28089</v>
+        <v>51522</v>
       </c>
       <c r="AQ82" s="13">
-        <v>33289</v>
+        <v>117406</v>
       </c>
       <c r="AR82" s="13">
-        <v>51522</v>
+        <v>32095</v>
       </c>
       <c r="AS82" s="13">
-        <v>117406</v>
+        <v>110993</v>
       </c>
       <c r="AT82" s="13">
-        <v>32095</v>
+        <v>79684</v>
       </c>
       <c r="AU82" s="13">
-        <v>105612</v>
+        <v>49003</v>
       </c>
       <c r="AV82" s="13">
-        <v>79684</v>
+        <v>64779</v>
       </c>
       <c r="AW82" s="13">
-        <v>49003</v>
+        <v>57588</v>
       </c>
       <c r="AX82" s="13">
-        <v>64779</v>
+        <v>91868</v>
       </c>
       <c r="AY82" s="13">
-        <v>57588</v>
+        <v>66615</v>
       </c>
       <c r="AZ82" s="13">
-        <v>91868</v>
+        <v>83955</v>
       </c>
       <c r="BA82" s="13">
-        <v>66615</v>
+        <v>111426</v>
       </c>
       <c r="BB82" s="13">
-        <v>83955</v>
+        <v>136468</v>
       </c>
     </row>
-    <row r="83" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B83" s="10" t="s">
         <v>64</v>
       </c>
@@ -11402,104 +11402,104 @@
       <c r="V83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W83" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X83" s="11" t="s">
-        <v>58</v>
+      <c r="W83" s="11">
+        <v>100984</v>
+      </c>
+      <c r="X83" s="11">
+        <v>102850</v>
       </c>
       <c r="Y83" s="11">
-        <v>100984</v>
+        <v>131424</v>
       </c>
       <c r="Z83" s="11">
-        <v>102850</v>
+        <v>146082</v>
       </c>
       <c r="AA83" s="11">
-        <v>131424</v>
+        <v>126195</v>
       </c>
       <c r="AB83" s="11">
-        <v>146082</v>
+        <v>162057</v>
       </c>
       <c r="AC83" s="11">
-        <v>126195</v>
+        <v>177733</v>
       </c>
       <c r="AD83" s="11">
-        <v>162057</v>
+        <v>125838</v>
       </c>
       <c r="AE83" s="11">
-        <v>177733</v>
+        <v>159560</v>
       </c>
       <c r="AF83" s="11">
-        <v>125838</v>
+        <v>114731</v>
       </c>
       <c r="AG83" s="11">
-        <v>159560</v>
+        <v>135352</v>
       </c>
       <c r="AH83" s="11">
-        <v>114731</v>
+        <v>160172</v>
       </c>
       <c r="AI83" s="11">
-        <v>135352</v>
+        <v>145295</v>
       </c>
       <c r="AJ83" s="11">
-        <v>160172</v>
+        <v>136747</v>
       </c>
       <c r="AK83" s="11">
-        <v>145295</v>
+        <v>193281</v>
       </c>
       <c r="AL83" s="11">
-        <v>136747</v>
+        <v>192450</v>
       </c>
       <c r="AM83" s="11">
-        <v>193281</v>
+        <v>207159</v>
       </c>
       <c r="AN83" s="11">
-        <v>192450</v>
+        <v>204606</v>
       </c>
       <c r="AO83" s="11">
-        <v>207159</v>
+        <v>190205</v>
       </c>
       <c r="AP83" s="11">
-        <v>204606</v>
+        <v>212832</v>
       </c>
       <c r="AQ83" s="11">
-        <v>190205</v>
+        <v>212367</v>
       </c>
       <c r="AR83" s="11">
-        <v>212832</v>
+        <v>184328</v>
       </c>
       <c r="AS83" s="11">
-        <v>212367</v>
+        <v>263662</v>
       </c>
       <c r="AT83" s="11">
-        <v>184328</v>
+        <v>321224</v>
       </c>
       <c r="AU83" s="11">
-        <v>257210</v>
+        <v>276161</v>
       </c>
       <c r="AV83" s="11">
-        <v>321224</v>
+        <v>340405</v>
       </c>
       <c r="AW83" s="11">
-        <v>276161</v>
+        <v>404134</v>
       </c>
       <c r="AX83" s="11">
-        <v>340405</v>
+        <v>353170</v>
       </c>
       <c r="AY83" s="11">
-        <v>404134</v>
+        <v>412526</v>
       </c>
       <c r="AZ83" s="11">
-        <v>353170</v>
+        <v>427258</v>
       </c>
       <c r="BA83" s="11">
-        <v>412526</v>
+        <v>383447</v>
       </c>
       <c r="BB83" s="11">
-        <v>427258</v>
+        <v>395386</v>
       </c>
     </row>
-    <row r="84" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B84" s="12" t="s">
         <v>65</v>
       </c>
@@ -11624,41 +11624,41 @@
       <c r="AQ84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR84" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS84" s="13" t="s">
-        <v>58</v>
+      <c r="AR84" s="13">
+        <v>338191</v>
+      </c>
+      <c r="AS84" s="13">
+        <v>44114</v>
       </c>
       <c r="AT84" s="13">
-        <v>338191</v>
+        <v>43733</v>
       </c>
       <c r="AU84" s="13">
-        <v>13614</v>
+        <v>211580</v>
       </c>
       <c r="AV84" s="13">
-        <v>43733</v>
+        <v>77449</v>
       </c>
       <c r="AW84" s="13">
-        <v>117580</v>
+        <v>254832</v>
       </c>
       <c r="AX84" s="13">
-        <v>77449</v>
+        <v>262156</v>
       </c>
       <c r="AY84" s="13">
-        <v>254832</v>
+        <v>173951</v>
       </c>
       <c r="AZ84" s="13">
-        <v>262156</v>
+        <v>366752</v>
       </c>
       <c r="BA84" s="13">
-        <v>173951</v>
+        <v>221813</v>
       </c>
       <c r="BB84" s="13">
-        <v>366752</v>
+        <v>144272</v>
       </c>
     </row>
-    <row r="85" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B85" s="10" t="s">
         <v>66</v>
       </c>
@@ -11720,75 +11720,75 @@
       <c r="V85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W85" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X85" s="11" t="s">
-        <v>58</v>
+      <c r="W85" s="11">
+        <v>27560</v>
+      </c>
+      <c r="X85" s="11">
+        <v>176269</v>
       </c>
       <c r="Y85" s="11">
-        <v>27560</v>
+        <v>74352</v>
       </c>
       <c r="Z85" s="11">
-        <v>176269</v>
+        <v>101452</v>
       </c>
       <c r="AA85" s="11">
-        <v>74352</v>
+        <v>18225</v>
       </c>
       <c r="AB85" s="11">
-        <v>101452</v>
+        <v>872</v>
       </c>
       <c r="AC85" s="11">
-        <v>18225</v>
+        <v>129178</v>
       </c>
       <c r="AD85" s="11">
-        <v>872</v>
+        <v>98442</v>
       </c>
       <c r="AE85" s="11">
-        <v>129178</v>
+        <v>74991</v>
       </c>
       <c r="AF85" s="11">
-        <v>98442</v>
+        <v>110063</v>
       </c>
       <c r="AG85" s="11">
-        <v>74991</v>
+        <v>111396</v>
       </c>
       <c r="AH85" s="11">
-        <v>110063</v>
+        <v>40145</v>
       </c>
       <c r="AI85" s="11">
-        <v>111396</v>
+        <v>2343</v>
       </c>
       <c r="AJ85" s="11">
-        <v>40145</v>
+        <v>98103</v>
       </c>
       <c r="AK85" s="11">
-        <v>2343</v>
+        <v>228663</v>
       </c>
       <c r="AL85" s="11">
-        <v>98103</v>
+        <v>2505</v>
       </c>
       <c r="AM85" s="11">
-        <v>228663</v>
+        <v>2760</v>
       </c>
       <c r="AN85" s="11">
-        <v>2505</v>
+        <v>35100</v>
       </c>
       <c r="AO85" s="11">
-        <v>2760</v>
+        <v>14850</v>
       </c>
       <c r="AP85" s="11">
-        <v>35100</v>
+        <v>56160</v>
       </c>
       <c r="AQ85" s="11">
-        <v>14850</v>
-      </c>
-      <c r="AR85" s="11">
-        <v>56160</v>
-      </c>
-      <c r="AS85" s="11">
         <v>218400</v>
       </c>
+      <c r="AR85" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS85" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT85" s="11" t="s">
         <v>58</v>
       </c>
@@ -11817,7 +11817,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="86" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B86" s="12" t="s">
         <v>67</v>
       </c>
@@ -11879,75 +11879,75 @@
       <c r="V86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W86" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X86" s="13" t="s">
-        <v>58</v>
+      <c r="W86" s="13">
+        <v>13409</v>
+      </c>
+      <c r="X86" s="13">
+        <v>927</v>
       </c>
       <c r="Y86" s="13">
-        <v>13409</v>
+        <v>10466</v>
       </c>
       <c r="Z86" s="13">
-        <v>927</v>
+        <v>3069</v>
       </c>
       <c r="AA86" s="13">
-        <v>10466</v>
+        <v>3324</v>
       </c>
       <c r="AB86" s="13">
-        <v>3069</v>
+        <v>16965</v>
       </c>
       <c r="AC86" s="13">
-        <v>3324</v>
+        <v>1388</v>
       </c>
       <c r="AD86" s="13">
-        <v>16965</v>
+        <v>552</v>
       </c>
       <c r="AE86" s="13">
-        <v>1388</v>
+        <v>14436</v>
       </c>
       <c r="AF86" s="13">
-        <v>552</v>
+        <v>4866</v>
       </c>
       <c r="AG86" s="13">
-        <v>14436</v>
+        <v>7207</v>
       </c>
       <c r="AH86" s="13">
-        <v>4866</v>
+        <v>22690</v>
       </c>
       <c r="AI86" s="13">
-        <v>7207</v>
+        <v>8143</v>
       </c>
       <c r="AJ86" s="13">
-        <v>22690</v>
+        <v>7202</v>
       </c>
       <c r="AK86" s="13">
-        <v>8143</v>
+        <v>6256</v>
       </c>
       <c r="AL86" s="13">
-        <v>7202</v>
+        <v>5873</v>
       </c>
       <c r="AM86" s="13">
-        <v>6256</v>
+        <v>6532</v>
       </c>
       <c r="AN86" s="13">
-        <v>5873</v>
+        <v>7311</v>
       </c>
       <c r="AO86" s="13">
-        <v>6532</v>
+        <v>5427</v>
       </c>
       <c r="AP86" s="13">
-        <v>7311</v>
+        <v>7103</v>
       </c>
       <c r="AQ86" s="13">
-        <v>5427</v>
-      </c>
-      <c r="AR86" s="13">
-        <v>7103</v>
-      </c>
-      <c r="AS86" s="13">
         <v>11541</v>
       </c>
+      <c r="AR86" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS86" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT86" s="13" t="s">
         <v>58</v>
       </c>
@@ -11976,7 +11976,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="87" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B87" s="10" t="s">
         <v>68</v>
       </c>
@@ -12038,104 +12038,104 @@
       <c r="V87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W87" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X87" s="11" t="s">
-        <v>58</v>
+      <c r="W87" s="11">
+        <v>11259</v>
+      </c>
+      <c r="X87" s="11">
+        <v>12436</v>
       </c>
       <c r="Y87" s="11">
-        <v>11259</v>
+        <v>28504</v>
       </c>
       <c r="Z87" s="11">
-        <v>12436</v>
+        <v>51483</v>
       </c>
       <c r="AA87" s="11">
-        <v>28504</v>
+        <v>60895</v>
       </c>
       <c r="AB87" s="11">
-        <v>51483</v>
+        <v>55546</v>
       </c>
       <c r="AC87" s="11">
-        <v>60895</v>
+        <v>36075</v>
       </c>
       <c r="AD87" s="11">
-        <v>55546</v>
+        <v>48573</v>
       </c>
       <c r="AE87" s="11">
-        <v>36075</v>
+        <v>36750</v>
       </c>
       <c r="AF87" s="11">
-        <v>48573</v>
+        <v>41596</v>
       </c>
       <c r="AG87" s="11">
-        <v>36750</v>
+        <v>33379</v>
       </c>
       <c r="AH87" s="11">
-        <v>41596</v>
+        <v>50264</v>
       </c>
       <c r="AI87" s="11">
-        <v>33379</v>
+        <v>86833</v>
       </c>
       <c r="AJ87" s="11">
-        <v>50264</v>
+        <v>45135</v>
       </c>
       <c r="AK87" s="11">
-        <v>86833</v>
+        <v>63370</v>
       </c>
       <c r="AL87" s="11">
-        <v>45135</v>
+        <v>65782</v>
       </c>
       <c r="AM87" s="11">
-        <v>63370</v>
+        <v>103108</v>
       </c>
       <c r="AN87" s="11">
-        <v>65782</v>
+        <v>128441</v>
       </c>
       <c r="AO87" s="11">
-        <v>103108</v>
+        <v>50228</v>
       </c>
       <c r="AP87" s="11">
-        <v>128441</v>
+        <v>57940</v>
       </c>
       <c r="AQ87" s="11">
-        <v>50228</v>
+        <v>54264</v>
       </c>
       <c r="AR87" s="11">
-        <v>57940</v>
+        <v>69509</v>
       </c>
       <c r="AS87" s="11">
-        <v>54264</v>
+        <v>531500</v>
       </c>
       <c r="AT87" s="11">
-        <v>69509</v>
+        <v>262560</v>
       </c>
       <c r="AU87" s="11">
-        <v>366500</v>
+        <v>131888</v>
       </c>
       <c r="AV87" s="11">
-        <v>262560</v>
+        <v>523210</v>
       </c>
       <c r="AW87" s="11">
-        <v>131888</v>
+        <v>310587</v>
       </c>
       <c r="AX87" s="11">
-        <v>523210</v>
+        <v>498159</v>
       </c>
       <c r="AY87" s="11">
-        <v>310587</v>
+        <v>451621</v>
       </c>
       <c r="AZ87" s="11">
-        <v>498159</v>
+        <v>236040</v>
       </c>
       <c r="BA87" s="11">
-        <v>451621</v>
+        <v>305907</v>
       </c>
       <c r="BB87" s="11">
-        <v>236040</v>
+        <v>168108</v>
       </c>
     </row>
-    <row r="88" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B88" s="12" t="s">
         <v>69</v>
       </c>
@@ -12197,20 +12197,20 @@
       <c r="V88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X88" s="13" t="s">
-        <v>58</v>
+      <c r="W88" s="13">
+        <v>0</v>
+      </c>
+      <c r="X88" s="13">
+        <v>0</v>
       </c>
       <c r="Y88" s="13">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="Z88" s="13">
         <v>0</v>
       </c>
       <c r="AA88" s="13">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="AB88" s="13">
         <v>0</v>
@@ -12224,77 +12224,77 @@
       <c r="AE88" s="13">
         <v>0</v>
       </c>
-      <c r="AF88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG88" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH88" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI88" s="13" t="s">
-        <v>58</v>
+      <c r="AF88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG88" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH88" s="13">
+        <v>0</v>
+      </c>
+      <c r="AI88" s="13">
+        <v>0</v>
       </c>
       <c r="AJ88" s="13">
-        <v>0</v>
+        <v>8213</v>
       </c>
       <c r="AK88" s="13">
         <v>0</v>
       </c>
       <c r="AL88" s="13">
-        <v>8213</v>
+        <v>0</v>
       </c>
       <c r="AM88" s="13">
         <v>0</v>
       </c>
       <c r="AN88" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AO88" s="13">
-        <v>0</v>
+        <v>238</v>
       </c>
       <c r="AP88" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AQ88" s="13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AR88" s="13">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="AS88" s="13">
-        <v>0</v>
+        <v>1378</v>
       </c>
       <c r="AT88" s="13">
-        <v>1203</v>
+        <v>931</v>
       </c>
       <c r="AU88" s="13">
-        <v>1378</v>
+        <v>1329</v>
       </c>
       <c r="AV88" s="13">
-        <v>931</v>
+        <v>1839</v>
       </c>
       <c r="AW88" s="13">
-        <v>1329</v>
+        <v>652</v>
       </c>
       <c r="AX88" s="13">
-        <v>1839</v>
+        <v>653</v>
       </c>
       <c r="AY88" s="13">
-        <v>652</v>
+        <v>717</v>
       </c>
       <c r="AZ88" s="13">
-        <v>653</v>
+        <v>777</v>
       </c>
       <c r="BA88" s="13">
-        <v>717</v>
+        <v>630</v>
       </c>
       <c r="BB88" s="13">
-        <v>777</v>
+        <v>929</v>
       </c>
     </row>
-    <row r="89" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B89" s="10" t="s">
         <v>70</v>
       </c>
@@ -12356,11 +12356,11 @@
       <c r="V89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W89" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X89" s="11" t="s">
-        <v>58</v>
+      <c r="W89" s="11">
+        <v>0</v>
+      </c>
+      <c r="X89" s="11">
+        <v>0</v>
       </c>
       <c r="Y89" s="11">
         <v>0</v>
@@ -12383,11 +12383,11 @@
       <c r="AE89" s="11">
         <v>0</v>
       </c>
-      <c r="AF89" s="11">
-        <v>0</v>
-      </c>
-      <c r="AG89" s="11">
-        <v>0</v>
+      <c r="AF89" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH89" s="11" t="s">
         <v>58</v>
@@ -12453,7 +12453,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="90" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B90" s="12" t="s">
         <v>71</v>
       </c>
@@ -12515,11 +12515,11 @@
       <c r="V90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W90" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X90" s="13" t="s">
-        <v>58</v>
+      <c r="W90" s="13">
+        <v>0</v>
+      </c>
+      <c r="X90" s="13">
+        <v>0</v>
       </c>
       <c r="Y90" s="13">
         <v>0</v>
@@ -12582,37 +12582,37 @@
         <v>0</v>
       </c>
       <c r="AS90" s="13">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="AT90" s="13">
         <v>0</v>
       </c>
       <c r="AU90" s="13">
-        <v>619</v>
+        <v>217</v>
       </c>
       <c r="AV90" s="13">
-        <v>0</v>
+        <v>294</v>
       </c>
       <c r="AW90" s="13">
-        <v>217</v>
+        <v>737</v>
       </c>
       <c r="AX90" s="13">
-        <v>294</v>
+        <v>1347</v>
       </c>
       <c r="AY90" s="13">
-        <v>737</v>
+        <v>1542</v>
       </c>
       <c r="AZ90" s="13">
-        <v>1347</v>
+        <v>0</v>
       </c>
       <c r="BA90" s="13">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="BB90" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B91" s="14" t="s">
         <v>80</v>
       </c>
@@ -12673,103 +12673,103 @@
         <v>0</v>
       </c>
       <c r="W91" s="15">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="X91" s="15">
-        <v>0</v>
+        <v>411326</v>
       </c>
       <c r="Y91" s="15">
-        <v>258978</v>
+        <v>395389</v>
       </c>
       <c r="Z91" s="15">
-        <v>411326</v>
+        <v>444046</v>
       </c>
       <c r="AA91" s="15">
-        <v>395389</v>
+        <v>345933</v>
       </c>
       <c r="AB91" s="15">
-        <v>444046</v>
+        <v>395620</v>
       </c>
       <c r="AC91" s="15">
-        <v>345933</v>
+        <v>504524</v>
       </c>
       <c r="AD91" s="15">
-        <v>395620</v>
+        <v>404258</v>
       </c>
       <c r="AE91" s="15">
-        <v>504524</v>
+        <v>499739</v>
       </c>
       <c r="AF91" s="15">
-        <v>404258</v>
+        <v>418500</v>
       </c>
       <c r="AG91" s="15">
-        <v>499739</v>
+        <v>413502</v>
       </c>
       <c r="AH91" s="15">
-        <v>418500</v>
+        <v>520258</v>
       </c>
       <c r="AI91" s="15">
-        <v>413502</v>
+        <v>414861</v>
       </c>
       <c r="AJ91" s="15">
-        <v>520258</v>
+        <v>452566</v>
       </c>
       <c r="AK91" s="15">
-        <v>414861</v>
+        <v>721444</v>
       </c>
       <c r="AL91" s="15">
-        <v>452566</v>
+        <v>445445</v>
       </c>
       <c r="AM91" s="15">
-        <v>721444</v>
+        <v>554428</v>
       </c>
       <c r="AN91" s="15">
-        <v>445445</v>
+        <v>541470</v>
       </c>
       <c r="AO91" s="15">
-        <v>554428</v>
+        <v>432085</v>
       </c>
       <c r="AP91" s="15">
-        <v>541470</v>
+        <v>505620</v>
       </c>
       <c r="AQ91" s="15">
-        <v>432085</v>
+        <v>762570</v>
       </c>
       <c r="AR91" s="15">
-        <v>505620</v>
+        <v>791261</v>
       </c>
       <c r="AS91" s="15">
-        <v>762570</v>
+        <v>1157827</v>
       </c>
       <c r="AT91" s="15">
-        <v>791261</v>
+        <v>990410</v>
       </c>
       <c r="AU91" s="15">
-        <v>947895</v>
+        <v>1023456</v>
       </c>
       <c r="AV91" s="15">
-        <v>990410</v>
+        <v>1288753</v>
       </c>
       <c r="AW91" s="15">
-        <v>929456</v>
+        <v>1303077</v>
       </c>
       <c r="AX91" s="15">
-        <v>1288753</v>
+        <v>1480313</v>
       </c>
       <c r="AY91" s="15">
-        <v>1303077</v>
+        <v>1429162</v>
       </c>
       <c r="AZ91" s="15">
-        <v>1480313</v>
+        <v>1434824</v>
       </c>
       <c r="BA91" s="15">
-        <v>1429162</v>
+        <v>1278112</v>
       </c>
       <c r="BB91" s="15">
-        <v>1434824</v>
+        <v>1129546</v>
       </c>
     </row>
-    <row r="92" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B92" s="8" t="s">
         <v>88</v>
       </c>
@@ -12826,7 +12826,7 @@
       <c r="BA92" s="9"/>
       <c r="BB92" s="9"/>
     </row>
-    <row r="93" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B93" s="10" t="s">
         <v>62</v>
       </c>
@@ -12957,8 +12957,8 @@
       <c r="AS93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT93" s="11" t="s">
-        <v>58</v>
+      <c r="AT93" s="11">
+        <v>0</v>
       </c>
       <c r="AU93" s="11">
         <v>0</v>
@@ -12985,7 +12985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="94" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B94" s="12" t="s">
         <v>63</v>
       </c>
@@ -13116,8 +13116,8 @@
       <c r="AS94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT94" s="13" t="s">
-        <v>58</v>
+      <c r="AT94" s="13">
+        <v>0</v>
       </c>
       <c r="AU94" s="13">
         <v>0</v>
@@ -13132,19 +13132,19 @@
         <v>0</v>
       </c>
       <c r="AY94" s="13">
-        <v>0</v>
+        <v>4158</v>
       </c>
       <c r="AZ94" s="13">
         <v>0</v>
       </c>
       <c r="BA94" s="13">
-        <v>4158</v>
+        <v>0</v>
       </c>
       <c r="BB94" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B95" s="10" t="s">
         <v>64</v>
       </c>
@@ -13275,8 +13275,8 @@
       <c r="AS95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AT95" s="11" t="s">
-        <v>58</v>
+      <c r="AT95" s="11">
+        <v>0</v>
       </c>
       <c r="AU95" s="11">
         <v>0</v>
@@ -13303,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B96" s="12" t="s">
         <v>65</v>
       </c>
@@ -13434,8 +13434,8 @@
       <c r="AS96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT96" s="13" t="s">
-        <v>58</v>
+      <c r="AT96" s="13">
+        <v>0</v>
       </c>
       <c r="AU96" s="13">
         <v>0</v>
@@ -13450,19 +13450,19 @@
         <v>0</v>
       </c>
       <c r="AY96" s="13">
-        <v>0</v>
+        <v>83241</v>
       </c>
       <c r="AZ96" s="13">
         <v>0</v>
       </c>
       <c r="BA96" s="13">
-        <v>83241</v>
+        <v>0</v>
       </c>
       <c r="BB96" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B97" s="10" t="s">
         <v>66</v>
       </c>
@@ -13560,14 +13560,14 @@
       <c r="AH97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI97" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ97" s="11" t="s">
-        <v>58</v>
+      <c r="AI97" s="11">
+        <v>29000</v>
+      </c>
+      <c r="AJ97" s="11">
+        <v>0</v>
       </c>
       <c r="AK97" s="11">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AL97" s="11">
         <v>0</v>
@@ -13587,11 +13587,11 @@
       <c r="AQ97" s="11">
         <v>0</v>
       </c>
-      <c r="AR97" s="11">
-        <v>0</v>
-      </c>
-      <c r="AS97" s="11">
-        <v>0</v>
+      <c r="AR97" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AT97" s="11" t="s">
         <v>58</v>
@@ -13621,7 +13621,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="98" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B98" s="12" t="s">
         <v>68</v>
       </c>
@@ -13752,8 +13752,8 @@
       <c r="AS98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AT98" s="13" t="s">
-        <v>58</v>
+      <c r="AT98" s="13">
+        <v>0</v>
       </c>
       <c r="AU98" s="13">
         <v>0</v>
@@ -13768,19 +13768,19 @@
         <v>0</v>
       </c>
       <c r="AY98" s="13">
-        <v>0</v>
+        <v>20550</v>
       </c>
       <c r="AZ98" s="13">
         <v>0</v>
       </c>
       <c r="BA98" s="13">
-        <v>20550</v>
+        <v>0</v>
       </c>
       <c r="BB98" s="13">
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B99" s="14" t="s">
         <v>82</v>
       </c>
@@ -13877,13 +13877,13 @@
         <v>0</v>
       </c>
       <c r="AI99" s="15">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="AJ99" s="15">
         <v>0</v>
       </c>
       <c r="AK99" s="15">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AL99" s="15">
         <v>0</v>
@@ -13925,19 +13925,19 @@
         <v>0</v>
       </c>
       <c r="AY99" s="15">
-        <v>0</v>
+        <v>107949</v>
       </c>
       <c r="AZ99" s="15">
         <v>0</v>
       </c>
       <c r="BA99" s="15">
-        <v>107949</v>
+        <v>0</v>
       </c>
       <c r="BB99" s="15">
         <v>0</v>
       </c>
     </row>
-    <row r="100" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B100" s="16" t="s">
         <v>89</v>
       </c>
@@ -13994,7 +13994,7 @@
       <c r="BA100" s="17"/>
       <c r="BB100" s="17"/>
     </row>
-    <row r="101" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B101" s="14" t="s">
         <v>76</v>
       </c>
@@ -14056,11 +14056,11 @@
       <c r="V101" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W101" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X101" s="15" t="s">
-        <v>58</v>
+      <c r="W101" s="15">
+        <v>0</v>
+      </c>
+      <c r="X101" s="15">
+        <v>0</v>
       </c>
       <c r="Y101" s="15">
         <v>0</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B102" s="16" t="s">
         <v>90</v>
       </c>
@@ -14210,7 +14210,7 @@
       <c r="BA102" s="17"/>
       <c r="BB102" s="17"/>
     </row>
-    <row r="103" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B103" s="14" t="s">
         <v>84</v>
       </c>
@@ -14272,11 +14272,11 @@
       <c r="V103" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="W103" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="X103" s="15" t="s">
-        <v>58</v>
+      <c r="W103" s="15">
+        <v>0</v>
+      </c>
+      <c r="X103" s="15">
+        <v>0</v>
       </c>
       <c r="Y103" s="15">
         <v>0</v>
@@ -14369,7 +14369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="104" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B104" s="8" t="s">
         <v>91</v>
       </c>
@@ -14426,7 +14426,7 @@
       <c r="BA104" s="9"/>
       <c r="BB104" s="9"/>
     </row>
-    <row r="105" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B105" s="10" t="s">
         <v>92</v>
       </c>
@@ -14488,11 +14488,11 @@
       <c r="V105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W105" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X105" s="11" t="s">
-        <v>58</v>
+      <c r="W105" s="11">
+        <v>0</v>
+      </c>
+      <c r="X105" s="11">
+        <v>0</v>
       </c>
       <c r="Y105" s="11">
         <v>0</v>
@@ -14585,7 +14585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B106" s="18" t="s">
         <v>77</v>
       </c>
@@ -14646,103 +14646,103 @@
         <v>0</v>
       </c>
       <c r="W106" s="19">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="X106" s="19">
-        <v>0</v>
+        <v>411326</v>
       </c>
       <c r="Y106" s="19">
-        <v>258978</v>
+        <v>395389</v>
       </c>
       <c r="Z106" s="19">
-        <v>411326</v>
+        <v>444046</v>
       </c>
       <c r="AA106" s="19">
-        <v>395389</v>
+        <v>345933</v>
       </c>
       <c r="AB106" s="19">
-        <v>444046</v>
+        <v>395620</v>
       </c>
       <c r="AC106" s="19">
-        <v>345933</v>
+        <v>504524</v>
       </c>
       <c r="AD106" s="19">
-        <v>395620</v>
+        <v>404258</v>
       </c>
       <c r="AE106" s="19">
-        <v>504524</v>
+        <v>499739</v>
       </c>
       <c r="AF106" s="19">
-        <v>404258</v>
+        <v>418500</v>
       </c>
       <c r="AG106" s="19">
-        <v>499739</v>
+        <v>413502</v>
       </c>
       <c r="AH106" s="19">
-        <v>418500</v>
+        <v>520258</v>
       </c>
       <c r="AI106" s="19">
-        <v>413502</v>
+        <v>443861</v>
       </c>
       <c r="AJ106" s="19">
-        <v>520258</v>
+        <v>452566</v>
       </c>
       <c r="AK106" s="19">
-        <v>443861</v>
+        <v>721444</v>
       </c>
       <c r="AL106" s="19">
-        <v>452566</v>
+        <v>445445</v>
       </c>
       <c r="AM106" s="19">
-        <v>721444</v>
+        <v>554428</v>
       </c>
       <c r="AN106" s="19">
-        <v>445445</v>
+        <v>541470</v>
       </c>
       <c r="AO106" s="19">
-        <v>554428</v>
+        <v>432085</v>
       </c>
       <c r="AP106" s="19">
-        <v>541470</v>
+        <v>505620</v>
       </c>
       <c r="AQ106" s="19">
-        <v>432085</v>
+        <v>762570</v>
       </c>
       <c r="AR106" s="19">
-        <v>505620</v>
+        <v>791261</v>
       </c>
       <c r="AS106" s="19">
-        <v>762570</v>
+        <v>1157827</v>
       </c>
       <c r="AT106" s="19">
-        <v>791261</v>
+        <v>990410</v>
       </c>
       <c r="AU106" s="19">
-        <v>947895</v>
+        <v>1023456</v>
       </c>
       <c r="AV106" s="19">
-        <v>990410</v>
+        <v>1288753</v>
       </c>
       <c r="AW106" s="19">
-        <v>929456</v>
+        <v>1303077</v>
       </c>
       <c r="AX106" s="19">
-        <v>1288753</v>
+        <v>1480313</v>
       </c>
       <c r="AY106" s="19">
-        <v>1303077</v>
+        <v>1537111</v>
       </c>
       <c r="AZ106" s="19">
-        <v>1480313</v>
+        <v>1434824</v>
       </c>
       <c r="BA106" s="19">
-        <v>1537111</v>
+        <v>1278112</v>
       </c>
       <c r="BB106" s="19">
-        <v>1434824</v>
+        <v>1129546</v>
       </c>
     </row>
-    <row r="107" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
       <c r="C107" s="1"/>
       <c r="D107" s="1"/>
@@ -14797,7 +14797,7 @@
       <c r="BA107" s="1"/>
       <c r="BB107" s="1"/>
     </row>
-    <row r="108" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -14852,7 +14852,7 @@
       <c r="BA108" s="1"/>
       <c r="BB108" s="1"/>
     </row>
-    <row r="109" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -14907,7 +14907,7 @@
       <c r="BA109" s="1"/>
       <c r="BB109" s="1"/>
     </row>
-    <row r="110" spans="2:54" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:54" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B110" s="7" t="s">
         <v>93</v>
       </c>
@@ -15064,7 +15064,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="111" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
       <c r="C111" s="1"/>
       <c r="D111" s="1"/>
@@ -15119,7 +15119,7 @@
       <c r="BA111" s="1"/>
       <c r="BB111" s="1"/>
     </row>
-    <row r="112" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B112" s="8" t="s">
         <v>94</v>
       </c>
@@ -15176,7 +15176,7 @@
       <c r="BA112" s="9"/>
       <c r="BB112" s="9"/>
     </row>
-    <row r="113" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B113" s="10" t="s">
         <v>56</v>
       </c>
@@ -15238,75 +15238,75 @@
       <c r="V113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W113" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X113" s="11" t="s">
-        <v>58</v>
+      <c r="W113" s="11">
+        <v>70500000</v>
+      </c>
+      <c r="X113" s="11">
+        <v>76500000</v>
       </c>
       <c r="Y113" s="11">
-        <v>70500000</v>
+        <v>83321429</v>
       </c>
       <c r="Z113" s="11">
-        <v>76500000</v>
+        <v>98166667</v>
       </c>
       <c r="AA113" s="11">
-        <v>83321429</v>
+        <v>124000000</v>
       </c>
       <c r="AB113" s="11">
-        <v>98166667</v>
+        <v>147800000</v>
       </c>
       <c r="AC113" s="11">
-        <v>124000000</v>
+        <v>137461538</v>
       </c>
       <c r="AD113" s="11">
         <v>147800000</v>
       </c>
       <c r="AE113" s="11">
-        <v>137461538</v>
+        <v>145300000</v>
       </c>
       <c r="AF113" s="11">
-        <v>147800000</v>
+        <v>143483871</v>
       </c>
       <c r="AG113" s="11">
-        <v>145300000</v>
+        <v>140000000</v>
       </c>
       <c r="AH113" s="11">
-        <v>143483871</v>
+        <v>191200000</v>
       </c>
       <c r="AI113" s="11">
-        <v>140000000</v>
+        <v>178200000</v>
       </c>
       <c r="AJ113" s="11">
-        <v>191200000</v>
+        <v>251866667</v>
       </c>
       <c r="AK113" s="11">
-        <v>178200000</v>
+        <v>344000000</v>
       </c>
       <c r="AL113" s="11">
-        <v>251866667</v>
+        <v>248807692</v>
       </c>
       <c r="AM113" s="11">
-        <v>344000000</v>
+        <v>228156863</v>
       </c>
       <c r="AN113" s="11">
-        <v>248807692</v>
+        <v>294375000</v>
       </c>
       <c r="AO113" s="11">
-        <v>228156863</v>
+        <v>196000000</v>
       </c>
       <c r="AP113" s="11">
-        <v>294375000</v>
+        <v>225000000</v>
       </c>
       <c r="AQ113" s="11">
-        <v>196000000</v>
-      </c>
-      <c r="AR113" s="11">
-        <v>225000000</v>
-      </c>
-      <c r="AS113" s="11">
         <v>320000000</v>
       </c>
+      <c r="AR113" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS113" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT113" s="11" t="s">
         <v>58</v>
       </c>
@@ -15335,7 +15335,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="114" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B114" s="12" t="s">
         <v>59</v>
       </c>
@@ -15397,104 +15397,104 @@
       <c r="V114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W114" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X114" s="13" t="s">
-        <v>58</v>
+      <c r="W114" s="13">
+        <v>58803853</v>
+      </c>
+      <c r="X114" s="13">
+        <v>64494141</v>
       </c>
       <c r="Y114" s="13">
-        <v>58803853</v>
+        <v>62320652</v>
       </c>
       <c r="Z114" s="13">
-        <v>64494141</v>
+        <v>64611588</v>
       </c>
       <c r="AA114" s="13">
-        <v>62320652</v>
+        <v>67335559</v>
       </c>
       <c r="AB114" s="13">
-        <v>64611588</v>
+        <v>77567335</v>
       </c>
       <c r="AC114" s="13">
-        <v>67335559</v>
+        <v>78958904</v>
       </c>
       <c r="AD114" s="13">
-        <v>77567335</v>
+        <v>78954248</v>
       </c>
       <c r="AE114" s="13">
-        <v>78958904</v>
+        <v>83257783</v>
       </c>
       <c r="AF114" s="13">
-        <v>78954248</v>
+        <v>82390966</v>
       </c>
       <c r="AG114" s="13">
-        <v>83257783</v>
+        <v>82209150</v>
       </c>
       <c r="AH114" s="13">
-        <v>82390966</v>
+        <v>84673367</v>
       </c>
       <c r="AI114" s="13">
-        <v>82209150</v>
+        <v>86004425</v>
       </c>
       <c r="AJ114" s="13">
-        <v>84673367</v>
+        <v>90055344</v>
       </c>
       <c r="AK114" s="13">
-        <v>86004425</v>
+        <v>109681739</v>
       </c>
       <c r="AL114" s="13">
-        <v>90055344</v>
+        <v>142304348</v>
       </c>
       <c r="AM114" s="13">
-        <v>109681739</v>
+        <v>145415902</v>
       </c>
       <c r="AN114" s="13">
-        <v>142304348</v>
+        <v>138617089</v>
       </c>
       <c r="AO114" s="13">
-        <v>145415902</v>
+        <v>143222561</v>
       </c>
       <c r="AP114" s="13">
-        <v>138617089</v>
+        <v>140730878</v>
       </c>
       <c r="AQ114" s="13">
-        <v>143222561</v>
+        <v>145311615</v>
       </c>
       <c r="AR114" s="13">
-        <v>140730878</v>
+        <v>137506518</v>
       </c>
       <c r="AS114" s="13">
-        <v>145311615</v>
+        <v>155806846</v>
       </c>
       <c r="AT114" s="13">
-        <v>137506518</v>
+        <v>238865639</v>
       </c>
       <c r="AU114" s="13">
-        <v>155806846</v>
+        <v>248226966</v>
       </c>
       <c r="AV114" s="13">
-        <v>238865639</v>
+        <v>227268293</v>
       </c>
       <c r="AW114" s="13">
-        <v>248226966</v>
+        <v>210598608</v>
       </c>
       <c r="AX114" s="13">
-        <v>227268293</v>
+        <v>199742188</v>
       </c>
       <c r="AY114" s="13">
-        <v>210598608</v>
+        <v>198836105</v>
       </c>
       <c r="AZ114" s="13">
-        <v>199742188</v>
+        <v>216880223</v>
       </c>
       <c r="BA114" s="13">
-        <v>198836105</v>
+        <v>202027027</v>
       </c>
       <c r="BB114" s="13">
-        <v>216880223</v>
+        <v>198717480</v>
       </c>
     </row>
-    <row r="115" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B115" s="10" t="s">
         <v>60</v>
       </c>
@@ -15556,104 +15556,104 @@
       <c r="V115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W115" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X115" s="11" t="s">
-        <v>58</v>
+      <c r="W115" s="11">
+        <v>27334337</v>
+      </c>
+      <c r="X115" s="11">
+        <v>28305699</v>
       </c>
       <c r="Y115" s="11">
-        <v>27334337</v>
+        <v>27524496</v>
       </c>
       <c r="Z115" s="11">
-        <v>28305699</v>
+        <v>26841924</v>
       </c>
       <c r="AA115" s="11">
-        <v>27524496</v>
+        <v>28133721</v>
       </c>
       <c r="AB115" s="11">
-        <v>26841924</v>
+        <v>34254125</v>
       </c>
       <c r="AC115" s="11">
-        <v>28133721</v>
+        <v>32806647</v>
       </c>
       <c r="AD115" s="11">
-        <v>34254125</v>
+        <v>31590686</v>
       </c>
       <c r="AE115" s="11">
-        <v>32806647</v>
+        <v>35476923</v>
       </c>
       <c r="AF115" s="11">
-        <v>31590686</v>
+        <v>34916928</v>
       </c>
       <c r="AG115" s="11">
-        <v>35476923</v>
+        <v>36220386</v>
       </c>
       <c r="AH115" s="11">
-        <v>34916928</v>
+        <v>35481962</v>
       </c>
       <c r="AI115" s="11">
-        <v>36220386</v>
+        <v>37419549</v>
       </c>
       <c r="AJ115" s="11">
-        <v>35481962</v>
+        <v>37787500</v>
       </c>
       <c r="AK115" s="11">
-        <v>37419549</v>
+        <v>44878229</v>
       </c>
       <c r="AL115" s="11">
-        <v>37787500</v>
+        <v>46798365</v>
       </c>
       <c r="AM115" s="11">
-        <v>44878229</v>
+        <v>46603989</v>
       </c>
       <c r="AN115" s="11">
-        <v>46798365</v>
+        <v>45920973</v>
       </c>
       <c r="AO115" s="11">
-        <v>46603989</v>
+        <v>46385787</v>
       </c>
       <c r="AP115" s="11">
-        <v>45920973</v>
+        <v>46456359</v>
       </c>
       <c r="AQ115" s="11">
-        <v>46385787</v>
+        <v>46274262</v>
       </c>
       <c r="AR115" s="11">
-        <v>46456359</v>
+        <v>47706150</v>
       </c>
       <c r="AS115" s="11">
-        <v>46274262</v>
+        <v>52497382</v>
       </c>
       <c r="AT115" s="11">
-        <v>47706150</v>
+        <v>84423077</v>
       </c>
       <c r="AU115" s="11">
-        <v>52497382</v>
+        <v>81439122</v>
       </c>
       <c r="AV115" s="11">
-        <v>84423077</v>
+        <v>81073826</v>
       </c>
       <c r="AW115" s="11">
-        <v>81439122</v>
+        <v>81990950</v>
       </c>
       <c r="AX115" s="11">
-        <v>81073826</v>
+        <v>81255521</v>
       </c>
       <c r="AY115" s="11">
-        <v>81990950</v>
+        <v>77288256</v>
       </c>
       <c r="AZ115" s="11">
-        <v>81255521</v>
+        <v>78324713</v>
       </c>
       <c r="BA115" s="11">
-        <v>77288256</v>
+        <v>82682635</v>
       </c>
       <c r="BB115" s="11">
-        <v>78324713</v>
+        <v>74740260</v>
       </c>
     </row>
-    <row r="116" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B116" s="12" t="s">
         <v>61</v>
       </c>
@@ -15718,72 +15718,72 @@
       <c r="W116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="X116" s="13" t="s">
-        <v>58</v>
+      <c r="X116" s="13">
+        <v>109000000</v>
       </c>
       <c r="Y116" s="13" t="s">
         <v>58</v>
       </c>
       <c r="Z116" s="13">
-        <v>109000000</v>
-      </c>
-      <c r="AA116" s="13" t="s">
-        <v>58</v>
+        <v>216000000</v>
+      </c>
+      <c r="AA116" s="13">
+        <v>168000000</v>
       </c>
       <c r="AB116" s="13">
+        <v>215500000</v>
+      </c>
+      <c r="AC116" s="13">
+        <v>239000000</v>
+      </c>
+      <c r="AD116" s="13">
+        <v>201000000</v>
+      </c>
+      <c r="AE116" s="13">
+        <v>168333333</v>
+      </c>
+      <c r="AF116" s="13">
+        <v>240333333</v>
+      </c>
+      <c r="AG116" s="13">
+        <v>189000000</v>
+      </c>
+      <c r="AH116" s="13">
+        <v>178333333</v>
+      </c>
+      <c r="AI116" s="13">
+        <v>202000000</v>
+      </c>
+      <c r="AJ116" s="13">
+        <v>265000000</v>
+      </c>
+      <c r="AK116" s="13">
         <v>216000000</v>
       </c>
-      <c r="AC116" s="13">
-        <v>168000000</v>
-      </c>
-      <c r="AD116" s="13">
-        <v>215500000</v>
-      </c>
-      <c r="AE116" s="13">
-        <v>239000000</v>
-      </c>
-      <c r="AF116" s="13">
-        <v>201000000</v>
-      </c>
-      <c r="AG116" s="13">
-        <v>168333333</v>
-      </c>
-      <c r="AH116" s="13">
-        <v>240333333</v>
-      </c>
-      <c r="AI116" s="13">
-        <v>189000000</v>
-      </c>
-      <c r="AJ116" s="13">
-        <v>178333333</v>
-      </c>
-      <c r="AK116" s="13">
-        <v>202000000</v>
-      </c>
       <c r="AL116" s="13">
-        <v>265000000</v>
+        <v>219750000</v>
       </c>
       <c r="AM116" s="13">
-        <v>216000000</v>
+        <v>243000000</v>
       </c>
       <c r="AN116" s="13">
-        <v>219750000</v>
+        <v>159000000</v>
       </c>
       <c r="AO116" s="13">
-        <v>243000000</v>
+        <v>226000000</v>
       </c>
       <c r="AP116" s="13">
-        <v>159000000</v>
+        <v>234333333</v>
       </c>
       <c r="AQ116" s="13">
-        <v>226000000</v>
-      </c>
-      <c r="AR116" s="13">
-        <v>234333333</v>
-      </c>
-      <c r="AS116" s="13">
         <v>274666667</v>
       </c>
+      <c r="AR116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS116" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT116" s="13" t="s">
         <v>58</v>
       </c>
@@ -15812,7 +15812,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="117" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B117" s="10" t="s">
         <v>62</v>
       </c>
@@ -15874,104 +15874,104 @@
       <c r="V117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W117" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X117" s="11" t="s">
-        <v>58</v>
+      <c r="W117" s="11">
+        <v>190906977</v>
+      </c>
+      <c r="X117" s="11">
+        <v>189056122</v>
       </c>
       <c r="Y117" s="11">
-        <v>190906977</v>
+        <v>221522293</v>
       </c>
       <c r="Z117" s="11">
-        <v>189056122</v>
+        <v>209200000</v>
       </c>
       <c r="AA117" s="11">
-        <v>221522293</v>
+        <v>206339506</v>
       </c>
       <c r="AB117" s="11">
-        <v>209200000</v>
+        <v>257308219</v>
       </c>
       <c r="AC117" s="11">
-        <v>206339506</v>
+        <v>286521212</v>
       </c>
       <c r="AD117" s="11">
-        <v>257308219</v>
+        <v>276613139</v>
       </c>
       <c r="AE117" s="11">
-        <v>286521212</v>
+        <v>300954545</v>
       </c>
       <c r="AF117" s="11">
-        <v>276613139</v>
+        <v>298742515</v>
       </c>
       <c r="AG117" s="11">
-        <v>300954545</v>
+        <v>304587500</v>
       </c>
       <c r="AH117" s="11">
-        <v>298742515</v>
+        <v>313867580</v>
       </c>
       <c r="AI117" s="11">
-        <v>304587500</v>
+        <v>320385185</v>
       </c>
       <c r="AJ117" s="11">
-        <v>313867580</v>
+        <v>325523256</v>
       </c>
       <c r="AK117" s="11">
-        <v>320385185</v>
+        <v>355349206</v>
       </c>
       <c r="AL117" s="11">
-        <v>325523256</v>
+        <v>419245033</v>
       </c>
       <c r="AM117" s="11">
-        <v>355349206</v>
+        <v>435451429</v>
       </c>
       <c r="AN117" s="11">
-        <v>419245033</v>
+        <v>458837349</v>
       </c>
       <c r="AO117" s="11">
-        <v>435451429</v>
+        <v>496493056</v>
       </c>
       <c r="AP117" s="11">
-        <v>458837349</v>
+        <v>403396825</v>
       </c>
       <c r="AQ117" s="11">
-        <v>496493056</v>
+        <v>355975490</v>
       </c>
       <c r="AR117" s="11">
-        <v>403396825</v>
+        <v>444693750</v>
       </c>
       <c r="AS117" s="11">
-        <v>355975490</v>
+        <v>463049430</v>
       </c>
       <c r="AT117" s="11">
-        <v>444693750</v>
+        <v>651234742</v>
       </c>
       <c r="AU117" s="11">
-        <v>464476701</v>
+        <v>726676259</v>
       </c>
       <c r="AV117" s="11">
-        <v>651234742</v>
+        <v>727677885</v>
       </c>
       <c r="AW117" s="11">
-        <v>726676259</v>
+        <v>784781915</v>
       </c>
       <c r="AX117" s="11">
-        <v>727677885</v>
+        <v>738099567</v>
       </c>
       <c r="AY117" s="11">
-        <v>784781915</v>
+        <v>763246479</v>
       </c>
       <c r="AZ117" s="11">
-        <v>738099567</v>
+        <v>746267361</v>
       </c>
       <c r="BA117" s="11">
-        <v>763246479</v>
+        <v>745878924</v>
       </c>
       <c r="BB117" s="11">
-        <v>746267361</v>
+        <v>762507246</v>
       </c>
     </row>
-    <row r="118" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B118" s="12" t="s">
         <v>63</v>
       </c>
@@ -16033,104 +16033,104 @@
       <c r="V118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W118" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X118" s="13" t="s">
-        <v>58</v>
+      <c r="W118" s="13">
+        <v>184168269</v>
+      </c>
+      <c r="X118" s="13">
+        <v>237158228</v>
       </c>
       <c r="Y118" s="13">
-        <v>184168269</v>
+        <v>296096257</v>
       </c>
       <c r="Z118" s="13">
-        <v>237158228</v>
+        <v>285212560</v>
       </c>
       <c r="AA118" s="13">
-        <v>296096257</v>
+        <v>257923077</v>
       </c>
       <c r="AB118" s="13">
-        <v>285212560</v>
+        <v>358000000</v>
       </c>
       <c r="AC118" s="13">
-        <v>257923077</v>
+        <v>411535714</v>
       </c>
       <c r="AD118" s="13">
-        <v>358000000</v>
+        <v>241000000</v>
       </c>
       <c r="AE118" s="13">
-        <v>411535714</v>
+        <v>215075472</v>
       </c>
       <c r="AF118" s="13">
-        <v>241000000</v>
+        <v>261738462</v>
       </c>
       <c r="AG118" s="13">
-        <v>215075472</v>
+        <v>447827586</v>
       </c>
       <c r="AH118" s="13">
-        <v>261738462</v>
+        <v>272572347</v>
       </c>
       <c r="AI118" s="13">
-        <v>447827586</v>
+        <v>438303922</v>
       </c>
       <c r="AJ118" s="13">
-        <v>272572347</v>
+        <v>323404494</v>
       </c>
       <c r="AK118" s="13">
-        <v>438303922</v>
+        <v>311403361</v>
       </c>
       <c r="AL118" s="13">
-        <v>323404494</v>
+        <v>426264151</v>
       </c>
       <c r="AM118" s="13">
-        <v>311403361</v>
+        <v>310246212</v>
       </c>
       <c r="AN118" s="13">
-        <v>426264151</v>
+        <v>205029197</v>
       </c>
       <c r="AO118" s="13">
-        <v>310246212</v>
+        <v>382632184</v>
       </c>
       <c r="AP118" s="13">
-        <v>205029197</v>
+        <v>306678571</v>
       </c>
       <c r="AQ118" s="13">
-        <v>382632184</v>
+        <v>259174393</v>
       </c>
       <c r="AR118" s="13">
-        <v>306678571</v>
+        <v>509444444</v>
       </c>
       <c r="AS118" s="13">
-        <v>259174393</v>
+        <v>313539548</v>
       </c>
       <c r="AT118" s="13">
-        <v>509444444</v>
+        <v>384946860</v>
       </c>
       <c r="AU118" s="13">
-        <v>316400345</v>
+        <v>671273973</v>
       </c>
       <c r="AV118" s="13">
-        <v>384946860</v>
+        <v>588900000</v>
       </c>
       <c r="AW118" s="13">
-        <v>671273973</v>
+        <v>872545455</v>
       </c>
       <c r="AX118" s="13">
-        <v>588900000</v>
+        <v>574175000</v>
       </c>
       <c r="AY118" s="13">
-        <v>872545455</v>
+        <v>541585366</v>
       </c>
       <c r="AZ118" s="13">
-        <v>574175000</v>
+        <v>463839779</v>
       </c>
       <c r="BA118" s="13">
-        <v>541585366</v>
+        <v>449298387</v>
       </c>
       <c r="BB118" s="13">
-        <v>463839779</v>
+        <v>404949555</v>
       </c>
     </row>
-    <row r="119" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B119" s="10" t="s">
         <v>64</v>
       </c>
@@ -16192,104 +16192,104 @@
       <c r="V119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W119" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X119" s="11" t="s">
-        <v>58</v>
+      <c r="W119" s="11">
+        <v>42094206</v>
+      </c>
+      <c r="X119" s="11">
+        <v>45188928</v>
       </c>
       <c r="Y119" s="11">
-        <v>42094206</v>
+        <v>50180985</v>
       </c>
       <c r="Z119" s="11">
-        <v>45188928</v>
+        <v>51783765</v>
       </c>
       <c r="AA119" s="11">
-        <v>50180985</v>
+        <v>48761592</v>
       </c>
       <c r="AB119" s="11">
-        <v>51783765</v>
+        <v>60969526</v>
       </c>
       <c r="AC119" s="11">
-        <v>48761592</v>
+        <v>64771501</v>
       </c>
       <c r="AD119" s="11">
-        <v>60969526</v>
+        <v>54640903</v>
       </c>
       <c r="AE119" s="11">
-        <v>64771501</v>
+        <v>65961141</v>
       </c>
       <c r="AF119" s="11">
-        <v>54640903</v>
+        <v>57108512</v>
       </c>
       <c r="AG119" s="11">
-        <v>65961141</v>
+        <v>58823120</v>
       </c>
       <c r="AH119" s="11">
-        <v>57108512</v>
+        <v>63813546</v>
       </c>
       <c r="AI119" s="11">
-        <v>58823120</v>
+        <v>60489176</v>
       </c>
       <c r="AJ119" s="11">
-        <v>63813546</v>
+        <v>63104292</v>
       </c>
       <c r="AK119" s="11">
-        <v>60489176</v>
+        <v>82528181</v>
       </c>
       <c r="AL119" s="11">
-        <v>63104292</v>
+        <v>92302158</v>
       </c>
       <c r="AM119" s="11">
-        <v>82528181</v>
+        <v>91825798</v>
       </c>
       <c r="AN119" s="11">
-        <v>92302158</v>
+        <v>88535699</v>
       </c>
       <c r="AO119" s="11">
-        <v>91825798</v>
+        <v>85948938</v>
       </c>
       <c r="AP119" s="11">
-        <v>88535699</v>
+        <v>89051046</v>
       </c>
       <c r="AQ119" s="11">
-        <v>85948938</v>
+        <v>91301376</v>
       </c>
       <c r="AR119" s="11">
-        <v>89051046</v>
+        <v>90356863</v>
       </c>
       <c r="AS119" s="11">
-        <v>91301376</v>
+        <v>109131623</v>
       </c>
       <c r="AT119" s="11">
-        <v>90356863</v>
+        <v>162234343</v>
       </c>
       <c r="AU119" s="11">
-        <v>108535964</v>
+        <v>162447647</v>
       </c>
       <c r="AV119" s="11">
-        <v>162234343</v>
+        <v>166213379</v>
       </c>
       <c r="AW119" s="11">
-        <v>162447647</v>
+        <v>165222404</v>
       </c>
       <c r="AX119" s="11">
-        <v>166213379</v>
+        <v>162451702</v>
       </c>
       <c r="AY119" s="11">
-        <v>165222404</v>
+        <v>163961049</v>
       </c>
       <c r="AZ119" s="11">
-        <v>162451702</v>
+        <v>168610103</v>
       </c>
       <c r="BA119" s="11">
-        <v>163961049</v>
+        <v>164217131</v>
       </c>
       <c r="BB119" s="11">
-        <v>168610103</v>
+        <v>164470050</v>
       </c>
     </row>
-    <row r="120" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B120" s="12" t="s">
         <v>65</v>
       </c>
@@ -16414,41 +16414,41 @@
       <c r="AQ120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AR120" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS120" s="13" t="s">
-        <v>58</v>
+      <c r="AR120" s="13">
+        <v>557151565</v>
+      </c>
+      <c r="AS120" s="13">
+        <v>341968992</v>
       </c>
       <c r="AT120" s="13">
-        <v>557151565</v>
+        <v>780946429</v>
       </c>
       <c r="AU120" s="13">
-        <v>335368128</v>
+        <v>915930736</v>
       </c>
       <c r="AV120" s="13">
-        <v>780946429</v>
+        <v>1489403846</v>
       </c>
       <c r="AW120" s="13">
-        <v>879729711</v>
+        <v>1048691358</v>
       </c>
       <c r="AX120" s="13">
-        <v>1489403846</v>
+        <v>764303207</v>
       </c>
       <c r="AY120" s="13">
-        <v>1048691358</v>
+        <v>794296804</v>
       </c>
       <c r="AZ120" s="13">
-        <v>764303207</v>
+        <v>877397129</v>
       </c>
       <c r="BA120" s="13">
-        <v>794296804</v>
+        <v>924220833</v>
       </c>
       <c r="BB120" s="13">
-        <v>877397129</v>
+        <v>1037928058</v>
       </c>
     </row>
-    <row r="121" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B121" s="10" t="s">
         <v>66</v>
       </c>
@@ -16510,75 +16510,75 @@
       <c r="V121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W121" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X121" s="11" t="s">
-        <v>58</v>
+      <c r="W121" s="11">
+        <v>233559322</v>
+      </c>
+      <c r="X121" s="11">
+        <v>293781667</v>
       </c>
       <c r="Y121" s="11">
-        <v>233559322</v>
+        <v>236789809</v>
       </c>
       <c r="Z121" s="11">
-        <v>293781667</v>
+        <v>277950685</v>
       </c>
       <c r="AA121" s="11">
-        <v>236789809</v>
+        <v>276136364</v>
       </c>
       <c r="AB121" s="11">
-        <v>277950685</v>
+        <v>436000000</v>
       </c>
       <c r="AC121" s="11">
-        <v>276136364</v>
+        <v>351027174</v>
       </c>
       <c r="AD121" s="11">
-        <v>436000000</v>
+        <v>331454545</v>
       </c>
       <c r="AE121" s="11">
-        <v>351027174</v>
+        <v>337797297</v>
       </c>
       <c r="AF121" s="11">
-        <v>331454545</v>
+        <v>362049342</v>
       </c>
       <c r="AG121" s="11">
-        <v>337797297</v>
+        <v>370086379</v>
       </c>
       <c r="AH121" s="11">
-        <v>362049342</v>
+        <v>397475248</v>
       </c>
       <c r="AI121" s="11">
-        <v>370086379</v>
+        <v>390500000</v>
       </c>
       <c r="AJ121" s="11">
-        <v>397475248</v>
+        <v>530286486</v>
       </c>
       <c r="AK121" s="11">
-        <v>390500000</v>
+        <v>670565982</v>
       </c>
       <c r="AL121" s="11">
-        <v>530286486</v>
+        <v>626250000</v>
       </c>
       <c r="AM121" s="11">
-        <v>670565982</v>
+        <v>552000000</v>
       </c>
       <c r="AN121" s="11">
-        <v>626250000</v>
+        <v>594915254</v>
       </c>
       <c r="AO121" s="11">
-        <v>552000000</v>
+        <v>594000000</v>
       </c>
       <c r="AP121" s="11">
-        <v>594915254</v>
+        <v>540000000</v>
       </c>
       <c r="AQ121" s="11">
-        <v>594000000</v>
-      </c>
-      <c r="AR121" s="11">
-        <v>540000000</v>
-      </c>
-      <c r="AS121" s="11">
         <v>540594059</v>
       </c>
+      <c r="AR121" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS121" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AT121" s="11" t="s">
         <v>58</v>
       </c>
@@ -16607,7 +16607,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="122" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B122" s="12" t="s">
         <v>67</v>
       </c>
@@ -16669,75 +16669,75 @@
       <c r="V122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="W122" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="X122" s="13" t="s">
-        <v>58</v>
+      <c r="W122" s="13">
+        <v>558708333</v>
+      </c>
+      <c r="X122" s="13">
+        <v>463500000</v>
       </c>
       <c r="Y122" s="13">
-        <v>558708333</v>
+        <v>550842105</v>
       </c>
       <c r="Z122" s="13">
-        <v>463500000</v>
+        <v>613800000</v>
       </c>
       <c r="AA122" s="13">
-        <v>550842105</v>
+        <v>664800000</v>
       </c>
       <c r="AB122" s="13">
-        <v>613800000</v>
+        <v>892894737</v>
       </c>
       <c r="AC122" s="13">
-        <v>664800000</v>
+        <v>694000000</v>
       </c>
       <c r="AD122" s="13">
-        <v>892894737</v>
+        <v>552000000</v>
       </c>
       <c r="AE122" s="13">
-        <v>694000000</v>
+        <v>1203000000</v>
       </c>
       <c r="AF122" s="13">
-        <v>552000000</v>
+        <v>973200000</v>
       </c>
       <c r="AG122" s="13">
-        <v>1203000000</v>
+        <v>1029571429</v>
       </c>
       <c r="AH122" s="13">
-        <v>973200000</v>
+        <v>945416667</v>
       </c>
       <c r="AI122" s="13">
-        <v>1029571429</v>
+        <v>1163285714</v>
       </c>
       <c r="AJ122" s="13">
-        <v>945416667</v>
+        <v>1440400000</v>
       </c>
       <c r="AK122" s="13">
-        <v>1163285714</v>
+        <v>1564000000</v>
       </c>
       <c r="AL122" s="13">
-        <v>1440400000</v>
+        <v>1468250000</v>
       </c>
       <c r="AM122" s="13">
-        <v>1564000000</v>
+        <v>1633000000</v>
       </c>
       <c r="AN122" s="13">
-        <v>1468250000</v>
+        <v>1462200000</v>
       </c>
       <c r="AO122" s="13">
-        <v>1633000000</v>
+        <v>1809000000</v>
       </c>
       <c r="AP122" s="13">
-        <v>1462200000</v>
+        <v>1775750000</v>
       </c>
       <c r="AQ122" s="13">
-        <v>1809000000</v>
-      </c>
-      <c r="AR122" s="13">
-        <v>1775750000</v>
-      </c>
-      <c r="AS122" s="13">
         <v>1648714286</v>
       </c>
+      <c r="AR122" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AS122" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AT122" s="13" t="s">
         <v>58</v>
       </c>
@@ -16766,7 +16766,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="123" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B123" s="10" t="s">
         <v>68</v>
       </c>
@@ -16828,104 +16828,104 @@
       <c r="V123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="W123" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="X123" s="11" t="s">
-        <v>58</v>
+      <c r="W123" s="11">
+        <v>375300000</v>
+      </c>
+      <c r="X123" s="11">
+        <v>365764706</v>
       </c>
       <c r="Y123" s="11">
-        <v>375300000</v>
+        <v>431878788</v>
       </c>
       <c r="Z123" s="11">
-        <v>365764706</v>
+        <v>627841463</v>
       </c>
       <c r="AA123" s="11">
-        <v>431878788</v>
+        <v>634322917</v>
       </c>
       <c r="AB123" s="11">
-        <v>627841463</v>
+        <v>750621622</v>
       </c>
       <c r="AC123" s="11">
-        <v>634322917</v>
+        <v>767553191</v>
       </c>
       <c r="AD123" s="11">
-        <v>750621622</v>
+        <v>714308824</v>
       </c>
       <c r="AE123" s="11">
-        <v>767553191</v>
+        <v>735000000</v>
       </c>
       <c r="AF123" s="11">
-        <v>714308824</v>
+        <v>705016949</v>
       </c>
       <c r="AG123" s="11">
-        <v>735000000</v>
+        <v>681204082</v>
       </c>
       <c r="AH123" s="11">
-        <v>705016949</v>
+        <v>679243243</v>
       </c>
       <c r="AI123" s="11">
-        <v>681204082</v>
+        <v>556621795</v>
       </c>
       <c r="AJ123" s="11">
-        <v>679243243</v>
+        <v>705234375</v>
       </c>
       <c r="AK123" s="11">
-        <v>556621795</v>
+        <v>772804878</v>
       </c>
       <c r="AL123" s="11">
-        <v>705234375</v>
+        <v>812123457</v>
       </c>
       <c r="AM123" s="11">
-        <v>772804878</v>
+        <v>888862069</v>
       </c>
       <c r="AN123" s="11">
-        <v>812123457</v>
+        <v>867844595</v>
       </c>
       <c r="AO123" s="11">
-        <v>888862069</v>
+        <v>881192982</v>
       </c>
       <c r="AP123" s="11">
-        <v>867844595</v>
+        <v>891384615</v>
       </c>
       <c r="AQ123" s="11">
-        <v>881192982</v>
+        <v>669925926</v>
       </c>
       <c r="AR123" s="11">
-        <v>891384615</v>
+        <v>891141026</v>
       </c>
       <c r="AS123" s="11">
-        <v>669925926</v>
+        <v>779325513</v>
       </c>
       <c r="AT123" s="11">
-        <v>891141026</v>
+        <v>1419243243</v>
       </c>
       <c r="AU123" s="11">
-        <v>767111697</v>
+        <v>1669468354</v>
       </c>
       <c r="AV123" s="11">
-        <v>1419243243</v>
+        <v>1369659686</v>
       </c>
       <c r="AW123" s="11">
-        <v>1669468354</v>
+        <v>1405371041</v>
       </c>
       <c r="AX123" s="11">
-        <v>1369659686</v>
+        <v>1350024390</v>
       </c>
       <c r="AY123" s="11">
-        <v>1405371041</v>
+        <v>1372708207</v>
       </c>
       <c r="AZ123" s="11">
-        <v>1350024390</v>
+        <v>1484528302</v>
       </c>
       <c r="BA123" s="11">
-        <v>1372708207</v>
+        <v>1429471963</v>
       </c>
       <c r="BB123" s="11">
-        <v>1484528302</v>
+        <v>1601028571</v>
       </c>
     </row>
-    <row r="124" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B124" s="12" t="s">
         <v>69</v>
       </c>
@@ -16993,14 +16993,14 @@
       <c r="X124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="Y124" s="13" t="s">
-        <v>58</v>
+      <c r="Y124" s="13">
+        <v>136333333</v>
       </c>
       <c r="Z124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AA124" s="13">
-        <v>136333333</v>
+      <c r="AA124" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AB124" s="13" t="s">
         <v>58</v>
@@ -17026,14 +17026,14 @@
       <c r="AI124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ124" s="13" t="s">
-        <v>58</v>
+      <c r="AJ124" s="13">
+        <v>357086957</v>
       </c>
       <c r="AK124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL124" s="13">
-        <v>357086957</v>
+      <c r="AL124" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AM124" s="13" t="s">
         <v>58</v>
@@ -17041,50 +17041,50 @@
       <c r="AN124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO124" s="13" t="s">
-        <v>58</v>
+      <c r="AO124" s="13">
+        <v>238000000</v>
       </c>
       <c r="AP124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ124" s="13">
-        <v>238000000</v>
-      </c>
-      <c r="AR124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AS124" s="13" t="s">
-        <v>58</v>
+      <c r="AQ124" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR124" s="13">
+        <v>240600000</v>
+      </c>
+      <c r="AS124" s="13">
+        <v>275600000</v>
       </c>
       <c r="AT124" s="13">
-        <v>240600000</v>
+        <v>310333333</v>
       </c>
       <c r="AU124" s="13">
-        <v>275600000</v>
+        <v>443000000</v>
       </c>
       <c r="AV124" s="13">
-        <v>310333333</v>
+        <v>459750000</v>
       </c>
       <c r="AW124" s="13">
-        <v>443000000</v>
+        <v>652000000</v>
       </c>
       <c r="AX124" s="13">
-        <v>459750000</v>
+        <v>326500000</v>
       </c>
       <c r="AY124" s="13">
-        <v>652000000</v>
+        <v>358500000</v>
       </c>
       <c r="AZ124" s="13">
-        <v>326500000</v>
+        <v>388500000</v>
       </c>
       <c r="BA124" s="13">
-        <v>358500000</v>
+        <v>630000000</v>
       </c>
       <c r="BB124" s="13">
-        <v>388500000</v>
+        <v>464500000</v>
       </c>
     </row>
-    <row r="125" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B125" s="10" t="s">
         <v>70</v>
       </c>
@@ -17243,7 +17243,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="126" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B126" s="12" t="s">
         <v>71</v>
       </c>
@@ -17371,38 +17371,38 @@
       <c r="AR126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AS126" s="13" t="s">
-        <v>58</v>
+      <c r="AS126" s="13">
+        <v>47615385</v>
       </c>
       <c r="AT126" s="13" t="s">
         <v>58</v>
       </c>
       <c r="AU126" s="13">
-        <v>47615385</v>
-      </c>
-      <c r="AV126" s="13" t="s">
-        <v>58</v>
+        <v>54250000</v>
+      </c>
+      <c r="AV126" s="13">
+        <v>58800000</v>
       </c>
       <c r="AW126" s="13">
-        <v>54250000</v>
+        <v>52642857</v>
       </c>
       <c r="AX126" s="13">
-        <v>58800000</v>
+        <v>673500000</v>
       </c>
       <c r="AY126" s="13">
-        <v>52642857</v>
-      </c>
-      <c r="AZ126" s="13">
-        <v>673500000</v>
-      </c>
-      <c r="BA126" s="13">
         <v>771000000</v>
       </c>
+      <c r="AZ126" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="BA126" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="BB126" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="127" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B127" s="8" t="s">
         <v>96</v>
       </c>
@@ -17459,7 +17459,7 @@
       <c r="BA127" s="9"/>
       <c r="BB127" s="9"/>
     </row>
-    <row r="128" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B128" s="10" t="s">
         <v>62</v>
       </c>
@@ -17593,14 +17593,14 @@
       <c r="AT128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU128" s="11">
-        <v>0</v>
+      <c r="AU128" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV128" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW128" s="11">
-        <v>0</v>
+      <c r="AW128" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX128" s="11" t="s">
         <v>58</v>
@@ -17618,7 +17618,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="129" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="129" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B129" s="12" t="s">
         <v>63</v>
       </c>
@@ -17752,32 +17752,32 @@
       <c r="AT129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU129" s="13">
-        <v>0</v>
+      <c r="AU129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW129" s="13">
-        <v>0</v>
+      <c r="AW129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY129" s="13" t="s">
-        <v>58</v>
+      <c r="AY129" s="13">
+        <v>831600000</v>
       </c>
       <c r="AZ129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA129" s="13">
-        <v>831600000</v>
+      <c r="BA129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB129" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="130" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="130" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B130" s="10" t="s">
         <v>64</v>
       </c>
@@ -17911,14 +17911,14 @@
       <c r="AT130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AU130" s="11">
-        <v>0</v>
+      <c r="AU130" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AV130" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AW130" s="11">
-        <v>0</v>
+      <c r="AW130" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AX130" s="11" t="s">
         <v>58</v>
@@ -17936,7 +17936,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="131" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="131" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B131" s="12" t="s">
         <v>65</v>
       </c>
@@ -18070,32 +18070,32 @@
       <c r="AT131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU131" s="13">
-        <v>0</v>
+      <c r="AU131" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW131" s="13">
-        <v>0</v>
+      <c r="AW131" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY131" s="13" t="s">
-        <v>58</v>
+      <c r="AY131" s="13">
+        <v>1189157143</v>
       </c>
       <c r="AZ131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA131" s="13">
-        <v>1189157143</v>
+      <c r="BA131" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB131" s="13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="132" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B132" s="10" t="s">
         <v>66</v>
       </c>
@@ -18193,14 +18193,14 @@
       <c r="AH132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AI132" s="11" t="s">
-        <v>58</v>
+      <c r="AI132" s="11">
+        <v>580000000</v>
       </c>
       <c r="AJ132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AK132" s="11">
-        <v>580000000</v>
+      <c r="AK132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AL132" s="11" t="s">
         <v>58</v>
@@ -18254,7 +18254,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="133" spans="2:54" x14ac:dyDescent="0.3">
+    <row r="133" spans="2:54" x14ac:dyDescent="0.25">
       <c r="B133" s="12" t="s">
         <v>68</v>
       </c>
@@ -18388,26 +18388,26 @@
       <c r="AT133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AU133" s="13">
-        <v>0</v>
+      <c r="AU133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AV133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AW133" s="13">
-        <v>0</v>
+      <c r="AW133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AY133" s="13" t="s">
-        <v>58</v>
+      <c r="AY133" s="13">
+        <v>1370000000</v>
       </c>
       <c r="AZ133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="BA133" s="13">
-        <v>1370000000</v>
+      <c r="BA133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="BB133" s="13" t="s">
         <v>58</v>

--- a/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
+++ b/database/industries/ghaza/gheshan/product/monthly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\ghaza\gheshan\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VAHID\Desktop\Trade\database\industries\ghaza\gheshan\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{283A6854-3171-45F5-AFBB-0A663AA982F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3533B9FA-04B4-4006-BABC-83EA1D5F1CA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2892" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2839" uniqueCount="97">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,9 +35,6 @@
   </si>
   <si>
     <t>مقدار تولید</t>
-  </si>
-  <si>
-    <t>ماه 12 منتهی به 1397/12</t>
   </si>
   <si>
     <t>ماه 1 منتهی به 1398/01</t>
@@ -185,6 +182,9 @@
   </si>
   <si>
     <t>ماه 1 منتهی به 1402/01</t>
+  </si>
+  <si>
+    <t>ماه 2 منتهی به 1402/02</t>
   </si>
   <si>
     <t>مقدار تولید داخلی</t>
@@ -1513,71 +1513,71 @@
       <c r="S11" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T11" s="11" t="s">
-        <v>58</v>
+      <c r="T11" s="11">
+        <v>6</v>
       </c>
       <c r="U11" s="11">
+        <v>18</v>
+      </c>
+      <c r="V11" s="11">
+        <v>34</v>
+      </c>
+      <c r="W11" s="11">
+        <v>19</v>
+      </c>
+      <c r="X11" s="11">
+        <v>35</v>
+      </c>
+      <c r="Y11" s="11">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="11">
+        <v>29</v>
+      </c>
+      <c r="AA11" s="11">
+        <v>24</v>
+      </c>
+      <c r="AB11" s="11">
+        <v>17</v>
+      </c>
+      <c r="AC11" s="11">
+        <v>10</v>
+      </c>
+      <c r="AD11" s="11">
         <v>6</v>
       </c>
-      <c r="V11" s="11">
-        <v>18</v>
-      </c>
-      <c r="W11" s="11">
-        <v>34</v>
-      </c>
-      <c r="X11" s="11">
-        <v>19</v>
-      </c>
-      <c r="Y11" s="11">
-        <v>35</v>
-      </c>
-      <c r="Z11" s="11">
-        <v>15</v>
-      </c>
-      <c r="AA11" s="11">
-        <v>29</v>
-      </c>
-      <c r="AB11" s="11">
+      <c r="AE11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AF11" s="11">
+        <v>40</v>
+      </c>
+      <c r="AG11" s="11">
+        <v>37</v>
+      </c>
+      <c r="AH11" s="11">
         <v>24</v>
       </c>
-      <c r="AC11" s="11">
-        <v>17</v>
-      </c>
-      <c r="AD11" s="11">
+      <c r="AI11" s="11">
+        <v>12</v>
+      </c>
+      <c r="AJ11" s="11">
+        <v>26</v>
+      </c>
+      <c r="AK11" s="11">
+        <v>39</v>
+      </c>
+      <c r="AL11" s="11">
+        <v>36</v>
+      </c>
+      <c r="AM11" s="11">
+        <v>6</v>
+      </c>
+      <c r="AN11" s="11">
         <v>10</v>
       </c>
-      <c r="AE11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AF11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AG11" s="11">
-        <v>40</v>
-      </c>
-      <c r="AH11" s="11">
-        <v>37</v>
-      </c>
-      <c r="AI11" s="11">
-        <v>24</v>
-      </c>
-      <c r="AJ11" s="11">
-        <v>12</v>
-      </c>
-      <c r="AK11" s="11">
-        <v>26</v>
-      </c>
-      <c r="AL11" s="11">
-        <v>39</v>
-      </c>
-      <c r="AM11" s="11">
-        <v>36</v>
-      </c>
-      <c r="AN11" s="11">
-        <v>6</v>
-      </c>
-      <c r="AO11" s="11">
-        <v>10</v>
+      <c r="AO11" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP11" s="11" t="s">
         <v>58</v>
@@ -1672,110 +1672,110 @@
       <c r="S12" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T12" s="13" t="s">
-        <v>58</v>
+      <c r="T12" s="13">
+        <v>569</v>
       </c>
       <c r="U12" s="13">
-        <v>569</v>
+        <v>472</v>
       </c>
       <c r="V12" s="13">
+        <v>773</v>
+      </c>
+      <c r="W12" s="13">
+        <v>422</v>
+      </c>
+      <c r="X12" s="13">
+        <v>674</v>
+      </c>
+      <c r="Y12" s="13">
+        <v>694</v>
+      </c>
+      <c r="Z12" s="13">
+        <v>514</v>
+      </c>
+      <c r="AA12" s="13">
+        <v>547</v>
+      </c>
+      <c r="AB12" s="13">
+        <v>806</v>
+      </c>
+      <c r="AC12" s="13">
+        <v>694</v>
+      </c>
+      <c r="AD12" s="13">
+        <v>536</v>
+      </c>
+      <c r="AE12" s="13">
+        <v>859</v>
+      </c>
+      <c r="AF12" s="13">
+        <v>661</v>
+      </c>
+      <c r="AG12" s="13">
+        <v>538</v>
+      </c>
+      <c r="AH12" s="13">
+        <v>550</v>
+      </c>
+      <c r="AI12" s="13">
+        <v>345</v>
+      </c>
+      <c r="AJ12" s="13">
+        <v>325</v>
+      </c>
+      <c r="AK12" s="13">
+        <v>298</v>
+      </c>
+      <c r="AL12" s="13">
+        <v>356</v>
+      </c>
+      <c r="AM12" s="13">
+        <v>344</v>
+      </c>
+      <c r="AN12" s="13">
+        <v>343</v>
+      </c>
+      <c r="AO12" s="13">
+        <v>616</v>
+      </c>
+      <c r="AP12" s="13">
+        <v>327</v>
+      </c>
+      <c r="AQ12" s="13">
+        <v>542</v>
+      </c>
+      <c r="AR12" s="13">
+        <v>383</v>
+      </c>
+      <c r="AS12" s="13">
+        <v>486</v>
+      </c>
+      <c r="AT12" s="13">
+        <v>396</v>
+      </c>
+      <c r="AU12" s="13">
+        <v>404</v>
+      </c>
+      <c r="AV12" s="13">
+        <v>417</v>
+      </c>
+      <c r="AW12" s="13">
+        <v>317</v>
+      </c>
+      <c r="AX12" s="13">
+        <v>445</v>
+      </c>
+      <c r="AY12" s="13">
         <v>472</v>
       </c>
-      <c r="W12" s="13">
-        <v>773</v>
-      </c>
-      <c r="X12" s="13">
-        <v>422</v>
-      </c>
-      <c r="Y12" s="13">
-        <v>674</v>
-      </c>
-      <c r="Z12" s="13">
-        <v>694</v>
-      </c>
-      <c r="AA12" s="13">
-        <v>514</v>
-      </c>
-      <c r="AB12" s="13">
-        <v>547</v>
-      </c>
-      <c r="AC12" s="13">
-        <v>806</v>
-      </c>
-      <c r="AD12" s="13">
-        <v>694</v>
-      </c>
-      <c r="AE12" s="13">
-        <v>536</v>
-      </c>
-      <c r="AF12" s="13">
-        <v>859</v>
-      </c>
-      <c r="AG12" s="13">
-        <v>661</v>
-      </c>
-      <c r="AH12" s="13">
-        <v>538</v>
-      </c>
-      <c r="AI12" s="13">
-        <v>550</v>
-      </c>
-      <c r="AJ12" s="13">
-        <v>345</v>
-      </c>
-      <c r="AK12" s="13">
-        <v>325</v>
-      </c>
-      <c r="AL12" s="13">
-        <v>298</v>
-      </c>
-      <c r="AM12" s="13">
-        <v>356</v>
-      </c>
-      <c r="AN12" s="13">
-        <v>344</v>
-      </c>
-      <c r="AO12" s="13">
-        <v>343</v>
-      </c>
-      <c r="AP12" s="13">
-        <v>616</v>
-      </c>
-      <c r="AQ12" s="13">
-        <v>327</v>
-      </c>
-      <c r="AR12" s="13">
-        <v>542</v>
-      </c>
-      <c r="AS12" s="13">
-        <v>383</v>
-      </c>
-      <c r="AT12" s="13">
-        <v>486</v>
-      </c>
-      <c r="AU12" s="13">
-        <v>396</v>
-      </c>
-      <c r="AV12" s="13">
-        <v>404</v>
-      </c>
-      <c r="AW12" s="13">
-        <v>417</v>
-      </c>
-      <c r="AX12" s="13">
-        <v>317</v>
-      </c>
-      <c r="AY12" s="13">
-        <v>445</v>
-      </c>
       <c r="AZ12" s="13">
-        <v>472</v>
+        <v>549</v>
       </c>
       <c r="BA12" s="13">
-        <v>549</v>
+        <v>637</v>
       </c>
       <c r="BB12" s="13">
-        <v>637</v>
+        <v>646</v>
       </c>
     </row>
     <row r="13" spans="2:54" x14ac:dyDescent="0.3">
@@ -1831,110 +1831,110 @@
       <c r="S13" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T13" s="11" t="s">
-        <v>58</v>
+      <c r="T13" s="11">
+        <v>344</v>
       </c>
       <c r="U13" s="11">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="V13" s="11">
-        <v>351</v>
+        <v>364</v>
       </c>
       <c r="W13" s="11">
-        <v>364</v>
+        <v>296</v>
       </c>
       <c r="X13" s="11">
-        <v>296</v>
+        <v>315</v>
       </c>
       <c r="Y13" s="11">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Z13" s="11">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="AA13" s="11">
-        <v>305</v>
+        <v>407</v>
       </c>
       <c r="AB13" s="11">
-        <v>407</v>
+        <v>490</v>
       </c>
       <c r="AC13" s="11">
-        <v>490</v>
+        <v>639</v>
       </c>
       <c r="AD13" s="11">
-        <v>639</v>
+        <v>362</v>
       </c>
       <c r="AE13" s="11">
-        <v>362</v>
+        <v>742</v>
       </c>
       <c r="AF13" s="11">
-        <v>742</v>
+        <v>636</v>
       </c>
       <c r="AG13" s="11">
-        <v>636</v>
+        <v>546</v>
       </c>
       <c r="AH13" s="11">
-        <v>546</v>
+        <v>541</v>
       </c>
       <c r="AI13" s="11">
-        <v>541</v>
+        <v>408</v>
       </c>
       <c r="AJ13" s="11">
-        <v>408</v>
+        <v>307</v>
       </c>
       <c r="AK13" s="11">
-        <v>307</v>
+        <v>363</v>
       </c>
       <c r="AL13" s="11">
-        <v>363</v>
+        <v>373</v>
       </c>
       <c r="AM13" s="11">
-        <v>373</v>
+        <v>406</v>
       </c>
       <c r="AN13" s="11">
-        <v>406</v>
+        <v>473</v>
       </c>
       <c r="AO13" s="11">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="AP13" s="11">
+        <v>343</v>
+      </c>
+      <c r="AQ13" s="11">
         <v>468</v>
       </c>
-      <c r="AQ13" s="11">
-        <v>343</v>
-      </c>
       <c r="AR13" s="11">
-        <v>468</v>
+        <v>493</v>
       </c>
       <c r="AS13" s="11">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="AT13" s="11">
-        <v>476</v>
+        <v>394</v>
       </c>
       <c r="AU13" s="11">
-        <v>394</v>
+        <v>316</v>
       </c>
       <c r="AV13" s="11">
-        <v>316</v>
+        <v>304</v>
       </c>
       <c r="AW13" s="11">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="AX13" s="11">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="AY13" s="11">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="AZ13" s="11">
-        <v>302</v>
+        <v>477</v>
       </c>
       <c r="BA13" s="11">
-        <v>477</v>
+        <v>464</v>
       </c>
       <c r="BB13" s="11">
-        <v>464</v>
+        <v>575</v>
       </c>
     </row>
     <row r="14" spans="2:54" x14ac:dyDescent="0.3">
@@ -1990,8 +1990,8 @@
       <c r="S14" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T14" s="13" t="s">
-        <v>58</v>
+      <c r="T14" s="13">
+        <v>0</v>
       </c>
       <c r="U14" s="13">
         <v>0</v>
@@ -2000,61 +2000,61 @@
         <v>0</v>
       </c>
       <c r="W14" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="X14" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Y14" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Z14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="13">
         <v>3</v>
       </c>
-      <c r="AA14" s="13">
-        <v>2</v>
-      </c>
       <c r="AB14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AC14" s="13">
         <v>3</v>
-      </c>
-      <c r="AC14" s="13">
-        <v>0</v>
       </c>
       <c r="AD14" s="13">
         <v>3</v>
       </c>
       <c r="AE14" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG14" s="13">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AI14" s="13">
+        <v>4</v>
+      </c>
+      <c r="AJ14" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK14" s="13">
         <v>3</v>
       </c>
-      <c r="AF14" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG14" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH14" s="13">
-        <v>1</v>
-      </c>
-      <c r="AI14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AJ14" s="13">
+      <c r="AL14" s="13">
         <v>4</v>
-      </c>
-      <c r="AK14" s="13">
-        <v>5</v>
-      </c>
-      <c r="AL14" s="13">
-        <v>3</v>
       </c>
       <c r="AM14" s="13">
         <v>4</v>
       </c>
       <c r="AN14" s="13">
-        <v>4</v>
-      </c>
-      <c r="AO14" s="13">
         <v>2</v>
+      </c>
+      <c r="AO14" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP14" s="13" t="s">
         <v>58</v>
@@ -2149,110 +2149,110 @@
       <c r="S15" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T15" s="11" t="s">
-        <v>58</v>
+      <c r="T15" s="11">
+        <v>170</v>
       </c>
       <c r="U15" s="11">
+        <v>158</v>
+      </c>
+      <c r="V15" s="11">
+        <v>189</v>
+      </c>
+      <c r="W15" s="11">
         <v>170</v>
       </c>
-      <c r="V15" s="11">
-        <v>158</v>
-      </c>
-      <c r="W15" s="11">
-        <v>189</v>
-      </c>
       <c r="X15" s="11">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="Y15" s="11">
+        <v>176</v>
+      </c>
+      <c r="Z15" s="11">
+        <v>138</v>
+      </c>
+      <c r="AA15" s="11">
+        <v>136</v>
+      </c>
+      <c r="AB15" s="11">
+        <v>138</v>
+      </c>
+      <c r="AC15" s="11">
+        <v>214</v>
+      </c>
+      <c r="AD15" s="11">
+        <v>140</v>
+      </c>
+      <c r="AE15" s="11">
+        <v>191</v>
+      </c>
+      <c r="AF15" s="11">
+        <v>207</v>
+      </c>
+      <c r="AG15" s="11">
+        <v>149</v>
+      </c>
+      <c r="AH15" s="11">
+        <v>186</v>
+      </c>
+      <c r="AI15" s="11">
+        <v>151</v>
+      </c>
+      <c r="AJ15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AK15" s="11">
         <v>169</v>
       </c>
-      <c r="Z15" s="11">
-        <v>176</v>
-      </c>
-      <c r="AA15" s="11">
-        <v>138</v>
-      </c>
-      <c r="AB15" s="11">
-        <v>136</v>
-      </c>
-      <c r="AC15" s="11">
-        <v>138</v>
-      </c>
-      <c r="AD15" s="11">
+      <c r="AL15" s="11">
+        <v>119</v>
+      </c>
+      <c r="AM15" s="11">
+        <v>141</v>
+      </c>
+      <c r="AN15" s="11">
+        <v>200</v>
+      </c>
+      <c r="AO15" s="11">
+        <v>177</v>
+      </c>
+      <c r="AP15" s="11">
+        <v>243</v>
+      </c>
+      <c r="AQ15" s="11">
+        <v>270</v>
+      </c>
+      <c r="AR15" s="11">
+        <v>268</v>
+      </c>
+      <c r="AS15" s="11">
+        <v>235</v>
+      </c>
+      <c r="AT15" s="11">
+        <v>263</v>
+      </c>
+      <c r="AU15" s="11">
+        <v>259</v>
+      </c>
+      <c r="AV15" s="11">
+        <v>285</v>
+      </c>
+      <c r="AW15" s="11">
+        <v>279</v>
+      </c>
+      <c r="AX15" s="11">
+        <v>212</v>
+      </c>
+      <c r="AY15" s="11">
         <v>214</v>
       </c>
-      <c r="AE15" s="11">
-        <v>140</v>
-      </c>
-      <c r="AF15" s="11">
-        <v>191</v>
-      </c>
-      <c r="AG15" s="11">
-        <v>207</v>
-      </c>
-      <c r="AH15" s="11">
-        <v>149</v>
-      </c>
-      <c r="AI15" s="11">
-        <v>186</v>
-      </c>
-      <c r="AJ15" s="11">
-        <v>151</v>
-      </c>
-      <c r="AK15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AL15" s="11">
-        <v>169</v>
-      </c>
-      <c r="AM15" s="11">
-        <v>119</v>
-      </c>
-      <c r="AN15" s="11">
-        <v>141</v>
-      </c>
-      <c r="AO15" s="11">
-        <v>200</v>
-      </c>
-      <c r="AP15" s="11">
-        <v>177</v>
-      </c>
-      <c r="AQ15" s="11">
-        <v>243</v>
-      </c>
-      <c r="AR15" s="11">
-        <v>270</v>
-      </c>
-      <c r="AS15" s="11">
-        <v>268</v>
-      </c>
-      <c r="AT15" s="11">
-        <v>235</v>
-      </c>
-      <c r="AU15" s="11">
-        <v>263</v>
-      </c>
-      <c r="AV15" s="11">
-        <v>259</v>
-      </c>
-      <c r="AW15" s="11">
-        <v>285</v>
-      </c>
-      <c r="AX15" s="11">
+      <c r="AZ15" s="11">
+        <v>299</v>
+      </c>
+      <c r="BA15" s="11">
+        <v>352</v>
+      </c>
+      <c r="BB15" s="11">
         <v>279</v>
-      </c>
-      <c r="AY15" s="11">
-        <v>212</v>
-      </c>
-      <c r="AZ15" s="11">
-        <v>214</v>
-      </c>
-      <c r="BA15" s="11">
-        <v>299</v>
-      </c>
-      <c r="BB15" s="11">
-        <v>352</v>
       </c>
     </row>
     <row r="16" spans="2:54" x14ac:dyDescent="0.3">
@@ -2308,110 +2308,110 @@
       <c r="S16" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T16" s="13" t="s">
-        <v>58</v>
+      <c r="T16" s="13">
+        <v>134</v>
       </c>
       <c r="U16" s="13">
+        <v>1168</v>
+      </c>
+      <c r="V16" s="13">
+        <v>133</v>
+      </c>
+      <c r="W16" s="13">
+        <v>261</v>
+      </c>
+      <c r="X16" s="13">
+        <v>242</v>
+      </c>
+      <c r="Y16" s="13">
+        <v>47</v>
+      </c>
+      <c r="Z16" s="13">
+        <v>187</v>
+      </c>
+      <c r="AA16" s="13">
+        <v>243</v>
+      </c>
+      <c r="AB16" s="13">
+        <v>207</v>
+      </c>
+      <c r="AC16" s="13">
+        <v>316</v>
+      </c>
+      <c r="AD16" s="13">
+        <v>83</v>
+      </c>
+      <c r="AE16" s="13">
+        <v>63</v>
+      </c>
+      <c r="AF16" s="13">
+        <v>305</v>
+      </c>
+      <c r="AG16" s="13">
+        <v>93</v>
+      </c>
+      <c r="AH16" s="13">
+        <v>74</v>
+      </c>
+      <c r="AI16" s="13">
+        <v>259</v>
+      </c>
+      <c r="AJ16" s="13">
+        <v>120</v>
+      </c>
+      <c r="AK16" s="13">
+        <v>177</v>
+      </c>
+      <c r="AL16" s="13">
+        <v>80</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>167</v>
+      </c>
+      <c r="AN16" s="13">
+        <v>377</v>
+      </c>
+      <c r="AO16" s="13">
+        <v>180</v>
+      </c>
+      <c r="AP16" s="13">
+        <v>217</v>
+      </c>
+      <c r="AQ16" s="13">
+        <v>249</v>
+      </c>
+      <c r="AR16" s="13">
         <v>134</v>
       </c>
-      <c r="V16" s="13">
-        <v>1168</v>
-      </c>
-      <c r="W16" s="13">
-        <v>133</v>
-      </c>
-      <c r="X16" s="13">
-        <v>261</v>
-      </c>
-      <c r="Y16" s="13">
-        <v>242</v>
-      </c>
-      <c r="Z16" s="13">
-        <v>47</v>
-      </c>
-      <c r="AA16" s="13">
-        <v>187</v>
-      </c>
-      <c r="AB16" s="13">
-        <v>243</v>
-      </c>
-      <c r="AC16" s="13">
-        <v>207</v>
-      </c>
-      <c r="AD16" s="13">
-        <v>316</v>
-      </c>
-      <c r="AE16" s="13">
-        <v>83</v>
-      </c>
-      <c r="AF16" s="13">
-        <v>63</v>
-      </c>
-      <c r="AG16" s="13">
-        <v>305</v>
-      </c>
-      <c r="AH16" s="13">
-        <v>93</v>
-      </c>
-      <c r="AI16" s="13">
+      <c r="AS16" s="13">
+        <v>107</v>
+      </c>
+      <c r="AT16" s="13">
+        <v>53</v>
+      </c>
+      <c r="AU16" s="13">
         <v>74</v>
       </c>
-      <c r="AJ16" s="13">
-        <v>259</v>
-      </c>
-      <c r="AK16" s="13">
-        <v>120</v>
-      </c>
-      <c r="AL16" s="13">
-        <v>177</v>
-      </c>
-      <c r="AM16" s="13">
-        <v>80</v>
-      </c>
-      <c r="AN16" s="13">
-        <v>167</v>
-      </c>
-      <c r="AO16" s="13">
-        <v>377</v>
-      </c>
-      <c r="AP16" s="13">
-        <v>180</v>
-      </c>
-      <c r="AQ16" s="13">
-        <v>217</v>
-      </c>
-      <c r="AR16" s="13">
-        <v>249</v>
-      </c>
-      <c r="AS16" s="13">
-        <v>134</v>
-      </c>
-      <c r="AT16" s="13">
-        <v>107</v>
-      </c>
-      <c r="AU16" s="13">
-        <v>53</v>
-      </c>
       <c r="AV16" s="13">
-        <v>74</v>
+        <v>231</v>
       </c>
       <c r="AW16" s="13">
-        <v>231</v>
+        <v>116</v>
       </c>
       <c r="AX16" s="13">
-        <v>116</v>
+        <v>267</v>
       </c>
       <c r="AY16" s="13">
-        <v>267</v>
+        <v>320</v>
       </c>
       <c r="AZ16" s="13">
-        <v>320</v>
+        <v>234</v>
       </c>
       <c r="BA16" s="13">
-        <v>234</v>
+        <v>98</v>
       </c>
       <c r="BB16" s="13">
-        <v>98</v>
+        <v>143</v>
       </c>
     </row>
     <row r="17" spans="2:54" x14ac:dyDescent="0.3">
@@ -2467,110 +2467,110 @@
       <c r="S17" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T17" s="11" t="s">
-        <v>58</v>
+      <c r="T17" s="11">
+        <v>2598</v>
       </c>
       <c r="U17" s="11">
-        <v>2598</v>
+        <v>2326</v>
       </c>
       <c r="V17" s="11">
-        <v>2326</v>
+        <v>2745</v>
       </c>
       <c r="W17" s="11">
-        <v>2745</v>
+        <v>2569</v>
       </c>
       <c r="X17" s="11">
-        <v>2569</v>
+        <v>2685</v>
       </c>
       <c r="Y17" s="11">
-        <v>2685</v>
+        <v>2809</v>
       </c>
       <c r="Z17" s="11">
-        <v>2809</v>
+        <v>2422</v>
       </c>
       <c r="AA17" s="11">
-        <v>2422</v>
+        <v>2426</v>
       </c>
       <c r="AB17" s="11">
-        <v>2426</v>
+        <v>2195</v>
       </c>
       <c r="AC17" s="11">
-        <v>2195</v>
+        <v>2242</v>
       </c>
       <c r="AD17" s="11">
-        <v>2242</v>
+        <v>2171</v>
       </c>
       <c r="AE17" s="11">
-        <v>2171</v>
+        <v>2532</v>
       </c>
       <c r="AF17" s="11">
-        <v>2532</v>
+        <v>2411</v>
       </c>
       <c r="AG17" s="11">
-        <v>2411</v>
+        <v>2329</v>
       </c>
       <c r="AH17" s="11">
-        <v>2329</v>
+        <v>2280</v>
       </c>
       <c r="AI17" s="11">
-        <v>2280</v>
+        <v>2054</v>
       </c>
       <c r="AJ17" s="11">
-        <v>2054</v>
+        <v>2318</v>
       </c>
       <c r="AK17" s="11">
-        <v>2318</v>
+        <v>2186</v>
       </c>
       <c r="AL17" s="11">
-        <v>2186</v>
+        <v>2291</v>
       </c>
       <c r="AM17" s="11">
-        <v>2291</v>
+        <v>2375</v>
       </c>
       <c r="AN17" s="11">
-        <v>2375</v>
+        <v>2295</v>
       </c>
       <c r="AO17" s="11">
-        <v>2295</v>
+        <v>2188</v>
       </c>
       <c r="AP17" s="11">
-        <v>2188</v>
+        <v>2390</v>
       </c>
       <c r="AQ17" s="11">
-        <v>2390</v>
+        <v>2358</v>
       </c>
       <c r="AR17" s="11">
-        <v>2358</v>
+        <v>1806</v>
       </c>
       <c r="AS17" s="11">
-        <v>1806</v>
+        <v>1856</v>
       </c>
       <c r="AT17" s="11">
-        <v>1856</v>
+        <v>2201</v>
       </c>
       <c r="AU17" s="11">
-        <v>2201</v>
+        <v>2139</v>
       </c>
       <c r="AV17" s="11">
-        <v>2139</v>
+        <v>2529</v>
       </c>
       <c r="AW17" s="11">
-        <v>2529</v>
+        <v>2540</v>
       </c>
       <c r="AX17" s="11">
-        <v>2540</v>
+        <v>2480</v>
       </c>
       <c r="AY17" s="11">
-        <v>2480</v>
+        <v>2202</v>
       </c>
       <c r="AZ17" s="11">
-        <v>2202</v>
+        <v>2396</v>
       </c>
       <c r="BA17" s="11">
-        <v>2396</v>
+        <v>2322</v>
       </c>
       <c r="BB17" s="11">
-        <v>2322</v>
+        <v>2331</v>
       </c>
     </row>
     <row r="18" spans="2:54" x14ac:dyDescent="0.3">
@@ -2689,47 +2689,47 @@
       <c r="AN18" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO18" s="13" t="s">
-        <v>58</v>
+      <c r="AO18" s="13">
+        <v>229</v>
       </c>
       <c r="AP18" s="13">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="AQ18" s="13">
-        <v>268</v>
+        <v>313</v>
       </c>
       <c r="AR18" s="13">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="AS18" s="13">
-        <v>314</v>
+        <v>323</v>
       </c>
       <c r="AT18" s="13">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="AU18" s="13">
-        <v>220</v>
+        <v>192</v>
       </c>
       <c r="AV18" s="13">
-        <v>192</v>
+        <v>185</v>
       </c>
       <c r="AW18" s="13">
-        <v>185</v>
+        <v>235</v>
       </c>
       <c r="AX18" s="13">
-        <v>235</v>
+        <v>296</v>
       </c>
       <c r="AY18" s="13">
-        <v>296</v>
+        <v>335</v>
       </c>
       <c r="AZ18" s="13">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="BA18" s="13">
-        <v>210</v>
+        <v>274</v>
       </c>
       <c r="BB18" s="13">
-        <v>274</v>
+        <v>308</v>
       </c>
     </row>
     <row r="19" spans="2:54" x14ac:dyDescent="0.3">
@@ -2785,71 +2785,71 @@
       <c r="S19" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T19" s="11" t="s">
-        <v>58</v>
+      <c r="T19" s="11">
+        <v>265</v>
       </c>
       <c r="U19" s="11">
-        <v>265</v>
+        <v>208</v>
       </c>
       <c r="V19" s="11">
-        <v>208</v>
+        <v>140</v>
       </c>
       <c r="W19" s="11">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="X19" s="11">
-        <v>147</v>
+        <v>123</v>
       </c>
       <c r="Y19" s="11">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="Z19" s="11">
-        <v>181</v>
+        <v>228</v>
       </c>
       <c r="AA19" s="11">
-        <v>228</v>
+        <v>263</v>
       </c>
       <c r="AB19" s="11">
-        <v>263</v>
+        <v>209</v>
       </c>
       <c r="AC19" s="11">
-        <v>209</v>
+        <v>284</v>
       </c>
       <c r="AD19" s="11">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="AE19" s="11">
-        <v>281</v>
+        <v>156</v>
       </c>
       <c r="AF19" s="11">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="AG19" s="11">
+        <v>179</v>
+      </c>
+      <c r="AH19" s="11">
+        <v>149</v>
+      </c>
+      <c r="AI19" s="11">
+        <v>192</v>
+      </c>
+      <c r="AJ19" s="11">
+        <v>162</v>
+      </c>
+      <c r="AK19" s="11">
+        <v>150</v>
+      </c>
+      <c r="AL19" s="11">
+        <v>172</v>
+      </c>
+      <c r="AM19" s="11">
+        <v>152</v>
+      </c>
+      <c r="AN19" s="11">
         <v>143</v>
       </c>
-      <c r="AH19" s="11">
-        <v>179</v>
-      </c>
-      <c r="AI19" s="11">
-        <v>149</v>
-      </c>
-      <c r="AJ19" s="11">
-        <v>192</v>
-      </c>
-      <c r="AK19" s="11">
-        <v>162</v>
-      </c>
-      <c r="AL19" s="11">
-        <v>150</v>
-      </c>
-      <c r="AM19" s="11">
-        <v>172</v>
-      </c>
-      <c r="AN19" s="11">
-        <v>152</v>
-      </c>
-      <c r="AO19" s="11">
-        <v>143</v>
+      <c r="AO19" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP19" s="11" t="s">
         <v>58</v>
@@ -2944,71 +2944,71 @@
       <c r="S20" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T20" s="13" t="s">
-        <v>58</v>
+      <c r="T20" s="13">
+        <v>1</v>
       </c>
       <c r="U20" s="13">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="V20" s="13">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="W20" s="13">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="X20" s="13">
+        <v>19</v>
+      </c>
+      <c r="Y20" s="13">
+        <v>6</v>
+      </c>
+      <c r="Z20" s="13">
         <v>13</v>
       </c>
-      <c r="Y20" s="13">
-        <v>19</v>
-      </c>
-      <c r="Z20" s="13">
+      <c r="AA20" s="13">
+        <v>8</v>
+      </c>
+      <c r="AB20" s="13">
+        <v>31</v>
+      </c>
+      <c r="AC20" s="13">
+        <v>4</v>
+      </c>
+      <c r="AD20" s="13">
         <v>6</v>
       </c>
-      <c r="AA20" s="13">
-        <v>13</v>
-      </c>
-      <c r="AB20" s="13">
+      <c r="AE20" s="13">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="13">
+        <v>16</v>
+      </c>
+      <c r="AG20" s="13">
+        <v>15</v>
+      </c>
+      <c r="AH20" s="13">
+        <v>10</v>
+      </c>
+      <c r="AI20" s="13">
+        <v>3</v>
+      </c>
+      <c r="AJ20" s="13">
         <v>8</v>
-      </c>
-      <c r="AC20" s="13">
-        <v>31</v>
-      </c>
-      <c r="AD20" s="13">
-        <v>4</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>6</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>2</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>16</v>
-      </c>
-      <c r="AH20" s="13">
-        <v>15</v>
-      </c>
-      <c r="AI20" s="13">
-        <v>10</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>3</v>
       </c>
       <c r="AK20" s="13">
         <v>8</v>
       </c>
       <c r="AL20" s="13">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AM20" s="13">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AN20" s="13">
-        <v>5</v>
-      </c>
-      <c r="AO20" s="13">
         <v>6</v>
+      </c>
+      <c r="AO20" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP20" s="13" t="s">
         <v>58</v>
@@ -3103,110 +3103,110 @@
       <c r="S21" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T21" s="11" t="s">
-        <v>58</v>
+      <c r="T21" s="11">
+        <v>103</v>
       </c>
       <c r="U21" s="11">
-        <v>103</v>
+        <v>63</v>
       </c>
       <c r="V21" s="11">
-        <v>63</v>
+        <v>101</v>
       </c>
       <c r="W21" s="11">
+        <v>66</v>
+      </c>
+      <c r="X21" s="11">
+        <v>91</v>
+      </c>
+      <c r="Y21" s="11">
+        <v>132</v>
+      </c>
+      <c r="Z21" s="11">
+        <v>126</v>
+      </c>
+      <c r="AA21" s="11">
+        <v>167</v>
+      </c>
+      <c r="AB21" s="11">
+        <v>154</v>
+      </c>
+      <c r="AC21" s="11">
+        <v>164</v>
+      </c>
+      <c r="AD21" s="11">
+        <v>152</v>
+      </c>
+      <c r="AE21" s="11">
         <v>101</v>
       </c>
-      <c r="X21" s="11">
-        <v>66</v>
-      </c>
-      <c r="Y21" s="11">
+      <c r="AF21" s="11">
+        <v>61</v>
+      </c>
+      <c r="AG21" s="11">
         <v>91</v>
       </c>
-      <c r="Z21" s="11">
-        <v>132</v>
-      </c>
-      <c r="AA21" s="11">
-        <v>126</v>
-      </c>
-      <c r="AB21" s="11">
-        <v>167</v>
-      </c>
-      <c r="AC21" s="11">
-        <v>154</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>164</v>
-      </c>
-      <c r="AE21" s="11">
+      <c r="AH21" s="11">
+        <v>84</v>
+      </c>
+      <c r="AI21" s="11">
+        <v>71</v>
+      </c>
+      <c r="AJ21" s="11">
+        <v>95</v>
+      </c>
+      <c r="AK21" s="11">
+        <v>142</v>
+      </c>
+      <c r="AL21" s="11">
         <v>152</v>
       </c>
-      <c r="AF21" s="11">
-        <v>101</v>
-      </c>
-      <c r="AG21" s="11">
-        <v>61</v>
-      </c>
-      <c r="AH21" s="11">
-        <v>91</v>
-      </c>
-      <c r="AI21" s="11">
-        <v>84</v>
-      </c>
-      <c r="AJ21" s="11">
-        <v>71</v>
-      </c>
-      <c r="AK21" s="11">
-        <v>95</v>
-      </c>
-      <c r="AL21" s="11">
-        <v>142</v>
-      </c>
       <c r="AM21" s="11">
-        <v>152</v>
+        <v>119</v>
       </c>
       <c r="AN21" s="11">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="AO21" s="11">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="AP21" s="11">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="AQ21" s="11">
-        <v>148</v>
+        <v>117</v>
       </c>
       <c r="AR21" s="11">
-        <v>117</v>
+        <v>158</v>
       </c>
       <c r="AS21" s="11">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="AT21" s="11">
+        <v>146</v>
+      </c>
+      <c r="AU21" s="11">
+        <v>120</v>
+      </c>
+      <c r="AV21" s="11">
+        <v>143</v>
+      </c>
+      <c r="AW21" s="11">
+        <v>237</v>
+      </c>
+      <c r="AX21" s="11">
+        <v>346</v>
+      </c>
+      <c r="AY21" s="11">
+        <v>301</v>
+      </c>
+      <c r="AZ21" s="11">
         <v>151</v>
       </c>
-      <c r="AU21" s="11">
-        <v>146</v>
-      </c>
-      <c r="AV21" s="11">
-        <v>120</v>
-      </c>
-      <c r="AW21" s="11">
-        <v>143</v>
-      </c>
-      <c r="AX21" s="11">
-        <v>237</v>
-      </c>
-      <c r="AY21" s="11">
-        <v>346</v>
-      </c>
-      <c r="AZ21" s="11">
-        <v>301</v>
-      </c>
       <c r="BA21" s="11">
-        <v>151</v>
+        <v>162</v>
       </c>
       <c r="BB21" s="11">
-        <v>162</v>
+        <v>186</v>
       </c>
     </row>
     <row r="22" spans="2:54" x14ac:dyDescent="0.3">
@@ -3262,110 +3262,110 @@
       <c r="S22" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T22" s="13" t="s">
-        <v>58</v>
+      <c r="T22" s="13">
+        <v>0</v>
       </c>
       <c r="U22" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="V22" s="13">
+        <v>2</v>
+      </c>
+      <c r="W22" s="13">
+        <v>0</v>
+      </c>
+      <c r="X22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Y22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Z22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AA22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AB22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AD22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE22" s="13">
+        <v>24</v>
+      </c>
+      <c r="AF22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AG22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AH22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AI22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AJ22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AL22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AM22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AN22" s="13">
+        <v>1</v>
+      </c>
+      <c r="AO22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AP22" s="13">
         <v>3</v>
       </c>
-      <c r="W22" s="13">
+      <c r="AQ22" s="13">
+        <v>5</v>
+      </c>
+      <c r="AR22" s="13">
         <v>2</v>
       </c>
-      <c r="X22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="13">
-        <v>0</v>
-      </c>
-      <c r="Z22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AA22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AB22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AC22" s="13">
+      <c r="AS22" s="13">
+        <v>4</v>
+      </c>
+      <c r="AT22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AU22" s="13">
+        <v>0</v>
+      </c>
+      <c r="AV22" s="13">
+        <v>3</v>
+      </c>
+      <c r="AW22" s="13">
+        <v>2</v>
+      </c>
+      <c r="AX22" s="13">
         <v>1</v>
       </c>
-      <c r="AD22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AE22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>24</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AH22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AI22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AJ22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AL22" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AN22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AO22" s="13">
-        <v>1</v>
-      </c>
-      <c r="AP22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AQ22" s="13">
+      <c r="AY22" s="13">
         <v>3</v>
-      </c>
-      <c r="AR22" s="13">
-        <v>5</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>2</v>
-      </c>
-      <c r="AT22" s="13">
-        <v>4</v>
-      </c>
-      <c r="AU22" s="13">
-        <v>2</v>
-      </c>
-      <c r="AV22" s="13">
-        <v>0</v>
-      </c>
-      <c r="AW22" s="13">
-        <v>3</v>
-      </c>
-      <c r="AX22" s="13">
-        <v>2</v>
-      </c>
-      <c r="AY22" s="13">
-        <v>1</v>
       </c>
       <c r="AZ22" s="13">
         <v>3</v>
       </c>
       <c r="BA22" s="13">
+        <v>6</v>
+      </c>
+      <c r="BB22" s="13">
         <v>3</v>
-      </c>
-      <c r="BB22" s="13">
-        <v>6</v>
       </c>
     </row>
     <row r="23" spans="2:54" x14ac:dyDescent="0.3">
@@ -3421,8 +3421,8 @@
       <c r="S23" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T23" s="11" t="s">
-        <v>58</v>
+      <c r="T23" s="11">
+        <v>0</v>
       </c>
       <c r="U23" s="11">
         <v>0</v>
@@ -3448,8 +3448,8 @@
       <c r="AB23" s="11">
         <v>0</v>
       </c>
-      <c r="AC23" s="11">
-        <v>0</v>
+      <c r="AC23" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD23" s="11" t="s">
         <v>58</v>
@@ -3580,8 +3580,8 @@
       <c r="S24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T24" s="13" t="s">
-        <v>58</v>
+      <c r="T24" s="13">
+        <v>0</v>
       </c>
       <c r="U24" s="13">
         <v>0</v>
@@ -3610,17 +3610,17 @@
       <c r="AC24" s="13">
         <v>0</v>
       </c>
-      <c r="AD24" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="13" t="s">
-        <v>58</v>
+      <c r="AD24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE24" s="13">
+        <v>0</v>
       </c>
       <c r="AF24" s="13">
         <v>0</v>
       </c>
-      <c r="AG24" s="13">
-        <v>0</v>
+      <c r="AG24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AH24" s="13" t="s">
         <v>58</v>
@@ -3628,11 +3628,11 @@
       <c r="AI24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AJ24" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AK24" s="13">
-        <v>0</v>
+      <c r="AJ24" s="13">
+        <v>0</v>
+      </c>
+      <c r="AK24" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AL24" s="13" t="s">
         <v>58</v>
@@ -3640,17 +3640,17 @@
       <c r="AM24" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN24" s="13" t="s">
-        <v>58</v>
+      <c r="AN24" s="13">
+        <v>0</v>
       </c>
       <c r="AO24" s="13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AP24" s="13">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AQ24" s="13">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AR24" s="13">
         <v>0</v>
@@ -3659,16 +3659,16 @@
         <v>0</v>
       </c>
       <c r="AT24" s="13">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="AU24" s="13">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="AV24" s="13">
         <v>2</v>
       </c>
       <c r="AW24" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX24" s="13">
         <v>0</v>
@@ -3682,8 +3682,8 @@
       <c r="BA24" s="13">
         <v>0</v>
       </c>
-      <c r="BB24" s="13">
-        <v>0</v>
+      <c r="BB24" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="2:54" x14ac:dyDescent="0.3">
@@ -3738,109 +3738,109 @@
         <v>0</v>
       </c>
       <c r="T25" s="15">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="U25" s="15">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="V25" s="15">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="W25" s="15">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="X25" s="15">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="Y25" s="15">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="Z25" s="15">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AA25" s="15">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AB25" s="15">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AC25" s="15">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AD25" s="15">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AE25" s="15">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AF25" s="15">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AG25" s="15">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AH25" s="15">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AI25" s="15">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AJ25" s="15">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AK25" s="15">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AL25" s="15">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AM25" s="15">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AN25" s="15">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AO25" s="15">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AP25" s="15">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AQ25" s="15">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AR25" s="15">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AS25" s="15">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AT25" s="15">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AU25" s="15">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="AV25" s="15">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="AW25" s="15">
-        <v>4099</v>
+        <v>4011</v>
       </c>
       <c r="AX25" s="15">
-        <v>4011</v>
+        <v>4320</v>
       </c>
       <c r="AY25" s="15">
-        <v>4320</v>
+        <v>4149</v>
       </c>
       <c r="AZ25" s="15">
-        <v>4149</v>
+        <v>4319</v>
       </c>
       <c r="BA25" s="15">
-        <v>4319</v>
+        <v>4315</v>
       </c>
       <c r="BB25" s="15">
-        <v>4315</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="26" spans="2:54" x14ac:dyDescent="0.3">
@@ -4022,8 +4022,8 @@
       <c r="AP27" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ27" s="11" t="s">
-        <v>58</v>
+      <c r="AQ27" s="11">
+        <v>0</v>
       </c>
       <c r="AR27" s="11">
         <v>0</v>
@@ -4181,8 +4181,8 @@
       <c r="AP28" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ28" s="13" t="s">
-        <v>58</v>
+      <c r="AQ28" s="13">
+        <v>0</v>
       </c>
       <c r="AR28" s="13">
         <v>0</v>
@@ -4340,8 +4340,8 @@
       <c r="AP29" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ29" s="11" t="s">
-        <v>58</v>
+      <c r="AQ29" s="11">
+        <v>0</v>
       </c>
       <c r="AR29" s="11">
         <v>0</v>
@@ -4499,8 +4499,8 @@
       <c r="AP30" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ30" s="13" t="s">
-        <v>58</v>
+      <c r="AQ30" s="13">
+        <v>0</v>
       </c>
       <c r="AR30" s="13">
         <v>0</v>
@@ -4649,11 +4649,11 @@
       <c r="AM31" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN31" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO31" s="11">
-        <v>0</v>
+      <c r="AN31" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO31" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP31" s="11" t="s">
         <v>58</v>
@@ -4817,8 +4817,8 @@
       <c r="AP32" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ32" s="13" t="s">
-        <v>58</v>
+      <c r="AQ32" s="13">
+        <v>0</v>
       </c>
       <c r="AR32" s="13">
         <v>0</v>
@@ -5119,8 +5119,8 @@
       <c r="S35" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T35" s="15" t="s">
-        <v>58</v>
+      <c r="T35" s="15">
+        <v>0</v>
       </c>
       <c r="U35" s="15">
         <v>0</v>
@@ -5277,109 +5277,109 @@
         <v>0</v>
       </c>
       <c r="T36" s="19">
-        <v>0</v>
+        <v>4190</v>
       </c>
       <c r="U36" s="19">
-        <v>4190</v>
+        <v>4776</v>
       </c>
       <c r="V36" s="19">
-        <v>4776</v>
+        <v>4502</v>
       </c>
       <c r="W36" s="19">
-        <v>4502</v>
+        <v>3967</v>
       </c>
       <c r="X36" s="19">
-        <v>3967</v>
+        <v>4354</v>
       </c>
       <c r="Y36" s="19">
-        <v>4354</v>
+        <v>4380</v>
       </c>
       <c r="Z36" s="19">
-        <v>4380</v>
+        <v>3964</v>
       </c>
       <c r="AA36" s="19">
-        <v>3964</v>
+        <v>4224</v>
       </c>
       <c r="AB36" s="19">
-        <v>4224</v>
+        <v>4248</v>
       </c>
       <c r="AC36" s="19">
-        <v>4248</v>
+        <v>4570</v>
       </c>
       <c r="AD36" s="19">
-        <v>4570</v>
+        <v>3740</v>
       </c>
       <c r="AE36" s="19">
-        <v>3740</v>
+        <v>4684</v>
       </c>
       <c r="AF36" s="19">
-        <v>4684</v>
+        <v>4480</v>
       </c>
       <c r="AG36" s="19">
-        <v>4480</v>
+        <v>3978</v>
       </c>
       <c r="AH36" s="19">
-        <v>3978</v>
+        <v>3903</v>
       </c>
       <c r="AI36" s="19">
-        <v>3903</v>
+        <v>3499</v>
       </c>
       <c r="AJ36" s="19">
-        <v>3499</v>
+        <v>3543</v>
       </c>
       <c r="AK36" s="19">
-        <v>3543</v>
+        <v>3535</v>
       </c>
       <c r="AL36" s="19">
-        <v>3535</v>
+        <v>3594</v>
       </c>
       <c r="AM36" s="19">
-        <v>3594</v>
+        <v>3719</v>
       </c>
       <c r="AN36" s="19">
-        <v>3719</v>
+        <v>3947</v>
       </c>
       <c r="AO36" s="19">
-        <v>3947</v>
+        <v>3983</v>
       </c>
       <c r="AP36" s="19">
-        <v>3983</v>
+        <v>3949</v>
       </c>
       <c r="AQ36" s="19">
-        <v>3949</v>
+        <v>4322</v>
       </c>
       <c r="AR36" s="19">
-        <v>4322</v>
+        <v>3558</v>
       </c>
       <c r="AS36" s="19">
-        <v>3558</v>
+        <v>3638</v>
       </c>
       <c r="AT36" s="19">
-        <v>3638</v>
+        <v>3701</v>
       </c>
       <c r="AU36" s="19">
-        <v>3701</v>
+        <v>3506</v>
       </c>
       <c r="AV36" s="19">
-        <v>3506</v>
+        <v>4099</v>
       </c>
       <c r="AW36" s="19">
-        <v>4099</v>
+        <v>4011</v>
       </c>
       <c r="AX36" s="19">
-        <v>4011</v>
+        <v>4320</v>
       </c>
       <c r="AY36" s="19">
-        <v>4320</v>
+        <v>4149</v>
       </c>
       <c r="AZ36" s="19">
-        <v>4149</v>
+        <v>4319</v>
       </c>
       <c r="BA36" s="19">
-        <v>4319</v>
+        <v>4315</v>
       </c>
       <c r="BB36" s="19">
-        <v>4315</v>
+        <v>4471</v>
       </c>
     </row>
     <row r="37" spans="2:54" x14ac:dyDescent="0.3">
@@ -5869,71 +5869,71 @@
       <c r="S43" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T43" s="11" t="s">
-        <v>58</v>
+      <c r="T43" s="11">
+        <v>2</v>
       </c>
       <c r="U43" s="11">
         <v>2</v>
       </c>
       <c r="V43" s="11">
-        <v>2</v>
+        <v>56</v>
       </c>
       <c r="W43" s="11">
-        <v>56</v>
+        <v>30</v>
       </c>
       <c r="X43" s="11">
+        <v>26</v>
+      </c>
+      <c r="Y43" s="11">
+        <v>5</v>
+      </c>
+      <c r="Z43" s="11">
+        <v>26</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>5</v>
+      </c>
+      <c r="AB43" s="11">
         <v>30</v>
       </c>
-      <c r="Y43" s="11">
-        <v>26</v>
-      </c>
-      <c r="Z43" s="11">
+      <c r="AC43" s="11">
+        <v>31</v>
+      </c>
+      <c r="AD43" s="11">
+        <v>3</v>
+      </c>
+      <c r="AE43" s="11">
         <v>5</v>
-      </c>
-      <c r="AA43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AB43" s="11">
-        <v>5</v>
-      </c>
-      <c r="AC43" s="11">
-        <v>30</v>
-      </c>
-      <c r="AD43" s="11">
-        <v>31</v>
-      </c>
-      <c r="AE43" s="11">
-        <v>3</v>
       </c>
       <c r="AF43" s="11">
         <v>5</v>
       </c>
       <c r="AG43" s="11">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="AH43" s="11">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="AI43" s="11">
+        <v>26</v>
+      </c>
+      <c r="AJ43" s="11">
+        <v>51</v>
+      </c>
+      <c r="AK43" s="11">
+        <v>8</v>
+      </c>
+      <c r="AL43" s="11">
         <v>1</v>
-      </c>
-      <c r="AJ43" s="11">
-        <v>26</v>
-      </c>
-      <c r="AK43" s="11">
-        <v>51</v>
-      </c>
-      <c r="AL43" s="11">
-        <v>8</v>
       </c>
       <c r="AM43" s="11">
         <v>1</v>
       </c>
       <c r="AN43" s="11">
-        <v>1</v>
-      </c>
-      <c r="AO43" s="11">
         <v>6</v>
+      </c>
+      <c r="AO43" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP43" s="11" t="s">
         <v>58</v>
@@ -6028,110 +6028,110 @@
       <c r="S44" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T44" s="13" t="s">
-        <v>58</v>
+      <c r="T44" s="13">
+        <v>571</v>
       </c>
       <c r="U44" s="13">
-        <v>571</v>
+        <v>512</v>
       </c>
       <c r="V44" s="13">
-        <v>512</v>
+        <v>736</v>
       </c>
       <c r="W44" s="13">
-        <v>736</v>
+        <v>466</v>
       </c>
       <c r="X44" s="13">
-        <v>466</v>
+        <v>599</v>
       </c>
       <c r="Y44" s="13">
-        <v>599</v>
+        <v>698</v>
       </c>
       <c r="Z44" s="13">
-        <v>698</v>
+        <v>511</v>
       </c>
       <c r="AA44" s="13">
-        <v>511</v>
+        <v>612</v>
       </c>
       <c r="AB44" s="13">
+        <v>803</v>
+      </c>
+      <c r="AC44" s="13">
+        <v>642</v>
+      </c>
+      <c r="AD44" s="13">
         <v>612</v>
       </c>
-      <c r="AC44" s="13">
-        <v>803</v>
-      </c>
-      <c r="AD44" s="13">
-        <v>642</v>
-      </c>
       <c r="AE44" s="13">
-        <v>612</v>
+        <v>796</v>
       </c>
       <c r="AF44" s="13">
-        <v>796</v>
+        <v>678</v>
       </c>
       <c r="AG44" s="13">
-        <v>678</v>
+        <v>524</v>
       </c>
       <c r="AH44" s="13">
-        <v>524</v>
+        <v>575</v>
       </c>
       <c r="AI44" s="13">
-        <v>575</v>
+        <v>322</v>
       </c>
       <c r="AJ44" s="13">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="AK44" s="13">
-        <v>327</v>
+        <v>316</v>
       </c>
       <c r="AL44" s="13">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="AM44" s="13">
-        <v>328</v>
+        <v>353</v>
       </c>
       <c r="AN44" s="13">
         <v>353</v>
       </c>
       <c r="AO44" s="13">
-        <v>353</v>
+        <v>537</v>
       </c>
       <c r="AP44" s="13">
-        <v>537</v>
+        <v>409</v>
       </c>
       <c r="AQ44" s="13">
-        <v>409</v>
+        <v>454</v>
       </c>
       <c r="AR44" s="13">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="AS44" s="13">
-        <v>445</v>
+        <v>410</v>
       </c>
       <c r="AT44" s="13">
-        <v>410</v>
+        <v>431</v>
       </c>
       <c r="AU44" s="13">
-        <v>431</v>
+        <v>384</v>
       </c>
       <c r="AV44" s="13">
-        <v>384</v>
+        <v>421</v>
       </c>
       <c r="AW44" s="13">
-        <v>421</v>
+        <v>359</v>
       </c>
       <c r="AX44" s="13">
-        <v>359</v>
+        <v>370</v>
       </c>
       <c r="AY44" s="13">
-        <v>370</v>
+        <v>492</v>
       </c>
       <c r="AZ44" s="13">
-        <v>492</v>
+        <v>559</v>
       </c>
       <c r="BA44" s="13">
-        <v>559</v>
+        <v>587</v>
       </c>
       <c r="BB44" s="13">
-        <v>587</v>
+        <v>620</v>
       </c>
     </row>
     <row r="45" spans="2:54" x14ac:dyDescent="0.3">
@@ -6187,110 +6187,110 @@
       <c r="S45" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T45" s="11" t="s">
-        <v>58</v>
+      <c r="T45" s="11">
+        <v>332</v>
       </c>
       <c r="U45" s="11">
-        <v>332</v>
+        <v>386</v>
       </c>
       <c r="V45" s="11">
-        <v>386</v>
+        <v>347</v>
       </c>
       <c r="W45" s="11">
-        <v>347</v>
+        <v>291</v>
       </c>
       <c r="X45" s="11">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="Y45" s="11">
-        <v>344</v>
+        <v>303</v>
       </c>
       <c r="Z45" s="11">
-        <v>303</v>
+        <v>331</v>
       </c>
       <c r="AA45" s="11">
-        <v>331</v>
+        <v>408</v>
       </c>
       <c r="AB45" s="11">
-        <v>408</v>
+        <v>455</v>
       </c>
       <c r="AC45" s="11">
-        <v>455</v>
+        <v>638</v>
       </c>
       <c r="AD45" s="11">
-        <v>638</v>
+        <v>363</v>
       </c>
       <c r="AE45" s="11">
-        <v>363</v>
+        <v>693</v>
       </c>
       <c r="AF45" s="11">
-        <v>693</v>
+        <v>665</v>
       </c>
       <c r="AG45" s="11">
-        <v>665</v>
+        <v>560</v>
       </c>
       <c r="AH45" s="11">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="AI45" s="11">
-        <v>542</v>
+        <v>367</v>
       </c>
       <c r="AJ45" s="11">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="AK45" s="11">
-        <v>351</v>
+        <v>329</v>
       </c>
       <c r="AL45" s="11">
-        <v>329</v>
+        <v>394</v>
       </c>
       <c r="AM45" s="11">
-        <v>394</v>
+        <v>401</v>
       </c>
       <c r="AN45" s="11">
-        <v>401</v>
+        <v>474</v>
       </c>
       <c r="AO45" s="11">
-        <v>474</v>
+        <v>439</v>
       </c>
       <c r="AP45" s="11">
-        <v>439</v>
+        <v>382</v>
       </c>
       <c r="AQ45" s="11">
-        <v>382</v>
+        <v>416</v>
       </c>
       <c r="AR45" s="11">
-        <v>416</v>
+        <v>501</v>
       </c>
       <c r="AS45" s="11">
-        <v>501</v>
+        <v>447</v>
       </c>
       <c r="AT45" s="11">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="AU45" s="11">
-        <v>442</v>
+        <v>317</v>
       </c>
       <c r="AV45" s="11">
-        <v>317</v>
+        <v>281</v>
       </c>
       <c r="AW45" s="11">
-        <v>281</v>
+        <v>348</v>
       </c>
       <c r="AX45" s="11">
-        <v>348</v>
+        <v>167</v>
       </c>
       <c r="AY45" s="11">
-        <v>167</v>
+        <v>385</v>
       </c>
       <c r="AZ45" s="11">
-        <v>385</v>
+        <v>426</v>
       </c>
       <c r="BA45" s="11">
-        <v>426</v>
+        <v>444</v>
       </c>
       <c r="BB45" s="11">
-        <v>444</v>
+        <v>574</v>
       </c>
     </row>
     <row r="46" spans="2:54" x14ac:dyDescent="0.3">
@@ -6346,20 +6346,20 @@
       <c r="S46" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T46" s="13" t="s">
-        <v>58</v>
+      <c r="T46" s="13">
+        <v>0</v>
       </c>
       <c r="U46" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="V46" s="13">
+        <v>0</v>
+      </c>
+      <c r="W46" s="13">
+        <v>1</v>
+      </c>
+      <c r="X46" s="13">
         <v>2</v>
-      </c>
-      <c r="W46" s="13">
-        <v>0</v>
-      </c>
-      <c r="X46" s="13">
-        <v>1</v>
       </c>
       <c r="Y46" s="13">
         <v>2</v>
@@ -6371,7 +6371,7 @@
         <v>2</v>
       </c>
       <c r="AB46" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AC46" s="13">
         <v>3</v>
@@ -6383,34 +6383,34 @@
         <v>3</v>
       </c>
       <c r="AF46" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AG46" s="13">
         <v>1</v>
       </c>
       <c r="AH46" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AI46" s="13">
         <v>4</v>
       </c>
       <c r="AJ46" s="13">
+        <v>5</v>
+      </c>
+      <c r="AK46" s="13">
+        <v>3</v>
+      </c>
+      <c r="AL46" s="13">
         <v>4</v>
       </c>
-      <c r="AK46" s="13">
-        <v>5</v>
-      </c>
-      <c r="AL46" s="13">
+      <c r="AM46" s="13">
         <v>3</v>
-      </c>
-      <c r="AM46" s="13">
-        <v>4</v>
       </c>
       <c r="AN46" s="13">
         <v>3</v>
       </c>
-      <c r="AO46" s="13">
-        <v>3</v>
+      <c r="AO46" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP46" s="13" t="s">
         <v>58</v>
@@ -6505,110 +6505,110 @@
       <c r="S47" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T47" s="11" t="s">
-        <v>58</v>
+      <c r="T47" s="11">
+        <v>129</v>
       </c>
       <c r="U47" s="11">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="V47" s="11">
-        <v>196</v>
+        <v>157</v>
       </c>
       <c r="W47" s="11">
-        <v>157</v>
+        <v>200</v>
       </c>
       <c r="X47" s="11">
-        <v>200</v>
+        <v>162</v>
       </c>
       <c r="Y47" s="11">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="Z47" s="11">
-        <v>146</v>
+        <v>165</v>
       </c>
       <c r="AA47" s="11">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="AB47" s="11">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="AC47" s="11">
-        <v>154</v>
+        <v>167</v>
       </c>
       <c r="AD47" s="11">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="AE47" s="11">
+        <v>219</v>
+      </c>
+      <c r="AF47" s="11">
+        <v>135</v>
+      </c>
+      <c r="AG47" s="11">
+        <v>172</v>
+      </c>
+      <c r="AH47" s="11">
+        <v>189</v>
+      </c>
+      <c r="AI47" s="11">
+        <v>151</v>
+      </c>
+      <c r="AJ47" s="11">
+        <v>175</v>
+      </c>
+      <c r="AK47" s="11">
+        <v>166</v>
+      </c>
+      <c r="AL47" s="11">
+        <v>144</v>
+      </c>
+      <c r="AM47" s="11">
+        <v>126</v>
+      </c>
+      <c r="AN47" s="11">
+        <v>204</v>
+      </c>
+      <c r="AO47" s="11">
         <v>160</v>
       </c>
-      <c r="AF47" s="11">
-        <v>219</v>
-      </c>
-      <c r="AG47" s="11">
-        <v>135</v>
-      </c>
-      <c r="AH47" s="11">
-        <v>172</v>
-      </c>
-      <c r="AI47" s="11">
-        <v>189</v>
-      </c>
-      <c r="AJ47" s="11">
-        <v>151</v>
-      </c>
-      <c r="AK47" s="11">
-        <v>175</v>
-      </c>
-      <c r="AL47" s="11">
-        <v>166</v>
-      </c>
-      <c r="AM47" s="11">
-        <v>144</v>
-      </c>
-      <c r="AN47" s="11">
-        <v>126</v>
-      </c>
-      <c r="AO47" s="11">
-        <v>204</v>
-      </c>
       <c r="AP47" s="11">
-        <v>160</v>
+        <v>263</v>
       </c>
       <c r="AQ47" s="11">
-        <v>263</v>
+        <v>213</v>
       </c>
       <c r="AR47" s="11">
-        <v>213</v>
+        <v>278</v>
       </c>
       <c r="AS47" s="11">
+        <v>208</v>
+      </c>
+      <c r="AT47" s="11">
+        <v>188</v>
+      </c>
+      <c r="AU47" s="11">
+        <v>231</v>
+      </c>
+      <c r="AV47" s="11">
+        <v>284</v>
+      </c>
+      <c r="AW47" s="11">
+        <v>288</v>
+      </c>
+      <c r="AX47" s="11">
+        <v>223</v>
+      </c>
+      <c r="AY47" s="11">
+        <v>207</v>
+      </c>
+      <c r="AZ47" s="11">
+        <v>327</v>
+      </c>
+      <c r="BA47" s="11">
+        <v>317</v>
+      </c>
+      <c r="BB47" s="11">
         <v>278</v>
-      </c>
-      <c r="AT47" s="11">
-        <v>208</v>
-      </c>
-      <c r="AU47" s="11">
-        <v>188</v>
-      </c>
-      <c r="AV47" s="11">
-        <v>231</v>
-      </c>
-      <c r="AW47" s="11">
-        <v>284</v>
-      </c>
-      <c r="AX47" s="11">
-        <v>288</v>
-      </c>
-      <c r="AY47" s="11">
-        <v>223</v>
-      </c>
-      <c r="AZ47" s="11">
-        <v>207</v>
-      </c>
-      <c r="BA47" s="11">
-        <v>327</v>
-      </c>
-      <c r="BB47" s="11">
-        <v>317</v>
       </c>
     </row>
     <row r="48" spans="2:54" x14ac:dyDescent="0.3">
@@ -6664,110 +6664,110 @@
       <c r="S48" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T48" s="13" t="s">
-        <v>58</v>
+      <c r="T48" s="13">
+        <v>208</v>
       </c>
       <c r="U48" s="13">
-        <v>208</v>
+        <v>158</v>
       </c>
       <c r="V48" s="13">
-        <v>158</v>
+        <v>187</v>
       </c>
       <c r="W48" s="13">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="X48" s="13">
+        <v>195</v>
+      </c>
+      <c r="Y48" s="13">
+        <v>159</v>
+      </c>
+      <c r="Z48" s="13">
+        <v>140</v>
+      </c>
+      <c r="AA48" s="13">
+        <v>127</v>
+      </c>
+      <c r="AB48" s="13">
+        <v>371</v>
+      </c>
+      <c r="AC48" s="13">
+        <v>65</v>
+      </c>
+      <c r="AD48" s="13">
+        <v>29</v>
+      </c>
+      <c r="AE48" s="13">
+        <v>311</v>
+      </c>
+      <c r="AF48" s="13">
+        <v>102</v>
+      </c>
+      <c r="AG48" s="13">
+        <v>89</v>
+      </c>
+      <c r="AH48" s="13">
+        <v>238</v>
+      </c>
+      <c r="AI48" s="13">
+        <v>106</v>
+      </c>
+      <c r="AJ48" s="13">
+        <v>264</v>
+      </c>
+      <c r="AK48" s="13">
+        <v>137</v>
+      </c>
+      <c r="AL48" s="13">
+        <v>87</v>
+      </c>
+      <c r="AM48" s="13">
+        <v>168</v>
+      </c>
+      <c r="AN48" s="13">
+        <v>453</v>
+      </c>
+      <c r="AO48" s="13">
+        <v>63</v>
+      </c>
+      <c r="AP48" s="13">
+        <v>354</v>
+      </c>
+      <c r="AQ48" s="13">
         <v>207</v>
       </c>
-      <c r="Y48" s="13">
-        <v>195</v>
-      </c>
-      <c r="Z48" s="13">
-        <v>159</v>
-      </c>
-      <c r="AA48" s="13">
-        <v>140</v>
-      </c>
-      <c r="AB48" s="13">
-        <v>127</v>
-      </c>
-      <c r="AC48" s="13">
-        <v>371</v>
-      </c>
-      <c r="AD48" s="13">
-        <v>65</v>
-      </c>
-      <c r="AE48" s="13">
-        <v>29</v>
-      </c>
-      <c r="AF48" s="13">
-        <v>311</v>
-      </c>
-      <c r="AG48" s="13">
-        <v>102</v>
-      </c>
-      <c r="AH48" s="13">
-        <v>89</v>
-      </c>
-      <c r="AI48" s="13">
-        <v>238</v>
-      </c>
-      <c r="AJ48" s="13">
-        <v>106</v>
-      </c>
-      <c r="AK48" s="13">
-        <v>264</v>
-      </c>
-      <c r="AL48" s="13">
-        <v>137</v>
-      </c>
-      <c r="AM48" s="13">
-        <v>87</v>
-      </c>
-      <c r="AN48" s="13">
-        <v>168</v>
-      </c>
-      <c r="AO48" s="13">
-        <v>453</v>
-      </c>
-      <c r="AP48" s="13">
-        <v>63</v>
-      </c>
-      <c r="AQ48" s="13">
-        <v>354</v>
-      </c>
       <c r="AR48" s="13">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="AS48" s="13">
-        <v>73</v>
+        <v>110</v>
       </c>
       <c r="AT48" s="13">
-        <v>110</v>
+        <v>66</v>
       </c>
       <c r="AU48" s="13">
-        <v>66</v>
+        <v>160</v>
       </c>
       <c r="AV48" s="13">
-        <v>160</v>
+        <v>123</v>
       </c>
       <c r="AW48" s="13">
-        <v>123</v>
+        <v>181</v>
       </c>
       <c r="AX48" s="13">
-        <v>181</v>
+        <v>248</v>
       </c>
       <c r="AY48" s="13">
-        <v>248</v>
+        <v>337</v>
       </c>
       <c r="AZ48" s="13">
-        <v>337</v>
+        <v>77</v>
       </c>
       <c r="BA48" s="13">
-        <v>77</v>
+        <v>262</v>
       </c>
       <c r="BB48" s="13">
-        <v>262</v>
+        <v>105</v>
       </c>
     </row>
     <row r="49" spans="2:54" x14ac:dyDescent="0.3">
@@ -6823,110 +6823,110 @@
       <c r="S49" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T49" s="11" t="s">
-        <v>58</v>
+      <c r="T49" s="11">
+        <v>2399</v>
       </c>
       <c r="U49" s="11">
-        <v>2399</v>
+        <v>2276</v>
       </c>
       <c r="V49" s="11">
-        <v>2276</v>
+        <v>2619</v>
       </c>
       <c r="W49" s="11">
-        <v>2619</v>
+        <v>2821</v>
       </c>
       <c r="X49" s="11">
-        <v>2821</v>
+        <v>2588</v>
       </c>
       <c r="Y49" s="11">
-        <v>2588</v>
+        <v>2658</v>
       </c>
       <c r="Z49" s="11">
-        <v>2658</v>
+        <v>2744</v>
       </c>
       <c r="AA49" s="11">
-        <v>2744</v>
+        <v>2303</v>
       </c>
       <c r="AB49" s="11">
-        <v>2303</v>
+        <v>2419</v>
       </c>
       <c r="AC49" s="11">
-        <v>2419</v>
+        <v>2009</v>
       </c>
       <c r="AD49" s="11">
-        <v>2009</v>
+        <v>2301</v>
       </c>
       <c r="AE49" s="11">
-        <v>2301</v>
+        <v>2510</v>
       </c>
       <c r="AF49" s="11">
-        <v>2510</v>
+        <v>2402</v>
       </c>
       <c r="AG49" s="11">
-        <v>2402</v>
+        <v>2167</v>
       </c>
       <c r="AH49" s="11">
-        <v>2167</v>
+        <v>2342</v>
       </c>
       <c r="AI49" s="11">
-        <v>2342</v>
+        <v>2085</v>
       </c>
       <c r="AJ49" s="11">
-        <v>2085</v>
+        <v>2256</v>
       </c>
       <c r="AK49" s="11">
-        <v>2256</v>
+        <v>2311</v>
       </c>
       <c r="AL49" s="11">
-        <v>2311</v>
+        <v>2213</v>
       </c>
       <c r="AM49" s="11">
-        <v>2213</v>
+        <v>2390</v>
       </c>
       <c r="AN49" s="11">
-        <v>2390</v>
+        <v>2326</v>
       </c>
       <c r="AO49" s="11">
-        <v>2326</v>
+        <v>2040</v>
       </c>
       <c r="AP49" s="11">
-        <v>2040</v>
+        <v>2416</v>
       </c>
       <c r="AQ49" s="11">
-        <v>2416</v>
+        <v>1980</v>
       </c>
       <c r="AR49" s="11">
-        <v>1980</v>
+        <v>1700</v>
       </c>
       <c r="AS49" s="11">
-        <v>1700</v>
+        <v>2048</v>
       </c>
       <c r="AT49" s="11">
-        <v>2048</v>
+        <v>2446</v>
       </c>
       <c r="AU49" s="11">
-        <v>2446</v>
+        <v>2174</v>
       </c>
       <c r="AV49" s="11">
-        <v>2174</v>
+        <v>2516</v>
       </c>
       <c r="AW49" s="11">
-        <v>2516</v>
+        <v>2534</v>
       </c>
       <c r="AX49" s="11">
-        <v>2534</v>
+        <v>2335</v>
       </c>
       <c r="AY49" s="11">
-        <v>2335</v>
+        <v>2404</v>
       </c>
       <c r="AZ49" s="11">
-        <v>2404</v>
+        <v>2086</v>
       </c>
       <c r="BA49" s="11">
-        <v>2086</v>
+        <v>2331</v>
       </c>
       <c r="BB49" s="11">
-        <v>2331</v>
+        <v>2396</v>
       </c>
     </row>
     <row r="50" spans="2:54" x14ac:dyDescent="0.3">
@@ -7045,47 +7045,47 @@
       <c r="AN50" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO50" s="13" t="s">
-        <v>58</v>
+      <c r="AO50" s="13">
+        <v>607</v>
       </c>
       <c r="AP50" s="13">
-        <v>607</v>
+        <v>129</v>
       </c>
       <c r="AQ50" s="13">
-        <v>129</v>
+        <v>56</v>
       </c>
       <c r="AR50" s="13">
-        <v>56</v>
+        <v>231</v>
       </c>
       <c r="AS50" s="13">
-        <v>231</v>
+        <v>52</v>
       </c>
       <c r="AT50" s="13">
-        <v>52</v>
+        <v>243</v>
       </c>
       <c r="AU50" s="13">
-        <v>243</v>
+        <v>343</v>
       </c>
       <c r="AV50" s="13">
-        <v>343</v>
+        <v>219</v>
       </c>
       <c r="AW50" s="13">
-        <v>219</v>
+        <v>418</v>
       </c>
       <c r="AX50" s="13">
-        <v>418</v>
+        <v>240</v>
       </c>
       <c r="AY50" s="13">
-        <v>240</v>
+        <v>139</v>
       </c>
       <c r="AZ50" s="13">
-        <v>139</v>
+        <v>302</v>
       </c>
       <c r="BA50" s="13">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="BB50" s="13">
-        <v>300</v>
+        <v>644</v>
       </c>
     </row>
     <row r="51" spans="2:54" x14ac:dyDescent="0.3">
@@ -7141,71 +7141,71 @@
       <c r="S51" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T51" s="11" t="s">
-        <v>58</v>
+      <c r="T51" s="11">
+        <v>118</v>
       </c>
       <c r="U51" s="11">
-        <v>118</v>
+        <v>600</v>
       </c>
       <c r="V51" s="11">
-        <v>600</v>
+        <v>314</v>
       </c>
       <c r="W51" s="11">
-        <v>314</v>
+        <v>365</v>
       </c>
       <c r="X51" s="11">
-        <v>365</v>
+        <v>66</v>
       </c>
       <c r="Y51" s="11">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="Z51" s="11">
-        <v>2</v>
+        <v>368</v>
       </c>
       <c r="AA51" s="11">
-        <v>368</v>
+        <v>297</v>
       </c>
       <c r="AB51" s="11">
-        <v>297</v>
+        <v>222</v>
       </c>
       <c r="AC51" s="11">
-        <v>222</v>
+        <v>304</v>
       </c>
       <c r="AD51" s="11">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="AE51" s="11">
-        <v>301</v>
+        <v>101</v>
       </c>
       <c r="AF51" s="11">
-        <v>101</v>
+        <v>6</v>
       </c>
       <c r="AG51" s="11">
-        <v>6</v>
+        <v>185</v>
       </c>
       <c r="AH51" s="11">
-        <v>185</v>
+        <v>341</v>
       </c>
       <c r="AI51" s="11">
-        <v>341</v>
+        <v>4</v>
       </c>
       <c r="AJ51" s="11">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AK51" s="11">
-        <v>5</v>
+        <v>59</v>
       </c>
       <c r="AL51" s="11">
-        <v>59</v>
+        <v>25</v>
       </c>
       <c r="AM51" s="11">
-        <v>25</v>
+        <v>104</v>
       </c>
       <c r="AN51" s="11">
-        <v>104</v>
-      </c>
-      <c r="AO51" s="11">
         <v>404</v>
+      </c>
+      <c r="AO51" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP51" s="11" t="s">
         <v>58</v>
@@ -7300,50 +7300,50 @@
       <c r="S52" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T52" s="13" t="s">
-        <v>58</v>
+      <c r="T52" s="13">
+        <v>24</v>
       </c>
       <c r="U52" s="13">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="V52" s="13">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="W52" s="13">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="X52" s="13">
         <v>5</v>
       </c>
       <c r="Y52" s="13">
+        <v>19</v>
+      </c>
+      <c r="Z52" s="13">
+        <v>2</v>
+      </c>
+      <c r="AA52" s="13">
+        <v>1</v>
+      </c>
+      <c r="AB52" s="13">
+        <v>12</v>
+      </c>
+      <c r="AC52" s="13">
         <v>5</v>
       </c>
-      <c r="Z52" s="13">
-        <v>19</v>
-      </c>
-      <c r="AA52" s="13">
-        <v>2</v>
-      </c>
-      <c r="AB52" s="13">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="13">
-        <v>12</v>
-      </c>
       <c r="AD52" s="13">
+        <v>7</v>
+      </c>
+      <c r="AE52" s="13">
+        <v>24</v>
+      </c>
+      <c r="AF52" s="13">
+        <v>7</v>
+      </c>
+      <c r="AG52" s="13">
         <v>5</v>
       </c>
-      <c r="AE52" s="13">
-        <v>7</v>
-      </c>
-      <c r="AF52" s="13">
-        <v>24</v>
-      </c>
-      <c r="AG52" s="13">
-        <v>7</v>
-      </c>
       <c r="AH52" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AI52" s="13">
         <v>4</v>
@@ -7352,19 +7352,19 @@
         <v>4</v>
       </c>
       <c r="AK52" s="13">
+        <v>5</v>
+      </c>
+      <c r="AL52" s="13">
+        <v>3</v>
+      </c>
+      <c r="AM52" s="13">
         <v>4</v>
       </c>
-      <c r="AL52" s="13">
-        <v>5</v>
-      </c>
-      <c r="AM52" s="13">
-        <v>3</v>
-      </c>
       <c r="AN52" s="13">
-        <v>4</v>
-      </c>
-      <c r="AO52" s="13">
         <v>7</v>
+      </c>
+      <c r="AO52" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP52" s="13" t="s">
         <v>58</v>
@@ -7459,110 +7459,110 @@
       <c r="S53" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T53" s="11" t="s">
-        <v>58</v>
+      <c r="T53" s="11">
+        <v>30</v>
       </c>
       <c r="U53" s="11">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="V53" s="11">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="W53" s="11">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="X53" s="11">
+        <v>96</v>
+      </c>
+      <c r="Y53" s="11">
+        <v>74</v>
+      </c>
+      <c r="Z53" s="11">
+        <v>47</v>
+      </c>
+      <c r="AA53" s="11">
+        <v>68</v>
+      </c>
+      <c r="AB53" s="11">
+        <v>50</v>
+      </c>
+      <c r="AC53" s="11">
+        <v>59</v>
+      </c>
+      <c r="AD53" s="11">
+        <v>49</v>
+      </c>
+      <c r="AE53" s="11">
+        <v>74</v>
+      </c>
+      <c r="AF53" s="11">
+        <v>156</v>
+      </c>
+      <c r="AG53" s="11">
+        <v>64</v>
+      </c>
+      <c r="AH53" s="11">
         <v>82</v>
       </c>
-      <c r="Y53" s="11">
-        <v>96</v>
-      </c>
-      <c r="Z53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AA53" s="11">
-        <v>47</v>
-      </c>
-      <c r="AB53" s="11">
-        <v>68</v>
-      </c>
-      <c r="AC53" s="11">
-        <v>50</v>
-      </c>
-      <c r="AD53" s="11">
-        <v>59</v>
-      </c>
-      <c r="AE53" s="11">
-        <v>49</v>
-      </c>
-      <c r="AF53" s="11">
-        <v>74</v>
-      </c>
-      <c r="AG53" s="11">
-        <v>156</v>
-      </c>
-      <c r="AH53" s="11">
-        <v>64</v>
-      </c>
       <c r="AI53" s="11">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="AJ53" s="11">
+        <v>116</v>
+      </c>
+      <c r="AK53" s="11">
+        <v>148</v>
+      </c>
+      <c r="AL53" s="11">
+        <v>57</v>
+      </c>
+      <c r="AM53" s="11">
+        <v>65</v>
+      </c>
+      <c r="AN53" s="11">
         <v>81</v>
       </c>
-      <c r="AK53" s="11">
-        <v>116</v>
-      </c>
-      <c r="AL53" s="11">
-        <v>148</v>
-      </c>
-      <c r="AM53" s="11">
-        <v>57</v>
-      </c>
-      <c r="AN53" s="11">
-        <v>65</v>
-      </c>
       <c r="AO53" s="11">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AP53" s="11">
-        <v>78</v>
+        <v>682</v>
       </c>
       <c r="AQ53" s="11">
-        <v>682</v>
+        <v>185</v>
       </c>
       <c r="AR53" s="11">
-        <v>185</v>
+        <v>79</v>
       </c>
       <c r="AS53" s="11">
-        <v>79</v>
+        <v>382</v>
       </c>
       <c r="AT53" s="11">
-        <v>382</v>
+        <v>221</v>
       </c>
       <c r="AU53" s="11">
-        <v>221</v>
+        <v>369</v>
       </c>
       <c r="AV53" s="11">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="AW53" s="11">
-        <v>329</v>
+        <v>159</v>
       </c>
       <c r="AX53" s="11">
-        <v>159</v>
+        <v>214</v>
       </c>
       <c r="AY53" s="11">
-        <v>214</v>
+        <v>105</v>
       </c>
       <c r="AZ53" s="11">
-        <v>105</v>
+        <v>355</v>
       </c>
       <c r="BA53" s="11">
-        <v>355</v>
+        <v>193</v>
       </c>
       <c r="BB53" s="11">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="54" spans="2:54" x14ac:dyDescent="0.3">
@@ -7618,17 +7618,17 @@
       <c r="S54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T54" s="13" t="s">
-        <v>58</v>
+      <c r="T54" s="13">
+        <v>0</v>
       </c>
       <c r="U54" s="13">
         <v>0</v>
       </c>
       <c r="V54" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W54" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X54" s="13">
         <v>0</v>
@@ -7645,24 +7645,24 @@
       <c r="AB54" s="13">
         <v>0</v>
       </c>
-      <c r="AC54" s="13">
-        <v>0</v>
+      <c r="AC54" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF54" s="13">
-        <v>0</v>
-      </c>
-      <c r="AG54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH54" s="13">
+      <c r="AE54" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AG54" s="13">
         <v>23</v>
       </c>
+      <c r="AH54" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI54" s="13" t="s">
         <v>58</v>
       </c>
@@ -7672,35 +7672,35 @@
       <c r="AK54" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL54" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM54" s="13">
+      <c r="AL54" s="13">
         <v>1</v>
       </c>
-      <c r="AN54" s="13" t="s">
-        <v>58</v>
+      <c r="AM54" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AN54" s="13">
+        <v>0</v>
       </c>
       <c r="AO54" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AP54" s="13">
         <v>5</v>
       </c>
       <c r="AQ54" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AR54" s="13">
         <v>3</v>
       </c>
       <c r="AS54" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AT54" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AU54" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AV54" s="13">
         <v>2</v>
@@ -7709,19 +7709,19 @@
         <v>2</v>
       </c>
       <c r="AX54" s="13">
+        <v>1</v>
+      </c>
+      <c r="AY54" s="13">
         <v>2</v>
       </c>
-      <c r="AY54" s="13">
-        <v>1</v>
-      </c>
       <c r="AZ54" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BA54" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BB54" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="55" spans="2:54" x14ac:dyDescent="0.3">
@@ -7777,8 +7777,8 @@
       <c r="S55" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T55" s="11" t="s">
-        <v>58</v>
+      <c r="T55" s="11">
+        <v>0</v>
       </c>
       <c r="U55" s="11">
         <v>0</v>
@@ -7804,8 +7804,8 @@
       <c r="AB55" s="11">
         <v>0</v>
       </c>
-      <c r="AC55" s="11">
-        <v>0</v>
+      <c r="AC55" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD55" s="11" t="s">
         <v>58</v>
@@ -7936,8 +7936,8 @@
       <c r="S56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T56" s="13" t="s">
-        <v>58</v>
+      <c r="T56" s="13">
+        <v>0</v>
       </c>
       <c r="U56" s="13">
         <v>0</v>
@@ -7966,14 +7966,14 @@
       <c r="AC56" s="13">
         <v>0</v>
       </c>
-      <c r="AD56" s="13">
-        <v>0</v>
-      </c>
-      <c r="AE56" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AF56" s="13">
-        <v>0</v>
+      <c r="AD56" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE56" s="13">
+        <v>0</v>
+      </c>
+      <c r="AF56" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AG56" s="13" t="s">
         <v>58</v>
@@ -7996,35 +7996,35 @@
       <c r="AM56" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AN56" s="13" t="s">
-        <v>58</v>
+      <c r="AN56" s="13">
+        <v>0</v>
       </c>
       <c r="AO56" s="13">
         <v>0</v>
       </c>
       <c r="AP56" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AQ56" s="13">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AR56" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AS56" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT56" s="13">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="AU56" s="13">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="AV56" s="13">
         <v>2</v>
       </c>
       <c r="AW56" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AX56" s="13">
         <v>0</v>
@@ -8038,8 +8038,8 @@
       <c r="BA56" s="13">
         <v>0</v>
       </c>
-      <c r="BB56" s="13">
-        <v>0</v>
+      <c r="BB56" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="57" spans="2:54" x14ac:dyDescent="0.3">
@@ -8094,109 +8094,109 @@
         <v>0</v>
       </c>
       <c r="T57" s="15">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="U57" s="15">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="V57" s="15">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="W57" s="15">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="X57" s="15">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="Y57" s="15">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="Z57" s="15">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AA57" s="15">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AB57" s="15">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AC57" s="15">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AD57" s="15">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AE57" s="15">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AF57" s="15">
-        <v>4736</v>
+        <v>4157</v>
       </c>
       <c r="AG57" s="15">
-        <v>4157</v>
+        <v>3805</v>
       </c>
       <c r="AH57" s="15">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AI57" s="15">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AJ57" s="15">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AK57" s="15">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AL57" s="15">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AM57" s="15">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AN57" s="15">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AO57" s="15">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AP57" s="15">
-        <v>3929</v>
+        <v>4653</v>
       </c>
       <c r="AQ57" s="15">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AR57" s="15">
-        <v>3514</v>
+        <v>3314</v>
       </c>
       <c r="AS57" s="15">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AT57" s="15">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AU57" s="15">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="AV57" s="15">
-        <v>3982</v>
+        <v>4177</v>
       </c>
       <c r="AW57" s="15">
-        <v>4177</v>
+        <v>4289</v>
       </c>
       <c r="AX57" s="15">
-        <v>4289</v>
+        <v>3798</v>
       </c>
       <c r="AY57" s="15">
-        <v>3798</v>
+        <v>4071</v>
       </c>
       <c r="AZ57" s="15">
-        <v>4071</v>
+        <v>4135</v>
       </c>
       <c r="BA57" s="15">
-        <v>4135</v>
+        <v>4439</v>
       </c>
       <c r="BB57" s="15">
-        <v>4439</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="58" spans="2:54" x14ac:dyDescent="0.3">
@@ -8378,8 +8378,8 @@
       <c r="AP59" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ59" s="11" t="s">
-        <v>58</v>
+      <c r="AQ59" s="11">
+        <v>0</v>
       </c>
       <c r="AR59" s="11">
         <v>0</v>
@@ -8537,8 +8537,8 @@
       <c r="AP60" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ60" s="13" t="s">
-        <v>58</v>
+      <c r="AQ60" s="13">
+        <v>0</v>
       </c>
       <c r="AR60" s="13">
         <v>0</v>
@@ -8553,10 +8553,10 @@
         <v>0</v>
       </c>
       <c r="AV60" s="13">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW60" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="AX60" s="13">
         <v>0</v>
@@ -8696,8 +8696,8 @@
       <c r="AP61" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ61" s="11" t="s">
-        <v>58</v>
+      <c r="AQ61" s="11">
+        <v>0</v>
       </c>
       <c r="AR61" s="11">
         <v>0</v>
@@ -8855,8 +8855,8 @@
       <c r="AP62" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ62" s="13" t="s">
-        <v>58</v>
+      <c r="AQ62" s="13">
+        <v>0</v>
       </c>
       <c r="AR62" s="13">
         <v>0</v>
@@ -8871,10 +8871,10 @@
         <v>0</v>
       </c>
       <c r="AV62" s="13">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="AW62" s="13">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="AX62" s="13">
         <v>0</v>
@@ -8981,12 +8981,12 @@
       <c r="AE63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG63" s="11">
+      <c r="AF63" s="11">
         <v>50</v>
       </c>
+      <c r="AG63" s="11" t="s">
+        <v>58</v>
+      </c>
       <c r="AH63" s="11" t="s">
         <v>58</v>
       </c>
@@ -9005,11 +9005,11 @@
       <c r="AM63" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AN63" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AO63" s="11">
-        <v>0</v>
+      <c r="AN63" s="11">
+        <v>0</v>
+      </c>
+      <c r="AO63" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP63" s="11" t="s">
         <v>58</v>
@@ -9173,8 +9173,8 @@
       <c r="AP64" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ64" s="13" t="s">
-        <v>58</v>
+      <c r="AQ64" s="13">
+        <v>0</v>
       </c>
       <c r="AR64" s="13">
         <v>0</v>
@@ -9189,10 +9189,10 @@
         <v>0</v>
       </c>
       <c r="AV64" s="13">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AW64" s="13">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AX64" s="13">
         <v>0</v>
@@ -9298,10 +9298,10 @@
         <v>0</v>
       </c>
       <c r="AF65" s="15">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AG65" s="15">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="AH65" s="15">
         <v>0</v>
@@ -9346,10 +9346,10 @@
         <v>0</v>
       </c>
       <c r="AV65" s="15">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="AW65" s="15">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="AX65" s="15">
         <v>0</v>
@@ -9475,8 +9475,8 @@
       <c r="S67" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T67" s="15" t="s">
-        <v>58</v>
+      <c r="T67" s="15">
+        <v>0</v>
       </c>
       <c r="U67" s="15">
         <v>0</v>
@@ -9689,8 +9689,8 @@
       <c r="S69" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T69" s="15" t="s">
-        <v>58</v>
+      <c r="T69" s="15">
+        <v>0</v>
       </c>
       <c r="U69" s="15">
         <v>0</v>
@@ -9847,109 +9847,109 @@
         <v>0</v>
       </c>
       <c r="T70" s="19">
-        <v>0</v>
+        <v>3813</v>
       </c>
       <c r="U70" s="19">
-        <v>3813</v>
+        <v>4168</v>
       </c>
       <c r="V70" s="19">
-        <v>4168</v>
+        <v>4504</v>
       </c>
       <c r="W70" s="19">
-        <v>4504</v>
+        <v>4468</v>
       </c>
       <c r="X70" s="19">
-        <v>4468</v>
+        <v>4083</v>
       </c>
       <c r="Y70" s="19">
-        <v>4083</v>
+        <v>4066</v>
       </c>
       <c r="Z70" s="19">
-        <v>4066</v>
+        <v>4336</v>
       </c>
       <c r="AA70" s="19">
-        <v>4336</v>
+        <v>3960</v>
       </c>
       <c r="AB70" s="19">
-        <v>3960</v>
+        <v>4519</v>
       </c>
       <c r="AC70" s="19">
-        <v>4519</v>
+        <v>3923</v>
       </c>
       <c r="AD70" s="19">
-        <v>3923</v>
+        <v>3828</v>
       </c>
       <c r="AE70" s="19">
-        <v>3828</v>
+        <v>4736</v>
       </c>
       <c r="AF70" s="19">
-        <v>4736</v>
+        <v>4207</v>
       </c>
       <c r="AG70" s="19">
-        <v>4207</v>
+        <v>3805</v>
       </c>
       <c r="AH70" s="19">
-        <v>3805</v>
+        <v>4318</v>
       </c>
       <c r="AI70" s="19">
-        <v>4318</v>
+        <v>3150</v>
       </c>
       <c r="AJ70" s="19">
-        <v>3150</v>
+        <v>3554</v>
       </c>
       <c r="AK70" s="19">
-        <v>3554</v>
+        <v>3482</v>
       </c>
       <c r="AL70" s="19">
-        <v>3482</v>
+        <v>3257</v>
       </c>
       <c r="AM70" s="19">
-        <v>3257</v>
+        <v>3615</v>
       </c>
       <c r="AN70" s="19">
-        <v>3615</v>
+        <v>4311</v>
       </c>
       <c r="AO70" s="19">
-        <v>4311</v>
+        <v>3929</v>
       </c>
       <c r="AP70" s="19">
-        <v>3929</v>
+        <v>4653</v>
       </c>
       <c r="AQ70" s="19">
-        <v>4653</v>
+        <v>3514</v>
       </c>
       <c r="AR70" s="19">
-        <v>3514</v>
+        <v>3314</v>
       </c>
       <c r="AS70" s="19">
-        <v>3314</v>
+        <v>3666</v>
       </c>
       <c r="AT70" s="19">
-        <v>3666</v>
+        <v>4052</v>
       </c>
       <c r="AU70" s="19">
-        <v>4052</v>
+        <v>3982</v>
       </c>
       <c r="AV70" s="19">
-        <v>3982</v>
+        <v>4267</v>
       </c>
       <c r="AW70" s="19">
-        <v>4267</v>
+        <v>4289</v>
       </c>
       <c r="AX70" s="19">
-        <v>4289</v>
+        <v>3798</v>
       </c>
       <c r="AY70" s="19">
-        <v>3798</v>
+        <v>4071</v>
       </c>
       <c r="AZ70" s="19">
-        <v>4071</v>
+        <v>4135</v>
       </c>
       <c r="BA70" s="19">
-        <v>4135</v>
+        <v>4439</v>
       </c>
       <c r="BB70" s="19">
-        <v>4439</v>
+        <v>4809</v>
       </c>
     </row>
     <row r="71" spans="2:54" x14ac:dyDescent="0.3">
@@ -10439,71 +10439,71 @@
       <c r="S77" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T77" s="11" t="s">
-        <v>58</v>
+      <c r="T77" s="11">
+        <v>141</v>
       </c>
       <c r="U77" s="11">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="V77" s="11">
-        <v>153</v>
+        <v>4666</v>
       </c>
       <c r="W77" s="11">
-        <v>4666</v>
+        <v>2945</v>
       </c>
       <c r="X77" s="11">
-        <v>2945</v>
+        <v>3224</v>
       </c>
       <c r="Y77" s="11">
-        <v>3224</v>
+        <v>739</v>
       </c>
       <c r="Z77" s="11">
+        <v>3574</v>
+      </c>
+      <c r="AA77" s="11">
         <v>739</v>
       </c>
-      <c r="AA77" s="11">
-        <v>3574</v>
-      </c>
       <c r="AB77" s="11">
-        <v>739</v>
+        <v>4359</v>
       </c>
       <c r="AC77" s="11">
-        <v>4359</v>
+        <v>4448</v>
       </c>
       <c r="AD77" s="11">
-        <v>4448</v>
+        <v>420</v>
       </c>
       <c r="AE77" s="11">
-        <v>420</v>
+        <v>956</v>
       </c>
       <c r="AF77" s="11">
-        <v>956</v>
+        <v>891</v>
       </c>
       <c r="AG77" s="11">
-        <v>891</v>
+        <v>3778</v>
       </c>
       <c r="AH77" s="11">
-        <v>3778</v>
+        <v>344</v>
       </c>
       <c r="AI77" s="11">
-        <v>344</v>
+        <v>6469</v>
       </c>
       <c r="AJ77" s="11">
-        <v>6469</v>
+        <v>11636</v>
       </c>
       <c r="AK77" s="11">
-        <v>11636</v>
+        <v>2355</v>
       </c>
       <c r="AL77" s="11">
-        <v>2355</v>
+        <v>196</v>
       </c>
       <c r="AM77" s="11">
-        <v>196</v>
+        <v>225</v>
       </c>
       <c r="AN77" s="11">
-        <v>225</v>
-      </c>
-      <c r="AO77" s="11">
         <v>1920</v>
+      </c>
+      <c r="AO77" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP77" s="11" t="s">
         <v>58</v>
@@ -10598,110 +10598,110 @@
       <c r="S78" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T78" s="13" t="s">
-        <v>58</v>
+      <c r="T78" s="13">
+        <v>33577</v>
       </c>
       <c r="U78" s="13">
-        <v>33577</v>
+        <v>33021</v>
       </c>
       <c r="V78" s="13">
-        <v>33021</v>
+        <v>45868</v>
       </c>
       <c r="W78" s="13">
-        <v>45868</v>
+        <v>30109</v>
       </c>
       <c r="X78" s="13">
-        <v>30109</v>
+        <v>40334</v>
       </c>
       <c r="Y78" s="13">
-        <v>40334</v>
+        <v>54142</v>
       </c>
       <c r="Z78" s="13">
-        <v>54142</v>
+        <v>40348</v>
       </c>
       <c r="AA78" s="13">
-        <v>40348</v>
+        <v>48320</v>
       </c>
       <c r="AB78" s="13">
-        <v>48320</v>
+        <v>66856</v>
       </c>
       <c r="AC78" s="13">
-        <v>66856</v>
+        <v>52895</v>
       </c>
       <c r="AD78" s="13">
-        <v>52895</v>
+        <v>50312</v>
       </c>
       <c r="AE78" s="13">
-        <v>50312</v>
+        <v>67400</v>
       </c>
       <c r="AF78" s="13">
-        <v>67400</v>
+        <v>58311</v>
       </c>
       <c r="AG78" s="13">
-        <v>58311</v>
+        <v>47189</v>
       </c>
       <c r="AH78" s="13">
-        <v>47189</v>
+        <v>63067</v>
       </c>
       <c r="AI78" s="13">
-        <v>63067</v>
+        <v>45822</v>
       </c>
       <c r="AJ78" s="13">
-        <v>45822</v>
+        <v>47551</v>
       </c>
       <c r="AK78" s="13">
-        <v>47551</v>
+        <v>43803</v>
       </c>
       <c r="AL78" s="13">
-        <v>43803</v>
+        <v>46977</v>
       </c>
       <c r="AM78" s="13">
-        <v>46977</v>
+        <v>49678</v>
       </c>
       <c r="AN78" s="13">
-        <v>49678</v>
+        <v>51295</v>
       </c>
       <c r="AO78" s="13">
-        <v>51295</v>
+        <v>73841</v>
       </c>
       <c r="AP78" s="13">
-        <v>73841</v>
+        <v>63725</v>
       </c>
       <c r="AQ78" s="13">
-        <v>63725</v>
+        <v>108445</v>
       </c>
       <c r="AR78" s="13">
-        <v>108445</v>
+        <v>110461</v>
       </c>
       <c r="AS78" s="13">
-        <v>110461</v>
+        <v>93180</v>
       </c>
       <c r="AT78" s="13">
-        <v>93180</v>
+        <v>90768</v>
       </c>
       <c r="AU78" s="13">
-        <v>90768</v>
+        <v>76701</v>
       </c>
       <c r="AV78" s="13">
-        <v>76701</v>
+        <v>83710</v>
       </c>
       <c r="AW78" s="13">
-        <v>83710</v>
+        <v>77860</v>
       </c>
       <c r="AX78" s="13">
-        <v>77860</v>
+        <v>74750</v>
       </c>
       <c r="AY78" s="13">
-        <v>74750</v>
+        <v>97769</v>
       </c>
       <c r="AZ78" s="13">
-        <v>97769</v>
+        <v>111656</v>
       </c>
       <c r="BA78" s="13">
-        <v>111656</v>
+        <v>116931</v>
       </c>
       <c r="BB78" s="13">
-        <v>116931</v>
+        <v>126526</v>
       </c>
     </row>
     <row r="79" spans="2:54" x14ac:dyDescent="0.3">
@@ -10757,110 +10757,110 @@
       <c r="S79" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T79" s="11" t="s">
-        <v>58</v>
+      <c r="T79" s="11">
+        <v>9075</v>
       </c>
       <c r="U79" s="11">
-        <v>9075</v>
+        <v>10926</v>
       </c>
       <c r="V79" s="11">
-        <v>10926</v>
+        <v>9551</v>
       </c>
       <c r="W79" s="11">
-        <v>9551</v>
+        <v>7811</v>
       </c>
       <c r="X79" s="11">
-        <v>7811</v>
+        <v>9678</v>
       </c>
       <c r="Y79" s="11">
-        <v>9678</v>
+        <v>10379</v>
       </c>
       <c r="Z79" s="11">
-        <v>10379</v>
+        <v>10859</v>
       </c>
       <c r="AA79" s="11">
-        <v>10859</v>
+        <v>12889</v>
       </c>
       <c r="AB79" s="11">
-        <v>12889</v>
+        <v>16142</v>
       </c>
       <c r="AC79" s="11">
-        <v>16142</v>
+        <v>22277</v>
       </c>
       <c r="AD79" s="11">
-        <v>22277</v>
+        <v>13148</v>
       </c>
       <c r="AE79" s="11">
-        <v>13148</v>
+        <v>24589</v>
       </c>
       <c r="AF79" s="11">
-        <v>24589</v>
+        <v>24884</v>
       </c>
       <c r="AG79" s="11">
-        <v>24884</v>
+        <v>21161</v>
       </c>
       <c r="AH79" s="11">
-        <v>21161</v>
+        <v>24324</v>
       </c>
       <c r="AI79" s="11">
-        <v>24324</v>
+        <v>17175</v>
       </c>
       <c r="AJ79" s="11">
-        <v>17175</v>
+        <v>16358</v>
       </c>
       <c r="AK79" s="11">
-        <v>16358</v>
+        <v>15108</v>
       </c>
       <c r="AL79" s="11">
-        <v>15108</v>
+        <v>18276</v>
       </c>
       <c r="AM79" s="11">
-        <v>18276</v>
+        <v>18629</v>
       </c>
       <c r="AN79" s="11">
-        <v>18629</v>
+        <v>21934</v>
       </c>
       <c r="AO79" s="11">
-        <v>21934</v>
+        <v>20943</v>
       </c>
       <c r="AP79" s="11">
-        <v>20943</v>
+        <v>20054</v>
       </c>
       <c r="AQ79" s="11">
-        <v>20054</v>
+        <v>35120</v>
       </c>
       <c r="AR79" s="11">
-        <v>35120</v>
+        <v>40801</v>
       </c>
       <c r="AS79" s="11">
-        <v>40801</v>
+        <v>36240</v>
       </c>
       <c r="AT79" s="11">
         <v>36240</v>
       </c>
       <c r="AU79" s="11">
-        <v>36240</v>
+        <v>25758</v>
       </c>
       <c r="AV79" s="11">
-        <v>25758</v>
+        <v>21718</v>
       </c>
       <c r="AW79" s="11">
-        <v>21718</v>
+        <v>27257</v>
       </c>
       <c r="AX79" s="11">
-        <v>27257</v>
+        <v>13808</v>
       </c>
       <c r="AY79" s="11">
-        <v>13808</v>
+        <v>28775</v>
       </c>
       <c r="AZ79" s="11">
-        <v>28775</v>
+        <v>31698</v>
       </c>
       <c r="BA79" s="11">
-        <v>31698</v>
+        <v>33229</v>
       </c>
       <c r="BB79" s="11">
-        <v>33229</v>
+        <v>43352</v>
       </c>
     </row>
     <row r="80" spans="2:54" x14ac:dyDescent="0.3">
@@ -10916,71 +10916,71 @@
       <c r="S80" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T80" s="13" t="s">
-        <v>58</v>
+      <c r="T80" s="13">
+        <v>39</v>
       </c>
       <c r="U80" s="13">
-        <v>39</v>
+        <v>218</v>
       </c>
       <c r="V80" s="13">
-        <v>218</v>
+        <v>0</v>
       </c>
       <c r="W80" s="13">
-        <v>0</v>
+        <v>216</v>
       </c>
       <c r="X80" s="13">
-        <v>216</v>
+        <v>336</v>
       </c>
       <c r="Y80" s="13">
-        <v>336</v>
+        <v>431</v>
       </c>
       <c r="Z80" s="13">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="AA80" s="13">
-        <v>478</v>
+        <v>402</v>
       </c>
       <c r="AB80" s="13">
-        <v>402</v>
+        <v>505</v>
       </c>
       <c r="AC80" s="13">
-        <v>505</v>
+        <v>721</v>
       </c>
       <c r="AD80" s="13">
-        <v>721</v>
+        <v>567</v>
       </c>
       <c r="AE80" s="13">
-        <v>567</v>
+        <v>535</v>
       </c>
       <c r="AF80" s="13">
-        <v>535</v>
+        <v>202</v>
       </c>
       <c r="AG80" s="13">
-        <v>202</v>
+        <v>265</v>
       </c>
       <c r="AH80" s="13">
-        <v>265</v>
+        <v>864</v>
       </c>
       <c r="AI80" s="13">
-        <v>864</v>
+        <v>879</v>
       </c>
       <c r="AJ80" s="13">
-        <v>879</v>
+        <v>1215</v>
       </c>
       <c r="AK80" s="13">
-        <v>1215</v>
+        <v>477</v>
       </c>
       <c r="AL80" s="13">
-        <v>477</v>
+        <v>904</v>
       </c>
       <c r="AM80" s="13">
-        <v>904</v>
+        <v>703</v>
       </c>
       <c r="AN80" s="13">
-        <v>703</v>
-      </c>
-      <c r="AO80" s="13">
         <v>824</v>
+      </c>
+      <c r="AO80" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP80" s="13" t="s">
         <v>58</v>
@@ -11075,110 +11075,110 @@
       <c r="S81" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T81" s="11" t="s">
-        <v>58</v>
+      <c r="T81" s="11">
+        <v>24627</v>
       </c>
       <c r="U81" s="11">
-        <v>24627</v>
+        <v>37055</v>
       </c>
       <c r="V81" s="11">
-        <v>37055</v>
+        <v>34779</v>
       </c>
       <c r="W81" s="11">
-        <v>34779</v>
+        <v>41840</v>
       </c>
       <c r="X81" s="11">
-        <v>41840</v>
+        <v>33427</v>
       </c>
       <c r="Y81" s="11">
-        <v>33427</v>
+        <v>37567</v>
       </c>
       <c r="Z81" s="11">
-        <v>37567</v>
+        <v>47276</v>
       </c>
       <c r="AA81" s="11">
-        <v>47276</v>
+        <v>37896</v>
       </c>
       <c r="AB81" s="11">
-        <v>37896</v>
+        <v>46347</v>
       </c>
       <c r="AC81" s="11">
-        <v>46347</v>
+        <v>49890</v>
       </c>
       <c r="AD81" s="11">
-        <v>49890</v>
+        <v>48734</v>
       </c>
       <c r="AE81" s="11">
-        <v>48734</v>
+        <v>68737</v>
       </c>
       <c r="AF81" s="11">
-        <v>68737</v>
+        <v>43252</v>
       </c>
       <c r="AG81" s="11">
-        <v>43252</v>
+        <v>55990</v>
       </c>
       <c r="AH81" s="11">
-        <v>55990</v>
+        <v>67161</v>
       </c>
       <c r="AI81" s="11">
-        <v>67161</v>
+        <v>63306</v>
       </c>
       <c r="AJ81" s="11">
-        <v>63306</v>
+        <v>76204</v>
       </c>
       <c r="AK81" s="11">
-        <v>76204</v>
+        <v>76167</v>
       </c>
       <c r="AL81" s="11">
-        <v>76167</v>
+        <v>71495</v>
       </c>
       <c r="AM81" s="11">
-        <v>71495</v>
+        <v>50828</v>
       </c>
       <c r="AN81" s="11">
-        <v>50828</v>
+        <v>72619</v>
       </c>
       <c r="AO81" s="11">
-        <v>72619</v>
+        <v>71151</v>
       </c>
       <c r="AP81" s="11">
-        <v>71151</v>
+        <v>121782</v>
       </c>
       <c r="AQ81" s="11">
-        <v>121782</v>
+        <v>138713</v>
       </c>
       <c r="AR81" s="11">
-        <v>138713</v>
+        <v>202016</v>
       </c>
       <c r="AS81" s="11">
-        <v>202016</v>
+        <v>151357</v>
       </c>
       <c r="AT81" s="11">
-        <v>151357</v>
+        <v>147539</v>
       </c>
       <c r="AU81" s="11">
-        <v>147539</v>
+        <v>170501</v>
       </c>
       <c r="AV81" s="11">
-        <v>170501</v>
+        <v>216762</v>
       </c>
       <c r="AW81" s="11">
-        <v>216762</v>
+        <v>214925</v>
       </c>
       <c r="AX81" s="11">
-        <v>214925</v>
+        <v>166331</v>
       </c>
       <c r="AY81" s="11">
-        <v>166331</v>
+        <v>157839</v>
       </c>
       <c r="AZ81" s="11">
-        <v>157839</v>
+        <v>245782</v>
       </c>
       <c r="BA81" s="11">
-        <v>245782</v>
+        <v>223203</v>
       </c>
       <c r="BB81" s="11">
-        <v>223203</v>
+        <v>196843</v>
       </c>
     </row>
     <row r="82" spans="2:54" x14ac:dyDescent="0.3">
@@ -11234,110 +11234,110 @@
       <c r="S82" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T82" s="13" t="s">
-        <v>58</v>
+      <c r="T82" s="13">
+        <v>38307</v>
       </c>
       <c r="U82" s="13">
-        <v>38307</v>
+        <v>37471</v>
       </c>
       <c r="V82" s="13">
-        <v>37471</v>
+        <v>55370</v>
       </c>
       <c r="W82" s="13">
-        <v>55370</v>
+        <v>59039</v>
       </c>
       <c r="X82" s="13">
-        <v>59039</v>
+        <v>50295</v>
       </c>
       <c r="Y82" s="13">
-        <v>50295</v>
+        <v>56922</v>
       </c>
       <c r="Z82" s="13">
-        <v>56922</v>
+        <v>57615</v>
       </c>
       <c r="AA82" s="13">
-        <v>57615</v>
+        <v>30607</v>
       </c>
       <c r="AB82" s="13">
-        <v>30607</v>
+        <v>79793</v>
       </c>
       <c r="AC82" s="13">
-        <v>79793</v>
+        <v>17013</v>
       </c>
       <c r="AD82" s="13">
-        <v>17013</v>
+        <v>12987</v>
       </c>
       <c r="AE82" s="13">
-        <v>12987</v>
+        <v>84770</v>
       </c>
       <c r="AF82" s="13">
-        <v>84770</v>
+        <v>44707</v>
       </c>
       <c r="AG82" s="13">
-        <v>44707</v>
+        <v>28783</v>
       </c>
       <c r="AH82" s="13">
-        <v>28783</v>
+        <v>74114</v>
       </c>
       <c r="AI82" s="13">
-        <v>74114</v>
+        <v>45184</v>
       </c>
       <c r="AJ82" s="13">
-        <v>45184</v>
+        <v>81905</v>
       </c>
       <c r="AK82" s="13">
-        <v>81905</v>
+        <v>28089</v>
       </c>
       <c r="AL82" s="13">
-        <v>28089</v>
+        <v>33289</v>
       </c>
       <c r="AM82" s="13">
-        <v>33289</v>
+        <v>51522</v>
       </c>
       <c r="AN82" s="13">
-        <v>51522</v>
+        <v>117406</v>
       </c>
       <c r="AO82" s="13">
-        <v>117406</v>
+        <v>32095</v>
       </c>
       <c r="AP82" s="13">
-        <v>32095</v>
+        <v>110993</v>
       </c>
       <c r="AQ82" s="13">
-        <v>110993</v>
+        <v>79684</v>
       </c>
       <c r="AR82" s="13">
-        <v>79684</v>
+        <v>49003</v>
       </c>
       <c r="AS82" s="13">
-        <v>49003</v>
+        <v>64779</v>
       </c>
       <c r="AT82" s="13">
-        <v>64779</v>
+        <v>57588</v>
       </c>
       <c r="AU82" s="13">
-        <v>57588</v>
+        <v>91868</v>
       </c>
       <c r="AV82" s="13">
-        <v>91868</v>
+        <v>66615</v>
       </c>
       <c r="AW82" s="13">
-        <v>66615</v>
+        <v>83955</v>
       </c>
       <c r="AX82" s="13">
-        <v>83955</v>
+        <v>111426</v>
       </c>
       <c r="AY82" s="13">
-        <v>111426</v>
+        <v>136468</v>
       </c>
       <c r="AZ82" s="13">
-        <v>136468</v>
+        <v>41049</v>
       </c>
       <c r="BA82" s="13">
-        <v>41049</v>
+        <v>123582</v>
       </c>
       <c r="BB82" s="13">
-        <v>123582</v>
+        <v>67958</v>
       </c>
     </row>
     <row r="83" spans="2:54" x14ac:dyDescent="0.3">
@@ -11393,110 +11393,110 @@
       <c r="S83" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T83" s="11" t="s">
-        <v>58</v>
+      <c r="T83" s="11">
+        <v>100984</v>
       </c>
       <c r="U83" s="11">
-        <v>100984</v>
+        <v>102850</v>
       </c>
       <c r="V83" s="11">
-        <v>102850</v>
+        <v>131424</v>
       </c>
       <c r="W83" s="11">
-        <v>131424</v>
+        <v>146082</v>
       </c>
       <c r="X83" s="11">
-        <v>146082</v>
+        <v>126195</v>
       </c>
       <c r="Y83" s="11">
-        <v>126195</v>
+        <v>162057</v>
       </c>
       <c r="Z83" s="11">
-        <v>162057</v>
+        <v>177733</v>
       </c>
       <c r="AA83" s="11">
-        <v>177733</v>
+        <v>125838</v>
       </c>
       <c r="AB83" s="11">
-        <v>125838</v>
+        <v>159560</v>
       </c>
       <c r="AC83" s="11">
-        <v>159560</v>
+        <v>114731</v>
       </c>
       <c r="AD83" s="11">
-        <v>114731</v>
+        <v>135352</v>
       </c>
       <c r="AE83" s="11">
-        <v>135352</v>
+        <v>160172</v>
       </c>
       <c r="AF83" s="11">
-        <v>160172</v>
+        <v>145295</v>
       </c>
       <c r="AG83" s="11">
-        <v>145295</v>
+        <v>136747</v>
       </c>
       <c r="AH83" s="11">
-        <v>136747</v>
+        <v>193281</v>
       </c>
       <c r="AI83" s="11">
-        <v>193281</v>
+        <v>192450</v>
       </c>
       <c r="AJ83" s="11">
-        <v>192450</v>
+        <v>207159</v>
       </c>
       <c r="AK83" s="11">
-        <v>207159</v>
+        <v>204606</v>
       </c>
       <c r="AL83" s="11">
-        <v>204606</v>
+        <v>190205</v>
       </c>
       <c r="AM83" s="11">
-        <v>190205</v>
+        <v>212832</v>
       </c>
       <c r="AN83" s="11">
-        <v>212832</v>
+        <v>212367</v>
       </c>
       <c r="AO83" s="11">
-        <v>212367</v>
+        <v>184328</v>
       </c>
       <c r="AP83" s="11">
-        <v>184328</v>
+        <v>263662</v>
       </c>
       <c r="AQ83" s="11">
-        <v>263662</v>
+        <v>321224</v>
       </c>
       <c r="AR83" s="11">
-        <v>321224</v>
+        <v>276161</v>
       </c>
       <c r="AS83" s="11">
-        <v>276161</v>
+        <v>340405</v>
       </c>
       <c r="AT83" s="11">
-        <v>340405</v>
+        <v>404134</v>
       </c>
       <c r="AU83" s="11">
-        <v>404134</v>
+        <v>353170</v>
       </c>
       <c r="AV83" s="11">
-        <v>353170</v>
+        <v>412526</v>
       </c>
       <c r="AW83" s="11">
-        <v>412526</v>
+        <v>427258</v>
       </c>
       <c r="AX83" s="11">
-        <v>427258</v>
+        <v>383447</v>
       </c>
       <c r="AY83" s="11">
-        <v>383447</v>
+        <v>395386</v>
       </c>
       <c r="AZ83" s="11">
-        <v>395386</v>
+        <v>331850</v>
       </c>
       <c r="BA83" s="11">
-        <v>331850</v>
+        <v>379377</v>
       </c>
       <c r="BB83" s="11">
-        <v>379377</v>
+        <v>409658</v>
       </c>
     </row>
     <row r="84" spans="2:54" x14ac:dyDescent="0.3">
@@ -11615,47 +11615,47 @@
       <c r="AN84" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO84" s="13" t="s">
-        <v>58</v>
+      <c r="AO84" s="13">
+        <v>338191</v>
       </c>
       <c r="AP84" s="13">
-        <v>338191</v>
+        <v>44114</v>
       </c>
       <c r="AQ84" s="13">
-        <v>44114</v>
+        <v>43733</v>
       </c>
       <c r="AR84" s="13">
-        <v>43733</v>
+        <v>211580</v>
       </c>
       <c r="AS84" s="13">
-        <v>211580</v>
+        <v>77449</v>
       </c>
       <c r="AT84" s="13">
-        <v>77449</v>
+        <v>254832</v>
       </c>
       <c r="AU84" s="13">
-        <v>254832</v>
+        <v>262156</v>
       </c>
       <c r="AV84" s="13">
-        <v>262156</v>
+        <v>173951</v>
       </c>
       <c r="AW84" s="13">
-        <v>173951</v>
+        <v>366752</v>
       </c>
       <c r="AX84" s="13">
-        <v>366752</v>
+        <v>221813</v>
       </c>
       <c r="AY84" s="13">
-        <v>221813</v>
+        <v>144272</v>
       </c>
       <c r="AZ84" s="13">
-        <v>144272</v>
+        <v>376459</v>
       </c>
       <c r="BA84" s="13">
-        <v>376459</v>
+        <v>282508</v>
       </c>
       <c r="BB84" s="13">
-        <v>282508</v>
+        <v>638956</v>
       </c>
     </row>
     <row r="85" spans="2:54" x14ac:dyDescent="0.3">
@@ -11711,71 +11711,71 @@
       <c r="S85" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T85" s="11" t="s">
-        <v>58</v>
+      <c r="T85" s="11">
+        <v>27560</v>
       </c>
       <c r="U85" s="11">
-        <v>27560</v>
+        <v>176269</v>
       </c>
       <c r="V85" s="11">
-        <v>176269</v>
+        <v>74352</v>
       </c>
       <c r="W85" s="11">
-        <v>74352</v>
+        <v>101452</v>
       </c>
       <c r="X85" s="11">
-        <v>101452</v>
+        <v>18225</v>
       </c>
       <c r="Y85" s="11">
-        <v>18225</v>
+        <v>872</v>
       </c>
       <c r="Z85" s="11">
-        <v>872</v>
+        <v>129178</v>
       </c>
       <c r="AA85" s="11">
-        <v>129178</v>
+        <v>98442</v>
       </c>
       <c r="AB85" s="11">
-        <v>98442</v>
+        <v>74991</v>
       </c>
       <c r="AC85" s="11">
-        <v>74991</v>
+        <v>110063</v>
       </c>
       <c r="AD85" s="11">
-        <v>110063</v>
+        <v>111396</v>
       </c>
       <c r="AE85" s="11">
-        <v>111396</v>
+        <v>40145</v>
       </c>
       <c r="AF85" s="11">
-        <v>40145</v>
+        <v>2343</v>
       </c>
       <c r="AG85" s="11">
-        <v>2343</v>
+        <v>98103</v>
       </c>
       <c r="AH85" s="11">
-        <v>98103</v>
+        <v>228663</v>
       </c>
       <c r="AI85" s="11">
-        <v>228663</v>
+        <v>2505</v>
       </c>
       <c r="AJ85" s="11">
-        <v>2505</v>
+        <v>2760</v>
       </c>
       <c r="AK85" s="11">
-        <v>2760</v>
+        <v>35100</v>
       </c>
       <c r="AL85" s="11">
-        <v>35100</v>
+        <v>14850</v>
       </c>
       <c r="AM85" s="11">
-        <v>14850</v>
+        <v>56160</v>
       </c>
       <c r="AN85" s="11">
-        <v>56160</v>
-      </c>
-      <c r="AO85" s="11">
         <v>218400</v>
+      </c>
+      <c r="AO85" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP85" s="11" t="s">
         <v>58</v>
@@ -11870,71 +11870,71 @@
       <c r="S86" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T86" s="13" t="s">
-        <v>58</v>
+      <c r="T86" s="13">
+        <v>13409</v>
       </c>
       <c r="U86" s="13">
-        <v>13409</v>
+        <v>927</v>
       </c>
       <c r="V86" s="13">
-        <v>927</v>
+        <v>10466</v>
       </c>
       <c r="W86" s="13">
-        <v>10466</v>
+        <v>3069</v>
       </c>
       <c r="X86" s="13">
-        <v>3069</v>
+        <v>3324</v>
       </c>
       <c r="Y86" s="13">
-        <v>3324</v>
+        <v>16965</v>
       </c>
       <c r="Z86" s="13">
-        <v>16965</v>
+        <v>1388</v>
       </c>
       <c r="AA86" s="13">
-        <v>1388</v>
+        <v>552</v>
       </c>
       <c r="AB86" s="13">
-        <v>552</v>
+        <v>14436</v>
       </c>
       <c r="AC86" s="13">
-        <v>14436</v>
+        <v>4866</v>
       </c>
       <c r="AD86" s="13">
-        <v>4866</v>
+        <v>7207</v>
       </c>
       <c r="AE86" s="13">
-        <v>7207</v>
+        <v>22690</v>
       </c>
       <c r="AF86" s="13">
-        <v>22690</v>
+        <v>8143</v>
       </c>
       <c r="AG86" s="13">
-        <v>8143</v>
+        <v>7202</v>
       </c>
       <c r="AH86" s="13">
-        <v>7202</v>
+        <v>6256</v>
       </c>
       <c r="AI86" s="13">
-        <v>6256</v>
+        <v>5873</v>
       </c>
       <c r="AJ86" s="13">
-        <v>5873</v>
+        <v>6532</v>
       </c>
       <c r="AK86" s="13">
-        <v>6532</v>
+        <v>7311</v>
       </c>
       <c r="AL86" s="13">
-        <v>7311</v>
+        <v>5427</v>
       </c>
       <c r="AM86" s="13">
-        <v>5427</v>
+        <v>7103</v>
       </c>
       <c r="AN86" s="13">
-        <v>7103</v>
-      </c>
-      <c r="AO86" s="13">
         <v>11541</v>
+      </c>
+      <c r="AO86" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP86" s="13" t="s">
         <v>58</v>
@@ -12029,110 +12029,110 @@
       <c r="S87" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T87" s="11" t="s">
-        <v>58</v>
+      <c r="T87" s="11">
+        <v>11259</v>
       </c>
       <c r="U87" s="11">
-        <v>11259</v>
+        <v>12436</v>
       </c>
       <c r="V87" s="11">
-        <v>12436</v>
+        <v>28504</v>
       </c>
       <c r="W87" s="11">
-        <v>28504</v>
+        <v>51483</v>
       </c>
       <c r="X87" s="11">
-        <v>51483</v>
+        <v>60895</v>
       </c>
       <c r="Y87" s="11">
-        <v>60895</v>
+        <v>55546</v>
       </c>
       <c r="Z87" s="11">
-        <v>55546</v>
+        <v>36075</v>
       </c>
       <c r="AA87" s="11">
-        <v>36075</v>
+        <v>48573</v>
       </c>
       <c r="AB87" s="11">
-        <v>48573</v>
+        <v>36750</v>
       </c>
       <c r="AC87" s="11">
-        <v>36750</v>
+        <v>41596</v>
       </c>
       <c r="AD87" s="11">
-        <v>41596</v>
+        <v>33379</v>
       </c>
       <c r="AE87" s="11">
-        <v>33379</v>
+        <v>50264</v>
       </c>
       <c r="AF87" s="11">
-        <v>50264</v>
+        <v>86833</v>
       </c>
       <c r="AG87" s="11">
-        <v>86833</v>
+        <v>45135</v>
       </c>
       <c r="AH87" s="11">
-        <v>45135</v>
+        <v>63370</v>
       </c>
       <c r="AI87" s="11">
-        <v>63370</v>
+        <v>65782</v>
       </c>
       <c r="AJ87" s="11">
-        <v>65782</v>
+        <v>103108</v>
       </c>
       <c r="AK87" s="11">
-        <v>103108</v>
+        <v>128441</v>
       </c>
       <c r="AL87" s="11">
-        <v>128441</v>
+        <v>50228</v>
       </c>
       <c r="AM87" s="11">
-        <v>50228</v>
+        <v>57940</v>
       </c>
       <c r="AN87" s="11">
-        <v>57940</v>
+        <v>54264</v>
       </c>
       <c r="AO87" s="11">
-        <v>54264</v>
+        <v>69509</v>
       </c>
       <c r="AP87" s="11">
-        <v>69509</v>
+        <v>531500</v>
       </c>
       <c r="AQ87" s="11">
-        <v>531500</v>
+        <v>262560</v>
       </c>
       <c r="AR87" s="11">
-        <v>262560</v>
+        <v>131888</v>
       </c>
       <c r="AS87" s="11">
-        <v>131888</v>
+        <v>523210</v>
       </c>
       <c r="AT87" s="11">
-        <v>523210</v>
+        <v>310587</v>
       </c>
       <c r="AU87" s="11">
-        <v>310587</v>
+        <v>498159</v>
       </c>
       <c r="AV87" s="11">
-        <v>498159</v>
+        <v>451621</v>
       </c>
       <c r="AW87" s="11">
-        <v>451621</v>
+        <v>236040</v>
       </c>
       <c r="AX87" s="11">
-        <v>236040</v>
+        <v>305907</v>
       </c>
       <c r="AY87" s="11">
-        <v>305907</v>
+        <v>168108</v>
       </c>
       <c r="AZ87" s="11">
-        <v>168108</v>
+        <v>521560</v>
       </c>
       <c r="BA87" s="11">
-        <v>521560</v>
+        <v>299950</v>
       </c>
       <c r="BB87" s="11">
-        <v>299950</v>
+        <v>314194</v>
       </c>
     </row>
     <row r="88" spans="2:54" x14ac:dyDescent="0.3">
@@ -12188,17 +12188,17 @@
       <c r="S88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T88" s="13" t="s">
-        <v>58</v>
+      <c r="T88" s="13">
+        <v>0</v>
       </c>
       <c r="U88" s="13">
         <v>0</v>
       </c>
       <c r="V88" s="13">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="W88" s="13">
-        <v>409</v>
+        <v>0</v>
       </c>
       <c r="X88" s="13">
         <v>0</v>
@@ -12215,23 +12215,23 @@
       <c r="AB88" s="13">
         <v>0</v>
       </c>
-      <c r="AC88" s="13">
-        <v>0</v>
+      <c r="AC88" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AD88" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AE88" s="13" t="s">
-        <v>58</v>
+      <c r="AE88" s="13">
+        <v>0</v>
       </c>
       <c r="AF88" s="13">
         <v>0</v>
       </c>
       <c r="AG88" s="13">
-        <v>0</v>
+        <v>8213</v>
       </c>
       <c r="AH88" s="13">
-        <v>8213</v>
+        <v>0</v>
       </c>
       <c r="AI88" s="13">
         <v>0</v>
@@ -12240,58 +12240,58 @@
         <v>0</v>
       </c>
       <c r="AK88" s="13">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AL88" s="13">
-        <v>13</v>
+        <v>238</v>
       </c>
       <c r="AM88" s="13">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="AN88" s="13">
         <v>0</v>
       </c>
       <c r="AO88" s="13">
-        <v>0</v>
+        <v>1203</v>
       </c>
       <c r="AP88" s="13">
-        <v>1203</v>
+        <v>1378</v>
       </c>
       <c r="AQ88" s="13">
-        <v>1378</v>
+        <v>931</v>
       </c>
       <c r="AR88" s="13">
-        <v>931</v>
+        <v>1329</v>
       </c>
       <c r="AS88" s="13">
-        <v>1329</v>
+        <v>1839</v>
       </c>
       <c r="AT88" s="13">
-        <v>1839</v>
+        <v>652</v>
       </c>
       <c r="AU88" s="13">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="AV88" s="13">
-        <v>653</v>
+        <v>717</v>
       </c>
       <c r="AW88" s="13">
-        <v>717</v>
+        <v>777</v>
       </c>
       <c r="AX88" s="13">
-        <v>777</v>
+        <v>630</v>
       </c>
       <c r="AY88" s="13">
-        <v>630</v>
+        <v>929</v>
       </c>
       <c r="AZ88" s="13">
-        <v>929</v>
+        <v>1499</v>
       </c>
       <c r="BA88" s="13">
-        <v>1499</v>
+        <v>2048</v>
       </c>
       <c r="BB88" s="13">
-        <v>2048</v>
+        <v>1528</v>
       </c>
     </row>
     <row r="89" spans="2:54" x14ac:dyDescent="0.3">
@@ -12347,8 +12347,8 @@
       <c r="S89" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T89" s="11" t="s">
-        <v>58</v>
+      <c r="T89" s="11">
+        <v>0</v>
       </c>
       <c r="U89" s="11">
         <v>0</v>
@@ -12374,8 +12374,8 @@
       <c r="AB89" s="11">
         <v>0</v>
       </c>
-      <c r="AC89" s="11">
-        <v>0</v>
+      <c r="AC89" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AD89" s="11" t="s">
         <v>58</v>
@@ -12506,8 +12506,8 @@
       <c r="S90" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T90" s="13" t="s">
-        <v>58</v>
+      <c r="T90" s="13">
+        <v>0</v>
       </c>
       <c r="U90" s="13">
         <v>0</v>
@@ -12573,28 +12573,28 @@
         <v>0</v>
       </c>
       <c r="AP90" s="13">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="AQ90" s="13">
-        <v>619</v>
+        <v>0</v>
       </c>
       <c r="AR90" s="13">
-        <v>0</v>
+        <v>217</v>
       </c>
       <c r="AS90" s="13">
-        <v>217</v>
+        <v>294</v>
       </c>
       <c r="AT90" s="13">
-        <v>294</v>
+        <v>737</v>
       </c>
       <c r="AU90" s="13">
-        <v>737</v>
+        <v>1347</v>
       </c>
       <c r="AV90" s="13">
-        <v>1347</v>
+        <v>1542</v>
       </c>
       <c r="AW90" s="13">
-        <v>1542</v>
+        <v>0</v>
       </c>
       <c r="AX90" s="13">
         <v>0</v>
@@ -12608,8 +12608,8 @@
       <c r="BA90" s="13">
         <v>0</v>
       </c>
-      <c r="BB90" s="13">
-        <v>0</v>
+      <c r="BB90" s="13" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="2:54" x14ac:dyDescent="0.3">
@@ -12664,109 +12664,109 @@
         <v>0</v>
       </c>
       <c r="T91" s="15">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="U91" s="15">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="V91" s="15">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="W91" s="15">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="X91" s="15">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="Y91" s="15">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="Z91" s="15">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AA91" s="15">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AB91" s="15">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AC91" s="15">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AD91" s="15">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AE91" s="15">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AF91" s="15">
-        <v>520258</v>
+        <v>414861</v>
       </c>
       <c r="AG91" s="15">
-        <v>414861</v>
+        <v>452566</v>
       </c>
       <c r="AH91" s="15">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AI91" s="15">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AJ91" s="15">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AK91" s="15">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AL91" s="15">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AM91" s="15">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AN91" s="15">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AO91" s="15">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AP91" s="15">
-        <v>791261</v>
+        <v>1157827</v>
       </c>
       <c r="AQ91" s="15">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AR91" s="15">
-        <v>990410</v>
+        <v>1023456</v>
       </c>
       <c r="AS91" s="15">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AT91" s="15">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AU91" s="15">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="AV91" s="15">
-        <v>1480313</v>
+        <v>1429162</v>
       </c>
       <c r="AW91" s="15">
-        <v>1429162</v>
+        <v>1434824</v>
       </c>
       <c r="AX91" s="15">
-        <v>1434824</v>
+        <v>1278112</v>
       </c>
       <c r="AY91" s="15">
-        <v>1278112</v>
+        <v>1129546</v>
       </c>
       <c r="AZ91" s="15">
-        <v>1129546</v>
+        <v>1661553</v>
       </c>
       <c r="BA91" s="15">
-        <v>1661553</v>
+        <v>1460828</v>
       </c>
       <c r="BB91" s="15">
-        <v>1460828</v>
+        <v>1799015</v>
       </c>
     </row>
     <row r="92" spans="2:54" x14ac:dyDescent="0.3">
@@ -12948,8 +12948,8 @@
       <c r="AP93" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ93" s="11" t="s">
-        <v>58</v>
+      <c r="AQ93" s="11">
+        <v>0</v>
       </c>
       <c r="AR93" s="11">
         <v>0</v>
@@ -13107,8 +13107,8 @@
       <c r="AP94" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ94" s="13" t="s">
-        <v>58</v>
+      <c r="AQ94" s="13">
+        <v>0</v>
       </c>
       <c r="AR94" s="13">
         <v>0</v>
@@ -13123,10 +13123,10 @@
         <v>0</v>
       </c>
       <c r="AV94" s="13">
-        <v>0</v>
+        <v>4158</v>
       </c>
       <c r="AW94" s="13">
-        <v>4158</v>
+        <v>0</v>
       </c>
       <c r="AX94" s="13">
         <v>0</v>
@@ -13266,8 +13266,8 @@
       <c r="AP95" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AQ95" s="11" t="s">
-        <v>58</v>
+      <c r="AQ95" s="11">
+        <v>0</v>
       </c>
       <c r="AR95" s="11">
         <v>0</v>
@@ -13425,8 +13425,8 @@
       <c r="AP96" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ96" s="13" t="s">
-        <v>58</v>
+      <c r="AQ96" s="13">
+        <v>0</v>
       </c>
       <c r="AR96" s="13">
         <v>0</v>
@@ -13441,10 +13441,10 @@
         <v>0</v>
       </c>
       <c r="AV96" s="13">
-        <v>0</v>
+        <v>83241</v>
       </c>
       <c r="AW96" s="13">
-        <v>83241</v>
+        <v>0</v>
       </c>
       <c r="AX96" s="13">
         <v>0</v>
@@ -13551,11 +13551,11 @@
       <c r="AE97" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF97" s="11" t="s">
-        <v>58</v>
+      <c r="AF97" s="11">
+        <v>29000</v>
       </c>
       <c r="AG97" s="11">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AH97" s="11">
         <v>0</v>
@@ -13578,8 +13578,8 @@
       <c r="AN97" s="11">
         <v>0</v>
       </c>
-      <c r="AO97" s="11">
-        <v>0</v>
+      <c r="AO97" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP97" s="11" t="s">
         <v>58</v>
@@ -13743,8 +13743,8 @@
       <c r="AP98" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AQ98" s="13" t="s">
-        <v>58</v>
+      <c r="AQ98" s="13">
+        <v>0</v>
       </c>
       <c r="AR98" s="13">
         <v>0</v>
@@ -13759,10 +13759,10 @@
         <v>0</v>
       </c>
       <c r="AV98" s="13">
-        <v>0</v>
+        <v>20550</v>
       </c>
       <c r="AW98" s="13">
-        <v>20550</v>
+        <v>0</v>
       </c>
       <c r="AX98" s="13">
         <v>0</v>
@@ -13868,10 +13868,10 @@
         <v>0</v>
       </c>
       <c r="AF99" s="15">
-        <v>0</v>
+        <v>29000</v>
       </c>
       <c r="AG99" s="15">
-        <v>29000</v>
+        <v>0</v>
       </c>
       <c r="AH99" s="15">
         <v>0</v>
@@ -13916,10 +13916,10 @@
         <v>0</v>
       </c>
       <c r="AV99" s="15">
-        <v>0</v>
+        <v>107949</v>
       </c>
       <c r="AW99" s="15">
-        <v>107949</v>
+        <v>0</v>
       </c>
       <c r="AX99" s="15">
         <v>0</v>
@@ -14047,8 +14047,8 @@
       <c r="S101" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T101" s="15" t="s">
-        <v>58</v>
+      <c r="T101" s="15">
+        <v>0</v>
       </c>
       <c r="U101" s="15">
         <v>0</v>
@@ -14263,8 +14263,8 @@
       <c r="S103" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="T103" s="15" t="s">
-        <v>58</v>
+      <c r="T103" s="15">
+        <v>0</v>
       </c>
       <c r="U103" s="15">
         <v>0</v>
@@ -14479,8 +14479,8 @@
       <c r="S105" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T105" s="11" t="s">
-        <v>58</v>
+      <c r="T105" s="11">
+        <v>0</v>
       </c>
       <c r="U105" s="11">
         <v>0</v>
@@ -14637,109 +14637,109 @@
         <v>0</v>
       </c>
       <c r="T106" s="19">
-        <v>0</v>
+        <v>258978</v>
       </c>
       <c r="U106" s="19">
-        <v>258978</v>
+        <v>411326</v>
       </c>
       <c r="V106" s="19">
-        <v>411326</v>
+        <v>395389</v>
       </c>
       <c r="W106" s="19">
-        <v>395389</v>
+        <v>444046</v>
       </c>
       <c r="X106" s="19">
-        <v>444046</v>
+        <v>345933</v>
       </c>
       <c r="Y106" s="19">
-        <v>345933</v>
+        <v>395620</v>
       </c>
       <c r="Z106" s="19">
-        <v>395620</v>
+        <v>504524</v>
       </c>
       <c r="AA106" s="19">
-        <v>504524</v>
+        <v>404258</v>
       </c>
       <c r="AB106" s="19">
-        <v>404258</v>
+        <v>499739</v>
       </c>
       <c r="AC106" s="19">
-        <v>499739</v>
+        <v>418500</v>
       </c>
       <c r="AD106" s="19">
-        <v>418500</v>
+        <v>413502</v>
       </c>
       <c r="AE106" s="19">
-        <v>413502</v>
+        <v>520258</v>
       </c>
       <c r="AF106" s="19">
-        <v>520258</v>
+        <v>443861</v>
       </c>
       <c r="AG106" s="19">
-        <v>443861</v>
+        <v>452566</v>
       </c>
       <c r="AH106" s="19">
-        <v>452566</v>
+        <v>721444</v>
       </c>
       <c r="AI106" s="19">
-        <v>721444</v>
+        <v>445445</v>
       </c>
       <c r="AJ106" s="19">
-        <v>445445</v>
+        <v>554428</v>
       </c>
       <c r="AK106" s="19">
-        <v>554428</v>
+        <v>541470</v>
       </c>
       <c r="AL106" s="19">
-        <v>541470</v>
+        <v>432085</v>
       </c>
       <c r="AM106" s="19">
-        <v>432085</v>
+        <v>505620</v>
       </c>
       <c r="AN106" s="19">
-        <v>505620</v>
+        <v>762570</v>
       </c>
       <c r="AO106" s="19">
-        <v>762570</v>
+        <v>791261</v>
       </c>
       <c r="AP106" s="19">
-        <v>791261</v>
+        <v>1157827</v>
       </c>
       <c r="AQ106" s="19">
-        <v>1157827</v>
+        <v>990410</v>
       </c>
       <c r="AR106" s="19">
-        <v>990410</v>
+        <v>1023456</v>
       </c>
       <c r="AS106" s="19">
-        <v>1023456</v>
+        <v>1288753</v>
       </c>
       <c r="AT106" s="19">
-        <v>1288753</v>
+        <v>1303077</v>
       </c>
       <c r="AU106" s="19">
-        <v>1303077</v>
+        <v>1480313</v>
       </c>
       <c r="AV106" s="19">
-        <v>1480313</v>
+        <v>1537111</v>
       </c>
       <c r="AW106" s="19">
-        <v>1537111</v>
+        <v>1434824</v>
       </c>
       <c r="AX106" s="19">
-        <v>1434824</v>
+        <v>1278112</v>
       </c>
       <c r="AY106" s="19">
-        <v>1278112</v>
+        <v>1129546</v>
       </c>
       <c r="AZ106" s="19">
-        <v>1129546</v>
+        <v>1661553</v>
       </c>
       <c r="BA106" s="19">
-        <v>1661553</v>
+        <v>1460828</v>
       </c>
       <c r="BB106" s="19">
-        <v>1460828</v>
+        <v>1799015</v>
       </c>
     </row>
     <row r="107" spans="2:54" x14ac:dyDescent="0.3">
@@ -15229,71 +15229,71 @@
       <c r="S113" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T113" s="11" t="s">
-        <v>58</v>
+      <c r="T113" s="11">
+        <v>70500000</v>
       </c>
       <c r="U113" s="11">
-        <v>70500000</v>
+        <v>76500000</v>
       </c>
       <c r="V113" s="11">
-        <v>76500000</v>
+        <v>83321429</v>
       </c>
       <c r="W113" s="11">
-        <v>83321429</v>
+        <v>98166667</v>
       </c>
       <c r="X113" s="11">
-        <v>98166667</v>
+        <v>124000000</v>
       </c>
       <c r="Y113" s="11">
-        <v>124000000</v>
+        <v>147800000</v>
       </c>
       <c r="Z113" s="11">
+        <v>137461538</v>
+      </c>
+      <c r="AA113" s="11">
         <v>147800000</v>
       </c>
-      <c r="AA113" s="11">
-        <v>137461538</v>
-      </c>
       <c r="AB113" s="11">
-        <v>147800000</v>
+        <v>145300000</v>
       </c>
       <c r="AC113" s="11">
-        <v>145300000</v>
+        <v>143483871</v>
       </c>
       <c r="AD113" s="11">
-        <v>143483871</v>
+        <v>140000000</v>
       </c>
       <c r="AE113" s="11">
-        <v>140000000</v>
+        <v>191200000</v>
       </c>
       <c r="AF113" s="11">
-        <v>191200000</v>
+        <v>178200000</v>
       </c>
       <c r="AG113" s="11">
-        <v>178200000</v>
+        <v>251866667</v>
       </c>
       <c r="AH113" s="11">
-        <v>251866667</v>
+        <v>344000000</v>
       </c>
       <c r="AI113" s="11">
-        <v>344000000</v>
+        <v>248807692</v>
       </c>
       <c r="AJ113" s="11">
-        <v>248807692</v>
+        <v>228156863</v>
       </c>
       <c r="AK113" s="11">
-        <v>228156863</v>
+        <v>294375000</v>
       </c>
       <c r="AL113" s="11">
-        <v>294375000</v>
+        <v>196000000</v>
       </c>
       <c r="AM113" s="11">
-        <v>196000000</v>
+        <v>225000000</v>
       </c>
       <c r="AN113" s="11">
-        <v>225000000</v>
-      </c>
-      <c r="AO113" s="11">
         <v>320000000</v>
+      </c>
+      <c r="AO113" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP113" s="11" t="s">
         <v>58</v>
@@ -15388,110 +15388,110 @@
       <c r="S114" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T114" s="13" t="s">
-        <v>58</v>
+      <c r="T114" s="13">
+        <v>58803853</v>
       </c>
       <c r="U114" s="13">
-        <v>58803853</v>
+        <v>64494141</v>
       </c>
       <c r="V114" s="13">
-        <v>64494141</v>
+        <v>62320652</v>
       </c>
       <c r="W114" s="13">
-        <v>62320652</v>
+        <v>64611588</v>
       </c>
       <c r="X114" s="13">
-        <v>64611588</v>
+        <v>67335559</v>
       </c>
       <c r="Y114" s="13">
-        <v>67335559</v>
+        <v>77567335</v>
       </c>
       <c r="Z114" s="13">
-        <v>77567335</v>
+        <v>78958904</v>
       </c>
       <c r="AA114" s="13">
-        <v>78958904</v>
+        <v>78954248</v>
       </c>
       <c r="AB114" s="13">
-        <v>78954248</v>
+        <v>83257783</v>
       </c>
       <c r="AC114" s="13">
-        <v>83257783</v>
+        <v>82390966</v>
       </c>
       <c r="AD114" s="13">
-        <v>82390966</v>
+        <v>82209150</v>
       </c>
       <c r="AE114" s="13">
-        <v>82209150</v>
+        <v>84673367</v>
       </c>
       <c r="AF114" s="13">
-        <v>84673367</v>
+        <v>86004425</v>
       </c>
       <c r="AG114" s="13">
-        <v>86004425</v>
+        <v>90055344</v>
       </c>
       <c r="AH114" s="13">
-        <v>90055344</v>
+        <v>109681739</v>
       </c>
       <c r="AI114" s="13">
-        <v>109681739</v>
+        <v>142304348</v>
       </c>
       <c r="AJ114" s="13">
-        <v>142304348</v>
+        <v>145415902</v>
       </c>
       <c r="AK114" s="13">
-        <v>145415902</v>
+        <v>138617089</v>
       </c>
       <c r="AL114" s="13">
-        <v>138617089</v>
+        <v>143222561</v>
       </c>
       <c r="AM114" s="13">
-        <v>143222561</v>
+        <v>140730878</v>
       </c>
       <c r="AN114" s="13">
-        <v>140730878</v>
+        <v>145311615</v>
       </c>
       <c r="AO114" s="13">
-        <v>145311615</v>
+        <v>137506518</v>
       </c>
       <c r="AP114" s="13">
-        <v>137506518</v>
+        <v>155806846</v>
       </c>
       <c r="AQ114" s="13">
-        <v>155806846</v>
+        <v>238865639</v>
       </c>
       <c r="AR114" s="13">
-        <v>238865639</v>
+        <v>248226966</v>
       </c>
       <c r="AS114" s="13">
-        <v>248226966</v>
+        <v>227268293</v>
       </c>
       <c r="AT114" s="13">
-        <v>227268293</v>
+        <v>210598608</v>
       </c>
       <c r="AU114" s="13">
-        <v>210598608</v>
+        <v>199742188</v>
       </c>
       <c r="AV114" s="13">
-        <v>199742188</v>
+        <v>198836105</v>
       </c>
       <c r="AW114" s="13">
-        <v>198836105</v>
+        <v>216880223</v>
       </c>
       <c r="AX114" s="13">
-        <v>216880223</v>
+        <v>202027027</v>
       </c>
       <c r="AY114" s="13">
-        <v>202027027</v>
+        <v>198717480</v>
       </c>
       <c r="AZ114" s="13">
-        <v>198717480</v>
+        <v>199742397</v>
       </c>
       <c r="BA114" s="13">
-        <v>199742397</v>
+        <v>199201022</v>
       </c>
       <c r="BB114" s="13">
-        <v>199201022</v>
+        <v>204074194</v>
       </c>
     </row>
     <row r="115" spans="2:54" x14ac:dyDescent="0.3">
@@ -15547,110 +15547,110 @@
       <c r="S115" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T115" s="11" t="s">
-        <v>58</v>
+      <c r="T115" s="11">
+        <v>27334337</v>
       </c>
       <c r="U115" s="11">
-        <v>27334337</v>
+        <v>28305699</v>
       </c>
       <c r="V115" s="11">
-        <v>28305699</v>
+        <v>27524496</v>
       </c>
       <c r="W115" s="11">
-        <v>27524496</v>
+        <v>26841924</v>
       </c>
       <c r="X115" s="11">
-        <v>26841924</v>
+        <v>28133721</v>
       </c>
       <c r="Y115" s="11">
-        <v>28133721</v>
+        <v>34254125</v>
       </c>
       <c r="Z115" s="11">
-        <v>34254125</v>
+        <v>32806647</v>
       </c>
       <c r="AA115" s="11">
-        <v>32806647</v>
+        <v>31590686</v>
       </c>
       <c r="AB115" s="11">
-        <v>31590686</v>
+        <v>35476923</v>
       </c>
       <c r="AC115" s="11">
-        <v>35476923</v>
+        <v>34916928</v>
       </c>
       <c r="AD115" s="11">
-        <v>34916928</v>
+        <v>36220386</v>
       </c>
       <c r="AE115" s="11">
-        <v>36220386</v>
+        <v>35481962</v>
       </c>
       <c r="AF115" s="11">
-        <v>35481962</v>
+        <v>37419549</v>
       </c>
       <c r="AG115" s="11">
-        <v>37419549</v>
+        <v>37787500</v>
       </c>
       <c r="AH115" s="11">
-        <v>37787500</v>
+        <v>44878229</v>
       </c>
       <c r="AI115" s="11">
-        <v>44878229</v>
+        <v>46798365</v>
       </c>
       <c r="AJ115" s="11">
-        <v>46798365</v>
+        <v>46603989</v>
       </c>
       <c r="AK115" s="11">
-        <v>46603989</v>
+        <v>45920973</v>
       </c>
       <c r="AL115" s="11">
-        <v>45920973</v>
+        <v>46385787</v>
       </c>
       <c r="AM115" s="11">
-        <v>46385787</v>
+        <v>46456359</v>
       </c>
       <c r="AN115" s="11">
-        <v>46456359</v>
+        <v>46274262</v>
       </c>
       <c r="AO115" s="11">
-        <v>46274262</v>
+        <v>47706150</v>
       </c>
       <c r="AP115" s="11">
-        <v>47706150</v>
+        <v>52497382</v>
       </c>
       <c r="AQ115" s="11">
-        <v>52497382</v>
+        <v>84423077</v>
       </c>
       <c r="AR115" s="11">
-        <v>84423077</v>
+        <v>81439122</v>
       </c>
       <c r="AS115" s="11">
-        <v>81439122</v>
+        <v>81073826</v>
       </c>
       <c r="AT115" s="11">
-        <v>81073826</v>
+        <v>81990950</v>
       </c>
       <c r="AU115" s="11">
-        <v>81990950</v>
+        <v>81255521</v>
       </c>
       <c r="AV115" s="11">
-        <v>81255521</v>
+        <v>77288256</v>
       </c>
       <c r="AW115" s="11">
-        <v>77288256</v>
+        <v>78324713</v>
       </c>
       <c r="AX115" s="11">
-        <v>78324713</v>
+        <v>82682635</v>
       </c>
       <c r="AY115" s="11">
-        <v>82682635</v>
+        <v>74740260</v>
       </c>
       <c r="AZ115" s="11">
-        <v>74740260</v>
+        <v>74408451</v>
       </c>
       <c r="BA115" s="11">
-        <v>74408451</v>
+        <v>74840090</v>
       </c>
       <c r="BB115" s="11">
-        <v>74840090</v>
+        <v>75526132</v>
       </c>
     </row>
     <row r="116" spans="2:54" x14ac:dyDescent="0.3">
@@ -15709,68 +15709,68 @@
       <c r="T116" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="U116" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="V116" s="13">
+      <c r="U116" s="13">
         <v>109000000</v>
       </c>
-      <c r="W116" s="13" t="s">
-        <v>58</v>
+      <c r="V116" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="W116" s="13">
+        <v>216000000</v>
       </c>
       <c r="X116" s="13">
+        <v>168000000</v>
+      </c>
+      <c r="Y116" s="13">
+        <v>215500000</v>
+      </c>
+      <c r="Z116" s="13">
+        <v>239000000</v>
+      </c>
+      <c r="AA116" s="13">
+        <v>201000000</v>
+      </c>
+      <c r="AB116" s="13">
+        <v>168333333</v>
+      </c>
+      <c r="AC116" s="13">
+        <v>240333333</v>
+      </c>
+      <c r="AD116" s="13">
+        <v>189000000</v>
+      </c>
+      <c r="AE116" s="13">
+        <v>178333333</v>
+      </c>
+      <c r="AF116" s="13">
+        <v>202000000</v>
+      </c>
+      <c r="AG116" s="13">
+        <v>265000000</v>
+      </c>
+      <c r="AH116" s="13">
         <v>216000000</v>
       </c>
-      <c r="Y116" s="13">
-        <v>168000000</v>
-      </c>
-      <c r="Z116" s="13">
-        <v>215500000</v>
-      </c>
-      <c r="AA116" s="13">
-        <v>239000000</v>
-      </c>
-      <c r="AB116" s="13">
-        <v>201000000</v>
-      </c>
-      <c r="AC116" s="13">
-        <v>168333333</v>
-      </c>
-      <c r="AD116" s="13">
-        <v>240333333</v>
-      </c>
-      <c r="AE116" s="13">
-        <v>189000000</v>
-      </c>
-      <c r="AF116" s="13">
-        <v>178333333</v>
-      </c>
-      <c r="AG116" s="13">
-        <v>202000000</v>
-      </c>
-      <c r="AH116" s="13">
-        <v>265000000</v>
-      </c>
       <c r="AI116" s="13">
-        <v>216000000</v>
+        <v>219750000</v>
       </c>
       <c r="AJ116" s="13">
-        <v>219750000</v>
+        <v>243000000</v>
       </c>
       <c r="AK116" s="13">
-        <v>243000000</v>
+        <v>159000000</v>
       </c>
       <c r="AL116" s="13">
-        <v>159000000</v>
+        <v>226000000</v>
       </c>
       <c r="AM116" s="13">
-        <v>226000000</v>
+        <v>234333333</v>
       </c>
       <c r="AN116" s="13">
-        <v>234333333</v>
-      </c>
-      <c r="AO116" s="13">
         <v>274666667</v>
+      </c>
+      <c r="AO116" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP116" s="13" t="s">
         <v>58</v>
@@ -15865,110 +15865,110 @@
       <c r="S117" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T117" s="11" t="s">
-        <v>58</v>
+      <c r="T117" s="11">
+        <v>190906977</v>
       </c>
       <c r="U117" s="11">
-        <v>190906977</v>
+        <v>189056122</v>
       </c>
       <c r="V117" s="11">
-        <v>189056122</v>
+        <v>221522293</v>
       </c>
       <c r="W117" s="11">
-        <v>221522293</v>
+        <v>209200000</v>
       </c>
       <c r="X117" s="11">
-        <v>209200000</v>
+        <v>206339506</v>
       </c>
       <c r="Y117" s="11">
-        <v>206339506</v>
+        <v>257308219</v>
       </c>
       <c r="Z117" s="11">
-        <v>257308219</v>
+        <v>286521212</v>
       </c>
       <c r="AA117" s="11">
-        <v>286521212</v>
+        <v>276613139</v>
       </c>
       <c r="AB117" s="11">
-        <v>276613139</v>
+        <v>300954545</v>
       </c>
       <c r="AC117" s="11">
-        <v>300954545</v>
+        <v>298742515</v>
       </c>
       <c r="AD117" s="11">
-        <v>298742515</v>
+        <v>304587500</v>
       </c>
       <c r="AE117" s="11">
-        <v>304587500</v>
+        <v>313867580</v>
       </c>
       <c r="AF117" s="11">
-        <v>313867580</v>
+        <v>320385185</v>
       </c>
       <c r="AG117" s="11">
-        <v>320385185</v>
+        <v>325523256</v>
       </c>
       <c r="AH117" s="11">
-        <v>325523256</v>
+        <v>355349206</v>
       </c>
       <c r="AI117" s="11">
-        <v>355349206</v>
+        <v>419245033</v>
       </c>
       <c r="AJ117" s="11">
-        <v>419245033</v>
+        <v>435451429</v>
       </c>
       <c r="AK117" s="11">
-        <v>435451429</v>
+        <v>458837349</v>
       </c>
       <c r="AL117" s="11">
-        <v>458837349</v>
+        <v>496493056</v>
       </c>
       <c r="AM117" s="11">
-        <v>496493056</v>
+        <v>403396825</v>
       </c>
       <c r="AN117" s="11">
-        <v>403396825</v>
+        <v>355975490</v>
       </c>
       <c r="AO117" s="11">
-        <v>355975490</v>
+        <v>444693750</v>
       </c>
       <c r="AP117" s="11">
-        <v>444693750</v>
+        <v>463049430</v>
       </c>
       <c r="AQ117" s="11">
-        <v>463049430</v>
+        <v>651234742</v>
       </c>
       <c r="AR117" s="11">
-        <v>651234742</v>
+        <v>726676259</v>
       </c>
       <c r="AS117" s="11">
-        <v>726676259</v>
+        <v>727677885</v>
       </c>
       <c r="AT117" s="11">
-        <v>727677885</v>
+        <v>784781915</v>
       </c>
       <c r="AU117" s="11">
-        <v>784781915</v>
+        <v>738099567</v>
       </c>
       <c r="AV117" s="11">
-        <v>738099567</v>
+        <v>763246479</v>
       </c>
       <c r="AW117" s="11">
-        <v>763246479</v>
+        <v>746267361</v>
       </c>
       <c r="AX117" s="11">
-        <v>746267361</v>
+        <v>745878924</v>
       </c>
       <c r="AY117" s="11">
-        <v>745878924</v>
+        <v>762507246</v>
       </c>
       <c r="AZ117" s="11">
-        <v>762507246</v>
+        <v>751626911</v>
       </c>
       <c r="BA117" s="11">
-        <v>751626911</v>
+        <v>704110410</v>
       </c>
       <c r="BB117" s="11">
-        <v>704110410</v>
+        <v>708068345</v>
       </c>
     </row>
     <row r="118" spans="2:54" x14ac:dyDescent="0.3">
@@ -16024,110 +16024,110 @@
       <c r="S118" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T118" s="13" t="s">
-        <v>58</v>
+      <c r="T118" s="13">
+        <v>184168269</v>
       </c>
       <c r="U118" s="13">
-        <v>184168269</v>
+        <v>237158228</v>
       </c>
       <c r="V118" s="13">
-        <v>237158228</v>
+        <v>296096257</v>
       </c>
       <c r="W118" s="13">
-        <v>296096257</v>
+        <v>285212560</v>
       </c>
       <c r="X118" s="13">
-        <v>285212560</v>
+        <v>257923077</v>
       </c>
       <c r="Y118" s="13">
-        <v>257923077</v>
+        <v>358000000</v>
       </c>
       <c r="Z118" s="13">
-        <v>358000000</v>
+        <v>411535714</v>
       </c>
       <c r="AA118" s="13">
-        <v>411535714</v>
+        <v>241000000</v>
       </c>
       <c r="AB118" s="13">
-        <v>241000000</v>
+        <v>215075472</v>
       </c>
       <c r="AC118" s="13">
-        <v>215075472</v>
+        <v>261738462</v>
       </c>
       <c r="AD118" s="13">
-        <v>261738462</v>
+        <v>447827586</v>
       </c>
       <c r="AE118" s="13">
-        <v>447827586</v>
+        <v>272572347</v>
       </c>
       <c r="AF118" s="13">
-        <v>272572347</v>
+        <v>438303922</v>
       </c>
       <c r="AG118" s="13">
-        <v>438303922</v>
+        <v>323404494</v>
       </c>
       <c r="AH118" s="13">
-        <v>323404494</v>
+        <v>311403361</v>
       </c>
       <c r="AI118" s="13">
-        <v>311403361</v>
+        <v>426264151</v>
       </c>
       <c r="AJ118" s="13">
-        <v>426264151</v>
+        <v>310246212</v>
       </c>
       <c r="AK118" s="13">
-        <v>310246212</v>
+        <v>205029197</v>
       </c>
       <c r="AL118" s="13">
-        <v>205029197</v>
+        <v>382632184</v>
       </c>
       <c r="AM118" s="13">
-        <v>382632184</v>
+        <v>306678571</v>
       </c>
       <c r="AN118" s="13">
-        <v>306678571</v>
+        <v>259174393</v>
       </c>
       <c r="AO118" s="13">
-        <v>259174393</v>
+        <v>509444444</v>
       </c>
       <c r="AP118" s="13">
-        <v>509444444</v>
+        <v>313539548</v>
       </c>
       <c r="AQ118" s="13">
-        <v>313539548</v>
+        <v>384946860</v>
       </c>
       <c r="AR118" s="13">
-        <v>384946860</v>
+        <v>671273973</v>
       </c>
       <c r="AS118" s="13">
-        <v>671273973</v>
+        <v>588900000</v>
       </c>
       <c r="AT118" s="13">
-        <v>588900000</v>
+        <v>872545455</v>
       </c>
       <c r="AU118" s="13">
-        <v>872545455</v>
+        <v>574175000</v>
       </c>
       <c r="AV118" s="13">
-        <v>574175000</v>
+        <v>541585366</v>
       </c>
       <c r="AW118" s="13">
-        <v>541585366</v>
+        <v>463839779</v>
       </c>
       <c r="AX118" s="13">
-        <v>463839779</v>
+        <v>449298387</v>
       </c>
       <c r="AY118" s="13">
-        <v>449298387</v>
+        <v>404949555</v>
       </c>
       <c r="AZ118" s="13">
-        <v>404949555</v>
+        <v>533103896</v>
       </c>
       <c r="BA118" s="13">
-        <v>533103896</v>
+        <v>471687023</v>
       </c>
       <c r="BB118" s="13">
-        <v>471687023</v>
+        <v>647219048</v>
       </c>
     </row>
     <row r="119" spans="2:54" x14ac:dyDescent="0.3">
@@ -16183,110 +16183,110 @@
       <c r="S119" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T119" s="11" t="s">
-        <v>58</v>
+      <c r="T119" s="11">
+        <v>42094206</v>
       </c>
       <c r="U119" s="11">
-        <v>42094206</v>
+        <v>45188928</v>
       </c>
       <c r="V119" s="11">
-        <v>45188928</v>
+        <v>50180985</v>
       </c>
       <c r="W119" s="11">
-        <v>50180985</v>
+        <v>51783765</v>
       </c>
       <c r="X119" s="11">
-        <v>51783765</v>
+        <v>48761592</v>
       </c>
       <c r="Y119" s="11">
-        <v>48761592</v>
+        <v>60969526</v>
       </c>
       <c r="Z119" s="11">
-        <v>60969526</v>
+        <v>64771501</v>
       </c>
       <c r="AA119" s="11">
-        <v>64771501</v>
+        <v>54640903</v>
       </c>
       <c r="AB119" s="11">
-        <v>54640903</v>
+        <v>65961141</v>
       </c>
       <c r="AC119" s="11">
-        <v>65961141</v>
+        <v>57108512</v>
       </c>
       <c r="AD119" s="11">
-        <v>57108512</v>
+        <v>58823120</v>
       </c>
       <c r="AE119" s="11">
-        <v>58823120</v>
+        <v>63813546</v>
       </c>
       <c r="AF119" s="11">
-        <v>63813546</v>
+        <v>60489176</v>
       </c>
       <c r="AG119" s="11">
-        <v>60489176</v>
+        <v>63104292</v>
       </c>
       <c r="AH119" s="11">
-        <v>63104292</v>
+        <v>82528181</v>
       </c>
       <c r="AI119" s="11">
-        <v>82528181</v>
+        <v>92302158</v>
       </c>
       <c r="AJ119" s="11">
-        <v>92302158</v>
+        <v>91825798</v>
       </c>
       <c r="AK119" s="11">
-        <v>91825798</v>
+        <v>88535699</v>
       </c>
       <c r="AL119" s="11">
-        <v>88535699</v>
+        <v>85948938</v>
       </c>
       <c r="AM119" s="11">
-        <v>85948938</v>
+        <v>89051046</v>
       </c>
       <c r="AN119" s="11">
-        <v>89051046</v>
+        <v>91301376</v>
       </c>
       <c r="AO119" s="11">
-        <v>91301376</v>
+        <v>90356863</v>
       </c>
       <c r="AP119" s="11">
-        <v>90356863</v>
+        <v>109131623</v>
       </c>
       <c r="AQ119" s="11">
-        <v>109131623</v>
+        <v>162234343</v>
       </c>
       <c r="AR119" s="11">
-        <v>162234343</v>
+        <v>162447647</v>
       </c>
       <c r="AS119" s="11">
-        <v>162447647</v>
+        <v>166213379</v>
       </c>
       <c r="AT119" s="11">
-        <v>166213379</v>
+        <v>165222404</v>
       </c>
       <c r="AU119" s="11">
-        <v>165222404</v>
+        <v>162451702</v>
       </c>
       <c r="AV119" s="11">
-        <v>162451702</v>
+        <v>163961049</v>
       </c>
       <c r="AW119" s="11">
-        <v>163961049</v>
+        <v>168610103</v>
       </c>
       <c r="AX119" s="11">
-        <v>168610103</v>
+        <v>164217131</v>
       </c>
       <c r="AY119" s="11">
-        <v>164217131</v>
+        <v>164470050</v>
       </c>
       <c r="AZ119" s="11">
-        <v>164470050</v>
+        <v>159084372</v>
       </c>
       <c r="BA119" s="11">
-        <v>159084372</v>
+        <v>162752896</v>
       </c>
       <c r="BB119" s="11">
-        <v>162752896</v>
+        <v>170975793</v>
       </c>
     </row>
     <row r="120" spans="2:54" x14ac:dyDescent="0.3">
@@ -16405,47 +16405,47 @@
       <c r="AN120" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO120" s="13" t="s">
-        <v>58</v>
+      <c r="AO120" s="13">
+        <v>557151565</v>
       </c>
       <c r="AP120" s="13">
-        <v>557151565</v>
+        <v>341968992</v>
       </c>
       <c r="AQ120" s="13">
-        <v>341968992</v>
+        <v>780946429</v>
       </c>
       <c r="AR120" s="13">
-        <v>780946429</v>
+        <v>915930736</v>
       </c>
       <c r="AS120" s="13">
-        <v>915930736</v>
+        <v>1489403846</v>
       </c>
       <c r="AT120" s="13">
-        <v>1489403846</v>
+        <v>1048691358</v>
       </c>
       <c r="AU120" s="13">
-        <v>1048691358</v>
+        <v>764303207</v>
       </c>
       <c r="AV120" s="13">
-        <v>764303207</v>
+        <v>794296804</v>
       </c>
       <c r="AW120" s="13">
-        <v>794296804</v>
+        <v>877397129</v>
       </c>
       <c r="AX120" s="13">
-        <v>877397129</v>
+        <v>924220833</v>
       </c>
       <c r="AY120" s="13">
-        <v>924220833</v>
+        <v>1037928058</v>
       </c>
       <c r="AZ120" s="13">
-        <v>1037928058</v>
+        <v>1246552980</v>
       </c>
       <c r="BA120" s="13">
-        <v>1246552980</v>
+        <v>941693333</v>
       </c>
       <c r="BB120" s="13">
-        <v>941693333</v>
+        <v>992167702</v>
       </c>
     </row>
     <row r="121" spans="2:54" x14ac:dyDescent="0.3">
@@ -16501,71 +16501,71 @@
       <c r="S121" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T121" s="11" t="s">
-        <v>58</v>
+      <c r="T121" s="11">
+        <v>233559322</v>
       </c>
       <c r="U121" s="11">
-        <v>233559322</v>
+        <v>293781667</v>
       </c>
       <c r="V121" s="11">
-        <v>293781667</v>
+        <v>236789809</v>
       </c>
       <c r="W121" s="11">
-        <v>236789809</v>
+        <v>277950685</v>
       </c>
       <c r="X121" s="11">
-        <v>277950685</v>
+        <v>276136364</v>
       </c>
       <c r="Y121" s="11">
-        <v>276136364</v>
+        <v>436000000</v>
       </c>
       <c r="Z121" s="11">
-        <v>436000000</v>
+        <v>351027174</v>
       </c>
       <c r="AA121" s="11">
-        <v>351027174</v>
+        <v>331454545</v>
       </c>
       <c r="AB121" s="11">
-        <v>331454545</v>
+        <v>337797297</v>
       </c>
       <c r="AC121" s="11">
-        <v>337797297</v>
+        <v>362049342</v>
       </c>
       <c r="AD121" s="11">
-        <v>362049342</v>
+        <v>370086379</v>
       </c>
       <c r="AE121" s="11">
-        <v>370086379</v>
+        <v>397475248</v>
       </c>
       <c r="AF121" s="11">
-        <v>397475248</v>
+        <v>390500000</v>
       </c>
       <c r="AG121" s="11">
-        <v>390500000</v>
+        <v>530286486</v>
       </c>
       <c r="AH121" s="11">
-        <v>530286486</v>
+        <v>670565982</v>
       </c>
       <c r="AI121" s="11">
-        <v>670565982</v>
+        <v>626250000</v>
       </c>
       <c r="AJ121" s="11">
-        <v>626250000</v>
+        <v>552000000</v>
       </c>
       <c r="AK121" s="11">
-        <v>552000000</v>
+        <v>594915254</v>
       </c>
       <c r="AL121" s="11">
-        <v>594915254</v>
+        <v>594000000</v>
       </c>
       <c r="AM121" s="11">
-        <v>594000000</v>
+        <v>540000000</v>
       </c>
       <c r="AN121" s="11">
-        <v>540000000</v>
-      </c>
-      <c r="AO121" s="11">
         <v>540594059</v>
+      </c>
+      <c r="AO121" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AP121" s="11" t="s">
         <v>58</v>
@@ -16660,71 +16660,71 @@
       <c r="S122" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="T122" s="13" t="s">
-        <v>58</v>
+      <c r="T122" s="13">
+        <v>558708333</v>
       </c>
       <c r="U122" s="13">
-        <v>558708333</v>
+        <v>463500000</v>
       </c>
       <c r="V122" s="13">
-        <v>463500000</v>
+        <v>550842105</v>
       </c>
       <c r="W122" s="13">
-        <v>550842105</v>
+        <v>613800000</v>
       </c>
       <c r="X122" s="13">
-        <v>613800000</v>
+        <v>664800000</v>
       </c>
       <c r="Y122" s="13">
-        <v>664800000</v>
+        <v>892894737</v>
       </c>
       <c r="Z122" s="13">
-        <v>892894737</v>
+        <v>694000000</v>
       </c>
       <c r="AA122" s="13">
-        <v>694000000</v>
+        <v>552000000</v>
       </c>
       <c r="AB122" s="13">
-        <v>552000000</v>
+        <v>1203000000</v>
       </c>
       <c r="AC122" s="13">
-        <v>1203000000</v>
+        <v>973200000</v>
       </c>
       <c r="AD122" s="13">
-        <v>973200000</v>
+        <v>1029571429</v>
       </c>
       <c r="AE122" s="13">
-        <v>1029571429</v>
+        <v>945416667</v>
       </c>
       <c r="AF122" s="13">
-        <v>945416667</v>
+        <v>1163285714</v>
       </c>
       <c r="AG122" s="13">
-        <v>1163285714</v>
+        <v>1440400000</v>
       </c>
       <c r="AH122" s="13">
-        <v>1440400000</v>
+        <v>1564000000</v>
       </c>
       <c r="AI122" s="13">
-        <v>1564000000</v>
+        <v>1468250000</v>
       </c>
       <c r="AJ122" s="13">
-        <v>1468250000</v>
+        <v>1633000000</v>
       </c>
       <c r="AK122" s="13">
-        <v>1633000000</v>
+        <v>1462200000</v>
       </c>
       <c r="AL122" s="13">
-        <v>1462200000</v>
+        <v>1809000000</v>
       </c>
       <c r="AM122" s="13">
-        <v>1809000000</v>
+        <v>1775750000</v>
       </c>
       <c r="AN122" s="13">
-        <v>1775750000</v>
-      </c>
-      <c r="AO122" s="13">
         <v>1648714286</v>
+      </c>
+      <c r="AO122" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AP122" s="13" t="s">
         <v>58</v>
@@ -16819,110 +16819,110 @@
       <c r="S123" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="T123" s="11" t="s">
-        <v>58</v>
+      <c r="T123" s="11">
+        <v>375300000</v>
       </c>
       <c r="U123" s="11">
-        <v>375300000</v>
+        <v>365764706</v>
       </c>
       <c r="V123" s="11">
-        <v>365764706</v>
+        <v>431878788</v>
       </c>
       <c r="W123" s="11">
-        <v>431878788</v>
+        <v>627841463</v>
       </c>
       <c r="X123" s="11">
-        <v>627841463</v>
+        <v>634322917</v>
       </c>
       <c r="Y123" s="11">
-        <v>634322917</v>
+        <v>750621622</v>
       </c>
       <c r="Z123" s="11">
-        <v>750621622</v>
+        <v>767553191</v>
       </c>
       <c r="AA123" s="11">
-        <v>767553191</v>
+        <v>714308824</v>
       </c>
       <c r="AB123" s="11">
-        <v>714308824</v>
+        <v>735000000</v>
       </c>
       <c r="AC123" s="11">
-        <v>735000000</v>
+        <v>705016949</v>
       </c>
       <c r="AD123" s="11">
-        <v>705016949</v>
+        <v>681204082</v>
       </c>
       <c r="AE123" s="11">
-        <v>681204082</v>
+        <v>679243243</v>
       </c>
       <c r="AF123" s="11">
-        <v>679243243</v>
+        <v>556621795</v>
       </c>
       <c r="AG123" s="11">
-        <v>556621795</v>
+        <v>705234375</v>
       </c>
       <c r="AH123" s="11">
-        <v>705234375</v>
+        <v>772804878</v>
       </c>
       <c r="AI123" s="11">
-        <v>772804878</v>
+        <v>812123457</v>
       </c>
       <c r="AJ123" s="11">
-        <v>812123457</v>
+        <v>888862069</v>
       </c>
       <c r="AK123" s="11">
-        <v>888862069</v>
+        <v>867844595</v>
       </c>
       <c r="AL123" s="11">
-        <v>867844595</v>
+        <v>881192982</v>
       </c>
       <c r="AM123" s="11">
-        <v>881192982</v>
+        <v>891384615</v>
       </c>
       <c r="AN123" s="11">
-        <v>891384615</v>
+        <v>669925926</v>
       </c>
       <c r="AO123" s="11">
-        <v>669925926</v>
+        <v>891141026</v>
       </c>
       <c r="AP123" s="11">
-        <v>891141026</v>
+        <v>779325513</v>
       </c>
       <c r="AQ123" s="11">
-        <v>779325513</v>
+        <v>1419243243</v>
       </c>
       <c r="AR123" s="11">
-        <v>1419243243</v>
+        <v>1669468354</v>
       </c>
       <c r="AS123" s="11">
-        <v>1669468354</v>
+        <v>1369659686</v>
       </c>
       <c r="AT123" s="11">
-        <v>1369659686</v>
+        <v>1405371041</v>
       </c>
       <c r="AU123" s="11">
-        <v>1405371041</v>
+        <v>1350024390</v>
       </c>
       <c r="AV123" s="11">
-        <v>1350024390</v>
+        <v>1372708207</v>
       </c>
       <c r="AW123" s="11">
-        <v>1372708207</v>
+        <v>1484528302</v>
       </c>
       <c r="AX123" s="11">
-        <v>1484528302</v>
+        <v>1429471963</v>
       </c>
       <c r="AY123" s="11">
-        <v>1429471963</v>
+        <v>1601028571</v>
       </c>
       <c r="AZ123" s="11">
-        <v>1601028571</v>
+        <v>1469183099</v>
       </c>
       <c r="BA123" s="11">
-        <v>1469183099</v>
+        <v>1554145078</v>
       </c>
       <c r="BB123" s="11">
-        <v>1554145078</v>
+        <v>1671244681</v>
       </c>
     </row>
     <row r="124" spans="2:54" x14ac:dyDescent="0.3">
@@ -16984,12 +16984,12 @@
       <c r="U124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="V124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="W124" s="13">
+      <c r="V124" s="13">
         <v>136333333</v>
       </c>
+      <c r="W124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="X124" s="13" t="s">
         <v>58</v>
       </c>
@@ -17017,12 +17017,12 @@
       <c r="AF124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AG124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AH124" s="13">
+      <c r="AG124" s="13">
         <v>357086957</v>
       </c>
+      <c r="AH124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AI124" s="13" t="s">
         <v>58</v>
       </c>
@@ -17032,56 +17032,56 @@
       <c r="AK124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AL124" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AM124" s="13">
+      <c r="AL124" s="13">
         <v>238000000</v>
       </c>
+      <c r="AM124" s="13" t="s">
+        <v>58</v>
+      </c>
       <c r="AN124" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AO124" s="13" t="s">
-        <v>58</v>
+      <c r="AO124" s="13">
+        <v>240600000</v>
       </c>
       <c r="AP124" s="13">
-        <v>240600000</v>
+        <v>275600000</v>
       </c>
       <c r="AQ124" s="13">
-        <v>275600000</v>
+        <v>310333333</v>
       </c>
       <c r="AR124" s="13">
-        <v>310333333</v>
+        <v>443000000</v>
       </c>
       <c r="AS124" s="13">
-        <v>443000000</v>
+        <v>459750000</v>
       </c>
       <c r="AT124" s="13">
-        <v>459750000</v>
+        <v>652000000</v>
       </c>
       <c r="AU124" s="13">
-        <v>652000000</v>
+        <v>326500000</v>
       </c>
       <c r="AV124" s="13">
-        <v>326500000</v>
+        <v>358500000</v>
       </c>
       <c r="AW124" s="13">
-        <v>358500000</v>
+        <v>388500000</v>
       </c>
       <c r="AX124" s="13">
-        <v>388500000</v>
+        <v>630000000</v>
       </c>
       <c r="AY124" s="13">
-        <v>630000000</v>
+        <v>464500000</v>
       </c>
       <c r="AZ124" s="13">
-        <v>464500000</v>
+        <v>499666667</v>
       </c>
       <c r="BA124" s="13">
-        <v>499666667</v>
+        <v>409600000</v>
       </c>
       <c r="BB124" s="13">
-        <v>409600000</v>
+        <v>382000000</v>
       </c>
     </row>
     <row r="125" spans="2:54" x14ac:dyDescent="0.3">
@@ -17362,29 +17362,29 @@
       <c r="AO126" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AP126" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AQ126" s="13">
+      <c r="AP126" s="13">
         <v>47615385</v>
       </c>
-      <c r="AR126" s="13" t="s">
-        <v>58</v>
+      <c r="AQ126" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="AR126" s="13">
+        <v>54250000</v>
       </c>
       <c r="AS126" s="13">
-        <v>54250000</v>
+        <v>58800000</v>
       </c>
       <c r="AT126" s="13">
-        <v>58800000</v>
+        <v>52642857</v>
       </c>
       <c r="AU126" s="13">
-        <v>52642857</v>
+        <v>673500000</v>
       </c>
       <c r="AV126" s="13">
-        <v>673500000</v>
-      </c>
-      <c r="AW126" s="13">
         <v>771000000</v>
+      </c>
+      <c r="AW126" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX126" s="13" t="s">
         <v>58</v>
@@ -17755,11 +17755,11 @@
       <c r="AU129" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV129" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW129" s="13">
+      <c r="AV129" s="13">
         <v>831600000</v>
+      </c>
+      <c r="AW129" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX129" s="13" t="s">
         <v>58</v>
@@ -18073,11 +18073,11 @@
       <c r="AU131" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV131" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW131" s="13">
+      <c r="AV131" s="13">
         <v>1189157143</v>
+      </c>
+      <c r="AW131" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX131" s="13" t="s">
         <v>58</v>
@@ -18184,11 +18184,11 @@
       <c r="AE132" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="AF132" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="AG132" s="11">
+      <c r="AF132" s="11">
         <v>580000000</v>
+      </c>
+      <c r="AG132" s="11" t="s">
+        <v>58</v>
       </c>
       <c r="AH132" s="11" t="s">
         <v>58</v>
@@ -18391,11 +18391,11 @@
       <c r="AU133" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="AV133" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="AW133" s="13">
+      <c r="AV133" s="13">
         <v>1370000000</v>
+      </c>
+      <c r="AW133" s="13" t="s">
+        <v>58</v>
       </c>
       <c r="AX133" s="13" t="s">
         <v>58</v>
